--- a/static/data/source/accommodation_and_food_services_state_gdp.xlsx
+++ b/static/data/source/accommodation_and_food_services_state_gdp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aboddupalli\Box\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960E30CB-60FD-4E36-9EFC-6B30B39CA4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29963C45-E596-4F57-9B4F-FDDFDAB302D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="TABLE_1" sheetId="4" r:id="rId1"/>
     <sheet name="TABLE_2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t>Geography</t>
   </si>
@@ -263,6 +263,9 @@
   <si>
     <t>2023 Q2</t>
   </si>
+  <si>
+    <t>2023 Q3</t>
+  </si>
 </sst>
 </file>
 
@@ -340,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -361,6 +364,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,27 +684,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:X56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:X56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
     <col min="2" max="23" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -768,3697 +775,3856 @@
       <c r="W4" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="X4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>857093.32046740537</v>
+        <v>865361.33812063246</v>
       </c>
       <c r="C5" s="6">
-        <v>868745.81507826305</v>
+        <v>877126.23943079112</v>
       </c>
       <c r="D5" s="6">
-        <v>866540.59334410203</v>
+        <v>874899.74485294812</v>
       </c>
       <c r="E5" s="6">
-        <v>880973.21185327927</v>
+        <v>889471.58874373382</v>
       </c>
       <c r="F5" s="6">
-        <v>879351.47291259281</v>
+        <v>887834.20557170128</v>
       </c>
       <c r="G5" s="6">
-        <v>885718.29986491718</v>
+        <v>894262.45061745821</v>
       </c>
       <c r="H5" s="6">
-        <v>898546.34069203958</v>
+        <v>907214.23814226466</v>
       </c>
       <c r="I5" s="6">
-        <v>888841.64893586875</v>
+        <v>897415.92931915016</v>
       </c>
       <c r="J5" s="6">
-        <v>813400.75599134713</v>
+        <v>821247.2899090508</v>
       </c>
       <c r="K5" s="6">
-        <v>476490.92653574026</v>
+        <v>481087.43347159133</v>
       </c>
       <c r="L5" s="6">
-        <v>695648.7798906113</v>
+        <v>702359.41017465654</v>
       </c>
       <c r="M5" s="6">
-        <v>684811.44506475469</v>
+        <v>691417.53215202736</v>
       </c>
       <c r="N5" s="6">
-        <v>717623.77156837727</v>
+        <v>724546.38532584673</v>
       </c>
       <c r="O5" s="6">
-        <v>844376.82782138849</v>
+        <v>852522.17483517213</v>
       </c>
       <c r="P5" s="6">
-        <v>886799.45915870811</v>
+        <v>895354.03939881315</v>
       </c>
       <c r="Q5" s="6">
-        <v>896461.24776829989</v>
+        <v>905109.03120679432</v>
       </c>
       <c r="R5" s="6">
-        <v>872976.06533095276</v>
+        <v>881397.29712291795</v>
       </c>
       <c r="S5" s="6">
-        <v>903660.39576425683</v>
+        <v>912377.62634613388</v>
       </c>
       <c r="T5" s="6">
-        <v>913399.41003769089</v>
+        <v>922210.58878135507</v>
       </c>
       <c r="U5" s="6">
-        <v>898048.66419172299</v>
+        <v>906711.76076672028</v>
       </c>
       <c r="V5" s="6">
-        <v>926716.54673581384</v>
+        <v>935656.19027867925</v>
       </c>
       <c r="W5" s="6">
-        <v>908354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+        <v>917116.50780169875</v>
+      </c>
+      <c r="X5" s="8">
+        <v>921119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="6">
-        <v>8442.9296102268891</v>
+        <v>8524.2964605141406</v>
       </c>
       <c r="C6" s="6">
-        <v>8547.5890395039078</v>
+        <v>8629.9645216886474</v>
       </c>
       <c r="D6" s="6">
-        <v>8531.8987461526576</v>
+        <v>8614.1230166361274</v>
       </c>
       <c r="E6" s="6">
-        <v>8830.445371841548</v>
+        <v>8915.5468188167852</v>
       </c>
       <c r="F6" s="6">
-        <v>8553.7961885219847</v>
+        <v>8636.2314907204145</v>
       </c>
       <c r="G6" s="6">
-        <v>8621.9024069147727</v>
+        <v>8704.9940675967428</v>
       </c>
       <c r="H6" s="6">
-        <v>8751.3042218610681</v>
+        <v>8835.6429636617631</v>
       </c>
       <c r="I6" s="6">
-        <v>8887.0856066314991</v>
+        <v>8972.7329112316547</v>
       </c>
       <c r="J6" s="6">
-        <v>8085.6737000753574</v>
+        <v>8163.5975762413609</v>
       </c>
       <c r="K6" s="6">
-        <v>6198.5279777739443</v>
+        <v>6258.2649081112468</v>
       </c>
       <c r="L6" s="6">
-        <v>8115.4162891203086</v>
+        <v>8193.626802851908</v>
       </c>
       <c r="M6" s="6">
-        <v>7505.5638980942604</v>
+        <v>7577.8970954808519</v>
       </c>
       <c r="N6" s="6">
-        <v>8485.0002869049658</v>
+        <v>8566.7725839516697</v>
       </c>
       <c r="O6" s="6">
-        <v>9173.2179342842355</v>
+        <v>9261.6227753487783</v>
       </c>
       <c r="P6" s="6">
-        <v>9180.2871873325985</v>
+        <v>9268.7601567460679</v>
       </c>
       <c r="Q6" s="6">
-        <v>9178.3043480629367</v>
+        <v>9266.758208305364</v>
       </c>
       <c r="R6" s="6">
-        <v>9338.5694872935583</v>
+        <v>9428.5678670561119</v>
       </c>
       <c r="S6" s="6">
-        <v>9353.8287286296636</v>
+        <v>9443.9741659258725</v>
       </c>
       <c r="T6" s="6">
-        <v>9420.1245285588466</v>
+        <v>9510.908876834601</v>
       </c>
       <c r="U6" s="6">
-        <v>9355.0356742720669</v>
+        <v>9445.1927432376051</v>
       </c>
       <c r="V6" s="6">
-        <v>9621.0809780190812</v>
+        <v>9713.8019992380396</v>
       </c>
       <c r="W6" s="6">
-        <v>9495.2999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>9586.808835108217</v>
+      </c>
+      <c r="X6" s="8">
+        <v>9595.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6">
-        <v>2058.3830163321354</v>
+        <v>2078.2918775841417</v>
       </c>
       <c r="C7" s="6">
-        <v>2117.4799904558777</v>
+        <v>2137.9604428300936</v>
       </c>
       <c r="D7" s="6">
-        <v>2157.1238593313269</v>
+        <v>2177.9877506858843</v>
       </c>
       <c r="E7" s="6">
-        <v>2144.2675275854344</v>
+        <v>2165.0070713706091</v>
       </c>
       <c r="F7" s="6">
-        <v>2093.4534032586357</v>
+        <v>2113.701468372039</v>
       </c>
       <c r="G7" s="6">
-        <v>2111.1361283976589</v>
+        <v>2131.5552223810814</v>
       </c>
       <c r="H7" s="6">
-        <v>2202.1631723493151</v>
+        <v>2223.4626878936588</v>
       </c>
       <c r="I7" s="6">
-        <v>2110.819989092432</v>
+        <v>2131.2360253487386</v>
       </c>
       <c r="J7" s="6">
-        <v>1817.5480936103077</v>
+        <v>1835.1275783453766</v>
       </c>
       <c r="K7" s="6">
-        <v>1174.120303658905</v>
+        <v>1185.4764983191005</v>
       </c>
       <c r="L7" s="6">
-        <v>1415.7139607132769</v>
+        <v>1429.4068704354881</v>
       </c>
       <c r="M7" s="6">
-        <v>1509.8602458098383</v>
+        <v>1524.4637466671818</v>
       </c>
       <c r="N7" s="6">
-        <v>1675.6226215171259</v>
+        <v>1691.829390625604</v>
       </c>
       <c r="O7" s="6">
-        <v>1957.1130588911287</v>
+        <v>1976.0424282236563</v>
       </c>
       <c r="P7" s="6">
-        <v>2099.2492905211284</v>
+        <v>2119.5534139649908</v>
       </c>
       <c r="Q7" s="6">
-        <v>2089.2803644296414</v>
+        <v>2109.4880675451141</v>
       </c>
       <c r="R7" s="6">
-        <v>2068.3730183773046</v>
+        <v>2088.3785038061746</v>
       </c>
       <c r="S7" s="6">
-        <v>2210.2352626094407</v>
+        <v>2231.6128521194792</v>
       </c>
       <c r="T7" s="6">
-        <v>2351.6759877679415</v>
+        <v>2374.4216043896595</v>
       </c>
       <c r="U7" s="6">
-        <v>2249.8159036238449</v>
+        <v>2271.5763205688008</v>
       </c>
       <c r="V7" s="6">
-        <v>2191.3512081105564</v>
+        <v>2212.5461493875346</v>
       </c>
       <c r="W7" s="6">
-        <v>2164.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2185.031365199583</v>
+      </c>
+      <c r="X7" s="8">
+        <v>2202.8000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6">
-        <v>17443.260556882284</v>
+        <v>17611.550935762112</v>
       </c>
       <c r="C8" s="6">
-        <v>17731.33437074699</v>
+        <v>17902.404049467154</v>
       </c>
       <c r="D8" s="6">
-        <v>17622.839038252489</v>
+        <v>17792.861967682136</v>
       </c>
       <c r="E8" s="6">
-        <v>17968.391570586075</v>
+        <v>18141.748347285826</v>
       </c>
       <c r="F8" s="6">
-        <v>17217.937178269098</v>
+        <v>17384.053665597305</v>
       </c>
       <c r="G8" s="6">
-        <v>17224.229227332256</v>
+        <v>17390.406419556624</v>
       </c>
       <c r="H8" s="6">
-        <v>17536.96107130935</v>
+        <v>17706.155460940081</v>
       </c>
       <c r="I8" s="6">
-        <v>17595.290066678655</v>
+        <v>17765.047207103496</v>
       </c>
       <c r="J8" s="6">
-        <v>16621.7230156896</v>
+        <v>16782.087303938581</v>
       </c>
       <c r="K8" s="6">
-        <v>10982.346501296768</v>
+        <v>11088.302795859116</v>
       </c>
       <c r="L8" s="6">
-        <v>15437.287293394624</v>
+        <v>15586.224295109998</v>
       </c>
       <c r="M8" s="6">
-        <v>15048.710749899428</v>
+        <v>15193.898814108805</v>
       </c>
       <c r="N8" s="6">
-        <v>15950.004264352177</v>
+        <v>16103.887894768028</v>
       </c>
       <c r="O8" s="6">
-        <v>18259.696436672402</v>
+        <v>18435.863685997003</v>
       </c>
       <c r="P8" s="6">
-        <v>18868.664752758308</v>
+        <v>19050.707251627322</v>
       </c>
       <c r="Q8" s="6">
-        <v>19340.568432495358</v>
+        <v>19527.163798576254</v>
       </c>
       <c r="R8" s="6">
-        <v>18590.454150938553</v>
+        <v>18769.812508993644</v>
       </c>
       <c r="S8" s="6">
-        <v>19543.104390177101</v>
+        <v>19731.653797645147</v>
       </c>
       <c r="T8" s="6">
-        <v>19735.26696967363</v>
+        <v>19925.670337483814</v>
       </c>
       <c r="U8" s="6">
-        <v>19674.55719898313</v>
+        <v>19864.37484657903</v>
       </c>
       <c r="V8" s="6">
-        <v>20126.734454630274</v>
+        <v>20320.914651385232</v>
       </c>
       <c r="W8" s="6">
-        <v>19867.400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+        <v>20059.078170629513</v>
+      </c>
+      <c r="X8" s="8">
+        <v>20284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="6">
-        <v>5067.6972604290977</v>
+        <v>5116.5399401832419</v>
       </c>
       <c r="C9" s="6">
-        <v>5091.4635353966496</v>
+        <v>5140.5352755104677</v>
       </c>
       <c r="D9" s="6">
-        <v>5138.5476650493465</v>
+        <v>5188.0732039889326</v>
       </c>
       <c r="E9" s="6">
-        <v>5250.8520335542989</v>
+        <v>5301.4599667301609</v>
       </c>
       <c r="F9" s="6">
-        <v>5333.4111899929439</v>
+        <v>5384.814831797692</v>
       </c>
       <c r="G9" s="6">
-        <v>5241.1362607688216</v>
+        <v>5291.6505529171436</v>
       </c>
       <c r="H9" s="6">
-        <v>5367.3416580283792</v>
+        <v>5419.0723231139182</v>
       </c>
       <c r="I9" s="6">
-        <v>5363.6048223416583</v>
+        <v>5415.299471647374</v>
       </c>
       <c r="J9" s="6">
-        <v>4978.4117997543535</v>
+        <v>5026.3939424759301</v>
       </c>
       <c r="K9" s="6">
-        <v>3690.5985731583023</v>
+        <v>3726.1687177321346</v>
       </c>
       <c r="L9" s="6">
-        <v>5021.3106734379217</v>
+        <v>5069.7062773118651</v>
       </c>
       <c r="M9" s="6">
-        <v>4771.4907516615995</v>
+        <v>4817.4785806017871</v>
       </c>
       <c r="N9" s="6">
-        <v>5143.1315168250585</v>
+        <v>5192.701235121227</v>
       </c>
       <c r="O9" s="6">
-        <v>5726.4266552844538</v>
+        <v>5781.6181967057682</v>
       </c>
       <c r="P9" s="6">
-        <v>5656.8716870356011</v>
+        <v>5711.3928547418136</v>
       </c>
       <c r="Q9" s="6">
-        <v>5725.3803412921716</v>
+        <v>5780.5617982951362</v>
       </c>
       <c r="R9" s="6">
-        <v>5549.6494150645913</v>
+        <v>5603.1371699950869</v>
       </c>
       <c r="S9" s="6">
-        <v>5597.7798587095704</v>
+        <v>5651.7314968841838</v>
       </c>
       <c r="T9" s="6">
-        <v>5615.6170210541895</v>
+        <v>5669.7405745511578</v>
       </c>
       <c r="U9" s="6">
-        <v>5652.4871331631803</v>
+        <v>5706.966042354401</v>
       </c>
       <c r="V9" s="6">
-        <v>5717.6077230637893</v>
+        <v>5772.7142672447226</v>
       </c>
       <c r="W9" s="6">
-        <v>5719.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+        <v>5774.9276734384284</v>
+      </c>
+      <c r="X9" s="8">
+        <v>5836.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="6">
-        <v>117170.16046993012</v>
+        <v>118300.0372751776</v>
       </c>
       <c r="C10" s="6">
-        <v>119385.7104658912</v>
+        <v>120536.95191330748</v>
       </c>
       <c r="D10" s="6">
-        <v>120611.53683610001</v>
+        <v>121774.59897896816</v>
       </c>
       <c r="E10" s="6">
-        <v>121161.25080172866</v>
+        <v>122329.61385958057</v>
       </c>
       <c r="F10" s="6">
-        <v>120947.80438123512</v>
+        <v>122114.10916624083</v>
       </c>
       <c r="G10" s="6">
-        <v>124395.14293792156</v>
+        <v>125594.69055420285</v>
       </c>
       <c r="H10" s="6">
-        <v>128018.96233389879</v>
+        <v>129253.45459364135</v>
       </c>
       <c r="I10" s="6">
-        <v>126177.83790237893</v>
+        <v>127394.57612148175</v>
       </c>
       <c r="J10" s="6">
-        <v>115834.62979421625</v>
+        <v>116951.62802076132</v>
       </c>
       <c r="K10" s="6">
-        <v>66879.083462579263</v>
+        <v>67524.001288564235</v>
       </c>
       <c r="L10" s="6">
-        <v>95945.954669009254</v>
+        <v>96871.165561467336</v>
       </c>
       <c r="M10" s="6">
-        <v>113433.0594541379</v>
+        <v>114526.89923648059</v>
       </c>
       <c r="N10" s="6">
-        <v>97784.694224322477</v>
+        <v>98727.636159958332</v>
       </c>
       <c r="O10" s="6">
-        <v>121586.95120461246</v>
+        <v>122759.41930942578</v>
       </c>
       <c r="P10" s="6">
-        <v>130111.69120521832</v>
+        <v>131366.36373783831</v>
       </c>
       <c r="Q10" s="6">
-        <v>129151.77853204893</v>
+        <v>130397.19458622659</v>
       </c>
       <c r="R10" s="6">
-        <v>114538.44957591179</v>
+        <v>115642.94868187694</v>
       </c>
       <c r="S10" s="6">
-        <v>122598.13871622441</v>
+        <v>123780.35774491238</v>
       </c>
       <c r="T10" s="6">
-        <v>125789.10308069793</v>
+        <v>127002.09271349986</v>
       </c>
       <c r="U10" s="6">
-        <v>120962.1136384749</v>
+        <v>122128.55640825242</v>
       </c>
       <c r="V10" s="6">
-        <v>121039.62211519043</v>
+        <v>122206.81230248194</v>
       </c>
       <c r="W10" s="6">
-        <v>118094.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+        <v>119233.08832176031</v>
+      </c>
+      <c r="X10" s="8">
+        <v>120154.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="6">
-        <v>17468.940820424086</v>
+        <v>17637.45334692546</v>
       </c>
       <c r="C11" s="6">
-        <v>17700.638624900017</v>
+        <v>17871.386202903275</v>
       </c>
       <c r="D11" s="6">
-        <v>17655.615135241016</v>
+        <v>17825.928398303698</v>
       </c>
       <c r="E11" s="6">
-        <v>18186.199644145538</v>
+        <v>18361.631141738704</v>
       </c>
       <c r="F11" s="6">
-        <v>18302.741215455182</v>
+        <v>18479.296920567605</v>
       </c>
       <c r="G11" s="6">
-        <v>18543.097383327073</v>
+        <v>18721.97166204534</v>
       </c>
       <c r="H11" s="6">
-        <v>18740.33490148708</v>
+        <v>18921.111813733485</v>
       </c>
       <c r="I11" s="6">
-        <v>18488.376526664597</v>
+        <v>18666.722945685859</v>
       </c>
       <c r="J11" s="6">
-        <v>17488.681888966876</v>
+        <v>17657.384845865272</v>
       </c>
       <c r="K11" s="6">
-        <v>10492.724265029954</v>
+        <v>10593.941361931169</v>
       </c>
       <c r="L11" s="6">
-        <v>15093.259071840157</v>
+        <v>15238.854803457836</v>
       </c>
       <c r="M11" s="6">
-        <v>13859.961789719395</v>
+        <v>13993.660632849451</v>
       </c>
       <c r="N11" s="6">
-        <v>15348.853959288943</v>
+        <v>15496.915263415427</v>
       </c>
       <c r="O11" s="6">
-        <v>18662.409630923423</v>
+        <v>18842.434844234216</v>
       </c>
       <c r="P11" s="6">
-        <v>19793.018723168083</v>
+        <v>19983.950252813567</v>
       </c>
       <c r="Q11" s="6">
-        <v>20061.427988442891</v>
+        <v>20254.948703311038</v>
       </c>
       <c r="R11" s="6">
-        <v>20500.060678082304</v>
+        <v>20697.812622736907</v>
       </c>
       <c r="S11" s="6">
-        <v>20701.281043404448</v>
+        <v>20900.974041755013</v>
       </c>
       <c r="T11" s="6">
-        <v>20913.930448409261</v>
+        <v>21115.67474963301</v>
       </c>
       <c r="U11" s="6">
-        <v>20868.041122410668</v>
+        <v>21069.342756483442</v>
       </c>
       <c r="V11" s="6">
-        <v>21616.296887089662</v>
+        <v>21824.816501386395</v>
       </c>
       <c r="W11" s="6">
-        <v>21216.799999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+        <v>21421.465904420158</v>
+      </c>
+      <c r="X11" s="8">
+        <v>21438.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="6">
-        <v>9045.1526851592407</v>
+        <v>9132.3590145576709</v>
       </c>
       <c r="C12" s="6">
-        <v>9139.7678403536647</v>
+        <v>9227.8863755132516</v>
       </c>
       <c r="D12" s="6">
-        <v>9099.338812614802</v>
+        <v>9187.0675625233289</v>
       </c>
       <c r="E12" s="6">
-        <v>9264.7983520645903</v>
+        <v>9354.1223342043049</v>
       </c>
       <c r="F12" s="6">
-        <v>9866.9288253790364</v>
+        <v>9962.0580813736451</v>
       </c>
       <c r="G12" s="6">
-        <v>9852.7037971005484</v>
+        <v>9947.6959064327475</v>
       </c>
       <c r="H12" s="6">
-        <v>9694.3567717900023</v>
+        <v>9787.8222222222212</v>
       </c>
       <c r="I12" s="6">
-        <v>9500.5407614955966</v>
+        <v>9592.137588652482</v>
       </c>
       <c r="J12" s="6">
-        <v>8144.1094465718179</v>
+        <v>8222.6286176433987</v>
       </c>
       <c r="K12" s="6">
-        <v>4018.5704886730387</v>
+        <v>4057.314420803782</v>
       </c>
       <c r="L12" s="6">
-        <v>7265.6203646627855</v>
+        <v>7335.6698270498928</v>
       </c>
       <c r="M12" s="6">
-        <v>6851.5971731888803</v>
+        <v>6917.6549458753261</v>
       </c>
       <c r="N12" s="6">
-        <v>7259.1629505100509</v>
+        <v>7329.1501555306695</v>
       </c>
       <c r="O12" s="6">
-        <v>8488.3176966262981</v>
+        <v>8570.1554560159257</v>
       </c>
       <c r="P12" s="6">
-        <v>8771.6016479354112</v>
+        <v>8856.1706109244733</v>
       </c>
       <c r="Q12" s="6">
-        <v>8977.770972261138</v>
+        <v>9064.3276595744665</v>
       </c>
       <c r="R12" s="6">
-        <v>8552.8918381536496</v>
+        <v>8635.352171208162</v>
       </c>
       <c r="S12" s="6">
-        <v>8869.9602316241708</v>
+        <v>8955.477491601343</v>
       </c>
       <c r="T12" s="6">
-        <v>9016.0475286157562</v>
+        <v>9102.9732487246474</v>
       </c>
       <c r="U12" s="6">
-        <v>8741.7478056930577</v>
+        <v>8826.0289411471931</v>
       </c>
       <c r="V12" s="6">
-        <v>9193.6732106721483</v>
+        <v>9282.3114594998115</v>
       </c>
       <c r="W12" s="6">
-        <v>9018.2000000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+        <v>9105.1464725643891</v>
+      </c>
+      <c r="X12" s="8">
+        <v>9112.7999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="6">
-        <v>2211.8174154770845</v>
+        <v>2233.1403643000035</v>
       </c>
       <c r="C13" s="6">
-        <v>2262.3287152516905</v>
+        <v>2284.1386165022986</v>
       </c>
       <c r="D13" s="6">
-        <v>2280.9068519909843</v>
+        <v>2302.8958551223109</v>
       </c>
       <c r="E13" s="6">
-        <v>2318.3603756574003</v>
+        <v>2340.7104481802548</v>
       </c>
       <c r="F13" s="6">
-        <v>2337.3843876784372</v>
+        <v>2359.9178605271472</v>
       </c>
       <c r="G13" s="6">
-        <v>2350.0812171299772</v>
+        <v>2372.7370933211664</v>
       </c>
       <c r="H13" s="6">
-        <v>2340.5479789631854</v>
+        <v>2363.1119503035834</v>
       </c>
       <c r="I13" s="6">
-        <v>2279.399368895567</v>
+        <v>2301.3738391885722</v>
       </c>
       <c r="J13" s="6">
-        <v>2027.1613523666415</v>
+        <v>2046.7041308391535</v>
       </c>
       <c r="K13" s="6">
-        <v>1214.3094815927873</v>
+        <v>1226.0159898922541</v>
       </c>
       <c r="L13" s="6">
-        <v>1854.2679038317053</v>
+        <v>1872.1439090302881</v>
       </c>
       <c r="M13" s="6">
-        <v>1724.0086250939141</v>
+        <v>1740.628870248833</v>
       </c>
       <c r="N13" s="6">
-        <v>2041.4505935386926</v>
+        <v>2061.1311269434595</v>
       </c>
       <c r="O13" s="6">
-        <v>2337.0871374906083</v>
+        <v>2359.6177447092268</v>
       </c>
       <c r="P13" s="6">
-        <v>2374.4345003756571</v>
+        <v>2397.3251535464851</v>
       </c>
       <c r="Q13" s="6">
-        <v>2398.7453193087904</v>
+        <v>2421.8703400835293</v>
       </c>
       <c r="R13" s="6">
-        <v>2347.0450187828696</v>
+        <v>2369.6716246095534</v>
       </c>
       <c r="S13" s="6">
-        <v>2391.4839218632605</v>
+        <v>2414.5389393886221</v>
       </c>
       <c r="T13" s="6">
-        <v>2427.6210518407215</v>
+        <v>2451.0244481100617</v>
       </c>
       <c r="U13" s="6">
-        <v>2415.3913298271973</v>
+        <v>2438.6768258870597</v>
       </c>
       <c r="V13" s="6">
-        <v>2483.5253193087901</v>
+        <v>2507.4676587231952</v>
       </c>
       <c r="W13" s="6">
-        <v>2402.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2425.2573614572002</v>
+      </c>
+      <c r="X13" s="8">
+        <v>2443.1999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="6">
-        <v>6747.010646766169</v>
+        <v>6812.0124344603983</v>
       </c>
       <c r="C14" s="6">
-        <v>6931.8894859038137</v>
+        <v>6998.6724261232048</v>
       </c>
       <c r="D14" s="6">
-        <v>6825.0619789939192</v>
+        <v>6890.8157257989806</v>
       </c>
       <c r="E14" s="6">
-        <v>6665.2087119955777</v>
+        <v>6729.4224066697543</v>
       </c>
       <c r="F14" s="6">
-        <v>6823.5100055279154</v>
+        <v>6889.2488003705412</v>
       </c>
       <c r="G14" s="6">
-        <v>7052.3614262023211</v>
+        <v>7120.305012505788</v>
       </c>
       <c r="H14" s="6">
-        <v>6953.8111111111111</v>
+        <v>7020.8052477999063</v>
       </c>
       <c r="I14" s="6">
-        <v>6665.6613709231615</v>
+        <v>6729.8794265863817</v>
       </c>
       <c r="J14" s="6">
-        <v>5918.9681370923163</v>
+        <v>5975.9924298286242</v>
       </c>
       <c r="K14" s="6">
-        <v>2393.660409065782</v>
+        <v>2416.7213191292262</v>
       </c>
       <c r="L14" s="6">
-        <v>3028.6762189054721</v>
+        <v>3057.8549735988877</v>
       </c>
       <c r="M14" s="6">
-        <v>2631.4356771697067</v>
+        <v>2656.7873524779989</v>
       </c>
       <c r="N14" s="6">
-        <v>3164.4092316196793</v>
+        <v>3194.8956600277907</v>
       </c>
       <c r="O14" s="6">
-        <v>4366.994671088999</v>
+        <v>4409.0670013895324</v>
       </c>
       <c r="P14" s="6">
-        <v>5557.8756440022107</v>
+        <v>5611.4211134784618</v>
       </c>
       <c r="Q14" s="6">
-        <v>5640.647562189054</v>
+        <v>5694.9904696618796</v>
       </c>
       <c r="R14" s="6">
-        <v>5236.6818021006075</v>
+        <v>5287.1328383510881</v>
       </c>
       <c r="S14" s="6">
-        <v>6240.0326478717525</v>
+        <v>6300.1501278369615</v>
       </c>
       <c r="T14" s="6">
-        <v>6528.9583747927027</v>
+        <v>6591.8594117647053</v>
       </c>
       <c r="U14" s="6">
-        <v>6441.7891984521839</v>
+        <v>6503.8504335340431</v>
       </c>
       <c r="V14" s="6">
-        <v>7113.1470536207844</v>
+        <v>7181.676258452987</v>
       </c>
       <c r="W14" s="6">
-        <v>7018.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <v>7086.4202501157943</v>
+      </c>
+      <c r="X14" s="8">
+        <v>7047.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6">
-        <v>62918.91254507134</v>
+        <v>63526.170201055429</v>
       </c>
       <c r="C15" s="6">
-        <v>62925.351831594351</v>
+        <v>63532.671635919578</v>
       </c>
       <c r="D15" s="6">
-        <v>63564.12905467784</v>
+        <v>64177.613974442844</v>
       </c>
       <c r="E15" s="6">
-        <v>64099.233764740718</v>
+        <v>64717.883211653359</v>
       </c>
       <c r="F15" s="6">
-        <v>65604.095025170274</v>
+        <v>66237.268539404249</v>
       </c>
       <c r="G15" s="6">
-        <v>66164.312952672932</v>
+        <v>66802.893372584949</v>
       </c>
       <c r="H15" s="6">
-        <v>66450.861202947286</v>
+        <v>67092.207224039419</v>
       </c>
       <c r="I15" s="6">
-        <v>66441.202273162751</v>
+        <v>67082.455071743214</v>
       </c>
       <c r="J15" s="6">
-        <v>59744.988217875252</v>
+        <v>60321.612956517944</v>
       </c>
       <c r="K15" s="6">
-        <v>37047.147152885438</v>
+        <v>37404.705203890277</v>
       </c>
       <c r="L15" s="6">
-        <v>51159.487496733964</v>
+        <v>51653.249852152294</v>
       </c>
       <c r="M15" s="6">
-        <v>50071.89200299605</v>
+        <v>50555.157503598071</v>
       </c>
       <c r="N15" s="6">
-        <v>57493.169720775491</v>
+        <v>58048.061184526145</v>
       </c>
       <c r="O15" s="6">
-        <v>67293.763808810472</v>
+        <v>67943.245047756121</v>
       </c>
       <c r="P15" s="6">
-        <v>70282.236684143601</v>
+        <v>70960.560968206206</v>
       </c>
       <c r="Q15" s="6">
-        <v>70525.641714713725</v>
+        <v>71206.315206070911</v>
       </c>
       <c r="R15" s="6">
-        <v>70798.023534637439</v>
+        <v>71481.325900824289</v>
       </c>
       <c r="S15" s="6">
-        <v>72935.222731627466</v>
+        <v>73639.152132234289</v>
       </c>
       <c r="T15" s="6">
-        <v>74170.921815394802</v>
+        <v>74886.777482663878</v>
       </c>
       <c r="U15" s="6">
-        <v>72360.838373774153</v>
+        <v>73059.224142352468</v>
       </c>
       <c r="V15" s="6">
-        <v>75188.329086031823</v>
+        <v>75914.004191198925</v>
       </c>
       <c r="W15" s="6">
-        <v>73934.600000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+        <v>74648.174823149733</v>
+      </c>
+      <c r="X15" s="8">
+        <v>74535.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="6">
-        <v>22097.255532374951</v>
+        <v>22310.286774142536</v>
       </c>
       <c r="C16" s="6">
-        <v>22684.122894741286</v>
+        <v>22902.811901690373</v>
       </c>
       <c r="D16" s="6">
-        <v>22762.270854097336</v>
+        <v>22981.713255819759</v>
       </c>
       <c r="E16" s="6">
-        <v>23209.943928746387</v>
+        <v>23433.702176427993</v>
       </c>
       <c r="F16" s="6">
-        <v>22995.84882679865</v>
+        <v>23217.543064976569</v>
       </c>
       <c r="G16" s="6">
-        <v>23153.227127219285</v>
+        <v>23376.438589774534</v>
       </c>
       <c r="H16" s="6">
-        <v>23454.129242191328</v>
+        <v>23680.241587668846</v>
       </c>
       <c r="I16" s="6">
-        <v>23049.102006858455</v>
+        <v>23271.309638704628</v>
       </c>
       <c r="J16" s="6">
-        <v>21374.873980100339</v>
+        <v>21580.94101588834</v>
       </c>
       <c r="K16" s="6">
-        <v>13613.547700897005</v>
+        <v>13744.790739985519</v>
       </c>
       <c r="L16" s="6">
-        <v>19090.832098755003</v>
+        <v>19274.879554893425</v>
       </c>
       <c r="M16" s="6">
-        <v>18521.499320066894</v>
+        <v>18700.058055280439</v>
       </c>
       <c r="N16" s="6">
-        <v>20784.110043583285</v>
+        <v>20984.481748799426</v>
       </c>
       <c r="O16" s="6">
-        <v>23223.36546193219</v>
+        <v>23447.253101513928</v>
       </c>
       <c r="P16" s="6">
-        <v>23899.42107708161</v>
+        <v>24129.826311890873</v>
       </c>
       <c r="Q16" s="6">
-        <v>24464.424328935587</v>
+        <v>24700.276545347104</v>
       </c>
       <c r="R16" s="6">
-        <v>24303.798883389358</v>
+        <v>24538.102570931576</v>
       </c>
       <c r="S16" s="6">
-        <v>25400.468030474516</v>
+        <v>25645.344288437049</v>
       </c>
       <c r="T16" s="6">
-        <v>25742.500650370792</v>
+        <v>25990.674314820517</v>
       </c>
       <c r="U16" s="6">
-        <v>26010.49836140345</v>
+        <v>26261.25568992351</v>
       </c>
       <c r="V16" s="6">
-        <v>26047.948768518672</v>
+        <v>26299.067142179421</v>
       </c>
       <c r="W16" s="6">
-        <v>25629.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+        <v>25876.584268129274</v>
+      </c>
+      <c r="X16" s="8">
+        <v>26260.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="6">
-        <v>12385.157288870536</v>
+        <v>12504.514836962653</v>
       </c>
       <c r="C17" s="6">
-        <v>12602.30924427008</v>
+        <v>12723.759517093536</v>
       </c>
       <c r="D17" s="6">
-        <v>12538.708253148876</v>
+        <v>12659.545594042647</v>
       </c>
       <c r="E17" s="6">
-        <v>12454.66408631014</v>
+        <v>12574.691481439695</v>
       </c>
       <c r="F17" s="6">
-        <v>12219.453992360108</v>
+        <v>12337.214633871148</v>
       </c>
       <c r="G17" s="6">
-        <v>12299.750243650631</v>
+        <v>12418.284711722894</v>
       </c>
       <c r="H17" s="6">
-        <v>12973.239310344827</v>
+        <v>13098.264289743876</v>
       </c>
       <c r="I17" s="6">
-        <v>13263.191685938471</v>
+        <v>13391.010978224078</v>
       </c>
       <c r="J17" s="6">
-        <v>12202.64515899236</v>
+        <v>12320.243811350558</v>
       </c>
       <c r="K17" s="6">
-        <v>5053.2123177782369</v>
+        <v>5101.9108541126034</v>
       </c>
       <c r="L17" s="6">
-        <v>5586.5520576089202</v>
+        <v>5640.3904659821728</v>
       </c>
       <c r="M17" s="6">
-        <v>6526.8245674168911</v>
+        <v>6589.724517657678</v>
       </c>
       <c r="N17" s="6">
-        <v>6955.5633914928776</v>
+        <v>7022.5951596524883</v>
       </c>
       <c r="O17" s="6">
-        <v>9314.4787228990299</v>
+        <v>9404.2436985219447</v>
       </c>
       <c r="P17" s="6">
-        <v>10599.559463142681</v>
+        <v>10701.708947309038</v>
       </c>
       <c r="Q17" s="6">
-        <v>10426.92820152798</v>
+        <v>10527.414013313777</v>
       </c>
       <c r="R17" s="6">
-        <v>9783.1953128226323</v>
+        <v>9877.477377863026</v>
       </c>
       <c r="S17" s="6">
-        <v>10701.434622135041</v>
+        <v>10804.565891910188</v>
       </c>
       <c r="T17" s="6">
-        <v>11196.386620896141</v>
+        <v>11304.28781450976</v>
       </c>
       <c r="U17" s="6">
-        <v>11469.303016725173</v>
+        <v>11579.8343450299</v>
       </c>
       <c r="V17" s="6">
-        <v>11247.494560189965</v>
+        <v>11355.888288389935</v>
       </c>
       <c r="W17" s="6">
-        <v>11000.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+        <v>11106.715333408552</v>
+      </c>
+      <c r="X17" s="8">
+        <v>11179.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="6">
-        <v>3489.2501756627271</v>
+        <v>3522.873327960107</v>
       </c>
       <c r="C18" s="6">
-        <v>3524.0945460905536</v>
+        <v>3558.0534661072484</v>
       </c>
       <c r="D18" s="6">
-        <v>3536.161273592797</v>
+        <v>3570.2364711465302</v>
       </c>
       <c r="E18" s="6">
-        <v>3611.4088439719553</v>
+        <v>3646.209143020707</v>
       </c>
       <c r="F18" s="6">
-        <v>3499.5543474623955</v>
+        <v>3533.2767929374718</v>
       </c>
       <c r="G18" s="6">
-        <v>3508.7399742969683</v>
+        <v>3542.5509344140041</v>
       </c>
       <c r="H18" s="6">
-        <v>3544.1944601603018</v>
+        <v>3578.347067197963</v>
       </c>
       <c r="I18" s="6">
-        <v>3598.0201996927804</v>
+        <v>3632.6914829349857</v>
       </c>
       <c r="J18" s="6">
-        <v>3561.6505406761871</v>
+        <v>3595.9713581958008</v>
       </c>
       <c r="K18" s="6">
-        <v>2346.5378602606802</v>
+        <v>2369.1495951249271</v>
       </c>
       <c r="L18" s="6">
-        <v>3587.2075983635227</v>
+        <v>3621.7746890936064</v>
       </c>
       <c r="M18" s="6">
-        <v>3429.4927582850446</v>
+        <v>3462.5400754762459</v>
       </c>
       <c r="N18" s="6">
-        <v>3537.8899339933992</v>
+        <v>3571.9817892841806</v>
       </c>
       <c r="O18" s="6">
-        <v>3683.6397324755517</v>
+        <v>3719.1360636350628</v>
       </c>
       <c r="P18" s="6">
-        <v>3674.8947445666222</v>
+        <v>3710.3068071740095</v>
       </c>
       <c r="Q18" s="6">
-        <v>3972.9022395096649</v>
+        <v>4011.1859653351612</v>
       </c>
       <c r="R18" s="6">
-        <v>4215.1519627077914</v>
+        <v>4255.7700580760338</v>
       </c>
       <c r="S18" s="6">
-        <v>4333.8194149138417</v>
+        <v>4375.5810149370645</v>
       </c>
       <c r="T18" s="6">
-        <v>4362.5626309866011</v>
+        <v>4404.6012067160291</v>
       </c>
       <c r="U18" s="6">
-        <v>4405.914722209548</v>
+        <v>4448.3710478543499</v>
       </c>
       <c r="V18" s="6">
-        <v>4544.3431354656195</v>
+        <v>4588.1333865634197</v>
       </c>
       <c r="W18" s="6">
-        <v>4457.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4500.251485044103</v>
+      </c>
+      <c r="X18" s="8">
+        <v>4543.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6">
-        <v>33417.178982425881</v>
+        <v>33739.518561018427</v>
       </c>
       <c r="C19" s="6">
-        <v>33686.339528383243</v>
+        <v>34011.275409225098</v>
       </c>
       <c r="D19" s="6">
-        <v>33505.463641499897</v>
+        <v>33828.654807230225</v>
       </c>
       <c r="E19" s="6">
-        <v>34037.324880311637</v>
+        <v>34365.646339286592</v>
       </c>
       <c r="F19" s="6">
-        <v>33564.320080882579</v>
+        <v>33888.078971371411</v>
       </c>
       <c r="G19" s="6">
-        <v>33875.110791281339</v>
+        <v>34201.867545434041</v>
       </c>
       <c r="H19" s="6">
-        <v>34683.3101906093</v>
+        <v>35017.862774982597</v>
       </c>
       <c r="I19" s="6">
-        <v>34910.840572125249</v>
+        <v>35247.587897333295</v>
       </c>
       <c r="J19" s="6">
-        <v>32669.271545392374</v>
+        <v>32984.396865468174</v>
       </c>
       <c r="K19" s="6">
-        <v>18788.84163073538</v>
+        <v>18970.077374682478</v>
       </c>
       <c r="L19" s="6">
-        <v>26627.514490469533</v>
+        <v>26884.361479389183</v>
       </c>
       <c r="M19" s="6">
-        <v>23453.573332540371</v>
+        <v>23679.804725336162</v>
       </c>
       <c r="N19" s="6">
-        <v>26134.05348954771</v>
+        <v>26386.140591010288</v>
       </c>
       <c r="O19" s="6">
-        <v>31601.601379761512</v>
+        <v>31906.428034248394</v>
       </c>
       <c r="P19" s="6">
-        <v>34228.967189033276</v>
+        <v>34559.137215209739</v>
       </c>
       <c r="Q19" s="6">
-        <v>33955.858955068543</v>
+        <v>34283.394599896041</v>
       </c>
       <c r="R19" s="6">
-        <v>34612.610687204498</v>
+        <v>34946.481309520306</v>
       </c>
       <c r="S19" s="6">
-        <v>35773.230961372632</v>
+        <v>36118.296838987459</v>
       </c>
       <c r="T19" s="6">
-        <v>36154.721175176186</v>
+        <v>36503.466878512372</v>
       </c>
       <c r="U19" s="6">
-        <v>35997.890297065038</v>
+        <v>36345.123221623959</v>
       </c>
       <c r="V19" s="6">
-        <v>37109.702792232893</v>
+        <v>37467.660175949626</v>
       </c>
       <c r="W19" s="6">
-        <v>36206.400000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+        <v>36555.644193368054</v>
+      </c>
+      <c r="X19" s="8">
+        <v>36944.800000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="6">
-        <v>13849.60206964916</v>
+        <v>13983.222412503808</v>
       </c>
       <c r="C20" s="6">
-        <v>13977.709387535784</v>
+        <v>14112.56570407777</v>
       </c>
       <c r="D20" s="6">
-        <v>13950.21969223928</v>
+        <v>14084.810789427524</v>
       </c>
       <c r="E20" s="6">
-        <v>14102.480577352444</v>
+        <v>14238.540680766995</v>
       </c>
       <c r="F20" s="6">
-        <v>12802.458191048814</v>
+        <v>12925.975736482058</v>
       </c>
       <c r="G20" s="6">
-        <v>12731.331940597178</v>
+        <v>12854.163263139431</v>
       </c>
       <c r="H20" s="6">
-        <v>12781.24041652384</v>
+        <v>12904.55325381512</v>
       </c>
       <c r="I20" s="6">
-        <v>12803.125416662808</v>
+        <v>12926.649399459004</v>
       </c>
       <c r="J20" s="6">
-        <v>11994.714862749095</v>
+        <v>12110.43933658915</v>
       </c>
       <c r="K20" s="6">
-        <v>8598.6699326483922</v>
+        <v>8681.6295165206484</v>
       </c>
       <c r="L20" s="6">
-        <v>11917.183246403129</v>
+        <v>12032.159698667825</v>
       </c>
       <c r="M20" s="6">
-        <v>11056.595649475177</v>
+        <v>11163.269191000656</v>
       </c>
       <c r="N20" s="6">
-        <v>12432.414865528392</v>
+        <v>12552.362249466853</v>
       </c>
       <c r="O20" s="6">
-        <v>13537.473927423314</v>
+        <v>13668.082871887664</v>
       </c>
       <c r="P20" s="6">
-        <v>13727.232892042875</v>
+        <v>13859.672622531596</v>
       </c>
       <c r="Q20" s="6">
-        <v>14067.918290547615</v>
+        <v>14203.644938561103</v>
       </c>
       <c r="R20" s="6">
-        <v>14189.753687662705</v>
+        <v>14326.655798151756</v>
       </c>
       <c r="S20" s="6">
-        <v>14136.909419034473</v>
+        <v>14273.301690377497</v>
       </c>
       <c r="T20" s="6">
-        <v>14254.741462465607</v>
+        <v>14392.270572106463</v>
       </c>
       <c r="U20" s="6">
-        <v>14051.904875811786</v>
+        <v>14187.477027114357</v>
       </c>
       <c r="V20" s="6">
-        <v>14597.695428057921</v>
+        <v>14738.533342257593</v>
       </c>
       <c r="W20" s="6">
-        <v>14404.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+        <v>14543.171078942753</v>
+      </c>
+      <c r="X20" s="8">
+        <v>14594.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="6">
-        <v>5888.0965041851305</v>
+        <v>5944.9515818008194</v>
       </c>
       <c r="C21" s="6">
-        <v>5888.5141504595431</v>
+        <v>5945.3732608405462</v>
       </c>
       <c r="D21" s="6">
-        <v>5865.0066315854265</v>
+        <v>5921.638754890183</v>
       </c>
       <c r="E21" s="6">
-        <v>5975.6232305514523</v>
+        <v>6033.3234605550942</v>
       </c>
       <c r="F21" s="6">
-        <v>5895.1368270966677</v>
+        <v>5952.0598856133647</v>
       </c>
       <c r="G21" s="6">
-        <v>5928.6678565567045</v>
+        <v>5985.9146885171831</v>
       </c>
       <c r="H21" s="6">
-        <v>6033.3777439274581</v>
+        <v>6091.6356477630943</v>
       </c>
       <c r="I21" s="6">
-        <v>6019.8937356392589</v>
+        <v>6078.0214387661863</v>
       </c>
       <c r="J21" s="6">
-        <v>5496.5232900459541</v>
+        <v>5549.597362125086</v>
       </c>
       <c r="K21" s="6">
-        <v>3668.3065556786473</v>
+        <v>3703.7274856503295</v>
       </c>
       <c r="L21" s="6">
-        <v>5211.68853089611</v>
+        <v>5262.0122570310814</v>
       </c>
       <c r="M21" s="6">
-        <v>4937.5932473740359</v>
+        <v>4985.2703272443505</v>
       </c>
       <c r="N21" s="6">
-        <v>5353.0319629082551</v>
+        <v>5404.7204920473569</v>
       </c>
       <c r="O21" s="6">
-        <v>5926.0426514032488</v>
+        <v>5983.2641345531838</v>
       </c>
       <c r="P21" s="6">
-        <v>6000.6223432627612</v>
+        <v>6058.5639630759124</v>
       </c>
       <c r="Q21" s="6">
-        <v>5995.7895792302634</v>
+        <v>6053.6845341876387</v>
       </c>
       <c r="R21" s="6">
-        <v>5893.2872507385528</v>
+        <v>5950.1924498660019</v>
       </c>
       <c r="S21" s="6">
-        <v>5873.2998933202034</v>
+        <v>5930.0120958219104</v>
       </c>
       <c r="T21" s="6">
-        <v>5834.5781173067453</v>
+        <v>5890.9164248529087</v>
       </c>
       <c r="U21" s="6">
-        <v>5792.9328173723943</v>
+        <v>5848.8690006058187</v>
       </c>
       <c r="V21" s="6">
-        <v>5924.1930750451338</v>
+        <v>5981.3966988058201</v>
       </c>
       <c r="W21" s="6">
-        <v>5816.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+        <v>5872.6637464189998</v>
+      </c>
+      <c r="X21" s="8">
+        <v>5866.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="6">
-        <v>5539.7446935113476</v>
+        <v>5593.0820345981219</v>
       </c>
       <c r="C22" s="6">
-        <v>5573.4795950054395</v>
+        <v>5627.1417398597268</v>
       </c>
       <c r="D22" s="6">
-        <v>5640.2160305698371</v>
+        <v>5694.5207220076854</v>
       </c>
       <c r="E22" s="6">
-        <v>5772.8991213960971</v>
+        <v>5828.4813018994864</v>
       </c>
       <c r="F22" s="6">
-        <v>5448.8635458408107</v>
+        <v>5501.3258720957019</v>
       </c>
       <c r="G22" s="6">
-        <v>5526.4312541257195</v>
+        <v>5579.6404117858492</v>
       </c>
       <c r="H22" s="6">
-        <v>5631.7540987569382</v>
+        <v>5685.9773176778526</v>
       </c>
       <c r="I22" s="6">
-        <v>5612.4608942235282</v>
+        <v>5666.4983558058302</v>
       </c>
       <c r="J22" s="6">
-        <v>5141.3005308813008</v>
+        <v>5190.8016027206622</v>
       </c>
       <c r="K22" s="6">
-        <v>3828.4600165493639</v>
+        <v>3865.3208989613181</v>
       </c>
       <c r="L22" s="6">
-        <v>5367.0084587706988</v>
+        <v>5418.6826742117728</v>
       </c>
       <c r="M22" s="6">
-        <v>4831.0296977416629</v>
+        <v>4877.543443960074</v>
       </c>
       <c r="N22" s="6">
-        <v>5252.9980308115701</v>
+        <v>5303.5745398744739</v>
       </c>
       <c r="O22" s="6">
-        <v>5643.5443904162448</v>
+        <v>5697.8811277107543</v>
       </c>
       <c r="P22" s="6">
-        <v>5668.9301858549416</v>
+        <v>5723.5113407002564</v>
       </c>
       <c r="Q22" s="6">
-        <v>5661.8785760108585</v>
+        <v>5716.391837092061</v>
       </c>
       <c r="R22" s="6">
-        <v>6110.9815037607968</v>
+        <v>6169.8187828907949</v>
       </c>
       <c r="S22" s="6">
-        <v>6164.0660226670507</v>
+        <v>6223.4144060532872</v>
       </c>
       <c r="T22" s="6">
-        <v>6198.5907044636806</v>
+        <v>6258.2714957190128</v>
       </c>
       <c r="U22" s="6">
-        <v>6113.125193153398</v>
+        <v>6171.9831119876862</v>
       </c>
       <c r="V22" s="6">
-        <v>6207.7860037003647</v>
+        <v>6267.5553284240987</v>
       </c>
       <c r="W22" s="6">
-        <v>6067.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+        <v>6126.0195966931788</v>
+      </c>
+      <c r="X22" s="8">
+        <v>6179.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="6">
-        <v>8591.1264574422075</v>
+        <v>8673.9531100341264</v>
       </c>
       <c r="C23" s="6">
-        <v>8601.2419954822908</v>
+        <v>8684.166171508321</v>
       </c>
       <c r="D23" s="6">
-        <v>8633.3358389003697</v>
+        <v>8716.5694301855419</v>
       </c>
       <c r="E23" s="6">
-        <v>8855.6017974720053</v>
+        <v>8940.9782445776345</v>
       </c>
       <c r="F23" s="6">
-        <v>8951.8833277262474</v>
+        <v>9038.1880206092937</v>
       </c>
       <c r="G23" s="6">
-        <v>8994.5525063680507</v>
+        <v>9081.2685708277168</v>
       </c>
       <c r="H23" s="6">
-        <v>9220.1290046618924</v>
+        <v>9309.019841702273</v>
       </c>
       <c r="I23" s="6">
-        <v>9050.0040467150484</v>
+        <v>9137.2547169089885</v>
       </c>
       <c r="J23" s="6">
-        <v>8307.7994328831646</v>
+        <v>8387.8945427432536</v>
       </c>
       <c r="K23" s="6">
-        <v>5406.9390012976401</v>
+        <v>5459.0670499842272</v>
       </c>
       <c r="L23" s="6">
-        <v>8148.4337290334979</v>
+        <v>8226.9924015179749</v>
       </c>
       <c r="M23" s="6">
-        <v>7476.5780842985532</v>
+        <v>7548.6594276045989</v>
       </c>
       <c r="N23" s="6">
-        <v>8517.8347863699728</v>
+        <v>8599.9548373529105</v>
       </c>
       <c r="O23" s="6">
-        <v>9231.715893689623</v>
+        <v>9320.7184393908974</v>
       </c>
       <c r="P23" s="6">
-        <v>9335.2622194453797</v>
+        <v>9425.2630504812969</v>
       </c>
       <c r="Q23" s="6">
-        <v>9851.89033498342</v>
+        <v>9946.8719537724737</v>
       </c>
       <c r="R23" s="6">
-        <v>9498.122381890711</v>
+        <v>9589.6933402158429</v>
       </c>
       <c r="S23" s="6">
-        <v>9613.9912721680212</v>
+        <v>9706.6793171020799</v>
       </c>
       <c r="T23" s="6">
-        <v>9594.5878310184053</v>
+        <v>9687.0888082743058</v>
       </c>
       <c r="U23" s="6">
-        <v>9621.0721487960782</v>
+        <v>9713.8284601340183</v>
       </c>
       <c r="V23" s="6">
-        <v>9746.5967799298305</v>
+        <v>9840.5632684274424</v>
       </c>
       <c r="W23" s="6">
-        <v>9567</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+        <v>9659.2350042537728</v>
+      </c>
+      <c r="X23" s="8">
+        <v>9712.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="6">
-        <v>11922.984345829967</v>
+        <v>12037.835150645624</v>
       </c>
       <c r="C24" s="6">
-        <v>11889.209245400139</v>
+        <v>12003.734704031102</v>
       </c>
       <c r="D24" s="6">
-        <v>11693.911893468257</v>
+        <v>11806.556106817236</v>
       </c>
       <c r="E24" s="6">
-        <v>11746.257067566143</v>
+        <v>11859.40550747443</v>
       </c>
       <c r="F24" s="6">
-        <v>10930.794033941183</v>
+        <v>11036.087344379137</v>
       </c>
       <c r="G24" s="6">
-        <v>10745.093297260581</v>
+        <v>10848.597803952423</v>
       </c>
       <c r="H24" s="6">
-        <v>10828.720944450301</v>
+        <v>10933.031013097607</v>
       </c>
       <c r="I24" s="6">
-        <v>10697.359483737981</v>
+        <v>10800.404183829314</v>
       </c>
       <c r="J24" s="6">
-        <v>10184.626040312474</v>
+        <v>10282.731721201462</v>
       </c>
       <c r="K24" s="6">
-        <v>6507.5021913027185</v>
+        <v>6570.18715693988</v>
       </c>
       <c r="L24" s="6">
-        <v>9109.0573439677682</v>
+        <v>9196.8023696024429</v>
       </c>
       <c r="M24" s="6">
-        <v>8411.2463206961584</v>
+        <v>8492.2695260795117</v>
       </c>
       <c r="N24" s="6">
-        <v>8723.1986320461929</v>
+        <v>8807.2267876151254</v>
       </c>
       <c r="O24" s="6">
-        <v>10402.73093238701</v>
+        <v>10502.937557273106</v>
       </c>
       <c r="P24" s="6">
-        <v>10551.540784465293</v>
+        <v>10653.180853427131</v>
       </c>
       <c r="Q24" s="6">
-        <v>10175.029425061195</v>
+        <v>10273.04266441431</v>
       </c>
       <c r="R24" s="6">
-        <v>10355.744907065809</v>
+        <v>10455.498928587956</v>
       </c>
       <c r="S24" s="6">
-        <v>10574.971481442442</v>
+        <v>10676.83725181654</v>
       </c>
       <c r="T24" s="6">
-        <v>10767.153049201832</v>
+        <v>10870.87005137224</v>
       </c>
       <c r="U24" s="6">
-        <v>10646.759148776689</v>
+        <v>10749.316429860693</v>
       </c>
       <c r="V24" s="6">
-        <v>10973.667224154693</v>
+        <v>11079.373520155505</v>
       </c>
       <c r="W24" s="6">
-        <v>10641.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+        <v>10743.905657888647</v>
+      </c>
+      <c r="X24" s="8">
+        <v>10875.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="6">
-        <v>3964.5363029738601</v>
+        <v>4002.7632945719038</v>
       </c>
       <c r="C25" s="6">
-        <v>4087.2262131884231</v>
+        <v>4126.6362097606971</v>
       </c>
       <c r="D25" s="6">
-        <v>4097.2659158928363</v>
+        <v>4136.7727176401922</v>
       </c>
       <c r="E25" s="6">
-        <v>4147.464429414903</v>
+        <v>4187.4552570376691</v>
       </c>
       <c r="F25" s="6">
-        <v>4123.6695434776711</v>
+        <v>4163.4309352130385</v>
       </c>
       <c r="G25" s="6">
-        <v>4141.0216280730947</v>
+        <v>4180.9503326898039</v>
       </c>
       <c r="H25" s="6">
-        <v>4169.5201542537316</v>
+        <v>4209.7236483634897</v>
       </c>
       <c r="I25" s="6">
-        <v>4090.348797887827</v>
+        <v>4129.7889031562881</v>
       </c>
       <c r="J25" s="6">
-        <v>3462.5906941417943</v>
+        <v>3495.9778081084723</v>
       </c>
       <c r="K25" s="6">
-        <v>2165.7694105626738</v>
+        <v>2186.6522686660983</v>
       </c>
       <c r="L25" s="6">
-        <v>2973.7283199363455</v>
+        <v>3002.4017078974543</v>
       </c>
       <c r="M25" s="6">
-        <v>2879.8531470112212</v>
+        <v>2907.6213684730392</v>
       </c>
       <c r="N25" s="6">
-        <v>3432.8668499145547</v>
+        <v>3465.9673595833524</v>
       </c>
       <c r="O25" s="6">
-        <v>4143.0770002802974</v>
+        <v>4183.025523279307</v>
       </c>
       <c r="P25" s="6">
-        <v>4311.8546796025203</v>
+        <v>4353.4305966865713</v>
       </c>
       <c r="Q25" s="6">
-        <v>4286.6368436756875</v>
+        <v>4327.9696044538232</v>
       </c>
       <c r="R25" s="6">
-        <v>4306.1628796441137</v>
+        <v>4347.6839150541018</v>
       </c>
       <c r="S25" s="6">
-        <v>4417.9435066050619</v>
+        <v>4460.5423571139954</v>
       </c>
       <c r="T25" s="6">
-        <v>4448.971721656103</v>
+        <v>4491.8697535132223</v>
       </c>
       <c r="U25" s="6">
-        <v>4389.4845068130244</v>
+        <v>4431.808948951646</v>
       </c>
       <c r="V25" s="6">
-        <v>4520.9888016853984</v>
+        <v>4564.5812391685004</v>
       </c>
       <c r="W25" s="6">
-        <v>4371.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4413.6510312934943</v>
+      </c>
+      <c r="X25" s="8">
+        <v>4444.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="6">
-        <v>15594.530627419712</v>
+        <v>15744.990952894366</v>
       </c>
       <c r="C26" s="6">
-        <v>15720.842151729703</v>
+        <v>15872.521165571001</v>
       </c>
       <c r="D26" s="6">
-        <v>15688.832771656114</v>
+        <v>15840.202950184623</v>
       </c>
       <c r="E26" s="6">
-        <v>16030.579976559424</v>
+        <v>16185.247426221531</v>
       </c>
       <c r="F26" s="6">
-        <v>16568.306180050531</v>
+        <v>16728.161760187773</v>
       </c>
       <c r="G26" s="6">
-        <v>16752.673932925361</v>
+        <v>16914.308343908324</v>
       </c>
       <c r="H26" s="6">
-        <v>16688.968990229892</v>
+        <v>16849.988758384457</v>
       </c>
       <c r="I26" s="6">
-        <v>16468.512230409346</v>
+        <v>16627.404971042011</v>
       </c>
       <c r="J26" s="6">
-        <v>14346.478622001479</v>
+        <v>14484.897398074556</v>
       </c>
       <c r="K26" s="6">
-        <v>8336.8744219111741</v>
+        <v>8417.310881906742</v>
       </c>
       <c r="L26" s="6">
-        <v>12113.667453142862</v>
+        <v>12230.543452250326</v>
       </c>
       <c r="M26" s="6">
-        <v>11250.669460962792</v>
+        <v>11359.219017813693</v>
       </c>
       <c r="N26" s="6">
-        <v>11739.283233262562</v>
+        <v>11852.54707032927</v>
       </c>
       <c r="O26" s="6">
-        <v>13971.93749339533</v>
+        <v>14106.742593529058</v>
       </c>
       <c r="P26" s="6">
-        <v>14863.179056228564</v>
+        <v>15006.583100365433</v>
       </c>
       <c r="Q26" s="6">
-        <v>14548.733969623318</v>
+        <v>14689.104160981613</v>
       </c>
       <c r="R26" s="6">
-        <v>14964.855910579961</v>
+        <v>15109.240961004512</v>
       </c>
       <c r="S26" s="6">
-        <v>15284.008258960737</v>
+        <v>15431.472579121622</v>
       </c>
       <c r="T26" s="6">
-        <v>15104.347767861431</v>
+        <v>15250.07867413436</v>
       </c>
       <c r="U26" s="6">
-        <v>15052.254070878926</v>
+        <v>15197.482362819277</v>
       </c>
       <c r="V26" s="6">
-        <v>16632.168031471854</v>
+        <v>16792.639768336085</v>
       </c>
       <c r="W26" s="6">
-        <v>16333.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+        <v>16490.686246147681</v>
+      </c>
+      <c r="X26" s="8">
+        <v>16603.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="6">
-        <v>22402.507034275801</v>
+        <v>22618.696221559501</v>
       </c>
       <c r="C27" s="6">
-        <v>22854.603415388941</v>
+        <v>23075.155433540513</v>
       </c>
       <c r="D27" s="6">
-        <v>22618.350890420596</v>
+        <v>22836.623019036208</v>
       </c>
       <c r="E27" s="6">
-        <v>22993.027430018286</v>
+        <v>23214.915270771206</v>
       </c>
       <c r="F27" s="6">
-        <v>23856.181021240682</v>
+        <v>24086.398486579896</v>
       </c>
       <c r="G27" s="6">
-        <v>24068.475543677028</v>
+        <v>24300.741698486585</v>
       </c>
       <c r="H27" s="6">
-        <v>24158.096219815256</v>
+        <v>24391.227234129528</v>
       </c>
       <c r="I27" s="6">
-        <v>23946.245364092469</v>
+        <v>24177.331970419094</v>
       </c>
       <c r="J27" s="6">
-        <v>21458.384267829511</v>
+        <v>21665.462459934784</v>
       </c>
       <c r="K27" s="6">
-        <v>10748.935302667978</v>
+        <v>10852.664924700613</v>
       </c>
       <c r="L27" s="6">
-        <v>16279.24088713837</v>
+        <v>16436.339190984516</v>
       </c>
       <c r="M27" s="6">
-        <v>15174.288937028179</v>
+        <v>15320.724208218362</v>
       </c>
       <c r="N27" s="6">
-        <v>16160.338207905472</v>
+        <v>16316.289074388918</v>
       </c>
       <c r="O27" s="6">
-        <v>19839.666263421954</v>
+        <v>20031.123465908564</v>
       </c>
       <c r="P27" s="6">
-        <v>21872.547144933655</v>
+        <v>22083.622101136229</v>
       </c>
       <c r="Q27" s="6">
-        <v>22089.278334505554</v>
+        <v>22302.444795005435</v>
       </c>
       <c r="R27" s="6">
-        <v>22058.22166455667</v>
+        <v>22271.088421267781</v>
       </c>
       <c r="S27" s="6">
-        <v>23179.81111642519</v>
+        <v>23403.501461393389</v>
       </c>
       <c r="T27" s="6">
-        <v>23247.470290242414</v>
+        <v>23471.813561321851</v>
       </c>
       <c r="U27" s="6">
-        <v>22660.942894921929</v>
+        <v>22879.626045876419</v>
       </c>
       <c r="V27" s="6">
-        <v>23864.610688798235</v>
+        <v>24094.909502308685</v>
       </c>
       <c r="W27" s="6">
-        <v>23655.200000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+        <v>23883.47795367764</v>
+      </c>
+      <c r="X27" s="8">
+        <v>24107.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="6">
-        <v>21085.10993912732</v>
+        <v>21288.656735875895</v>
       </c>
       <c r="C28" s="6">
-        <v>21032.24296894982</v>
+        <v>21235.279410169562</v>
       </c>
       <c r="D28" s="6">
-        <v>21099.043869251622</v>
+        <v>21302.72517831012</v>
       </c>
       <c r="E28" s="6">
-        <v>21243.301028185586</v>
+        <v>21448.374935276239</v>
       </c>
       <c r="F28" s="6">
-        <v>20573.857650007671</v>
+        <v>20772.469031855344</v>
       </c>
       <c r="G28" s="6">
-        <v>20354.398250549897</v>
+        <v>20550.891063516265</v>
       </c>
       <c r="H28" s="6">
-        <v>20358.291554555217</v>
+        <v>20554.821951843474</v>
       </c>
       <c r="I28" s="6">
-        <v>19718.560233260014</v>
+        <v>19908.914933024978</v>
       </c>
       <c r="J28" s="6">
-        <v>17640.150626630519</v>
+        <v>17810.441232872505</v>
       </c>
       <c r="K28" s="6">
-        <v>9802.1100209729393</v>
+        <v>9896.7354747602913</v>
       </c>
       <c r="L28" s="6">
-        <v>15337.158852115195</v>
+        <v>15485.21734289778</v>
       </c>
       <c r="M28" s="6">
-        <v>13598.491247634149</v>
+        <v>13729.765371509266</v>
       </c>
       <c r="N28" s="6">
-        <v>14332.686418742645</v>
+        <v>14471.04815447745</v>
       </c>
       <c r="O28" s="6">
-        <v>17790.350196941017</v>
+        <v>17962.090766759102</v>
       </c>
       <c r="P28" s="6">
-        <v>19402.58787661773</v>
+        <v>19589.892311942942</v>
       </c>
       <c r="Q28" s="6">
-        <v>19054.649444984396</v>
+        <v>19238.59502880591</v>
       </c>
       <c r="R28" s="6">
-        <v>19870.194178730369</v>
+        <v>20062.012688926865</v>
       </c>
       <c r="S28" s="6">
-        <v>20120.185278019337</v>
+        <v>20314.41709730565</v>
       </c>
       <c r="T28" s="6">
-        <v>20125.71786792163</v>
+        <v>20320.003096507477</v>
       </c>
       <c r="U28" s="6">
-        <v>19758.517826998821</v>
+        <v>19949.258260593717</v>
       </c>
       <c r="V28" s="6">
-        <v>20730.614363906079</v>
+        <v>20930.739009240406</v>
       </c>
       <c r="W28" s="6">
-        <v>20029</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+        <v>20222.351554905192</v>
+      </c>
+      <c r="X28" s="8">
+        <v>20217.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="6">
-        <v>12321.789571212241</v>
+        <v>12440.60166862468</v>
       </c>
       <c r="C29" s="6">
-        <v>12291.434207380249</v>
+        <v>12409.953605065612</v>
       </c>
       <c r="D29" s="6">
-        <v>12262.571730294092</v>
+        <v>12380.812823320923</v>
       </c>
       <c r="E29" s="6">
-        <v>12512.132631306287</v>
+        <v>12632.780099958185</v>
       </c>
       <c r="F29" s="6">
-        <v>12093.999935243484</v>
+        <v>12210.615585113797</v>
       </c>
       <c r="G29" s="6">
-        <v>12317.310910974733</v>
+        <v>12436.079823181539</v>
       </c>
       <c r="H29" s="6">
-        <v>12569.359956563323</v>
+        <v>12690.559236176103</v>
       </c>
       <c r="I29" s="6">
-        <v>12472.197910855184</v>
+        <v>12592.460311423509</v>
       </c>
       <c r="J29" s="6">
-        <v>11914.231489599108</v>
+        <v>12029.11373329882</v>
       </c>
       <c r="K29" s="6">
-        <v>6510.2302841316641</v>
+        <v>6573.0047788773627</v>
       </c>
       <c r="L29" s="6">
-        <v>9815.6059466406314</v>
+        <v>9910.2523227335187</v>
       </c>
       <c r="M29" s="6">
-        <v>8663.7194149996012</v>
+        <v>8747.2587961211448</v>
       </c>
       <c r="N29" s="6">
-        <v>9278.1667181397934</v>
+        <v>9367.6308695565604</v>
       </c>
       <c r="O29" s="6">
-        <v>11266.940678050529</v>
+        <v>11375.581459947036</v>
       </c>
       <c r="P29" s="6">
-        <v>11995.22059556069</v>
+        <v>12110.883771728959</v>
       </c>
       <c r="Q29" s="6">
-        <v>11870.813366741053</v>
+        <v>11985.276953863922</v>
       </c>
       <c r="R29" s="6">
-        <v>11926.423398023431</v>
+        <v>12041.423201449594</v>
       </c>
       <c r="S29" s="6">
-        <v>12176.481927950905</v>
+        <v>12293.892905358318</v>
       </c>
       <c r="T29" s="6">
-        <v>12463.862626524269</v>
+        <v>12584.044654626554</v>
       </c>
       <c r="U29" s="6">
-        <v>12212.18680262214</v>
+        <v>12329.942062085584</v>
       </c>
       <c r="V29" s="6">
-        <v>12695.011257671154</v>
+        <v>12817.42212221979</v>
       </c>
       <c r="W29" s="6">
-        <v>12487.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+        <v>12607.90995002091</v>
+      </c>
+      <c r="X29" s="8">
+        <v>12616.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="6">
-        <v>6172.3401823125196</v>
+        <v>6231.8584926151179</v>
       </c>
       <c r="C30" s="6">
-        <v>6248.3212434123534</v>
+        <v>6308.5722198088615</v>
       </c>
       <c r="D30" s="6">
-        <v>6241.9064489096636</v>
+        <v>6302.095569070374</v>
       </c>
       <c r="E30" s="6">
-        <v>6405.3280098325849</v>
+        <v>6467.0929626411817</v>
       </c>
       <c r="F30" s="6">
-        <v>6302.9404160226441</v>
+        <v>6363.7180712423979</v>
       </c>
       <c r="G30" s="6">
-        <v>6295.0931916795471</v>
+        <v>6355.7951781059955</v>
       </c>
       <c r="H30" s="6">
-        <v>6347.7194184249247</v>
+        <v>6408.9288662033014</v>
       </c>
       <c r="I30" s="6">
-        <v>6335.5749045606062</v>
+        <v>6396.6672458731537</v>
       </c>
       <c r="J30" s="6">
-        <v>6034.1418424924123</v>
+        <v>6092.3275412684625</v>
       </c>
       <c r="K30" s="6">
-        <v>4010.2430371142859</v>
+        <v>4048.9127932232846</v>
       </c>
       <c r="L30" s="6">
-        <v>6078.2980493119048</v>
+        <v>6136.9095351867936</v>
       </c>
       <c r="M30" s="6">
-        <v>5864.9905622078622</v>
+        <v>5921.5451781059946</v>
       </c>
       <c r="N30" s="6">
-        <v>6127.2497821188472</v>
+        <v>6186.3332971329282</v>
       </c>
       <c r="O30" s="6">
-        <v>6721.2099294214049</v>
+        <v>6786.0208514335363</v>
       </c>
       <c r="P30" s="6">
-        <v>6552.1832082534129</v>
+        <v>6615.3642484795837</v>
       </c>
       <c r="Q30" s="6">
-        <v>6695.9244287603115</v>
+        <v>6760.4915291051257</v>
       </c>
       <c r="R30" s="6">
-        <v>6918.387010931302</v>
+        <v>6985.0992615117293</v>
       </c>
       <c r="S30" s="6">
-        <v>6846.5786802361308</v>
+        <v>6912.598501303215</v>
       </c>
       <c r="T30" s="6">
-        <v>6844.6480139294954</v>
+        <v>6910.6492180712421</v>
       </c>
       <c r="U30" s="6">
-        <v>6757.332073222964</v>
+        <v>6822.4913119026942</v>
       </c>
       <c r="V30" s="6">
-        <v>6858.4740758673342</v>
+        <v>6924.6086012163332</v>
       </c>
       <c r="W30" s="6">
-        <v>6688.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+        <v>6753.1974370112939</v>
+      </c>
+      <c r="X30" s="8">
+        <v>6658.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="6">
-        <v>12837.41816189191</v>
+        <v>12961.234423087453</v>
       </c>
       <c r="C31" s="6">
-        <v>12910.185586058855</v>
+        <v>13034.703685449864</v>
       </c>
       <c r="D31" s="6">
-        <v>13030.575670020924</v>
+        <v>13156.25492579815</v>
       </c>
       <c r="E31" s="6">
-        <v>13458.544639379748</v>
+        <v>13588.351634631181</v>
       </c>
       <c r="F31" s="6">
-        <v>13481.530509840863</v>
+        <v>13611.559202672363</v>
       </c>
       <c r="G31" s="6">
-        <v>13580.839629733624</v>
+        <v>13711.826154098899</v>
       </c>
       <c r="H31" s="6">
-        <v>13727.390428143142</v>
+        <v>13859.790427687421</v>
       </c>
       <c r="I31" s="6">
-        <v>13593.539005678987</v>
+        <v>13724.64801489513</v>
       </c>
       <c r="J31" s="6">
-        <v>12334.268886936517</v>
+        <v>12453.232298340727</v>
       </c>
       <c r="K31" s="6">
-        <v>8118.3300605939849</v>
+        <v>8196.6309512074913</v>
       </c>
       <c r="L31" s="6">
-        <v>11132.653934986005</v>
+        <v>11240.027829801214</v>
       </c>
       <c r="M31" s="6">
-        <v>10531.338483972937</v>
+        <v>10632.91272109961</v>
       </c>
       <c r="N31" s="6">
-        <v>11535.859121251369</v>
+        <v>11647.121910081592</v>
       </c>
       <c r="O31" s="6">
-        <v>13113.248607425254</v>
+        <v>13239.725239581621</v>
       </c>
       <c r="P31" s="6">
-        <v>13530.423107230519</v>
+        <v>13660.923366737856</v>
       </c>
       <c r="Q31" s="6">
-        <v>13541.344570543533</v>
+        <v>13671.950167022616</v>
       </c>
       <c r="R31" s="6">
-        <v>13392.634878223302</v>
+        <v>13521.806177098735</v>
       </c>
       <c r="S31" s="6">
-        <v>13520.771581512043</v>
+        <v>13651.178752532718</v>
       </c>
       <c r="T31" s="6">
-        <v>13730.692265888938</v>
+        <v>13863.124111494441</v>
       </c>
       <c r="U31" s="6">
-        <v>13571.188104015144</v>
+        <v>13702.081539893761</v>
       </c>
       <c r="V31" s="6">
-        <v>14167.423804650069</v>
+        <v>14304.067904276873</v>
       </c>
       <c r="W31" s="6">
-        <v>14021</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+        <v>14156.231849296315</v>
+      </c>
+      <c r="X31" s="8">
+        <v>14048.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="6">
-        <v>2571.1953020435321</v>
+        <v>2596.0047034795311</v>
       </c>
       <c r="C32" s="6">
-        <v>2636.1547985254861</v>
+        <v>2661.5909925758069</v>
       </c>
       <c r="D32" s="6">
-        <v>2616.9838880206967</v>
+        <v>2642.2351024180803</v>
       </c>
       <c r="E32" s="6">
-        <v>2705.675116458176</v>
+        <v>2731.7821103789615</v>
       </c>
       <c r="F32" s="6">
-        <v>2718.5845602255135</v>
+        <v>2744.8161170577537</v>
       </c>
       <c r="G32" s="6">
-        <v>2726.7528110723124</v>
+        <v>2753.063183159903</v>
       </c>
       <c r="H32" s="6">
-        <v>2761.6418068028024</v>
+        <v>2788.2888219684542</v>
       </c>
       <c r="I32" s="6">
-        <v>2772.3352582268449</v>
+        <v>2799.0854542472939</v>
       </c>
       <c r="J32" s="6">
-        <v>2629.0172417918479</v>
+        <v>2654.3845657294487</v>
       </c>
       <c r="K32" s="6">
-        <v>1750.4020450280022</v>
+        <v>1767.2916321297591</v>
       </c>
       <c r="L32" s="6">
-        <v>2642.4935673214245</v>
+        <v>2667.9909239989265</v>
       </c>
       <c r="M32" s="6">
-        <v>2570.8603264567555</v>
+        <v>2595.6664957213989</v>
       </c>
       <c r="N32" s="6">
-        <v>2830.1056632695022</v>
+        <v>2857.413284534422</v>
       </c>
       <c r="O32" s="6">
-        <v>3149.7496751134672</v>
+        <v>3180.1415337368435</v>
       </c>
       <c r="P32" s="6">
-        <v>3175.6458647066297</v>
+        <v>3206.2875950386115</v>
       </c>
       <c r="Q32" s="6">
-        <v>3287.708082160028</v>
+        <v>3319.4310981245712</v>
       </c>
       <c r="R32" s="6">
-        <v>3387.3504355498394</v>
+        <v>3420.0348981782399</v>
       </c>
       <c r="S32" s="6">
-        <v>3354.935105690935</v>
+        <v>3387.3067935835884</v>
       </c>
       <c r="T32" s="6">
-        <v>3319.2215546699167</v>
+        <v>3351.2486433704039</v>
       </c>
       <c r="U32" s="6">
-        <v>3347.5914101346652</v>
+        <v>3379.8922388860724</v>
       </c>
       <c r="V32" s="6">
-        <v>3535.1519713770849</v>
+        <v>3569.2625674587789</v>
       </c>
       <c r="W32" s="6">
-        <v>3446.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3479.3513357583706</v>
+      </c>
+      <c r="X32" s="8">
+        <v>3490.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="6">
-        <v>3760.8658060845773</v>
+        <v>3797.1607831423453</v>
       </c>
       <c r="C33" s="6">
-        <v>3797.1268252377208</v>
+        <v>3833.7717464110506</v>
       </c>
       <c r="D33" s="6">
-        <v>3792.4166309972093</v>
+        <v>3829.0160955122287</v>
       </c>
       <c r="E33" s="6">
-        <v>3878.2094546636686</v>
+        <v>3915.6368797407631</v>
       </c>
       <c r="F33" s="6">
-        <v>3863.0695446048812</v>
+        <v>3900.3508589945513</v>
       </c>
       <c r="G33" s="6">
-        <v>3894.6203695175141</v>
+        <v>3932.2061713644352</v>
       </c>
       <c r="H33" s="6">
-        <v>3958.1332267764742</v>
+        <v>3996.3319719763217</v>
       </c>
       <c r="I33" s="6">
-        <v>3959.8154390052287</v>
+        <v>3998.0304187259007</v>
       </c>
       <c r="J33" s="6">
-        <v>3536.6082247446693</v>
+        <v>3570.7389597929005</v>
       </c>
       <c r="K33" s="6">
-        <v>2620.1763850134098</v>
+        <v>2645.462913883307</v>
       </c>
       <c r="L33" s="6">
-        <v>3489.4315173516102</v>
+        <v>3523.1069642824814</v>
       </c>
       <c r="M33" s="6">
-        <v>3149.9237070950612</v>
+        <v>3180.3226669563173</v>
       </c>
       <c r="N33" s="6">
-        <v>3508.5339717714623</v>
+        <v>3542.3937707054802</v>
       </c>
       <c r="O33" s="6">
-        <v>3807.3322460921622</v>
+        <v>3844.0756566918303</v>
       </c>
       <c r="P33" s="6">
-        <v>3826.023493078319</v>
+        <v>3862.9472872427095</v>
       </c>
       <c r="Q33" s="6">
-        <v>3926.5824018638414</v>
+        <v>3964.4766596064378</v>
       </c>
       <c r="R33" s="6">
-        <v>4000.0016200254649</v>
+        <v>4038.60442441029</v>
       </c>
       <c r="S33" s="6">
-        <v>4050.2063094302816</v>
+        <v>4089.293624069951</v>
       </c>
       <c r="T33" s="6">
-        <v>4146.5036139029617</v>
+        <v>4186.52026466808</v>
       </c>
       <c r="U33" s="6">
-        <v>4152.7838728903098</v>
+        <v>4192.861132533174</v>
       </c>
       <c r="V33" s="6">
-        <v>4227.5862433289085</v>
+        <v>4268.3853979977921</v>
       </c>
       <c r="W33" s="6">
-        <v>4139.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4179.6509911475596</v>
+      </c>
+      <c r="X33" s="8">
+        <v>4169.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="6">
-        <v>31150.258705354714</v>
+        <v>31450.901165415962</v>
       </c>
       <c r="C34" s="6">
-        <v>31106.157496715063</v>
+        <v>31406.374319994837</v>
       </c>
       <c r="D34" s="6">
-        <v>30502.600955618058</v>
+        <v>30796.992635517239</v>
       </c>
       <c r="E34" s="6">
-        <v>31150.888722620999</v>
+        <v>31451.537263207687</v>
       </c>
       <c r="F34" s="6">
-        <v>30973.223853529817</v>
+        <v>31272.15768593975</v>
       </c>
       <c r="G34" s="6">
-        <v>31123.482971537789</v>
+        <v>31423.867009267422</v>
       </c>
       <c r="H34" s="6">
-        <v>31575.520360094259</v>
+        <v>31880.267174833894</v>
       </c>
       <c r="I34" s="6">
-        <v>31924.549925613821</v>
+        <v>32232.665351452473</v>
       </c>
       <c r="J34" s="6">
-        <v>29806.116867744637</v>
+        <v>30093.786526759417</v>
       </c>
       <c r="K34" s="6">
-        <v>13675.784799157318</v>
+        <v>13807.774765089129</v>
       </c>
       <c r="L34" s="6">
-        <v>20630.860410264206</v>
+        <v>20829.976336895521</v>
       </c>
       <c r="M34" s="6">
-        <v>20601.879616015289</v>
+        <v>20800.715838475931</v>
       </c>
       <c r="N34" s="6">
-        <v>22019.418465147086</v>
+        <v>22231.935869869052</v>
       </c>
       <c r="O34" s="6">
-        <v>26444.344734870283</v>
+        <v>26699.568710086653</v>
       </c>
       <c r="P34" s="6">
-        <v>28473.630349560739</v>
+        <v>28748.439697249876</v>
       </c>
       <c r="Q34" s="6">
-        <v>30633.64454700446</v>
+        <v>30929.300976197133</v>
       </c>
       <c r="R34" s="6">
-        <v>30073.244188647688</v>
+        <v>30363.491990453054</v>
       </c>
       <c r="S34" s="6">
-        <v>30656.955185856852</v>
+        <v>30952.836594491153</v>
       </c>
       <c r="T34" s="6">
-        <v>30368.092269267105</v>
+        <v>30661.185756982817</v>
       </c>
       <c r="U34" s="6">
-        <v>29402.27580005864</v>
+        <v>29686.047842260305</v>
       </c>
       <c r="V34" s="6">
-        <v>29945.035674959552</v>
+        <v>30234.046089835945</v>
       </c>
       <c r="W34" s="6">
-        <v>29008.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+        <v>29288.168673533019</v>
+      </c>
+      <c r="X34" s="8">
+        <v>29583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="6">
-        <v>4521.824980527329</v>
+        <v>4565.4200821781651</v>
       </c>
       <c r="C35" s="6">
-        <v>4567.7530668337895</v>
+        <v>4611.7909630641989</v>
       </c>
       <c r="D35" s="6">
-        <v>4496.5986803348414</v>
+        <v>4539.9505741822122</v>
       </c>
       <c r="E35" s="6">
-        <v>4489.1289636957799</v>
+        <v>4532.4088416961013</v>
       </c>
       <c r="F35" s="6">
-        <v>4507.2270200098492</v>
+        <v>4550.6813821195929</v>
       </c>
       <c r="G35" s="6">
-        <v>4436.9263154125074</v>
+        <v>4479.7029055217336</v>
       </c>
       <c r="H35" s="6">
-        <v>4399.3643117417969</v>
+        <v>4441.7787650201453</v>
       </c>
       <c r="I35" s="6">
-        <v>4370.3818111822375</v>
+        <v>4412.5168429740334</v>
       </c>
       <c r="J35" s="6">
-        <v>4442.7313523434359</v>
+        <v>4485.5639090537979</v>
       </c>
       <c r="K35" s="6">
-        <v>1977.3833886924215</v>
+        <v>1996.4474237233987</v>
       </c>
       <c r="L35" s="6">
-        <v>4101.4720121760156</v>
+        <v>4141.0144734740243</v>
       </c>
       <c r="M35" s="6">
-        <v>4224.487574197592</v>
+        <v>4265.2160336167271</v>
       </c>
       <c r="N35" s="6">
-        <v>3990.6641013474195</v>
+        <v>4029.1382589943378</v>
       </c>
       <c r="O35" s="6">
-        <v>4359.2839464613462</v>
+        <v>4401.3119832803823</v>
       </c>
       <c r="P35" s="6">
-        <v>4329.9172890460632</v>
+        <v>4371.6622007064134</v>
       </c>
       <c r="Q35" s="6">
-        <v>4669.2131608397876</v>
+        <v>4714.2292380326944</v>
       </c>
       <c r="R35" s="6">
-        <v>4671.859574734769</v>
+        <v>4716.9011661134873</v>
       </c>
       <c r="S35" s="6">
-        <v>4807.38157661489</v>
+        <v>4853.7297412186508</v>
       </c>
       <c r="T35" s="6">
-        <v>4817.5830753390937</v>
+        <v>4864.0295930139682</v>
       </c>
       <c r="U35" s="6">
-        <v>4745.2762182729766</v>
+        <v>4791.0256225484109</v>
       </c>
       <c r="V35" s="6">
-        <v>4924.5067335153772</v>
+        <v>4971.9841066008767</v>
       </c>
       <c r="W35" s="6">
-        <v>4767.6000000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4813.564628778332</v>
+      </c>
+      <c r="X35" s="8">
+        <v>4856.1000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="6">
-        <v>19833.04849981705</v>
+        <v>20024.325291150508</v>
       </c>
       <c r="C36" s="6">
-        <v>20893.620160995248</v>
+        <v>21095.125472887772</v>
       </c>
       <c r="D36" s="6">
-        <v>20063.443057080131</v>
+        <v>20256.941853349159</v>
       </c>
       <c r="E36" s="6">
-        <v>20470.865065861693</v>
+        <v>20668.293181143832</v>
       </c>
       <c r="F36" s="6">
-        <v>20522.439992682037</v>
+        <v>20720.365514427715</v>
       </c>
       <c r="G36" s="6">
-        <v>20792.461617270401</v>
+        <v>20992.99132111861</v>
       </c>
       <c r="H36" s="6">
-        <v>21322.15005488474</v>
+        <v>21527.788257547658</v>
       </c>
       <c r="I36" s="6">
-        <v>20817.950384193195</v>
+        <v>21018.725910540761</v>
       </c>
       <c r="J36" s="6">
-        <v>18573.544978046102</v>
+        <v>18752.674681032564</v>
       </c>
       <c r="K36" s="6">
-        <v>9289.062495426273</v>
+        <v>9378.6494325346794</v>
       </c>
       <c r="L36" s="6">
-        <v>15312.376728869374</v>
+        <v>15460.054595356429</v>
       </c>
       <c r="M36" s="6">
-        <v>15255.425265276253</v>
+        <v>15402.553872116312</v>
       </c>
       <c r="N36" s="6">
-        <v>16979.899652396634</v>
+        <v>17143.659687708627</v>
       </c>
       <c r="O36" s="6">
-        <v>19740.452588730332</v>
+        <v>19930.836353015355</v>
       </c>
       <c r="P36" s="6">
-        <v>20839.655662275891</v>
+        <v>21040.640521845562</v>
       </c>
       <c r="Q36" s="6">
-        <v>21373.724981705087</v>
+        <v>21579.86059083154</v>
       </c>
       <c r="R36" s="6">
-        <v>20508.699954262716</v>
+        <v>20706.492962317334</v>
       </c>
       <c r="S36" s="6">
-        <v>21521.878439443833</v>
+        <v>21729.442891847782</v>
       </c>
       <c r="T36" s="6">
-        <v>22121.262724112697</v>
+        <v>22334.607846228024</v>
       </c>
       <c r="U36" s="6">
-        <v>21370.140623856569</v>
+        <v>21576.241664194051</v>
       </c>
       <c r="V36" s="6">
-        <v>21816.393175997076</v>
+        <v>22026.798030561531</v>
       </c>
       <c r="W36" s="6">
-        <v>21769</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+        <v>21978.947778354723</v>
+      </c>
+      <c r="X36" s="8">
+        <v>21683</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="6">
-        <v>4679.0072700348746</v>
+        <v>4724.1341882348852</v>
       </c>
       <c r="C37" s="6">
-        <v>4730.1392425915219</v>
+        <v>4775.7593056425249</v>
       </c>
       <c r="D37" s="6">
-        <v>4725.6396290065368</v>
+        <v>4771.2162953106517</v>
       </c>
       <c r="E37" s="6">
-        <v>4900.0791940486833</v>
+        <v>4947.3382514088926</v>
       </c>
       <c r="F37" s="6">
-        <v>5071.3372141317486</v>
+        <v>5120.2479779795449</v>
       </c>
       <c r="G37" s="6">
-        <v>5052.4751975886302</v>
+        <v>5101.2040457802823</v>
       </c>
       <c r="H37" s="6">
-        <v>5144.1036924101436</v>
+        <v>5193.7162561747728</v>
       </c>
       <c r="I37" s="6">
-        <v>5145.5126623205933</v>
+        <v>5195.1388149655604</v>
       </c>
       <c r="J37" s="6">
-        <v>5026.4774302087171</v>
+        <v>5074.9555416405765</v>
       </c>
       <c r="K37" s="6">
-        <v>2511.5570413402734</v>
+        <v>2535.7798780699923</v>
       </c>
       <c r="L37" s="6">
-        <v>4218.4559118868619</v>
+        <v>4259.1410196201214</v>
       </c>
       <c r="M37" s="6">
-        <v>4142.0079315843896</v>
+        <v>4181.9557329715444</v>
       </c>
       <c r="N37" s="6">
-        <v>4255.9981424040097</v>
+        <v>4297.0453280456413</v>
       </c>
       <c r="O37" s="6">
-        <v>4922.0773049086101</v>
+        <v>4969.5485241424904</v>
       </c>
       <c r="P37" s="6">
-        <v>5044.9303909713835</v>
+        <v>5093.586472900578</v>
       </c>
       <c r="Q37" s="6">
-        <v>5437.8966440600743</v>
+        <v>5490.3427085507556</v>
       </c>
       <c r="R37" s="6">
-        <v>5134.3318043215395</v>
+        <v>5183.8501226257567</v>
       </c>
       <c r="S37" s="6">
-        <v>5082.8816772689834</v>
+        <v>5131.903782265359</v>
       </c>
       <c r="T37" s="6">
-        <v>5103.7889727143684</v>
+        <v>5153.0127191609272</v>
       </c>
       <c r="U37" s="6">
-        <v>5100.6528783975609</v>
+        <v>5149.846378626592</v>
       </c>
       <c r="V37" s="6">
-        <v>5363.1757881639587</v>
+        <v>5414.9012036457252</v>
       </c>
       <c r="W37" s="6">
-        <v>5187.1000000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+        <v>5237.1272437904408</v>
+      </c>
+      <c r="X37" s="8">
+        <v>5276.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="6">
-        <v>68041.43728534822</v>
+        <v>68697.921902995731</v>
       </c>
       <c r="C38" s="6">
-        <v>70212.67071174513</v>
+        <v>70890.104054208263</v>
       </c>
       <c r="D38" s="6">
-        <v>68942.335243048903</v>
+        <v>69607.511999999988</v>
       </c>
       <c r="E38" s="6">
-        <v>68835.790977932455</v>
+        <v>69499.939763195434</v>
       </c>
       <c r="F38" s="6">
-        <v>69898.08143190424</v>
+        <v>70572.479520684734</v>
       </c>
       <c r="G38" s="6">
-        <v>69994.538666003747</v>
+        <v>70669.86740370898</v>
       </c>
       <c r="H38" s="6">
-        <v>70224.649061077755</v>
+        <v>70902.197974322393</v>
       </c>
       <c r="I38" s="6">
-        <v>68542.006199564014</v>
+        <v>69203.320459343784</v>
       </c>
       <c r="J38" s="6">
-        <v>61762.26047730141</v>
+        <v>62358.161674750358</v>
       </c>
       <c r="K38" s="6">
-        <v>27569.747087619995</v>
+        <v>27835.748447931528</v>
       </c>
       <c r="L38" s="6">
-        <v>43342.711400925538</v>
+        <v>43760.895149786018</v>
       </c>
       <c r="M38" s="6">
-        <v>42400.204440279951</v>
+        <v>42809.294593437946</v>
       </c>
       <c r="N38" s="6">
-        <v>46093.949110796653</v>
+        <v>46538.677643366624</v>
       </c>
       <c r="O38" s="6">
-        <v>57726.817631085782</v>
+        <v>58283.783640513553</v>
       </c>
       <c r="P38" s="6">
-        <v>63726.709767850996</v>
+        <v>64341.564573466472</v>
       </c>
       <c r="Q38" s="6">
-        <v>63867.928202088195</v>
+        <v>64484.145526390872</v>
       </c>
       <c r="R38" s="6">
-        <v>60049.986962175397</v>
+        <v>60629.367620542085</v>
       </c>
       <c r="S38" s="6">
-        <v>64394.345133284885</v>
+        <v>65015.641489300993</v>
       </c>
       <c r="T38" s="6">
-        <v>65210.764206218679</v>
+        <v>65839.937623395148</v>
       </c>
       <c r="U38" s="6">
-        <v>62485.37451332849</v>
+        <v>63088.252536376611</v>
       </c>
       <c r="V38" s="6">
-        <v>66914.842008643434</v>
+        <v>67560.456890156915</v>
       </c>
       <c r="W38" s="6">
-        <v>65936.399999999994</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+        <v>66572.574573466467</v>
+      </c>
+      <c r="X38" s="8">
+        <v>66930.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="6">
-        <v>22714.574821966587</v>
+        <v>22933.732922439292</v>
       </c>
       <c r="C39" s="6">
-        <v>22961.833504519313</v>
+        <v>23183.377242566934</v>
       </c>
       <c r="D39" s="6">
-        <v>22766.331895371135</v>
+        <v>22985.989366049191</v>
       </c>
       <c r="E39" s="6">
-        <v>23361.19921939195</v>
+        <v>23586.596176447692</v>
       </c>
       <c r="F39" s="6">
-        <v>23739.997712955355</v>
+        <v>23969.049449330636</v>
       </c>
       <c r="G39" s="6">
-        <v>23591.958922213096</v>
+        <v>23819.582328961707</v>
       </c>
       <c r="H39" s="6">
-        <v>23812.774034511094</v>
+        <v>24042.527942092154</v>
       </c>
       <c r="I39" s="6">
-        <v>23654.564639824704</v>
+        <v>23882.792088262762</v>
       </c>
       <c r="J39" s="6">
-        <v>21374.541248972888</v>
+        <v>21580.77024050436</v>
       </c>
       <c r="K39" s="6">
-        <v>13434.915783347029</v>
+        <v>13564.54051311488</v>
       </c>
       <c r="L39" s="6">
-        <v>21381.095638181323</v>
+        <v>21587.387868734433</v>
       </c>
       <c r="M39" s="6">
-        <v>20226.845097233636</v>
+        <v>20422.000718010586</v>
       </c>
       <c r="N39" s="6">
-        <v>20532.867269241306</v>
+        <v>20730.975498132004</v>
       </c>
       <c r="O39" s="6">
-        <v>23547.660291700904</v>
+        <v>23774.856289889478</v>
       </c>
       <c r="P39" s="6">
-        <v>23474.65795672419</v>
+        <v>23701.149603051057</v>
       </c>
       <c r="Q39" s="6">
-        <v>23119.138845521778</v>
+        <v>23342.200320088727</v>
       </c>
       <c r="R39" s="6">
-        <v>22128.748034784996</v>
+        <v>22342.253875116752</v>
       </c>
       <c r="S39" s="6">
-        <v>22918.438927691048</v>
+        <v>23139.563979802304</v>
       </c>
       <c r="T39" s="6">
-        <v>23028.959490550536</v>
+        <v>23251.150883405975</v>
       </c>
       <c r="U39" s="6">
-        <v>23055.177047384281</v>
+        <v>23277.621396326274</v>
       </c>
       <c r="V39" s="6">
-        <v>23780.680128731856</v>
+        <v>24010.124383172482</v>
       </c>
       <c r="W39" s="6">
-        <v>23104.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+        <v>23327.824093244082</v>
+      </c>
+      <c r="X39" s="8">
+        <v>23454.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="6">
-        <v>1792.7480479654675</v>
+        <v>1810.0625574596022</v>
       </c>
       <c r="C40" s="6">
-        <v>1839.9100222494437</v>
+        <v>1857.6800260069406</v>
       </c>
       <c r="D40" s="6">
-        <v>1875.2444388890278</v>
+        <v>1893.3557053761481</v>
       </c>
       <c r="E40" s="6">
-        <v>1944.3812904677382</v>
+        <v>1963.1602864076463</v>
       </c>
       <c r="F40" s="6">
-        <v>2006.1547461313467</v>
+        <v>2025.5303552349319</v>
       </c>
       <c r="G40" s="6">
-        <v>2028.6073381498795</v>
+        <v>2048.199796251356</v>
       </c>
       <c r="H40" s="6">
-        <v>2042.3951734539971</v>
+        <v>2062.1207956136063</v>
       </c>
       <c r="I40" s="6">
-        <v>1947.2805246535504</v>
+        <v>1966.0875216379402</v>
       </c>
       <c r="J40" s="6">
-        <v>1597.9722240277326</v>
+        <v>1613.4055724425818</v>
       </c>
       <c r="K40" s="6">
-        <v>1160.4184828712616</v>
+        <v>1171.6259009251514</v>
       </c>
       <c r="L40" s="6">
-        <v>1556.1968950776229</v>
+        <v>1571.2267738969826</v>
       </c>
       <c r="M40" s="6">
-        <v>1391.0393840153997</v>
+        <v>1404.4741578803516</v>
       </c>
       <c r="N40" s="6">
-        <v>1753.2954009483096</v>
+        <v>1770.2288735019092</v>
       </c>
       <c r="O40" s="6">
-        <v>1920.7591210219744</v>
+        <v>1939.3099720880921</v>
       </c>
       <c r="P40" s="6">
-        <v>1930.5440363990897</v>
+        <v>1949.1893909903342</v>
       </c>
       <c r="Q40" s="6">
-        <v>2012.7603876569754</v>
+        <v>2032.1997945948633</v>
       </c>
       <c r="R40" s="6">
-        <v>2003.55202453272</v>
+        <v>2022.9024963350091</v>
       </c>
       <c r="S40" s="6">
-        <v>2003.6838079048023</v>
+        <v>2023.035552481841</v>
       </c>
       <c r="T40" s="6">
-        <v>2017.6857911885534</v>
+        <v>2037.1727680826921</v>
       </c>
       <c r="U40" s="6">
-        <v>1985.5471213219671</v>
+        <v>2004.7237002741499</v>
       </c>
       <c r="V40" s="6">
-        <v>2009.449330433406</v>
+        <v>2028.8567589057207</v>
       </c>
       <c r="W40" s="6">
-        <v>1976.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1995.8920985282059</v>
+      </c>
+      <c r="X40" s="8">
+        <v>2008.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="6">
-        <v>22748.063309673376</v>
+        <v>22967.617814621437</v>
       </c>
       <c r="C41" s="6">
-        <v>22996.094788483802</v>
+        <v>23218.04318638883</v>
       </c>
       <c r="D41" s="6">
-        <v>22968.743532102257</v>
+        <v>23190.427947466316</v>
       </c>
       <c r="E41" s="6">
-        <v>23416.883348199881</v>
+        <v>23642.893015965939</v>
       </c>
       <c r="F41" s="6">
-        <v>23496.59940312387</v>
+        <v>23723.378455902486</v>
       </c>
       <c r="G41" s="6">
-        <v>23626.81008521379</v>
+        <v>23854.845875388291</v>
       </c>
       <c r="H41" s="6">
-        <v>23743.929567668103</v>
+        <v>23973.095744620587</v>
       </c>
       <c r="I41" s="6">
-        <v>23703.253340228879</v>
+        <v>23932.026927761464</v>
       </c>
       <c r="J41" s="6">
-        <v>21476.814316486681</v>
+        <v>21684.099273932377</v>
       </c>
       <c r="K41" s="6">
-        <v>13967.608696931164</v>
+        <v>14102.41803744583</v>
       </c>
       <c r="L41" s="6">
-        <v>20761.473764969349</v>
+        <v>20961.854563651301</v>
       </c>
       <c r="M41" s="6">
-        <v>19187.023237365011</v>
+        <v>19372.208117983628</v>
       </c>
       <c r="N41" s="6">
-        <v>21638.817911977374</v>
+        <v>21847.666458319567</v>
       </c>
       <c r="O41" s="6">
-        <v>23723.591453948491</v>
+        <v>23952.561336191025</v>
       </c>
       <c r="P41" s="6">
-        <v>24238.122353912433</v>
+        <v>24472.05826669059</v>
       </c>
       <c r="Q41" s="6">
-        <v>24623.143886052643</v>
+        <v>24860.795860753642</v>
       </c>
       <c r="R41" s="6">
-        <v>24147.886584995536</v>
+        <v>24380.951581014608</v>
       </c>
       <c r="S41" s="6">
-        <v>24444.074976751246</v>
+        <v>24679.998655500272</v>
       </c>
       <c r="T41" s="6">
-        <v>24475.400347307885</v>
+        <v>24711.626365035452</v>
       </c>
       <c r="U41" s="6">
-        <v>24133.392756827539</v>
+        <v>24366.317864662509</v>
       </c>
       <c r="V41" s="6">
-        <v>25086.712616006527</v>
+        <v>25328.838756337751</v>
       </c>
       <c r="W41" s="6">
-        <v>24635.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+        <v>24873.069300274758</v>
+      </c>
+      <c r="X41" s="8">
+        <v>24998.400000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="6">
-        <v>7367.3398857502034</v>
+        <v>7438.4150612943595</v>
       </c>
       <c r="C42" s="6">
-        <v>7433.9458589070464</v>
+        <v>7505.6636044028846</v>
       </c>
       <c r="D42" s="6">
-        <v>7387.3441544036086</v>
+        <v>7458.6123177735217</v>
       </c>
       <c r="E42" s="6">
-        <v>7638.2591196480071</v>
+        <v>7711.9479430496231</v>
       </c>
       <c r="F42" s="6">
-        <v>7948.5125896620566</v>
+        <v>8025.1945313650413</v>
       </c>
       <c r="G42" s="6">
-        <v>7873.140701027879</v>
+        <v>7949.0955050802522</v>
       </c>
       <c r="H42" s="6">
-        <v>7971.7385195592697</v>
+        <v>8048.6445295243702</v>
       </c>
       <c r="I42" s="6">
-        <v>7800.9155512829993</v>
+        <v>7876.1735753202756</v>
       </c>
       <c r="J42" s="6">
-        <v>7336.5467980477697</v>
+        <v>7407.3249024444103</v>
       </c>
       <c r="K42" s="6">
-        <v>4855.3431838349479</v>
+        <v>4902.1842926299514</v>
       </c>
       <c r="L42" s="6">
-        <v>7451.2529227981959</v>
+        <v>7523.1376352893521</v>
       </c>
       <c r="M42" s="6">
-        <v>7279.2311968498107</v>
+        <v>7349.4563585996157</v>
       </c>
       <c r="N42" s="6">
-        <v>8096.5591621681579</v>
+        <v>8174.6693583419228</v>
       </c>
       <c r="O42" s="6">
-        <v>8563.1006636840939</v>
+        <v>8645.7117407230144</v>
       </c>
       <c r="P42" s="6">
-        <v>8332.7893459291572</v>
+        <v>8413.1785331688989</v>
       </c>
       <c r="Q42" s="6">
-        <v>9059.9857187754187</v>
+        <v>9147.3904110219391</v>
       </c>
       <c r="R42" s="6">
-        <v>8127.2024051615754</v>
+        <v>8205.6082268811642</v>
       </c>
       <c r="S42" s="6">
-        <v>8130.8736005324263</v>
+        <v>8209.3148394934451</v>
       </c>
       <c r="T42" s="6">
-        <v>8087.7183243363152</v>
+        <v>8165.7432300103055</v>
       </c>
       <c r="U42" s="6">
-        <v>8124.5801227538259</v>
+        <v>8202.960646443822</v>
       </c>
       <c r="V42" s="6">
-        <v>8356.689577016934</v>
+        <v>8437.3093377264013</v>
       </c>
       <c r="W42" s="6">
-        <v>8105.4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+        <v>8183.5954866735374</v>
+      </c>
+      <c r="X42" s="8">
+        <v>8219.2999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="6">
-        <v>11478.1217635351</v>
+        <v>11588.911161976104</v>
       </c>
       <c r="C43" s="6">
-        <v>11575.460612462246</v>
+        <v>11687.189547243754</v>
       </c>
       <c r="D43" s="6">
-        <v>11497.61168095396</v>
+        <v>11608.589200436976</v>
       </c>
       <c r="E43" s="6">
-        <v>11791.510776576984</v>
+        <v>11905.325075863982</v>
       </c>
       <c r="F43" s="6">
-        <v>11572.027729280513</v>
+        <v>11683.723529105759</v>
       </c>
       <c r="G43" s="6">
-        <v>11489.97074742043</v>
+        <v>11600.874514904022</v>
       </c>
       <c r="H43" s="6">
-        <v>11519.537838050177</v>
+        <v>11630.726993705459</v>
       </c>
       <c r="I43" s="6">
-        <v>11581.108258987028</v>
+        <v>11692.891706115939</v>
       </c>
       <c r="J43" s="6">
-        <v>11400.051355692513</v>
+        <v>11510.08720109591</v>
       </c>
       <c r="K43" s="6">
-        <v>5278.3347373291199</v>
+        <v>5329.2824047581898</v>
       </c>
       <c r="L43" s="6">
-        <v>9325.2610559212244</v>
+        <v>9415.2705613067683</v>
       </c>
       <c r="M43" s="6">
-        <v>8820.5164900396321</v>
+        <v>8905.6540879848799</v>
       </c>
       <c r="N43" s="6">
-        <v>8411.6711769121976</v>
+        <v>8492.862508453416</v>
       </c>
       <c r="O43" s="6">
-        <v>10065.324227002113</v>
+        <v>10162.476987636339</v>
       </c>
       <c r="P43" s="6">
-        <v>10744.813620650522</v>
+        <v>10848.524964885815</v>
       </c>
       <c r="Q43" s="6">
-        <v>11548.994190512771</v>
+        <v>11660.467665470183</v>
       </c>
       <c r="R43" s="6">
-        <v>11800.037615447736</v>
+        <v>11913.934217690616</v>
       </c>
       <c r="S43" s="6">
-        <v>12220.510436126195</v>
+        <v>12338.465536076577</v>
       </c>
       <c r="T43" s="6">
-        <v>12468.896145049495</v>
+        <v>12589.248719415978</v>
       </c>
       <c r="U43" s="6">
-        <v>12477.312245753095</v>
+        <v>12597.746054205902</v>
       </c>
       <c r="V43" s="6">
-        <v>13099.882221485064</v>
+        <v>13226.325214586694</v>
       </c>
       <c r="W43" s="6">
-        <v>12685.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+        <v>12807.943283219756</v>
+      </c>
+      <c r="X43" s="8">
+        <v>12895.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="6">
-        <v>25265.462084784642</v>
+        <v>25509.064080209238</v>
       </c>
       <c r="C44" s="6">
-        <v>25559.447098802142</v>
+        <v>25805.883609415865</v>
       </c>
       <c r="D44" s="6">
-        <v>25333.208631382211</v>
+        <v>25577.463818657365</v>
       </c>
       <c r="E44" s="6">
-        <v>25629.94350522471</v>
+        <v>25877.059721011334</v>
       </c>
       <c r="F44" s="6">
-        <v>26225.913125477873</v>
+        <v>26478.775501307759</v>
       </c>
       <c r="G44" s="6">
-        <v>26392.904613032031</v>
+        <v>26647.377070619004</v>
       </c>
       <c r="H44" s="6">
-        <v>26445.151949706909</v>
+        <v>26700.128160418484</v>
       </c>
       <c r="I44" s="6">
-        <v>26377.155415852521</v>
+        <v>26631.476024411506</v>
       </c>
       <c r="J44" s="6">
-        <v>24440.254150029738</v>
+        <v>24675.899738448126</v>
       </c>
       <c r="K44" s="6">
-        <v>12627.106329113927</v>
+        <v>12748.853095030514</v>
       </c>
       <c r="L44" s="6">
-        <v>20803.939512360888</v>
+        <v>21004.524847428071</v>
       </c>
       <c r="M44" s="6">
-        <v>19630.249341602248</v>
+        <v>19819.518308631214</v>
       </c>
       <c r="N44" s="6">
-        <v>21051.926871123949</v>
+        <v>21254.903225806451</v>
       </c>
       <c r="O44" s="6">
-        <v>24932.979033217231</v>
+        <v>25173.37532693984</v>
       </c>
       <c r="P44" s="6">
-        <v>25850.93224025147</v>
+        <v>26100.179163034001</v>
       </c>
       <c r="Q44" s="6">
-        <v>26155.666706312124</v>
+        <v>26407.851787271138</v>
       </c>
       <c r="R44" s="6">
-        <v>25066.222241101012</v>
+        <v>25307.903225806447</v>
       </c>
       <c r="S44" s="6">
-        <v>25640.442970011045</v>
+        <v>25887.660418482996</v>
       </c>
       <c r="T44" s="6">
-        <v>25722.938764760856</v>
+        <v>25970.951612903227</v>
       </c>
       <c r="U44" s="6">
-        <v>25193.465754821173</v>
+        <v>25436.373583260676</v>
       </c>
       <c r="V44" s="6">
-        <v>26724.887690085809</v>
+        <v>26982.561028770706</v>
       </c>
       <c r="W44" s="6">
-        <v>26483.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+        <v>26738.744986922404</v>
+      </c>
+      <c r="X44" s="8">
+        <v>26923.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="6">
-        <v>3024.9722474268688</v>
+        <v>3054.104543097536</v>
       </c>
       <c r="C45" s="6">
-        <v>3101.8576940005414</v>
+        <v>3131.730442600739</v>
       </c>
       <c r="D45" s="6">
-        <v>3104.2308894230769</v>
+        <v>3134.1264933174984</v>
       </c>
       <c r="E45" s="6">
-        <v>3358.5887577871072</v>
+        <v>3390.9339803957646</v>
       </c>
       <c r="F45" s="6">
-        <v>3503.5666576381363</v>
+        <v>3537.3081043105899</v>
       </c>
       <c r="G45" s="6">
-        <v>3455.9810468580713</v>
+        <v>3489.2642155796798</v>
       </c>
       <c r="H45" s="6">
-        <v>3480.8387476300104</v>
+        <v>3514.3613109077833</v>
       </c>
       <c r="I45" s="6">
-        <v>3440.9508091820148</v>
+        <v>3474.0892277068733</v>
       </c>
       <c r="J45" s="6">
-        <v>3249.5738962621886</v>
+        <v>3280.8692404195172</v>
       </c>
       <c r="K45" s="6">
-        <v>1765.5356920368363</v>
+        <v>1782.5388588729236</v>
       </c>
       <c r="L45" s="6">
-        <v>2933.1174143418198</v>
+        <v>2961.3650929193918</v>
       </c>
       <c r="M45" s="6">
-        <v>2647.9688566495124</v>
+        <v>2673.470383721125</v>
       </c>
       <c r="N45" s="6">
-        <v>2922.4380349404119</v>
+        <v>2950.5828646939767</v>
       </c>
       <c r="O45" s="6">
-        <v>3457.8978585455034</v>
+        <v>3491.1994873124468</v>
       </c>
       <c r="P45" s="6">
-        <v>3557.3286616332607</v>
+        <v>3591.5878686248598</v>
       </c>
       <c r="Q45" s="6">
-        <v>3562.1359036430113</v>
+        <v>3596.4414072562431</v>
       </c>
       <c r="R45" s="6">
-        <v>3443.5674092632721</v>
+        <v>3476.7310272150949</v>
       </c>
       <c r="S45" s="6">
-        <v>3560.2190919555796</v>
+        <v>3594.5061355234766</v>
       </c>
       <c r="T45" s="6">
-        <v>3585.7157299566629</v>
+        <v>3620.2483214291688</v>
       </c>
       <c r="U45" s="6">
-        <v>3448.5572047670635</v>
+        <v>3481.7688774400749</v>
       </c>
       <c r="V45" s="6">
-        <v>3660.9581950839652</v>
+        <v>3696.215416590001</v>
       </c>
       <c r="W45" s="6">
-        <v>3594.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3629.2181523175486</v>
+      </c>
+      <c r="X45" s="8">
+        <v>3672.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="6">
-        <v>13482.908820510049</v>
+        <v>13613.082592409612</v>
       </c>
       <c r="C46" s="6">
-        <v>13713.332910092933</v>
+        <v>13845.731363125982</v>
       </c>
       <c r="D46" s="6">
-        <v>13596.208358547654</v>
+        <v>13727.476006287894</v>
       </c>
       <c r="E46" s="6">
-        <v>13880.050740220444</v>
+        <v>14014.05880799461</v>
       </c>
       <c r="F46" s="6">
-        <v>13272.796871623081</v>
+        <v>13400.94207051426</v>
       </c>
       <c r="G46" s="6">
-        <v>13195.637116382104</v>
+        <v>13323.037359083764</v>
       </c>
       <c r="H46" s="6">
-        <v>13344.285055111302</v>
+        <v>13473.120452728499</v>
       </c>
       <c r="I46" s="6">
-        <v>13231.381208126215</v>
+        <v>13359.126550190884</v>
       </c>
       <c r="J46" s="6">
-        <v>11810.322741517182</v>
+        <v>11924.348155400854</v>
       </c>
       <c r="K46" s="6">
-        <v>8207.5557083423391</v>
+        <v>8286.7973986076795</v>
       </c>
       <c r="L46" s="6">
-        <v>11496.671633888049</v>
+        <v>11607.66883269706</v>
       </c>
       <c r="M46" s="6">
-        <v>11031.470853144585</v>
+        <v>11137.976666516955</v>
       </c>
       <c r="N46" s="6">
-        <v>12345.16514750378</v>
+        <v>12464.354317538739</v>
       </c>
       <c r="O46" s="6">
-        <v>13667.300850983356</v>
+        <v>13799.254877161464</v>
       </c>
       <c r="P46" s="6">
-        <v>13711.090660795331</v>
+        <v>13843.467465528858</v>
       </c>
       <c r="Q46" s="6">
-        <v>13882.688680570564</v>
+        <v>14016.722216932407</v>
       </c>
       <c r="R46" s="6">
-        <v>13928.984533715149</v>
+        <v>14063.465043790704</v>
       </c>
       <c r="S46" s="6">
-        <v>14102.033420682948</v>
+        <v>14238.184670110038</v>
       </c>
       <c r="T46" s="6">
-        <v>14198.977728549815</v>
+        <v>14336.064948573996</v>
       </c>
       <c r="U46" s="6">
-        <v>14103.879978928029</v>
+        <v>14240.049056366495</v>
       </c>
       <c r="V46" s="6">
-        <v>14766.53059487789</v>
+        <v>14909.097381540532</v>
       </c>
       <c r="W46" s="6">
-        <v>14646.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+        <v>14788.311786211543</v>
+      </c>
+      <c r="X46" s="8">
+        <v>14825.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="6">
-        <v>2365.3738752007303</v>
+        <v>2388.229188863013</v>
       </c>
       <c r="C47" s="6">
-        <v>2390.6135555534443</v>
+        <v>2413.7127464383702</v>
       </c>
       <c r="D47" s="6">
-        <v>2356.7430649651751</v>
+        <v>2379.5149838300599</v>
       </c>
       <c r="E47" s="6">
-        <v>2377.5585484744538</v>
+        <v>2400.5315959683576</v>
       </c>
       <c r="F47" s="6">
-        <v>2206.8038910690702</v>
+        <v>2228.1270297281753</v>
       </c>
       <c r="G47" s="6">
-        <v>2199.9621003221182</v>
+        <v>2221.2191305003726</v>
       </c>
       <c r="H47" s="6">
-        <v>2220.8984635265729</v>
+        <v>2242.3577903282071</v>
       </c>
       <c r="I47" s="6">
-        <v>2179.6784874716132</v>
+        <v>2200.739528196038</v>
       </c>
       <c r="J47" s="6">
-        <v>1960.4752482397546</v>
+        <v>1979.4182479893645</v>
       </c>
       <c r="K47" s="6">
-        <v>1380.2043595176788</v>
+        <v>1393.5405191352147</v>
       </c>
       <c r="L47" s="6">
-        <v>2027.4667753062022</v>
+        <v>2047.0570775308547</v>
       </c>
       <c r="M47" s="6">
-        <v>1895.9254910158588</v>
+        <v>1914.2447817765246</v>
       </c>
       <c r="N47" s="6">
-        <v>2042.1415703005484</v>
+        <v>2061.8736670406652</v>
       </c>
       <c r="O47" s="6">
-        <v>2261.344809532407</v>
+        <v>2283.1949472473389</v>
       </c>
       <c r="P47" s="6">
-        <v>2296.3757451943638</v>
+        <v>2318.5643676752056</v>
       </c>
       <c r="Q47" s="6">
-        <v>2330.1495320264917</v>
+        <v>2352.6644921318862</v>
       </c>
       <c r="R47" s="6">
-        <v>2652.7774384507939</v>
+        <v>2678.4097755065482</v>
       </c>
       <c r="S47" s="6">
-        <v>2618.4959568989275</v>
+        <v>2643.7970507538116</v>
       </c>
       <c r="T47" s="6">
-        <v>2587.2122917874212</v>
+        <v>2612.211108701596</v>
       </c>
       <c r="U47" s="6">
-        <v>2571.981450195266</v>
+        <v>2596.8330998199144</v>
       </c>
       <c r="V47" s="6">
-        <v>2630.052055757737</v>
+        <v>2655.4648098735634</v>
       </c>
       <c r="W47" s="6">
-        <v>2544.3000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2568.8841789159069</v>
+      </c>
+      <c r="X47" s="8">
+        <v>2588.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="6">
-        <v>18293.995230350418</v>
+        <v>18470.401800636431</v>
       </c>
       <c r="C48" s="6">
-        <v>18532.565949711679</v>
+        <v>18711.273025810846</v>
       </c>
       <c r="D48" s="6">
-        <v>18843.6345495186</v>
+        <v>19025.341218879086</v>
       </c>
       <c r="E48" s="6">
-        <v>19077.481096219246</v>
+        <v>19261.442716822323</v>
       </c>
       <c r="F48" s="6">
-        <v>19669.819668281481</v>
+        <v>19859.493131192921</v>
       </c>
       <c r="G48" s="6">
-        <v>19697.256209502772</v>
+        <v>19887.194239343218</v>
       </c>
       <c r="H48" s="6">
-        <v>19787.197189003018</v>
+        <v>19978.00250778292</v>
       </c>
       <c r="I48" s="6">
-        <v>19410.53526879289</v>
+        <v>19597.708486620268</v>
       </c>
       <c r="J48" s="6">
-        <v>17524.68188246345</v>
+        <v>17693.670066144066</v>
       </c>
       <c r="K48" s="6">
-        <v>9948.7442253668123</v>
+        <v>10044.678646763079</v>
       </c>
       <c r="L48" s="6">
-        <v>16195.190676396149</v>
+        <v>16351.35875266258</v>
       </c>
       <c r="M48" s="6">
-        <v>16247.519973559929</v>
+        <v>16404.192654300226</v>
       </c>
       <c r="N48" s="6">
-        <v>17176.546697165519</v>
+        <v>17342.177859415828</v>
       </c>
       <c r="O48" s="6">
-        <v>19140.348932395173</v>
+        <v>19324.91677920644</v>
       </c>
       <c r="P48" s="6">
-        <v>19341.307969419973</v>
+        <v>19527.813637578798</v>
       </c>
       <c r="Q48" s="6">
-        <v>20625.192739417449</v>
+        <v>20824.0787381747</v>
       </c>
       <c r="R48" s="6">
-        <v>20961.880890960801</v>
+        <v>21164.013528919702</v>
       </c>
       <c r="S48" s="6">
-        <v>21432.299468589372</v>
+        <v>21638.968290516474</v>
       </c>
       <c r="T48" s="6">
-        <v>21344.538876470946</v>
+        <v>21550.361434645001</v>
       </c>
       <c r="U48" s="6">
-        <v>21296.38865512233</v>
+        <v>21501.746907096469</v>
       </c>
       <c r="V48" s="6">
-        <v>21466.458870904615</v>
+        <v>21673.457087418828</v>
       </c>
       <c r="W48" s="6">
-        <v>20891.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+        <v>21092.651071499411</v>
+      </c>
+      <c r="X48" s="8">
+        <v>21272.799999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="6">
-        <v>65925.05843529015</v>
+        <v>66560.898939457213</v>
       </c>
       <c r="C49" s="6">
-        <v>66871.007512066455</v>
+        <v>67515.971599164928</v>
       </c>
       <c r="D49" s="6">
-        <v>66803.977136416361</v>
+        <v>67448.294722338207</v>
       </c>
       <c r="E49" s="6">
-        <v>68898.334383769223</v>
+        <v>69562.851832985383</v>
       </c>
       <c r="F49" s="6">
-        <v>68100.125726793121</v>
+        <v>68756.944534446753</v>
       </c>
       <c r="G49" s="6">
-        <v>68332.680091293441</v>
+        <v>68991.741862212948</v>
       </c>
       <c r="H49" s="6">
-        <v>71087.765327197223</v>
+        <v>71773.399615866394</v>
       </c>
       <c r="I49" s="6">
-        <v>69147.304350469567</v>
+        <v>69814.223089770356</v>
       </c>
       <c r="J49" s="6">
-        <v>62407.331680510346</v>
+        <v>63009.244066805841</v>
       </c>
       <c r="K49" s="6">
-        <v>43989.02601208516</v>
+        <v>44413.295707724428</v>
       </c>
       <c r="L49" s="6">
-        <v>58548.981180080067</v>
+        <v>59113.680167014609</v>
       </c>
       <c r="M49" s="6">
-        <v>56190.606330676841</v>
+        <v>56732.559031315235</v>
       </c>
       <c r="N49" s="6">
-        <v>59531.86536180642</v>
+        <v>60106.044167014617</v>
       </c>
       <c r="O49" s="6">
-        <v>68919.537869944252</v>
+        <v>69584.259824634646</v>
       </c>
       <c r="P49" s="6">
-        <v>71066.561841022194</v>
+        <v>71751.991624217117</v>
       </c>
       <c r="Q49" s="6">
-        <v>72286.788271223864</v>
+        <v>72983.987014613784</v>
       </c>
       <c r="R49" s="6">
-        <v>71582.969326897903</v>
+        <v>72273.37980793319</v>
       </c>
       <c r="S49" s="6">
-        <v>73490.599099225496</v>
+        <v>74199.408475991644</v>
       </c>
       <c r="T49" s="6">
-        <v>74114.391982826361</v>
+        <v>74829.217778705628</v>
       </c>
       <c r="U49" s="6">
-        <v>73851.742347625986</v>
+        <v>74564.034914405012</v>
       </c>
       <c r="V49" s="6">
-        <v>74859.933916077382</v>
+        <v>75581.950388308978</v>
       </c>
       <c r="W49" s="6">
-        <v>73123.3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+        <v>73828.566814196238</v>
+      </c>
+      <c r="X49" s="8">
+        <v>74427.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="6">
-        <v>6440.878446795994</v>
+        <v>6503.0625685105151</v>
       </c>
       <c r="C50" s="6">
-        <v>6556.528556806551</v>
+        <v>6619.8292343723588</v>
       </c>
       <c r="D50" s="6">
-        <v>6610.1285277927773</v>
+        <v>6673.9466917771288</v>
       </c>
       <c r="E50" s="6">
-        <v>6812.5624803552573</v>
+        <v>6878.3350637017011</v>
       </c>
       <c r="F50" s="6">
-        <v>6894.3502381547241</v>
+        <v>6960.912449799197</v>
       </c>
       <c r="G50" s="6">
-        <v>7014.2562722136699</v>
+        <v>7081.9761289647568</v>
       </c>
       <c r="H50" s="6">
-        <v>7254.4384206835966</v>
+        <v>7324.4771406266354</v>
       </c>
       <c r="I50" s="6">
-        <v>7061.6265572739949</v>
+        <v>7129.8037553017684</v>
       </c>
       <c r="J50" s="6">
-        <v>6265.5220399906511</v>
+        <v>6326.0131652863956</v>
       </c>
       <c r="K50" s="6">
-        <v>4529.5984687175105</v>
+        <v>4573.3299418113338</v>
       </c>
       <c r="L50" s="6">
-        <v>6001.7781091079078</v>
+        <v>6059.7228915662654</v>
       </c>
       <c r="M50" s="6">
-        <v>5780.2850184156869</v>
+        <v>5836.0913731076616</v>
       </c>
       <c r="N50" s="6">
-        <v>6203.9653414356981</v>
+        <v>6263.8621612703319</v>
       </c>
       <c r="O50" s="6">
-        <v>7088.3957027377719</v>
+        <v>7156.8313462265896</v>
       </c>
       <c r="P50" s="6">
-        <v>7285.3401300784171</v>
+        <v>7355.6771937449194</v>
       </c>
       <c r="Q50" s="6">
-        <v>7373.7893342144926</v>
+        <v>7444.9803397960577</v>
       </c>
       <c r="R50" s="6">
-        <v>7273.9293192240439</v>
+        <v>7344.156216046551</v>
       </c>
       <c r="S50" s="6">
-        <v>7460.4498166490694</v>
+        <v>7532.4774947485321</v>
       </c>
       <c r="T50" s="6">
-        <v>7451.6295682589325</v>
+        <v>7523.5720903654701</v>
       </c>
       <c r="U50" s="6">
-        <v>7579.3072897105876</v>
+        <v>7652.4824894769454</v>
       </c>
       <c r="V50" s="6">
-        <v>7698.781563358828</v>
+        <v>7773.110239756621</v>
       </c>
       <c r="W50" s="6">
-        <v>7653.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+        <v>7727.0886045182724</v>
+      </c>
+      <c r="X50" s="8">
+        <v>7737.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="6">
-        <v>2519.9377765117456</v>
+        <v>2544.2777001792319</v>
       </c>
       <c r="C51" s="6">
-        <v>2569.7299197949028</v>
+        <v>2594.5507827054325</v>
       </c>
       <c r="D51" s="6">
-        <v>2542.5327363201791</v>
+        <v>2567.0909033118196</v>
       </c>
       <c r="E51" s="6">
-        <v>2520.7945734708956</v>
+        <v>2545.1427728874019</v>
       </c>
       <c r="F51" s="6">
-        <v>2565.739693956577</v>
+        <v>2590.5220155216716</v>
       </c>
       <c r="G51" s="6">
-        <v>2563.9281803858034</v>
+        <v>2588.6930046529701</v>
       </c>
       <c r="H51" s="6">
-        <v>2596.3885451810174</v>
+        <v>2621.4669021110535</v>
       </c>
       <c r="I51" s="6">
-        <v>2589.8768882914801</v>
+        <v>2614.8923495289641</v>
       </c>
       <c r="J51" s="6">
-        <v>2659.5956808531473</v>
+        <v>2685.2845516108814</v>
       </c>
       <c r="K51" s="6">
-        <v>1111.8286940188896</v>
+        <v>1122.5677788470878</v>
       </c>
       <c r="L51" s="6">
-        <v>2083.8036443914293</v>
+        <v>2103.9309753578023</v>
       </c>
       <c r="M51" s="6">
-        <v>2206.9865672040378</v>
+        <v>2228.3037144295035</v>
       </c>
       <c r="N51" s="6">
-        <v>2205.7136117218724</v>
+        <v>2227.0184635487944</v>
       </c>
       <c r="O51" s="6">
-        <v>2577.1228535567088</v>
+        <v>2602.0151243587825</v>
       </c>
       <c r="P51" s="6">
-        <v>2639.2773529647397</v>
+        <v>2664.7699702457157</v>
       </c>
       <c r="Q51" s="6">
-        <v>2710.6362997053507</v>
+        <v>2736.8181686547005</v>
       </c>
       <c r="R51" s="6">
-        <v>2689.5835744233868</v>
+        <v>2715.5620963968181</v>
       </c>
       <c r="S51" s="6">
-        <v>2752.4969511380932</v>
+        <v>2779.0831495395591</v>
       </c>
       <c r="T51" s="6">
-        <v>2775.6304690351353</v>
+        <v>2802.4401126601392</v>
       </c>
       <c r="U51" s="6">
-        <v>2761.0159609033535</v>
+        <v>2787.6844438950748</v>
       </c>
       <c r="V51" s="6">
-        <v>2841.6038348896623</v>
+        <v>2869.0507111892007</v>
       </c>
       <c r="W51" s="6">
-        <v>2750</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2776.5620805043222</v>
+      </c>
+      <c r="X51" s="8">
+        <v>2799.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="6">
-        <v>19294.843206474947</v>
+        <v>19481.025329527409</v>
       </c>
       <c r="C52" s="6">
-        <v>19476.41398886402</v>
+        <v>19664.34814656054</v>
       </c>
       <c r="D52" s="6">
-        <v>19276.568225130592</v>
+        <v>19462.574007033811</v>
       </c>
       <c r="E52" s="6">
-        <v>19724.403520655153</v>
+        <v>19914.730608785449</v>
       </c>
       <c r="F52" s="6">
-        <v>20384.660911160863</v>
+        <v>20581.359034360474</v>
       </c>
       <c r="G52" s="6">
-        <v>20500.991975202345</v>
+        <v>20698.812614104649</v>
       </c>
       <c r="H52" s="6">
-        <v>20722.256803092052</v>
+        <v>20922.212497199136</v>
       </c>
       <c r="I52" s="6">
-        <v>20697.89016129958</v>
+        <v>20897.610733874342</v>
       </c>
       <c r="J52" s="6">
-        <v>18661.703530222148</v>
+        <v>18841.776285717067</v>
       </c>
       <c r="K52" s="6">
-        <v>11251.49335285001</v>
+        <v>11360.062616540181</v>
       </c>
       <c r="L52" s="6">
-        <v>16463.989644681707</v>
+        <v>16622.855954874471</v>
       </c>
       <c r="M52" s="6">
-        <v>15878.993736486618</v>
+        <v>16032.21523376231</v>
       </c>
       <c r="N52" s="6">
-        <v>16790.384741595393</v>
+        <v>16952.400542636413</v>
       </c>
       <c r="O52" s="6">
-        <v>19059.430005931543</v>
+        <v>19243.340551599169</v>
       </c>
       <c r="P52" s="6">
-        <v>20116.824356619411</v>
+        <v>20310.938039104891</v>
       </c>
       <c r="Q52" s="6">
-        <v>19996.956199414504</v>
+        <v>20189.913235652282</v>
       </c>
       <c r="R52" s="6">
-        <v>19646.194460708342</v>
+        <v>19835.766884565546</v>
       </c>
       <c r="S52" s="6">
-        <v>20211.736356504603</v>
+        <v>20406.7658752813</v>
       </c>
       <c r="T52" s="6">
-        <v>20125.863594703711</v>
+        <v>20320.064499693122</v>
       </c>
       <c r="U52" s="6">
-        <v>20007.567478904773</v>
+        <v>20200.626906777594</v>
       </c>
       <c r="V52" s="6">
-        <v>20881.229490270369</v>
+        <v>21082.719162761696</v>
       </c>
       <c r="W52" s="6">
-        <v>20539.900000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+        <v>20738.096074897458</v>
+      </c>
+      <c r="X52" s="8">
+        <v>20365.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="6">
-        <v>23294.29448154178</v>
+        <v>23518.982157123839</v>
       </c>
       <c r="C53" s="6">
-        <v>23476.686464618895</v>
+        <v>23703.133422103863</v>
       </c>
       <c r="D53" s="6">
-        <v>23425.272397960674</v>
+        <v>23651.223435419444</v>
       </c>
       <c r="E53" s="6">
-        <v>24973.277825760608</v>
+        <v>25214.160319573904</v>
       </c>
       <c r="F53" s="6">
-        <v>22609.626616495916</v>
+        <v>22827.710252996007</v>
       </c>
       <c r="G53" s="6">
-        <v>22649.64118421181</v>
+        <v>22868.110785619177</v>
       </c>
       <c r="H53" s="6">
-        <v>22648.012684362908</v>
+        <v>22866.466577896139</v>
       </c>
       <c r="I53" s="6">
-        <v>22415.835134476474</v>
+        <v>22632.049533954727</v>
       </c>
       <c r="J53" s="6">
-        <v>20994.154766384294</v>
+        <v>21196.656191744343</v>
       </c>
       <c r="K53" s="6">
-        <v>12009.023171480654</v>
+        <v>12124.857523302264</v>
       </c>
       <c r="L53" s="6">
-        <v>16652.341526373766</v>
+        <v>16812.963515312917</v>
       </c>
       <c r="M53" s="6">
-        <v>15205.535732041373</v>
+        <v>15352.202396804261</v>
       </c>
       <c r="N53" s="6">
-        <v>16665.369525164988</v>
+        <v>16826.117177097207</v>
       </c>
       <c r="O53" s="6">
-        <v>20613.551087412143</v>
+        <v>20812.381358189083</v>
       </c>
       <c r="P53" s="6">
-        <v>22530.99333807746</v>
+        <v>22748.318508655131</v>
       </c>
       <c r="Q53" s="6">
-        <v>22233.90843707047</v>
+        <v>22448.368042609854</v>
       </c>
       <c r="R53" s="6">
-        <v>22626.144257820499</v>
+        <v>22844.387217043946</v>
       </c>
       <c r="S53" s="6">
-        <v>22999.303366054806</v>
+        <v>23221.145672436753</v>
       </c>
       <c r="T53" s="6">
-        <v>23029.779577512847</v>
+        <v>23251.915845539286</v>
       </c>
       <c r="U53" s="6">
-        <v>22531.225980913019</v>
+        <v>22748.553395472707</v>
       </c>
       <c r="V53" s="6">
-        <v>24426.567162200361</v>
+        <v>24662.176298268976</v>
       </c>
       <c r="W53" s="6">
-        <v>23865.200000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+        <v>24095.394407456726</v>
+      </c>
+      <c r="X53" s="8">
+        <v>23990.400000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="6">
-        <v>3463.5582881164855</v>
+        <v>3497.0106970243364</v>
       </c>
       <c r="C54" s="6">
-        <v>3422.5121890573478</v>
+        <v>3455.5681585882398</v>
       </c>
       <c r="D54" s="6">
-        <v>3421.9248290539754</v>
+        <v>3454.9751256308209</v>
       </c>
       <c r="E54" s="6">
-        <v>3442.4478785835449</v>
+        <v>3475.6963948488697</v>
       </c>
       <c r="F54" s="6">
-        <v>3464.2838504735919</v>
+        <v>3497.743267148207</v>
       </c>
       <c r="G54" s="6">
-        <v>3463.9728951776892</v>
+        <v>3497.4293085236905</v>
       </c>
       <c r="H54" s="6">
-        <v>3470.3647540379088</v>
+        <v>3503.8829024720731</v>
       </c>
       <c r="I54" s="6">
-        <v>3464.83665988853</v>
+        <v>3498.3014158140131</v>
       </c>
       <c r="J54" s="6">
-        <v>3182.6965547396039</v>
+        <v>3213.4362905032699</v>
       </c>
       <c r="K54" s="6">
-        <v>2007.3200868163478</v>
+        <v>2026.7075741248516</v>
       </c>
       <c r="L54" s="6">
-        <v>3028.4972785603659</v>
+        <v>3057.7476970350053</v>
       </c>
       <c r="M54" s="6">
-        <v>2914.0657296682225</v>
+        <v>2942.2109232131615</v>
       </c>
       <c r="N54" s="6">
-        <v>3111.2804884473153</v>
+        <v>3141.3304597394558</v>
       </c>
       <c r="O54" s="6">
-        <v>3346.9500521530244</v>
+        <v>3379.2762128308809</v>
       </c>
       <c r="P54" s="6">
-        <v>3289.0778165267147</v>
+        <v>3320.8450243793141</v>
       </c>
       <c r="Q54" s="6">
-        <v>3336.1011673848684</v>
+        <v>3368.3225452644378</v>
       </c>
       <c r="R54" s="6">
-        <v>3250.1047527735932</v>
+        <v>3281.4955434399903</v>
       </c>
       <c r="S54" s="6">
-        <v>3232.8294585567837</v>
+        <v>3264.0533976335523</v>
       </c>
       <c r="T54" s="6">
-        <v>3205.0162348677213</v>
+        <v>3235.9715428851878</v>
       </c>
       <c r="U54" s="6">
-        <v>3156.6799616490898</v>
+        <v>3187.1684189187745</v>
       </c>
       <c r="V54" s="6">
-        <v>3312.5722166615747</v>
+        <v>3344.5663426760698</v>
       </c>
       <c r="W54" s="6">
-        <v>3279.3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3310.97276985287</v>
+      </c>
+      <c r="X54" s="8">
+        <v>3269.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="6">
-        <v>11056.167725588839</v>
+        <v>11162.848123384954</v>
       </c>
       <c r="C55" s="6">
-        <v>11037.520318316943</v>
+        <v>11144.020788232529</v>
       </c>
       <c r="D55" s="6">
-        <v>11016.255731077063</v>
+        <v>11122.551020076256</v>
       </c>
       <c r="E55" s="6">
-        <v>11257.036288131716</v>
+        <v>11365.654856430365</v>
       </c>
       <c r="F55" s="6">
-        <v>11655.283839926824</v>
+        <v>11767.745078516054</v>
       </c>
       <c r="G55" s="6">
-        <v>11743.940811342327</v>
+        <v>11857.257496521439</v>
       </c>
       <c r="H55" s="6">
-        <v>11879.597973016234</v>
+        <v>11994.223607220947</v>
       </c>
       <c r="I55" s="6">
-        <v>11792.685788246055</v>
+        <v>11906.472811218129</v>
       </c>
       <c r="J55" s="6">
-        <v>11191.606788932082</v>
+        <v>11299.59403133414</v>
       </c>
       <c r="K55" s="6">
-        <v>6441.8613436999767</v>
+        <v>6504.0185348488403</v>
       </c>
       <c r="L55" s="6">
-        <v>10209.291907614908</v>
+        <v>10307.800843889479</v>
       </c>
       <c r="M55" s="6">
-        <v>9709.301484564372</v>
+        <v>9802.9860387791614</v>
       </c>
       <c r="N55" s="6">
-        <v>10716.261477246739</v>
+        <v>10819.662137010064</v>
       </c>
       <c r="O55" s="6">
-        <v>11806.971228904642</v>
+        <v>11920.896091364139</v>
       </c>
       <c r="P55" s="6">
-        <v>11970.217829407729</v>
+        <v>12085.717849979219</v>
       </c>
       <c r="Q55" s="6">
-        <v>12569.22489458038</v>
+        <v>12690.50470373516</v>
       </c>
       <c r="R55" s="6">
-        <v>11683.527573747999</v>
+        <v>11796.261334682593</v>
       </c>
       <c r="S55" s="6">
-        <v>11911.87652595472</v>
+        <v>12026.813614268418</v>
       </c>
       <c r="T55" s="6">
-        <v>11935.649243997255</v>
+        <v>12050.815714053379</v>
       </c>
       <c r="U55" s="6">
-        <v>11808.716015549964</v>
+        <v>11922.657713366703</v>
       </c>
       <c r="V55" s="6">
-        <v>12182.209406814542</v>
+        <v>12299.754923290988</v>
       </c>
       <c r="W55" s="6">
-        <v>11921.8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+        <v>12036.832839408013</v>
+      </c>
+      <c r="X55" s="8">
+        <v>12185.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="6">
-        <v>1814.7449097837923</v>
+        <v>1832.2417767130416</v>
       </c>
       <c r="C56" s="6">
-        <v>1823.4342889640691</v>
+        <v>1841.0149345612708</v>
       </c>
       <c r="D56" s="6">
-        <v>1841.1613966013376</v>
+        <v>1858.9129581447407</v>
       </c>
       <c r="E56" s="6">
-        <v>1850.2184777959249</v>
+        <v>1868.0573632070377</v>
       </c>
       <c r="F56" s="6">
-        <v>1810.3324856120701</v>
+        <v>1827.78681014423</v>
       </c>
       <c r="G56" s="6">
-        <v>1805.7071813268005</v>
+        <v>1823.1169109778009</v>
       </c>
       <c r="H56" s="6">
-        <v>1862.7203462824702</v>
+        <v>1880.6797684853366</v>
       </c>
       <c r="I56" s="6">
-        <v>1919.4432201742106</v>
+        <v>1937.9495360870292</v>
       </c>
       <c r="J56" s="6">
-        <v>1855.6759497977912</v>
+        <v>1873.5674534368832</v>
       </c>
       <c r="K56" s="6">
-        <v>1357.3042512443617</v>
+        <v>1370.3907030858804</v>
       </c>
       <c r="L56" s="6">
-        <v>1777.2393043241561</v>
+        <v>1794.3745608781455</v>
       </c>
       <c r="M56" s="6">
-        <v>1840.6582254238608</v>
+        <v>1858.40493564128</v>
       </c>
       <c r="N56" s="6">
-        <v>1868.5648730362418</v>
+        <v>1886.5806452563056</v>
       </c>
       <c r="O56" s="6">
-        <v>2193.9811557007306</v>
+        <v>2215.1344297061391</v>
       </c>
       <c r="P56" s="6">
-        <v>2153.3210540130658</v>
+        <v>2174.0823035610842</v>
       </c>
       <c r="Q56" s="6">
-        <v>2175.3638221340802</v>
+        <v>2196.3375970780844</v>
       </c>
       <c r="R56" s="6">
-        <v>2302.7435409861564</v>
+        <v>2324.9454477619265</v>
       </c>
       <c r="S56" s="6">
-        <v>2169.7708809690466</v>
+        <v>2190.6907315588455</v>
       </c>
       <c r="T56" s="6">
-        <v>2155.9723790636181</v>
+        <v>2176.759191367782</v>
       </c>
       <c r="U56" s="6">
-        <v>2127.5238547985687</v>
+        <v>2148.0363805951829</v>
       </c>
       <c r="V56" s="6">
-        <v>2044.4425523020689</v>
+        <v>2064.1540495429599</v>
       </c>
       <c r="W56" s="6">
-        <v>1990.7</v>
+        <v>2009.8933383079204</v>
+      </c>
+      <c r="X56" s="8">
+        <v>1990.1</v>
       </c>
     </row>
   </sheetData>
@@ -4469,27 +4635,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:T56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
     <col min="2" max="19" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4547,559 +4714,589 @@
       <c r="S4" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="T4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7">
-        <v>2.5969345360256959</v>
+        <v>2.596934536025699</v>
       </c>
       <c r="C5" s="7">
-        <v>1.9536767247765237</v>
+        <v>1.9536767247765374</v>
       </c>
       <c r="D5" s="7">
-        <v>3.6935081395809592</v>
+        <v>3.6935081395809428</v>
       </c>
       <c r="E5" s="7">
-        <v>0.8931528197136519</v>
+        <v>0.89315281971363658</v>
       </c>
       <c r="F5" s="7">
-        <v>-7.4999268157024117</v>
+        <v>-7.4999268157024099</v>
       </c>
       <c r="G5" s="7">
-        <v>-46.20288114083101</v>
+        <v>-46.202881140831018</v>
       </c>
       <c r="H5" s="7">
         <v>-22.58064516129032</v>
       </c>
       <c r="I5" s="7">
-        <v>-22.954617857453162</v>
+        <v>-22.954617857453155</v>
       </c>
       <c r="J5" s="7">
-        <v>-11.774882641489544</v>
+        <v>-11.774882641489537</v>
       </c>
       <c r="K5" s="7">
         <v>77.207325637931973</v>
       </c>
       <c r="L5" s="7">
-        <v>27.478044207617913</v>
+        <v>27.478044207617923</v>
       </c>
       <c r="M5" s="7">
-        <v>30.906288764425064</v>
+        <v>30.906288764425046</v>
       </c>
       <c r="N5" s="7">
-        <v>21.648153240945568</v>
+        <v>21.648153240945565</v>
       </c>
       <c r="O5" s="7">
         <v>7.0209847060616672</v>
       </c>
       <c r="P5" s="7">
-        <v>2.9995452302392822</v>
+        <v>2.9995452302392898</v>
       </c>
       <c r="Q5" s="7">
-        <v>0.1770758554678076</v>
+        <v>0.1770758554678242</v>
       </c>
       <c r="R5" s="7">
-        <v>6.1560085710354038</v>
+        <v>6.1560085710354135</v>
       </c>
       <c r="S5" s="7">
-        <v>0.51939913022011208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.51939913022012829</v>
+      </c>
+      <c r="T5" s="7">
+        <v>-0.11836654172422084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>1.3131292503114489</v>
+        <v>1.31312925031144</v>
       </c>
       <c r="C6" s="7">
-        <v>0.86940735062735242</v>
+        <v>0.86940735062737073</v>
       </c>
       <c r="D6" s="7">
-        <v>2.5715902431138007</v>
+        <v>2.5715902431138105</v>
       </c>
       <c r="E6" s="7">
-        <v>0.6414199103769449</v>
+        <v>0.64141991037694912</v>
       </c>
       <c r="F6" s="7">
-        <v>-5.472686958274541</v>
+        <v>-5.4726869582745241</v>
       </c>
       <c r="G6" s="7">
-        <v>-28.107189281071893</v>
+        <v>-28.107189281071896</v>
       </c>
       <c r="H6" s="7">
-        <v>-7.2662076031169027</v>
+        <v>-7.2662076031169081</v>
       </c>
       <c r="I6" s="7">
-        <v>-15.545272878955439</v>
+        <v>-15.545272878955435</v>
       </c>
       <c r="J6" s="7">
-        <v>4.9386928243949137</v>
+        <v>4.9386928243949093</v>
       </c>
       <c r="K6" s="7">
-        <v>47.990264255910986</v>
+        <v>47.990264255910972</v>
       </c>
       <c r="L6" s="7">
-        <v>13.121580708556841</v>
+        <v>13.121580708556857</v>
       </c>
       <c r="M6" s="7">
-        <v>22.286672562915655</v>
+        <v>22.286672562915637</v>
       </c>
       <c r="N6" s="7">
-        <v>10.059742740444207</v>
+        <v>10.059742740444202</v>
       </c>
       <c r="O6" s="7">
-        <v>1.9688924392650518</v>
+        <v>1.968892439265074</v>
       </c>
       <c r="P6" s="7">
-        <v>2.6125254725929183</v>
+        <v>2.612525472592905</v>
       </c>
       <c r="Q6" s="7">
-        <v>1.9255335136759657</v>
+        <v>1.925533513675997</v>
       </c>
       <c r="R6" s="7">
-        <v>3.0252116355713756</v>
+        <v>3.0252116355713996</v>
       </c>
       <c r="S6" s="7">
-        <v>1.5124423963133782</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.5124423963133655</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0.89046298584227535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="7">
-        <v>1.7037833410126348</v>
+        <v>1.7037833410126337</v>
       </c>
       <c r="C7" s="7">
-        <v>-0.29959489991935934</v>
+        <v>-0.29959489991935306</v>
       </c>
       <c r="D7" s="7">
-        <v>2.0879335613092547</v>
+        <v>2.0879335613092254</v>
       </c>
       <c r="E7" s="7">
-        <v>-1.5598584627481729</v>
+        <v>-1.5598584627481562</v>
       </c>
       <c r="F7" s="7">
-        <v>-13.179434002154444</v>
+        <v>-13.179434002154451</v>
       </c>
       <c r="G7" s="7">
-        <v>-44.384434150626944</v>
+        <v>-44.384434150626952</v>
       </c>
       <c r="H7" s="7">
-        <v>-35.712576684180824</v>
+        <v>-35.71257668418081</v>
       </c>
       <c r="I7" s="7">
-        <v>-28.47044022645353</v>
+        <v>-28.47044022645354</v>
       </c>
       <c r="J7" s="7">
-        <v>-7.8086226489482558</v>
+        <v>-7.8086226489482495</v>
       </c>
       <c r="K7" s="7">
-        <v>66.687608824426889</v>
+        <v>66.687608824426931</v>
       </c>
       <c r="L7" s="7">
-        <v>48.282022271184417</v>
+        <v>48.282022271184424</v>
       </c>
       <c r="M7" s="7">
-        <v>38.375745055067775</v>
+        <v>38.375745055067796</v>
       </c>
       <c r="N7" s="7">
-        <v>23.439072247937208</v>
+        <v>23.43907224793718</v>
       </c>
       <c r="O7" s="7">
-        <v>12.933448201593796</v>
+        <v>12.933448201593794</v>
       </c>
       <c r="P7" s="7">
-        <v>12.024617485241565</v>
+        <v>12.024617485241558</v>
       </c>
       <c r="Q7" s="7">
-        <v>7.683771978493108</v>
+        <v>7.6837719784930858</v>
       </c>
       <c r="R7" s="7">
-        <v>5.94564851893744</v>
+        <v>5.9456485189374506</v>
       </c>
       <c r="S7" s="7">
-        <v>-2.0873462381996726</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-2.0873462381996641</v>
+      </c>
+      <c r="T7" s="7">
+        <v>-7.2279330710425498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="7">
-        <v>-1.2917503460915969</v>
+        <v>-1.2917503460916118</v>
       </c>
       <c r="C8" s="7">
-        <v>-2.8599378524571271</v>
+        <v>-2.8599378524571302</v>
       </c>
       <c r="D8" s="7">
-        <v>-0.48731062433657996</v>
+        <v>-0.48731062433656674</v>
       </c>
       <c r="E8" s="7">
-        <v>-2.076432397645315</v>
+        <v>-2.0764323976453309</v>
       </c>
       <c r="F8" s="7">
-        <v>-3.4627502493851838</v>
+        <v>-3.4627502493851794</v>
       </c>
       <c r="G8" s="7">
         <v>-36.238966885847994</v>
       </c>
       <c r="H8" s="7">
-        <v>-11.972848484848461</v>
+        <v>-11.972848484848493</v>
       </c>
       <c r="I8" s="7">
-        <v>-14.473073800595365</v>
+        <v>-14.473073800595348</v>
       </c>
       <c r="J8" s="7">
-        <v>-4.041210112233089</v>
+        <v>-4.0412101122330979</v>
       </c>
       <c r="K8" s="7">
         <v>66.264071476130738</v>
       </c>
       <c r="L8" s="7">
-        <v>22.227852563396407</v>
+        <v>22.227852563396425</v>
       </c>
       <c r="M8" s="7">
-        <v>28.519769925304814</v>
+        <v>28.519769925304821</v>
       </c>
       <c r="N8" s="7">
-        <v>16.554540317507676</v>
+        <v>16.554540317507705</v>
       </c>
       <c r="O8" s="7">
-        <v>7.0286379511059565</v>
+        <v>7.0286379511059431</v>
       </c>
       <c r="P8" s="7">
         <v>4.592811564944669</v>
       </c>
       <c r="Q8" s="7">
-        <v>1.7268818527929874</v>
+        <v>1.7268818527929961</v>
       </c>
       <c r="R8" s="7">
-        <v>8.2638126600805002</v>
+        <v>8.2638126600804895</v>
       </c>
       <c r="S8" s="7">
-        <v>1.6593863664050243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.6593863664050386</v>
+      </c>
+      <c r="T8" s="7">
+        <v>1.7983317823044693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="7">
-        <v>5.2432873533836037</v>
+        <v>5.2432873533836268</v>
       </c>
       <c r="C9" s="7">
-        <v>2.9396798058480393</v>
+        <v>2.9396798058480353</v>
       </c>
       <c r="D9" s="7">
-        <v>4.4525030785490554</v>
+        <v>4.45250307854905</v>
       </c>
       <c r="E9" s="7">
-        <v>2.1473236736979056</v>
+        <v>2.1473236736978927</v>
       </c>
       <c r="F9" s="7">
-        <v>-6.6561413997982051</v>
+        <v>-6.6561413997982362</v>
       </c>
       <c r="G9" s="7">
-        <v>-29.583998783177432</v>
+        <v>-29.583998783177421</v>
       </c>
       <c r="H9" s="7">
-        <v>-6.4469714550939807</v>
+        <v>-6.4469714550939914</v>
       </c>
       <c r="I9" s="7">
-        <v>-11.03947979563401</v>
+        <v>-11.039479795634005</v>
       </c>
       <c r="J9" s="7">
-        <v>3.3086800308249438</v>
+        <v>3.3086800308249678</v>
       </c>
       <c r="K9" s="7">
-        <v>55.162544551247457</v>
+        <v>55.162544551247429</v>
       </c>
       <c r="L9" s="7">
-        <v>12.657273268505657</v>
+        <v>12.657273268505667</v>
       </c>
       <c r="M9" s="7">
         <v>19.991437462147328</v>
       </c>
       <c r="N9" s="7">
-        <v>7.9040930007265908</v>
+        <v>7.9040930007265855</v>
       </c>
       <c r="O9" s="7">
-        <v>-2.2465457835937834</v>
+        <v>-2.2465457835937848</v>
       </c>
       <c r="P9" s="7">
-        <v>-0.72928410372041608</v>
+        <v>-0.72928410372041752</v>
       </c>
       <c r="Q9" s="7">
-        <v>-1.2731592275761354</v>
+        <v>-1.2731592275761301</v>
       </c>
       <c r="R9" s="7">
-        <v>3.026466997055222</v>
+        <v>3.02646699705523</v>
       </c>
       <c r="S9" s="7">
-        <v>2.1797952825990294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.1797952825990237</v>
+      </c>
+      <c r="T9" s="7">
+        <v>2.9394541647443075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="7">
-        <v>3.22406651672588</v>
+        <v>3.2240665167258729</v>
       </c>
       <c r="C10" s="7">
-        <v>4.1960067519651467</v>
+        <v>4.1960067519651565</v>
       </c>
       <c r="D10" s="7">
-        <v>6.1415563486806262</v>
+        <v>6.1415563486806208</v>
       </c>
       <c r="E10" s="7">
-        <v>4.1404220140146464</v>
+        <v>4.1404220140146411</v>
       </c>
       <c r="F10" s="7">
-        <v>-4.2275877707559086</v>
+        <v>-4.2275877707559051</v>
       </c>
       <c r="G10" s="7">
         <v>-46.23657975460123</v>
       </c>
       <c r="H10" s="7">
-        <v>-25.053325757505192</v>
+        <v>-25.053325757505181</v>
       </c>
       <c r="I10" s="7">
-        <v>-10.100647356234933</v>
+        <v>-10.100647356234942</v>
       </c>
       <c r="J10" s="7">
-        <v>-15.582503783160558</v>
+        <v>-15.582503783160549</v>
       </c>
       <c r="K10" s="7">
-        <v>81.801162500445727</v>
+        <v>81.801162500445784</v>
       </c>
       <c r="L10" s="7">
-        <v>35.609355969277431</v>
+        <v>35.609355969277416</v>
       </c>
       <c r="M10" s="7">
-        <v>13.857264499038106</v>
+        <v>13.857264499038131</v>
       </c>
       <c r="N10" s="7">
         <v>17.133310570216072</v>
       </c>
       <c r="O10" s="7">
-        <v>0.83165792183593157</v>
+        <v>0.83165792183591314</v>
       </c>
       <c r="P10" s="7">
         <v>-3.3222134648166262</v>
       </c>
       <c r="Q10" s="7">
-        <v>-6.3411166200407969</v>
+        <v>-6.3411166200408058</v>
       </c>
       <c r="R10" s="7">
-        <v>5.6759739313302937</v>
+        <v>5.6759739313302893</v>
       </c>
       <c r="S10" s="7">
-        <v>-3.6736599457267078</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-3.6736599457267074</v>
+      </c>
+      <c r="T10" s="7">
+        <v>-5.3920313966385072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="7">
-        <v>4.7730449350211606</v>
+        <v>4.773044935021157</v>
       </c>
       <c r="C11" s="7">
-        <v>4.7594822778989672</v>
+        <v>4.7594822778989796</v>
       </c>
       <c r="D11" s="7">
-        <v>6.1437664897947295</v>
+        <v>6.1437664897947393</v>
       </c>
       <c r="E11" s="7">
-        <v>1.6615724474152873</v>
+        <v>1.6615724474152822</v>
       </c>
       <c r="F11" s="7">
-        <v>-4.4477453781671743</v>
+        <v>-4.4477453781671681</v>
       </c>
       <c r="G11" s="7">
-        <v>-43.414392708391688</v>
+        <v>-43.414392708391695</v>
       </c>
       <c r="H11" s="7">
-        <v>-19.461102743460156</v>
+        <v>-19.461102743460145</v>
       </c>
       <c r="I11" s="7">
-        <v>-25.034186913436866</v>
+        <v>-25.034186913436876</v>
       </c>
       <c r="J11" s="7">
-        <v>-12.235501470398928</v>
+        <v>-12.23550147039894</v>
       </c>
       <c r="K11" s="7">
-        <v>77.860478933210061</v>
+        <v>77.860478933210075</v>
       </c>
       <c r="L11" s="7">
-        <v>31.138136759981656</v>
+        <v>31.138136759981634</v>
       </c>
       <c r="M11" s="7">
-        <v>44.743746720307868</v>
+        <v>44.743746720307854</v>
       </c>
       <c r="N11" s="7">
-        <v>33.560855634279534</v>
+        <v>33.56085563427952</v>
       </c>
       <c r="O11" s="7">
-        <v>10.925016934054623</v>
+        <v>10.925016934054621</v>
       </c>
       <c r="P11" s="7">
-        <v>5.6631671041119702</v>
+        <v>5.6631671041119898</v>
       </c>
       <c r="Q11" s="7">
-        <v>4.0207164436771716</v>
+        <v>4.0207164436771761</v>
       </c>
       <c r="R11" s="7">
-        <v>5.4450385612798966</v>
+        <v>5.4450385612799224</v>
       </c>
       <c r="S11" s="7">
-        <v>2.4902756284244498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.4902756284244467</v>
+      </c>
+      <c r="T11" s="7">
+        <v>1.5293153271012618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="7">
-        <v>9.0852655430363054</v>
+        <v>9.0852655430362645</v>
       </c>
       <c r="C12" s="7">
-        <v>7.80037271405459</v>
+        <v>7.800372714054582</v>
       </c>
       <c r="D12" s="7">
-        <v>6.5391340121361514</v>
+        <v>6.5391340121361692</v>
       </c>
       <c r="E12" s="7">
-        <v>2.5444958484009841</v>
+        <v>2.5444958484009765</v>
       </c>
       <c r="F12" s="7">
-        <v>-17.460543288565137</v>
+        <v>-17.46054328856513</v>
       </c>
       <c r="G12" s="7">
-        <v>-59.213525835866278</v>
+        <v>-59.213525835866257</v>
       </c>
       <c r="H12" s="7">
-        <v>-25.053094953083367</v>
+        <v>-25.053094953083377</v>
       </c>
       <c r="I12" s="7">
-        <v>-27.882029610804111</v>
+        <v>-27.882029610804103</v>
       </c>
       <c r="J12" s="7">
-        <v>-10.866092871999362</v>
+        <v>-10.866092871999363</v>
       </c>
       <c r="K12" s="7">
-        <v>111.22729389846296</v>
+        <v>111.22729389846299</v>
       </c>
       <c r="L12" s="7">
-        <v>20.727497552681747</v>
+        <v>20.727497552681754</v>
       </c>
       <c r="M12" s="7">
-        <v>31.031798065890833</v>
+        <v>31.031798065890822</v>
       </c>
       <c r="N12" s="7">
         <v>17.82201193806646</v>
       </c>
       <c r="O12" s="7">
-        <v>4.4960915535661128</v>
+        <v>4.4960915535661119</v>
       </c>
       <c r="P12" s="7">
-        <v>2.7867872994196072</v>
+        <v>2.7867872994195966</v>
       </c>
       <c r="Q12" s="7">
-        <v>-2.6289729076106698</v>
+        <v>-2.6289729076106734</v>
       </c>
       <c r="R12" s="7">
-        <v>7.4919849875808442</v>
+        <v>7.4919849875808158</v>
       </c>
       <c r="S12" s="7">
-        <v>1.6712562909505391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.6712562909505295</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0.10795100685074087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="7">
-        <v>5.6770948326341895</v>
+        <v>5.6770948326341859</v>
       </c>
       <c r="C13" s="7">
-        <v>3.878857271566921</v>
+        <v>3.8788572715669334</v>
       </c>
       <c r="D13" s="7">
-        <v>2.614798886685834</v>
+        <v>2.6147988866858394</v>
       </c>
       <c r="E13" s="7">
-        <v>-1.6805414365652858</v>
+        <v>-1.6805414365653042</v>
       </c>
       <c r="F13" s="7">
-        <v>-13.272230145248759</v>
+        <v>-13.272230145248763</v>
       </c>
       <c r="G13" s="7">
         <v>-48.3290418755929</v>
       </c>
       <c r="H13" s="7">
-        <v>-20.776334409811678</v>
+        <v>-20.776334409811682</v>
       </c>
       <c r="I13" s="7">
-        <v>-24.365661909907224</v>
+        <v>-24.365661909907214</v>
       </c>
       <c r="J13" s="7">
-        <v>0.70488918681134616</v>
+        <v>0.7048891868113295</v>
       </c>
       <c r="K13" s="7">
-        <v>92.462232480067129</v>
+        <v>92.462232480067158</v>
       </c>
       <c r="L13" s="7">
-        <v>28.052397146553989</v>
+        <v>28.052397146554</v>
       </c>
       <c r="M13" s="7">
-        <v>39.137663489248517</v>
+        <v>39.13766348924851</v>
       </c>
       <c r="N13" s="7">
-        <v>14.969474461512847</v>
+        <v>14.969474461512883</v>
       </c>
       <c r="O13" s="7">
-        <v>2.3275462647515806</v>
+        <v>2.3275462647515885</v>
       </c>
       <c r="P13" s="7">
-        <v>2.2399670934974134</v>
+        <v>2.2399670934973708</v>
       </c>
       <c r="Q13" s="7">
-        <v>0.69394655549358342</v>
+        <v>0.69394655549358608</v>
       </c>
       <c r="R13" s="7">
-        <v>5.8149843498398859</v>
+        <v>5.8149843498398726</v>
       </c>
       <c r="S13" s="7">
-        <v>0.44391175034403446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.44391175034402514</v>
+      </c>
+      <c r="T13" s="7">
+        <v>-0.3192317447545322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="7">
-        <v>1.1338259677774842</v>
+        <v>1.1338259677774805</v>
       </c>
       <c r="C14" s="7">
-        <v>1.7379379827605506</v>
+        <v>1.7379379827605321</v>
       </c>
       <c r="D14" s="7">
-        <v>1.8864170393390454</v>
+        <v>1.8864170393390343</v>
       </c>
       <c r="E14" s="7">
-        <v>6.7913691400110819E-3</v>
+        <v>6.791369140008093E-3</v>
       </c>
       <c r="F14" s="7">
-        <v>-13.256254738438201</v>
+        <v>-13.256254738438203</v>
       </c>
       <c r="G14" s="7">
-        <v>-66.058738847779637</v>
+        <v>-66.058738847779651</v>
       </c>
       <c r="H14" s="7">
         <v>-56.445808341470226</v>
@@ -5111,169 +5308,178 @@
         <v>-46.537822837914604</v>
       </c>
       <c r="K14" s="7">
-        <v>82.440025934730912</v>
+        <v>82.440025934730954</v>
       </c>
       <c r="L14" s="7">
-        <v>83.508412332393902</v>
+        <v>83.508412332393917</v>
       </c>
       <c r="M14" s="7">
-        <v>114.35627749244343</v>
+        <v>114.3562774924434</v>
       </c>
       <c r="N14" s="7">
         <v>65.48687033820373</v>
       </c>
       <c r="O14" s="7">
-        <v>42.890777705384131</v>
+        <v>42.890777705384103</v>
       </c>
       <c r="P14" s="7">
         <v>17.472192488481408</v>
       </c>
       <c r="Q14" s="7">
-        <v>14.203008208373477</v>
+        <v>14.203008208373468</v>
       </c>
       <c r="R14" s="7">
         <v>35.833096652301158</v>
       </c>
       <c r="S14" s="7">
-        <v>12.480180731007183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>12.480180731007181</v>
+      </c>
+      <c r="T14" s="7">
+        <v>6.9182389937106947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="7">
-        <v>4.2676873637563757</v>
+        <v>4.2676873637563908</v>
       </c>
       <c r="C15" s="7">
-        <v>5.1473071294808754</v>
+        <v>5.1473071294808896</v>
       </c>
       <c r="D15" s="7">
-        <v>4.5414484414413678</v>
+        <v>4.5414484414413412</v>
       </c>
       <c r="E15" s="7">
-        <v>3.6536606927589941</v>
+        <v>3.6536606927589999</v>
       </c>
       <c r="F15" s="7">
-        <v>-8.9310077443291664</v>
+        <v>-8.9310077443291753</v>
       </c>
       <c r="G15" s="7">
-        <v>-44.007357592626832</v>
+        <v>-44.007357592626839</v>
       </c>
       <c r="H15" s="7">
-        <v>-23.011550835303705</v>
+        <v>-23.011550835303687</v>
       </c>
       <c r="I15" s="7">
-        <v>-24.637287872767274</v>
+        <v>-24.637287872767271</v>
       </c>
       <c r="J15" s="7">
-        <v>-3.7690500312560671</v>
+        <v>-3.7690500312560595</v>
       </c>
       <c r="K15" s="7">
-        <v>81.643578468009665</v>
+        <v>81.64357846800965</v>
       </c>
       <c r="L15" s="7">
-        <v>37.37869576709587</v>
+        <v>37.378695767095884</v>
       </c>
       <c r="M15" s="7">
-        <v>40.848765432098759</v>
+        <v>40.848765432098737</v>
       </c>
       <c r="N15" s="7">
-        <v>23.141625133001082</v>
+        <v>23.141625133001078</v>
       </c>
       <c r="O15" s="7">
-        <v>8.3833309411033152</v>
+        <v>8.3833309411032904</v>
       </c>
       <c r="P15" s="7">
-        <v>5.5329558572920723</v>
+        <v>5.5329558572920652</v>
       </c>
       <c r="Q15" s="7">
-        <v>2.6021693875315024</v>
+        <v>2.60216938753149</v>
       </c>
       <c r="R15" s="7">
-        <v>6.2011696544698838</v>
+        <v>6.2011696544698811</v>
       </c>
       <c r="S15" s="7">
-        <v>1.3702258400578962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.3702258400579301</v>
+      </c>
+      <c r="T15" s="7">
+        <v>-0.46881104310457805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="7">
-        <v>4.066538005623185</v>
+        <v>4.0665380056232037</v>
       </c>
       <c r="C16" s="7">
-        <v>2.0679848837653254</v>
+        <v>2.0679848837653187</v>
       </c>
       <c r="D16" s="7">
-        <v>3.0394963337739784</v>
+        <v>3.0394963337739673</v>
       </c>
       <c r="E16" s="7">
-        <v>-0.69298711957990955</v>
+        <v>-0.69298711957991632</v>
       </c>
       <c r="F16" s="7">
-        <v>-7.0489889671273067</v>
+        <v>-7.0489889671273058</v>
       </c>
       <c r="G16" s="7">
-        <v>-41.202374830536208</v>
+        <v>-41.202374830536201</v>
       </c>
       <c r="H16" s="7">
-        <v>-18.603535003922662</v>
+        <v>-18.603535003922644</v>
       </c>
       <c r="I16" s="7">
-        <v>-19.643293198339503</v>
+        <v>-19.643293198339496</v>
       </c>
       <c r="J16" s="7">
-        <v>-2.7638241847275733</v>
+        <v>-2.7638241847275724</v>
       </c>
       <c r="K16" s="7">
         <v>70.5901060632563</v>
       </c>
       <c r="L16" s="7">
-        <v>25.18794861037092</v>
+        <v>25.187948610370924</v>
       </c>
       <c r="M16" s="7">
         <v>32.086630278521255</v>
       </c>
       <c r="N16" s="7">
-        <v>16.934517919821698</v>
+        <v>16.93451791982169</v>
       </c>
       <c r="O16" s="7">
-        <v>9.3746213145163626</v>
+        <v>9.3746213145163484</v>
       </c>
       <c r="P16" s="7">
-        <v>7.7118168149127531</v>
+        <v>7.7118168149127628</v>
       </c>
       <c r="Q16" s="7">
-        <v>6.3196828655364081</v>
+        <v>6.3196828655363948</v>
       </c>
       <c r="R16" s="7">
-        <v>7.1764496303553962</v>
+        <v>7.1764496303553882</v>
       </c>
       <c r="S16" s="7">
-        <v>0.90168405263517204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.90168405263518625</v>
+      </c>
+      <c r="T16" s="7">
+        <v>1.0385482189108246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7">
-        <v>-1.3379183860614452</v>
+        <v>-1.3379183860614474</v>
       </c>
       <c r="C17" s="7">
-        <v>-2.4008219029938029</v>
+        <v>-2.400821902993822</v>
       </c>
       <c r="D17" s="7">
-        <v>3.4655169290411232</v>
+        <v>3.4655169290411352</v>
       </c>
       <c r="E17" s="7">
-        <v>6.4917656070471175</v>
+        <v>6.4917656070470935</v>
       </c>
       <c r="F17" s="7">
-        <v>-0.13755797418000137</v>
+        <v>-0.13755797417999019</v>
       </c>
       <c r="G17" s="7">
         <v>-58.916138802193949</v>
@@ -5282,13 +5488,13 @@
         <v>-56.937878628707494</v>
       </c>
       <c r="I17" s="7">
-        <v>-50.789940144372807</v>
+        <v>-50.7899401443728</v>
       </c>
       <c r="J17" s="7">
-        <v>-42.999543944230879</v>
+        <v>-42.999543944230894</v>
       </c>
       <c r="K17" s="7">
-        <v>84.327871800058432</v>
+        <v>84.327871800058418</v>
       </c>
       <c r="L17" s="7">
         <v>89.733476996889564</v>
@@ -5297,107 +5503,113 @@
         <v>59.754994083663966</v>
       </c>
       <c r="N17" s="7">
-        <v>40.652809300654773</v>
+        <v>40.652809300654759</v>
       </c>
       <c r="O17" s="7">
-        <v>14.890322265982222</v>
+        <v>14.890322265982224</v>
       </c>
       <c r="P17" s="7">
-        <v>5.6306788959369207</v>
+        <v>5.6306788959369092</v>
       </c>
       <c r="Q17" s="7">
-        <v>9.9969501568490777</v>
+        <v>9.9969501568490706</v>
       </c>
       <c r="R17" s="7">
-        <v>14.96749477594612</v>
+        <v>14.967494775946127</v>
       </c>
       <c r="S17" s="7">
-        <v>2.7964977447598867</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.796497744759888</v>
+      </c>
+      <c r="T17" s="7">
+        <v>-1.1056673057220929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="7">
-        <v>0.29531192321889976</v>
+        <v>0.29531192321890459</v>
       </c>
       <c r="C18" s="7">
-        <v>-0.43570260652112536</v>
+        <v>-0.4357026065211172</v>
       </c>
       <c r="D18" s="7">
-        <v>0.22717251691812551</v>
+        <v>0.22717251691813625</v>
       </c>
       <c r="E18" s="7">
-        <v>-0.37073189045108679</v>
+        <v>-0.37073189045109173</v>
       </c>
       <c r="F18" s="7">
-        <v>1.7744028824361284</v>
+        <v>1.7744028824361207</v>
       </c>
       <c r="G18" s="7">
-        <v>-33.123061912536102</v>
+        <v>-33.123061912536109</v>
       </c>
       <c r="H18" s="7">
-        <v>1.2136224094564911</v>
+        <v>1.2136224094564845</v>
       </c>
       <c r="I18" s="7">
-        <v>-4.6838936985991797</v>
+        <v>-4.6838936985991513</v>
       </c>
       <c r="J18" s="7">
-        <v>-0.66712347018405016</v>
+        <v>-0.66712347018404483</v>
       </c>
       <c r="K18" s="7">
-        <v>56.981900648572143</v>
+        <v>56.981900648572164</v>
       </c>
       <c r="L18" s="7">
-        <v>2.4444402449164686</v>
+        <v>2.4444402449164859</v>
       </c>
       <c r="M18" s="7">
-        <v>15.845185265717202</v>
+        <v>15.8451852657172</v>
       </c>
       <c r="N18" s="7">
-        <v>19.143106239880435</v>
+        <v>19.143106239880446</v>
       </c>
       <c r="O18" s="7">
-        <v>17.650468820449593</v>
+        <v>17.650468820449557</v>
       </c>
       <c r="P18" s="7">
-        <v>18.712587277137786</v>
+        <v>18.712587277137754</v>
       </c>
       <c r="Q18" s="7">
-        <v>10.899147690916388</v>
+        <v>10.899147690916369</v>
       </c>
       <c r="R18" s="7">
-        <v>7.8097106740217601</v>
+        <v>7.8097106740217557</v>
       </c>
       <c r="S18" s="7">
-        <v>2.8492323575188321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.8492323575188481</v>
+      </c>
+      <c r="T18" s="7">
+        <v>3.1466819986481105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="7">
-        <v>0.44031573860282752</v>
+        <v>0.44031573860282058</v>
       </c>
       <c r="C19" s="7">
-        <v>0.56037926809780414</v>
+        <v>0.56037926809780103</v>
       </c>
       <c r="D19" s="7">
-        <v>3.5153865104272763</v>
+        <v>3.515386510427255</v>
       </c>
       <c r="E19" s="7">
-        <v>2.5663464884071554</v>
+        <v>2.5663464884071536</v>
       </c>
       <c r="F19" s="7">
-        <v>-2.666666666666675</v>
+        <v>-2.6666666666666656</v>
       </c>
       <c r="G19" s="7">
         <v>-44.534966257376233</v>
       </c>
       <c r="H19" s="7">
-        <v>-23.226721024802639</v>
+        <v>-23.226721024802625</v>
       </c>
       <c r="I19" s="7">
         <v>-32.818651890991696</v>
@@ -5406,535 +5618,562 @@
         <v>-20.004174402126761</v>
       </c>
       <c r="K19" s="7">
-        <v>68.193452267257484</v>
+        <v>68.193452267257527</v>
       </c>
       <c r="L19" s="7">
-        <v>28.547361043722045</v>
+        <v>28.54736104372202</v>
       </c>
       <c r="M19" s="7">
         <v>44.779042722487432</v>
       </c>
       <c r="N19" s="7">
-        <v>32.442564644814013</v>
+        <v>32.442564644813999</v>
       </c>
       <c r="O19" s="7">
-        <v>13.200690469701133</v>
+        <v>13.200690469701089</v>
       </c>
       <c r="P19" s="7">
-        <v>5.626094341403058</v>
+        <v>5.6260943414030562</v>
       </c>
       <c r="Q19" s="7">
-        <v>6.0137820241819675</v>
+        <v>6.0137820241819631</v>
       </c>
       <c r="R19" s="7">
-        <v>7.2143997677456699</v>
+        <v>7.2143997677456788</v>
       </c>
       <c r="S19" s="7">
-        <v>1.2108747993579292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.2108747993579434</v>
+      </c>
+      <c r="T19" s="7">
+        <v>1.2090170036627939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="7">
-        <v>-7.5608228549404952</v>
+        <v>-7.5608228549405005</v>
       </c>
       <c r="C20" s="7">
-        <v>-8.9168934077999005</v>
+        <v>-8.9168934077998863</v>
       </c>
       <c r="D20" s="7">
-        <v>-8.3796477869503381</v>
+        <v>-8.3796477869503203</v>
       </c>
       <c r="E20" s="7">
-        <v>-9.2136638909916737</v>
+        <v>-9.213663890991695</v>
       </c>
       <c r="F20" s="7">
-        <v>-6.3092830786549623</v>
+        <v>-6.309283078654957</v>
       </c>
       <c r="G20" s="7">
         <v>-32.460562863581565</v>
       </c>
       <c r="H20" s="7">
-        <v>-6.7603545662410172</v>
+        <v>-6.7603545662410243</v>
       </c>
       <c r="I20" s="7">
-        <v>-13.641432934137979</v>
+        <v>-13.641432934137962</v>
       </c>
       <c r="J20" s="7">
-        <v>3.6491071925237835</v>
+        <v>3.6491071925237684</v>
       </c>
       <c r="K20" s="7">
-        <v>57.436836550996318</v>
+        <v>57.436836550996304</v>
       </c>
       <c r="L20" s="7">
-        <v>15.188569380990764</v>
+        <v>15.188569380990758</v>
       </c>
       <c r="M20" s="7">
         <v>27.235531953412593</v>
       </c>
       <c r="N20" s="7">
-        <v>14.135136585627647</v>
+        <v>14.135136585627656</v>
       </c>
       <c r="O20" s="7">
-        <v>4.4279715316523136</v>
+        <v>4.4279715316523243</v>
       </c>
       <c r="P20" s="7">
-        <v>3.8427888167360136</v>
+        <v>3.8427888167360127</v>
       </c>
       <c r="Q20" s="7">
-        <v>-0.11382931294524942</v>
+        <v>-0.11382931294524433</v>
       </c>
       <c r="R20" s="7">
-        <v>2.8749036056200254</v>
+        <v>2.874903605620037</v>
       </c>
       <c r="S20" s="7">
-        <v>1.8907285393343287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.8907285393343223</v>
+      </c>
+      <c r="T20" s="7">
+        <v>1.402345980659238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="7">
-        <v>0.11956874189363492</v>
+        <v>0.11956874189363971</v>
       </c>
       <c r="C21" s="7">
-        <v>0.68189877906683394</v>
+        <v>0.68189877906682028</v>
       </c>
       <c r="D21" s="7">
-        <v>2.8707744580421326</v>
+        <v>2.8707744580421286</v>
       </c>
       <c r="E21" s="7">
-        <v>0.74085167989617751</v>
+        <v>0.74085167989616829</v>
       </c>
       <c r="F21" s="7">
-        <v>-6.7617351173005646</v>
+        <v>-6.7617351173005655</v>
       </c>
       <c r="G21" s="7">
         <v>-38.125956042186623</v>
       </c>
       <c r="H21" s="7">
-        <v>-13.619057978896999</v>
+        <v>-13.619057978896988</v>
       </c>
       <c r="I21" s="7">
         <v>-17.978730784859817</v>
       </c>
       <c r="J21" s="7">
-        <v>-2.6105834464043429</v>
+        <v>-2.6105834464043345</v>
       </c>
       <c r="K21" s="7">
-        <v>61.547094318754766</v>
+        <v>61.547094318754809</v>
       </c>
       <c r="L21" s="7">
-        <v>15.137777472496042</v>
+        <v>15.137777472496033</v>
       </c>
       <c r="M21" s="7">
         <v>21.431419698635743</v>
       </c>
       <c r="N21" s="7">
-        <v>10.092510031208215</v>
+        <v>10.092510031208207</v>
       </c>
       <c r="O21" s="7">
-        <v>-0.8900165116185289</v>
+        <v>-0.89001651161853856</v>
       </c>
       <c r="P21" s="7">
-        <v>-2.7671167498558407</v>
+        <v>-2.767116749855846</v>
       </c>
       <c r="Q21" s="7">
-        <v>-3.3833202312598787</v>
+        <v>-3.383320231259868</v>
       </c>
       <c r="R21" s="7">
-        <v>0.5244241964059686</v>
+        <v>0.52442419640596483</v>
       </c>
       <c r="S21" s="7">
-        <v>-0.96708655018285072</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.96708655018286238</v>
+      </c>
+      <c r="T21" s="7">
+        <v>-0.41108077430437356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7">
-        <v>-1.6405295315682167</v>
+        <v>-1.6405295315682409</v>
       </c>
       <c r="C22" s="7">
-        <v>-0.84414664264459427</v>
+        <v>-0.84414664264457895</v>
       </c>
       <c r="D22" s="7">
-        <v>-0.15002850541602381</v>
+        <v>-0.15002850541600471</v>
       </c>
       <c r="E22" s="7">
-        <v>-2.7791621471079715</v>
+        <v>-2.7791621471079679</v>
       </c>
       <c r="F22" s="7">
-        <v>-5.6445350919877013</v>
+        <v>-5.6445350919876898</v>
       </c>
       <c r="G22" s="7">
-        <v>-30.724551876199435</v>
+        <v>-30.724551876199438</v>
       </c>
       <c r="H22" s="7">
-        <v>-4.7009445963678544</v>
+        <v>-4.7009445963678713</v>
       </c>
       <c r="I22" s="7">
-        <v>-13.923147282614156</v>
+        <v>-13.923147282614174</v>
       </c>
       <c r="J22" s="7">
-        <v>2.1725534086046228</v>
+        <v>2.1725534086046325</v>
       </c>
       <c r="K22" s="7">
         <v>47.410299860016238</v>
       </c>
       <c r="L22" s="7">
-        <v>5.6255124135466197</v>
+        <v>5.6255124135466268</v>
       </c>
       <c r="M22" s="7">
-        <v>17.198173686607401</v>
+        <v>17.198173686607422</v>
       </c>
       <c r="N22" s="7">
-        <v>16.333215202379801</v>
+        <v>16.33321520237978</v>
       </c>
       <c r="O22" s="7">
-        <v>9.2233106757296959</v>
+        <v>9.2233106757296834</v>
       </c>
       <c r="P22" s="7">
-        <v>9.3432182306697431</v>
+        <v>9.3432182306697413</v>
       </c>
       <c r="Q22" s="7">
-        <v>7.9699098291237194</v>
+        <v>7.9699098291237043</v>
       </c>
       <c r="R22" s="7">
-        <v>1.5841072318741736</v>
+        <v>1.5841072318741671</v>
       </c>
       <c r="S22" s="7">
-        <v>-1.564973871342664</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-1.5649738713426515</v>
+      </c>
+      <c r="T22" s="7">
+        <v>-1.2522866061758973</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="7">
-        <v>4.1991800734294653</v>
+        <v>4.1991800734294529</v>
       </c>
       <c r="C23" s="7">
-        <v>4.5727176504549218</v>
+        <v>4.5727176504549139</v>
       </c>
       <c r="D23" s="7">
-        <v>6.7968300632709164</v>
+        <v>6.7968300632708898</v>
       </c>
       <c r="E23" s="7">
-        <v>2.1952460565530263</v>
+        <v>2.1952460565530201</v>
       </c>
       <c r="F23" s="7">
-        <v>-7.1949540813181967</v>
+        <v>-7.1949540813181905</v>
       </c>
       <c r="G23" s="7">
-        <v>-39.886514671301519</v>
+        <v>-39.886514671301505</v>
       </c>
       <c r="H23" s="7">
-        <v>-11.623430378105585</v>
+        <v>-11.623430378105581</v>
       </c>
       <c r="I23" s="7">
         <v>-17.385914462520205</v>
       </c>
       <c r="J23" s="7">
-        <v>2.528170729007559</v>
+        <v>2.5281707290075537</v>
       </c>
       <c r="K23" s="7">
-        <v>70.738302974641556</v>
+        <v>70.73830297464157</v>
       </c>
       <c r="L23" s="7">
-        <v>14.565111896082806</v>
+        <v>14.565111896082792</v>
       </c>
       <c r="M23" s="7">
-        <v>31.770045385779138</v>
+        <v>31.77004538577911</v>
       </c>
       <c r="N23" s="7">
-        <v>11.508647679917084</v>
+        <v>11.508647679917079</v>
       </c>
       <c r="O23" s="7">
-        <v>4.1408919303907954</v>
+        <v>4.1408919303907741</v>
       </c>
       <c r="P23" s="7">
-        <v>2.7779145939023491</v>
+        <v>2.7779145939023837</v>
       </c>
       <c r="Q23" s="7">
-        <v>-2.3428822118301649</v>
+        <v>-2.3428822118301302</v>
       </c>
       <c r="R23" s="7">
-        <v>2.6160370234107027</v>
+        <v>2.6160370234107293</v>
       </c>
       <c r="S23" s="7">
-        <v>-0.48878005853883322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.48878005853882084</v>
+      </c>
+      <c r="T23" s="7">
+        <v>0.26644941774093112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7">
-        <v>-8.3216607781238938</v>
+        <v>-8.3216607781238832</v>
       </c>
       <c r="C24" s="7">
-        <v>-9.6231458671838102</v>
+        <v>-9.6231458671838137</v>
       </c>
       <c r="D24" s="7">
-        <v>-7.3986443279191905</v>
+        <v>-7.3986443279191789</v>
       </c>
       <c r="E24" s="7">
-        <v>-8.9296324590442211</v>
+        <v>-8.9296324590442318</v>
       </c>
       <c r="F24" s="7">
-        <v>-6.8262926857077781</v>
+        <v>-6.8262926857077773</v>
       </c>
       <c r="G24" s="7">
-        <v>-39.437452879429337</v>
+        <v>-39.437452879429344</v>
       </c>
       <c r="H24" s="7">
-        <v>-15.880579149690405</v>
+        <v>-15.880579149690403</v>
       </c>
       <c r="I24" s="7">
-        <v>-21.370817410755887</v>
+        <v>-21.37081741075589</v>
       </c>
       <c r="J24" s="7">
-        <v>-14.34934775692013</v>
+        <v>-14.349347756920132</v>
       </c>
       <c r="K24" s="7">
         <v>59.857509480216045</v>
       </c>
       <c r="L24" s="7">
-        <v>15.835704903677778</v>
+        <v>15.835704903677779</v>
       </c>
       <c r="M24" s="7">
-        <v>20.969343152217387</v>
+        <v>20.969343152217391</v>
       </c>
       <c r="N24" s="7">
-        <v>18.714995999542793</v>
+        <v>18.714995999542783</v>
       </c>
       <c r="O24" s="7">
-        <v>1.6557243494512808</v>
+        <v>1.6557243494512746</v>
       </c>
       <c r="P24" s="7">
-        <v>2.0434197160473322</v>
+        <v>2.0434197160473224</v>
       </c>
       <c r="Q24" s="7">
-        <v>4.6361509535650045</v>
+        <v>4.6361509535650027</v>
       </c>
       <c r="R24" s="7">
-        <v>5.9669518961139154</v>
+        <v>5.9669518961139056</v>
       </c>
       <c r="S24" s="7">
-        <v>0.62816735415438019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.62816735415439595</v>
+      </c>
+      <c r="T24" s="7">
+        <v>4.1670525048619546E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="7">
-        <v>4.0139181064994354</v>
+        <v>4.01391810649943</v>
       </c>
       <c r="C25" s="7">
-        <v>1.316183936946961</v>
+        <v>1.3161839369469519</v>
       </c>
       <c r="D25" s="7">
-        <v>1.7634744691729454</v>
+        <v>1.763474469172966</v>
       </c>
       <c r="E25" s="7">
-        <v>-1.3771216727501494</v>
+        <v>-1.3771216727501425</v>
       </c>
       <c r="F25" s="7">
-        <v>-16.031324585198458</v>
+        <v>-16.031324585198465</v>
       </c>
       <c r="G25" s="7">
         <v>-47.69963537788977</v>
       </c>
       <c r="H25" s="7">
-        <v>-28.679363333870516</v>
+        <v>-28.679363333870526</v>
       </c>
       <c r="I25" s="7">
-        <v>-29.593946890340529</v>
+        <v>-29.59394689034054</v>
       </c>
       <c r="J25" s="7">
-        <v>-0.85842788977421147</v>
+        <v>-0.85842788977420181</v>
       </c>
       <c r="K25" s="7">
-        <v>91.298158523899033</v>
+        <v>91.298158523899019</v>
       </c>
       <c r="L25" s="7">
-        <v>44.998272057846158</v>
+        <v>44.998272057846194</v>
       </c>
       <c r="M25" s="7">
-        <v>48.849146982527891</v>
+        <v>48.849146982527898</v>
       </c>
       <c r="N25" s="7">
-        <v>25.439263097294194</v>
+        <v>25.439263097294187</v>
       </c>
       <c r="O25" s="7">
-        <v>6.6343566944608696</v>
+        <v>6.6343566944608918</v>
       </c>
       <c r="P25" s="7">
-        <v>3.1800014667057983</v>
+        <v>3.1800014667057765</v>
       </c>
       <c r="Q25" s="7">
-        <v>2.3992623328723015</v>
+        <v>2.3992623328722993</v>
       </c>
       <c r="R25" s="7">
-        <v>4.9888015861359882</v>
+        <v>4.9888015861359944</v>
       </c>
       <c r="S25" s="7">
-        <v>-1.0512471817628803</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-1.0512471817628966</v>
+      </c>
+      <c r="T25" s="7">
+        <v>-1.059018985936012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="7">
-        <v>6.2443402491296469</v>
+        <v>6.2443402491296629</v>
       </c>
       <c r="C26" s="7">
-        <v>6.5634637841722121</v>
+        <v>6.5634637841722201</v>
       </c>
       <c r="D26" s="7">
-        <v>6.3748287277346227</v>
+        <v>6.3748287277346112</v>
       </c>
       <c r="E26" s="7">
-        <v>2.7318553320608765</v>
+        <v>2.7318553320608867</v>
       </c>
       <c r="F26" s="7">
-        <v>-13.410106826274715</v>
+        <v>-13.410106826274717</v>
       </c>
       <c r="G26" s="7">
-        <v>-50.235559676679124</v>
+        <v>-50.235559676679117</v>
       </c>
       <c r="H26" s="7">
-        <v>-27.415123964611102</v>
+        <v>-27.415123964611091</v>
       </c>
       <c r="I26" s="7">
-        <v>-31.683753191813718</v>
+        <v>-31.683753191813729</v>
       </c>
       <c r="J26" s="7">
         <v>-18.173068509930886</v>
       </c>
       <c r="K26" s="7">
-        <v>67.592034931867843</v>
+        <v>67.592034931867815</v>
       </c>
       <c r="L26" s="7">
-        <v>22.697598507810682</v>
+        <v>22.697598507810685</v>
       </c>
       <c r="M26" s="7">
-        <v>29.314384535996215</v>
+        <v>29.314384535996226</v>
       </c>
       <c r="N26" s="7">
-        <v>27.476742942686062</v>
+        <v>27.476742942686069</v>
       </c>
       <c r="O26" s="7">
-        <v>9.3907574821719351</v>
+        <v>9.3907574821719333</v>
       </c>
       <c r="P26" s="7">
-        <v>1.6225917128529952</v>
+        <v>1.6225917128529912</v>
       </c>
       <c r="Q26" s="7">
-        <v>3.4609203955953891</v>
+        <v>3.4609203955953931</v>
       </c>
       <c r="R26" s="7">
-        <v>11.141518039696756</v>
+        <v>11.141518039696775</v>
       </c>
       <c r="S26" s="7">
-        <v>6.86398308129806</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+        <v>6.863983081298068</v>
+      </c>
+      <c r="T26" s="7">
+        <v>8.8768153580852314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="7">
-        <v>6.488889769081478</v>
+        <v>6.4888897690814824</v>
       </c>
       <c r="C27" s="7">
-        <v>5.3112806476035246</v>
+        <v>5.3112806476035326</v>
       </c>
       <c r="D27" s="7">
-        <v>6.8075048302782255</v>
+        <v>6.8075048302782335</v>
       </c>
       <c r="E27" s="7">
-        <v>4.1456825856247157</v>
+        <v>4.1456825856246908</v>
       </c>
       <c r="F27" s="7">
-        <v>-10.051050297095996</v>
+        <v>-10.051050297095983</v>
       </c>
       <c r="G27" s="7">
-        <v>-55.340190602591761</v>
+        <v>-55.340190602591768</v>
       </c>
       <c r="H27" s="7">
         <v>-32.613726102367252</v>
       </c>
       <c r="I27" s="7">
-        <v>-36.631865637766701</v>
+        <v>-36.631865637766687</v>
       </c>
       <c r="J27" s="7">
-        <v>-24.689864781044534</v>
+        <v>-24.689864781044548</v>
       </c>
       <c r="K27" s="7">
-        <v>84.573315447322287</v>
+        <v>84.573315447322273</v>
       </c>
       <c r="L27" s="7">
-        <v>34.358520133542278</v>
+        <v>34.358520133542264</v>
       </c>
       <c r="M27" s="7">
-        <v>45.570434477515931</v>
+        <v>45.570434477515946</v>
       </c>
       <c r="N27" s="7">
-        <v>36.496039753462675</v>
+        <v>36.496039753462647</v>
       </c>
       <c r="O27" s="7">
-        <v>16.835690725107622</v>
+        <v>16.835690725107625</v>
       </c>
       <c r="P27" s="7">
-        <v>6.2860678100183378</v>
+        <v>6.2860678100183502</v>
       </c>
       <c r="Q27" s="7">
         <v>2.5879730055435113</v>
       </c>
       <c r="R27" s="7">
-        <v>8.1891870147632346</v>
+        <v>8.1891870147632542</v>
       </c>
       <c r="S27" s="7">
-        <v>2.0508747081116252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.0508747081116243</v>
+      </c>
+      <c r="T27" s="7">
+        <v>2.7100012404935288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="7">
-        <v>-2.4247077231071312</v>
+        <v>-2.4247077231071383</v>
       </c>
       <c r="C28" s="7">
-        <v>-3.2228836429886933</v>
+        <v>-3.222883642988676</v>
       </c>
       <c r="D28" s="7">
-        <v>-3.5108335680363663</v>
+        <v>-3.5108335680363623</v>
       </c>
       <c r="E28" s="7">
-        <v>-7.1775134801439187</v>
+        <v>-7.1775134801439133</v>
       </c>
       <c r="F28" s="7">
-        <v>-14.25939205609337</v>
+        <v>-14.259392056093382</v>
       </c>
       <c r="G28" s="7">
-        <v>-51.842791418763142</v>
+        <v>-51.842791418763149</v>
       </c>
       <c r="H28" s="7">
-        <v>-24.663821563732991</v>
+        <v>-24.663821563732995</v>
       </c>
       <c r="I28" s="7">
-        <v>-31.037098617894635</v>
+        <v>-31.037098617894625</v>
       </c>
       <c r="J28" s="7">
-        <v>-18.749636995132839</v>
+        <v>-18.749636995132828</v>
       </c>
       <c r="K28" s="7">
         <v>81.495108286646015</v>
@@ -5946,157 +6185,166 @@
         <v>40.123261455931768</v>
       </c>
       <c r="N28" s="7">
-        <v>38.635518828810802</v>
+        <v>38.63551882881081</v>
       </c>
       <c r="O28" s="7">
         <v>13.096060815480325</v>
       </c>
       <c r="P28" s="7">
-        <v>3.7269770192632499</v>
+        <v>3.7269770192632659</v>
       </c>
       <c r="Q28" s="7">
-        <v>3.6939455855468326</v>
+        <v>3.6939455855468237</v>
       </c>
       <c r="R28" s="7">
-        <v>4.3302052181086808</v>
+        <v>4.3302052181087012</v>
       </c>
       <c r="S28" s="7">
-        <v>-0.45320297382625852</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.45320297382625341</v>
+      </c>
+      <c r="T28" s="7">
+        <v>-0.50296791797754981</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="7">
-        <v>-1.848673316909649</v>
+        <v>-1.8486733169096647</v>
       </c>
       <c r="C29" s="7">
-        <v>0.21052631578946643</v>
+        <v>0.2105263157894709</v>
       </c>
       <c r="D29" s="7">
-        <v>2.5018261504748267</v>
+        <v>2.5018261504747987</v>
       </c>
       <c r="E29" s="7">
-        <v>-0.31916797581879497</v>
+        <v>-0.31916797581879641</v>
       </c>
       <c r="F29" s="7">
-        <v>-1.4864267124767228</v>
+        <v>-1.4864267124767221</v>
       </c>
       <c r="G29" s="7">
-        <v>-47.145685197155785</v>
+        <v>-47.145685197155792</v>
       </c>
       <c r="H29" s="7">
-        <v>-21.908466456836319</v>
+        <v>-21.908466456836315</v>
       </c>
       <c r="I29" s="7">
-        <v>-30.535744566247395</v>
+        <v>-30.535744566247399</v>
       </c>
       <c r="J29" s="7">
-        <v>-22.125344582741636</v>
+        <v>-22.125344582741629</v>
       </c>
       <c r="K29" s="7">
-        <v>73.06516338620294</v>
+        <v>73.065163386202954</v>
       </c>
       <c r="L29" s="7">
-        <v>22.205604633772268</v>
+        <v>22.205604633772289</v>
       </c>
       <c r="M29" s="7">
-        <v>37.017518667432505</v>
+        <v>37.017518667432512</v>
       </c>
       <c r="N29" s="7">
-        <v>28.542887407983486</v>
+        <v>28.542887407983482</v>
       </c>
       <c r="O29" s="7">
-        <v>8.0726549991718795</v>
+        <v>8.0726549991718617</v>
       </c>
       <c r="P29" s="7">
-        <v>3.906906315145378</v>
+        <v>3.9069063151453745</v>
       </c>
       <c r="Q29" s="7">
-        <v>2.8757375365493245</v>
+        <v>2.875737536549333</v>
       </c>
       <c r="R29" s="7">
-        <v>6.4444119917384572</v>
+        <v>6.4444119917384732</v>
       </c>
       <c r="S29" s="7">
-        <v>2.5542523192611051</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.5542523192611153</v>
+      </c>
+      <c r="T29" s="7">
+        <v>0.25552472401331511</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="7">
-        <v>2.1158949418305393</v>
+        <v>2.1158949418305353</v>
       </c>
       <c r="C30" s="7">
-        <v>0.74855223419419525</v>
+        <v>0.74855223419420247</v>
       </c>
       <c r="D30" s="7">
-        <v>1.6952027458492993</v>
+        <v>1.6952027458492887</v>
       </c>
       <c r="E30" s="7">
-        <v>-1.0889856876166726</v>
+        <v>-1.0889856876166801</v>
       </c>
       <c r="F30" s="7">
-        <v>-4.2646535710050744</v>
+        <v>-4.264653571005093</v>
       </c>
       <c r="G30" s="7">
-        <v>-36.295732008943574</v>
+        <v>-36.295732008943588</v>
       </c>
       <c r="H30" s="7">
-        <v>-4.2443805617966657</v>
+        <v>-4.2443805617966559</v>
       </c>
       <c r="I30" s="7">
-        <v>-7.4276502044668131</v>
+        <v>-7.427650204466814</v>
       </c>
       <c r="J30" s="7">
-        <v>1.5430187432912008</v>
+        <v>1.5430187432912239</v>
       </c>
       <c r="K30" s="7">
         <v>67.601062260253741</v>
       </c>
       <c r="L30" s="7">
-        <v>7.7963461991659706</v>
+        <v>7.7963461991659786</v>
       </c>
       <c r="M30" s="7">
-        <v>14.167693157201706</v>
+        <v>14.167693157201715</v>
       </c>
       <c r="N30" s="7">
-        <v>12.911783539839204</v>
+        <v>12.911783539839199</v>
       </c>
       <c r="O30" s="7">
-        <v>1.8652705707931707</v>
+        <v>1.865270570793182</v>
       </c>
       <c r="P30" s="7">
-        <v>4.4636237476949852</v>
+        <v>4.4636237476949825</v>
       </c>
       <c r="Q30" s="7">
-        <v>0.91708986736610509</v>
+        <v>0.91708986736612796</v>
       </c>
       <c r="R30" s="7">
-        <v>-0.86599571503159878</v>
+        <v>-0.86599571503160822</v>
       </c>
       <c r="S30" s="7">
-        <v>-2.3059499877197926</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-2.3059499877198077</v>
+      </c>
+      <c r="T30" s="7">
+        <v>-3.6487052100962636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="7">
-        <v>5.017460207543996</v>
+        <v>5.0174602075440093</v>
       </c>
       <c r="C31" s="7">
-        <v>5.194766869958702</v>
+        <v>5.1947668699586984</v>
       </c>
       <c r="D31" s="7">
-        <v>5.3475362544830638</v>
+        <v>5.3475362544830753</v>
       </c>
       <c r="E31" s="7">
-        <v>1.0030383664534213</v>
+        <v>1.0030383664534088</v>
       </c>
       <c r="F31" s="7">
         <v>-8.5098766943923749</v>
@@ -6105,783 +6353,822 @@
         <v>-40.222178584453111</v>
       </c>
       <c r="H31" s="7">
-        <v>-18.901891854387351</v>
+        <v>-18.901891854387355</v>
       </c>
       <c r="I31" s="7">
-        <v>-22.526882222699708</v>
+        <v>-22.526882222699712</v>
       </c>
       <c r="J31" s="7">
-        <v>-6.4731016731016835</v>
+        <v>-6.473101673101695</v>
       </c>
       <c r="K31" s="7">
         <v>61.526428582602016</v>
       </c>
       <c r="L31" s="7">
-        <v>21.538163193137365</v>
+        <v>21.538163193137361</v>
       </c>
       <c r="M31" s="7">
-        <v>28.581420027011365</v>
+        <v>28.581420027011394</v>
       </c>
       <c r="N31" s="7">
-        <v>16.095686827098802</v>
+        <v>16.095686827098817</v>
       </c>
       <c r="O31" s="7">
-        <v>3.1077194239727364</v>
+        <v>3.1077194239727204</v>
       </c>
       <c r="P31" s="7">
-        <v>1.4801396606097037</v>
+        <v>1.4801396606096988</v>
       </c>
       <c r="Q31" s="7">
-        <v>0.22038825846385368</v>
+        <v>0.22038825846383683</v>
       </c>
       <c r="R31" s="7">
-        <v>5.7851866602186659</v>
+        <v>5.7851866602186561</v>
       </c>
       <c r="S31" s="7">
-        <v>3.6997031972047867</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.6997031972048111</v>
+      </c>
+      <c r="T31" s="7">
+        <v>1.3364656264740491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="7">
-        <v>5.7323244976699943</v>
+        <v>5.732324497669997</v>
       </c>
       <c r="C32" s="7">
-        <v>3.4367485777960263</v>
+        <v>3.4367485777960232</v>
       </c>
       <c r="D32" s="7">
-        <v>5.5276579823162333</v>
+        <v>5.5276579823162102</v>
       </c>
       <c r="E32" s="7">
-        <v>2.4637156679745535</v>
+        <v>2.4637156679745531</v>
       </c>
       <c r="F32" s="7">
-        <v>-3.2946305862281426</v>
+        <v>-3.2946305862281631</v>
       </c>
       <c r="G32" s="7">
         <v>-35.806354066262216</v>
       </c>
       <c r="H32" s="7">
-        <v>-4.3143987459879076</v>
+        <v>-4.3143987459878952</v>
       </c>
       <c r="I32" s="7">
-        <v>-7.2673364872526474</v>
+        <v>-7.2673364872526465</v>
       </c>
       <c r="J32" s="7">
         <v>7.6488057317037335</v>
       </c>
       <c r="K32" s="7">
-        <v>79.944355301703197</v>
+        <v>79.944355301703212</v>
       </c>
       <c r="L32" s="7">
-        <v>20.176105780482086</v>
+        <v>20.176105780482089</v>
       </c>
       <c r="M32" s="7">
-        <v>27.883574549973925</v>
+        <v>27.883574549973936</v>
       </c>
       <c r="N32" s="7">
-        <v>19.689892837307557</v>
+        <v>19.689892837307561</v>
       </c>
       <c r="O32" s="7">
-        <v>6.5143408759959982</v>
+        <v>6.5143408759959867</v>
       </c>
       <c r="P32" s="7">
-        <v>4.5211492741981392</v>
+        <v>4.5211492741981161</v>
       </c>
       <c r="Q32" s="7">
-        <v>1.8214308107091386</v>
+        <v>1.8214308107091239</v>
       </c>
       <c r="R32" s="7">
         <v>4.3633376185730892</v>
       </c>
       <c r="S32" s="7">
-        <v>2.7173370404221253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.717337040422136</v>
+      </c>
+      <c r="T32" s="7">
+        <v>4.1462562589760674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="7">
-        <v>2.7175587694448424</v>
+        <v>2.7175587694448637</v>
       </c>
       <c r="C33" s="7">
-        <v>2.5675609155796266</v>
+        <v>2.5675609155796284</v>
       </c>
       <c r="D33" s="7">
-        <v>4.3696832891403616</v>
+        <v>4.3696832891403714</v>
       </c>
       <c r="E33" s="7">
-        <v>2.1042180752621893</v>
+        <v>2.104218075262192</v>
       </c>
       <c r="F33" s="7">
-        <v>-8.4508268901382859</v>
+        <v>-8.4508268901382788</v>
       </c>
       <c r="G33" s="7">
-        <v>-32.72318900396418</v>
+        <v>-32.723189003964194</v>
       </c>
       <c r="H33" s="7">
-        <v>-11.841483916057502</v>
+        <v>-11.841483916057516</v>
       </c>
       <c r="I33" s="7">
         <v>-20.452764639799113</v>
       </c>
       <c r="J33" s="7">
-        <v>-0.79381857387479859</v>
+        <v>-0.79381857387481192</v>
       </c>
       <c r="K33" s="7">
-        <v>45.308242142357784</v>
+        <v>45.308242142357805</v>
       </c>
       <c r="L33" s="7">
-        <v>9.6460404525197152</v>
+        <v>9.6460404525197347</v>
       </c>
       <c r="M33" s="7">
-        <v>24.656428757921706</v>
+        <v>24.65642875792172</v>
       </c>
       <c r="N33" s="7">
-        <v>14.007777955356666</v>
+        <v>14.00777795535666</v>
       </c>
       <c r="O33" s="7">
-        <v>6.3791139737648281</v>
+        <v>6.379113973764829</v>
       </c>
       <c r="P33" s="7">
-        <v>8.3763239144878501</v>
+        <v>8.376323914487843</v>
       </c>
       <c r="Q33" s="7">
-        <v>5.7607722919324642</v>
+        <v>5.760772291932434</v>
       </c>
       <c r="R33" s="7">
-        <v>5.6896132782564894</v>
+        <v>5.689613278256493</v>
       </c>
       <c r="S33" s="7">
-        <v>2.2096081960404317</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.2096081960404361</v>
+      </c>
+      <c r="T33" s="7">
+        <v>-0.39938334490315597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="7">
-        <v>-0.56832546239644965</v>
+        <v>-0.56832546239648607</v>
       </c>
       <c r="C34" s="7">
-        <v>5.5697894619597524E-2</v>
+        <v>5.5697894619591806E-2</v>
       </c>
       <c r="D34" s="7">
-        <v>3.5174685792772937</v>
+        <v>3.5174685792772746</v>
       </c>
       <c r="E34" s="7">
-        <v>2.4835927150643649</v>
+        <v>2.4835927150643844</v>
       </c>
       <c r="F34" s="7">
-        <v>-3.76811594202898</v>
+        <v>-3.7681159420289685</v>
       </c>
       <c r="G34" s="7">
-        <v>-56.059593935345447</v>
+        <v>-56.059593935345433</v>
       </c>
       <c r="H34" s="7">
-        <v>-34.661851412153204</v>
+        <v>-34.661851412153197</v>
       </c>
       <c r="I34" s="7">
         <v>-35.466969263407172</v>
       </c>
       <c r="J34" s="7">
-        <v>-26.124497991967889</v>
+        <v>-26.124497991967882</v>
       </c>
       <c r="K34" s="7">
-        <v>93.366195236559633</v>
+        <v>93.366195236559605</v>
       </c>
       <c r="L34" s="7">
-        <v>38.01474966790343</v>
+        <v>38.014749667903445</v>
       </c>
       <c r="M34" s="7">
-        <v>48.693445054356964</v>
+        <v>48.693445054356957</v>
       </c>
       <c r="N34" s="7">
-        <v>36.576014649289711</v>
+        <v>36.576014649289725</v>
       </c>
       <c r="O34" s="7">
         <v>15.930099585457674</v>
       </c>
       <c r="P34" s="7">
-        <v>6.653390861821002</v>
+        <v>6.6533908618209896</v>
       </c>
       <c r="Q34" s="7">
-        <v>-4.0196612748979312</v>
+        <v>-4.0196612748979472</v>
       </c>
       <c r="R34" s="7">
-        <v>-0.42632086144046039</v>
+        <v>-0.42632086144047521</v>
       </c>
       <c r="S34" s="7">
-        <v>-5.3780787291540317</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-5.3780787291540335</v>
+      </c>
+      <c r="T34" s="7">
+        <v>-3.5164515995186836</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="7">
-        <v>-0.32283338210443985</v>
+        <v>-0.32283338210446572</v>
       </c>
       <c r="C35" s="7">
-        <v>-2.8641380019250193</v>
+        <v>-2.8641380019250144</v>
       </c>
       <c r="D35" s="7">
-        <v>-2.1623981926224283</v>
+        <v>-2.1623981926224101</v>
       </c>
       <c r="E35" s="7">
-        <v>-2.6452158865086624</v>
+        <v>-2.645215886508649</v>
       </c>
       <c r="F35" s="7">
-        <v>-1.4309389649131175</v>
+        <v>-1.4309389649130924</v>
       </c>
       <c r="G35" s="7">
-        <v>-55.433485973756113</v>
+        <v>-55.433485973756099</v>
       </c>
       <c r="H35" s="7">
-        <v>-6.7712578103776027</v>
+        <v>-6.7712578103776169</v>
       </c>
       <c r="I35" s="7">
-        <v>-3.3382492259910674</v>
+        <v>-3.3382492259910688</v>
       </c>
       <c r="J35" s="7">
-        <v>-10.175435225394882</v>
+        <v>-10.175435225394891</v>
       </c>
       <c r="K35" s="7">
-        <v>120.45719466390366</v>
+        <v>120.45719466390362</v>
       </c>
       <c r="L35" s="7">
-        <v>5.5698362975990916</v>
+        <v>5.5698362975991156</v>
       </c>
       <c r="M35" s="7">
-        <v>10.527326186458666</v>
+        <v>10.527326186458664</v>
       </c>
       <c r="N35" s="7">
         <v>17.06972714534778</v>
       </c>
       <c r="O35" s="7">
-        <v>10.279156752734302</v>
+        <v>10.279156752734282</v>
       </c>
       <c r="P35" s="7">
-        <v>11.262704429175589</v>
+        <v>11.262704429175557</v>
       </c>
       <c r="Q35" s="7">
-        <v>1.6290337325166917</v>
+        <v>1.6290337325166759</v>
       </c>
       <c r="R35" s="7">
-        <v>5.4078500164455701</v>
+        <v>5.4078500164455665</v>
       </c>
       <c r="S35" s="7">
-        <v>-0.82751027728699256</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.82751027728697446</v>
+      </c>
+      <c r="T35" s="7">
+        <v>-0.16302518030229199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="7">
-        <v>3.4759734131207605</v>
+        <v>3.4759734131207543</v>
       </c>
       <c r="C36" s="7">
-        <v>-0.48415996340209255</v>
+        <v>-0.4841599634021056</v>
       </c>
       <c r="D36" s="7">
-        <v>6.2736340628256615</v>
+        <v>6.2736340628256526</v>
       </c>
       <c r="E36" s="7">
-        <v>1.6955087985525301</v>
+        <v>1.6955087985525434</v>
       </c>
       <c r="F36" s="7">
-        <v>-9.4964098583349674</v>
+        <v>-9.4964098583349585</v>
       </c>
       <c r="G36" s="7">
-        <v>-55.324854428440084</v>
+        <v>-55.324854428440077</v>
       </c>
       <c r="H36" s="7">
-        <v>-28.185587806791428</v>
+        <v>-28.185587806791425</v>
       </c>
       <c r="I36" s="7">
         <v>-26.719850015304562</v>
       </c>
       <c r="J36" s="7">
-        <v>-8.5801893366783446</v>
+        <v>-8.5801893366783517</v>
       </c>
       <c r="K36" s="7">
-        <v>112.51286228777221</v>
+        <v>112.51286228777222</v>
       </c>
       <c r="L36" s="7">
-        <v>36.096806075738684</v>
+        <v>36.096806075738662</v>
       </c>
       <c r="M36" s="7">
-        <v>40.105730322412221</v>
+        <v>40.105730322412214</v>
       </c>
       <c r="N36" s="7">
-        <v>20.782221179781875</v>
+        <v>20.782221179781864</v>
       </c>
       <c r="O36" s="7">
-        <v>9.0242401622063309</v>
+        <v>9.0242401622063131</v>
       </c>
       <c r="P36" s="7">
-        <v>6.1498475915644901</v>
+        <v>6.1498475915644919</v>
       </c>
       <c r="Q36" s="7">
-        <v>-1.6769925932827851E-2</v>
+        <v>-1.6769925932825711E-2</v>
       </c>
       <c r="R36" s="7">
-        <v>6.3762853064831013</v>
+        <v>6.3762853064830995</v>
       </c>
       <c r="S36" s="7">
-        <v>1.1482341620481367</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.1482341620481527</v>
+      </c>
+      <c r="T36" s="7">
+        <v>-2.917480578635145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="7">
-        <v>8.3848970829649883</v>
+        <v>8.3848970829650114</v>
       </c>
       <c r="C37" s="7">
-        <v>6.8145130294411516</v>
+        <v>6.8145130294411373</v>
       </c>
       <c r="D37" s="7">
-        <v>8.8551835572696813</v>
+        <v>8.855183557269692</v>
       </c>
       <c r="E37" s="7">
-        <v>5.0087653393438512</v>
+        <v>5.0087653393438325</v>
       </c>
       <c r="F37" s="7">
-        <v>-0.88457505444571061</v>
+        <v>-0.88457505444571927</v>
       </c>
       <c r="G37" s="7">
-        <v>-50.290561692634299</v>
+        <v>-50.290561692634306</v>
       </c>
       <c r="H37" s="7">
-        <v>-17.994345290687406</v>
+        <v>-17.994345290687402</v>
       </c>
       <c r="I37" s="7">
-        <v>-19.502521839750553</v>
+        <v>-19.502521839750543</v>
       </c>
       <c r="J37" s="7">
-        <v>-15.328414351851857</v>
+        <v>-15.328414351851855</v>
       </c>
       <c r="K37" s="7">
-        <v>95.977125898043738</v>
+        <v>95.977125898043795</v>
       </c>
       <c r="L37" s="7">
-        <v>19.591871915874783</v>
+        <v>19.591871915874762</v>
       </c>
       <c r="M37" s="7">
-        <v>31.286485537462138</v>
+        <v>31.286485537462141</v>
       </c>
       <c r="N37" s="7">
-        <v>20.637548056386162</v>
+        <v>20.637548056386159</v>
       </c>
       <c r="O37" s="7">
-        <v>3.2670021699986069</v>
+        <v>3.2670021699986025</v>
       </c>
       <c r="P37" s="7">
-        <v>1.1666876880664316</v>
+        <v>1.1666876880664505</v>
       </c>
       <c r="Q37" s="7">
-        <v>-6.2017318043529137</v>
+        <v>-6.2017318043529173</v>
       </c>
       <c r="R37" s="7">
-        <v>4.4571327402292633</v>
+        <v>4.4571327402292837</v>
       </c>
       <c r="S37" s="7">
-        <v>2.0503786896533303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.0503786896533231</v>
+      </c>
+      <c r="T37" s="7">
+        <v>2.396409393283633</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="7">
-        <v>2.72869624839013</v>
+        <v>2.7286962483900963</v>
       </c>
       <c r="C38" s="7">
-        <v>-0.31067333506926859</v>
+        <v>-0.31067333506926692</v>
       </c>
       <c r="D38" s="7">
-        <v>1.8599802479973879</v>
+        <v>1.8599802479973788</v>
       </c>
       <c r="E38" s="7">
-        <v>-0.42679073516075855</v>
+        <v>-0.42679073516079336</v>
       </c>
       <c r="F38" s="7">
-        <v>-11.639548307958737</v>
+        <v>-11.639548307958723</v>
       </c>
       <c r="G38" s="7">
-        <v>-60.611573969826615</v>
+        <v>-60.611573969826601</v>
       </c>
       <c r="H38" s="7">
         <v>-38.279917407307657</v>
       </c>
       <c r="I38" s="7">
-        <v>-38.139825792625174</v>
+        <v>-38.139825792625153</v>
       </c>
       <c r="J38" s="7">
-        <v>-25.368746618759371</v>
+        <v>-25.368746618759374</v>
       </c>
       <c r="K38" s="7">
         <v>109.38464704671742</v>
       </c>
       <c r="L38" s="7">
-        <v>47.029818181818172</v>
+        <v>47.029818181818179</v>
       </c>
       <c r="M38" s="7">
-        <v>50.631179837930283</v>
+        <v>50.631179837930269</v>
       </c>
       <c r="N38" s="7">
-        <v>30.277375058128399</v>
+        <v>30.277375058128392</v>
       </c>
       <c r="O38" s="7">
-        <v>11.550138697769913</v>
+        <v>11.550138697769905</v>
       </c>
       <c r="P38" s="7">
-        <v>2.3287793199647688</v>
+        <v>2.3287793199647853</v>
       </c>
       <c r="Q38" s="7">
-        <v>-2.1647072759039352</v>
+        <v>-2.164707275903929</v>
       </c>
       <c r="R38" s="7">
-        <v>11.431900977417545</v>
+        <v>11.431900977417548</v>
       </c>
       <c r="S38" s="7">
-        <v>2.3947054101153267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.3947054101153236</v>
+      </c>
+      <c r="T38" s="7">
+        <v>1.6560805127758997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="7">
-        <v>4.5143829414632579</v>
+        <v>4.5143829414632624</v>
       </c>
       <c r="C39" s="7">
-        <v>2.7442295388552633</v>
+        <v>2.7442295388552753</v>
       </c>
       <c r="D39" s="7">
-        <v>4.5964459446043762</v>
+        <v>4.5964459446043868</v>
       </c>
       <c r="E39" s="7">
-        <v>1.2557806543990844</v>
+        <v>1.2557806543991081</v>
       </c>
       <c r="F39" s="7">
-        <v>-9.9640130238580191</v>
+        <v>-9.9640130238580298</v>
       </c>
       <c r="G39" s="7">
-        <v>-43.052987555444858</v>
+        <v>-43.052987555444865</v>
       </c>
       <c r="H39" s="7">
-        <v>-10.21165527714502</v>
+        <v>-10.211655277145026</v>
       </c>
       <c r="I39" s="7">
-        <v>-14.490731893751187</v>
+        <v>-14.490731893751184</v>
       </c>
       <c r="J39" s="7">
-        <v>-3.9377405574588753</v>
+        <v>-3.9377405574588789</v>
       </c>
       <c r="K39" s="7">
-        <v>75.272109415742804</v>
+        <v>75.272109415742847</v>
       </c>
       <c r="L39" s="7">
-        <v>9.7916512510438647</v>
+        <v>9.7916512510438523</v>
       </c>
       <c r="M39" s="7">
-        <v>14.299282633472645</v>
+        <v>14.299282633472616</v>
       </c>
       <c r="N39" s="7">
         <v>7.7723230010567272</v>
       </c>
       <c r="O39" s="7">
-        <v>-2.6721184024878166</v>
+        <v>-2.6721184024878379</v>
       </c>
       <c r="P39" s="7">
-        <v>-1.8986366787337379</v>
+        <v>-1.8986366787337334</v>
       </c>
       <c r="Q39" s="7">
-        <v>-0.27666168089079668</v>
+        <v>-0.27666168089078719</v>
       </c>
       <c r="R39" s="7">
-        <v>7.4650951393640836</v>
+        <v>7.4650951393641094</v>
       </c>
       <c r="S39" s="7">
-        <v>0.81358539688173648</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.81358539688173781</v>
+      </c>
+      <c r="T39" s="7">
+        <v>0.87543673693716328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="7">
-        <v>11.903886795920238</v>
+        <v>11.903886795920235</v>
       </c>
       <c r="C40" s="7">
-        <v>10.255790425541438</v>
+        <v>10.255790425541434</v>
       </c>
       <c r="D40" s="7">
-        <v>8.9135438078673257</v>
+        <v>8.9135438078673186</v>
       </c>
       <c r="E40" s="7">
-        <v>0.14910831533021029</v>
+        <v>0.14910831533019872</v>
       </c>
       <c r="F40" s="7">
-        <v>-20.3465122962598</v>
+        <v>-20.346512296259792</v>
       </c>
       <c r="G40" s="7">
         <v>-42.797284568161878</v>
       </c>
       <c r="H40" s="7">
-        <v>-23.805299028108251</v>
+        <v>-23.805299028108237</v>
       </c>
       <c r="I40" s="7">
-        <v>-28.565023559567212</v>
+        <v>-28.565023559567202</v>
       </c>
       <c r="J40" s="7">
-        <v>9.7200173185163798</v>
+        <v>9.7200173185163852</v>
       </c>
       <c r="K40" s="7">
         <v>65.522968599170952</v>
       </c>
       <c r="L40" s="7">
-        <v>24.055255636710058</v>
+        <v>24.055255636710061</v>
       </c>
       <c r="M40" s="7">
-        <v>44.694708919520629</v>
+        <v>44.694708919520622</v>
       </c>
       <c r="N40" s="7">
-        <v>14.273500258373653</v>
+        <v>14.273500258373646</v>
       </c>
       <c r="O40" s="7">
-        <v>4.3172871587722232</v>
+        <v>4.3172871587722517</v>
       </c>
       <c r="P40" s="7">
-        <v>4.5138444472887116</v>
+        <v>4.5138444472887107</v>
       </c>
       <c r="Q40" s="7">
-        <v>-1.3520370582554448</v>
+        <v>-1.352037058255436</v>
       </c>
       <c r="R40" s="7">
-        <v>0.29434253907439129</v>
+        <v>0.29434253907438257</v>
       </c>
       <c r="S40" s="7">
-        <v>-1.3417190775681316</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-1.3417190775681516</v>
+      </c>
+      <c r="T40" s="7">
+        <v>-1.4271135241049941</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="7">
-        <v>3.290548664563397</v>
+        <v>3.2905486645633908</v>
       </c>
       <c r="C41" s="7">
-        <v>2.7427061095862393</v>
+        <v>2.7427061095862553</v>
       </c>
       <c r="D41" s="7">
-        <v>3.374960561000683</v>
+        <v>3.3749605610006919</v>
       </c>
       <c r="E41" s="7">
-        <v>1.2229210342417847</v>
+        <v>1.222921034241766</v>
       </c>
       <c r="F41" s="7">
-        <v>-8.5960740615455098</v>
+        <v>-8.596074061545508</v>
       </c>
       <c r="G41" s="7">
-        <v>-40.882376221949578</v>
+        <v>-40.882376221949571</v>
       </c>
       <c r="H41" s="7">
-        <v>-12.560919178095682</v>
+        <v>-12.560919178095677</v>
       </c>
       <c r="I41" s="7">
-        <v>-19.053207751861539</v>
+        <v>-19.053207751861532</v>
       </c>
       <c r="J41" s="7">
-        <v>0.75431855536568304</v>
+        <v>0.75431855536569392</v>
       </c>
       <c r="K41" s="7">
-        <v>69.847194095298676</v>
+        <v>69.847194095298647</v>
       </c>
       <c r="L41" s="7">
-        <v>16.745673396313528</v>
+        <v>16.745673396313531</v>
       </c>
       <c r="M41" s="7">
-        <v>28.332277401432833</v>
+        <v>28.332277401432844</v>
       </c>
       <c r="N41" s="7">
-        <v>11.595220604122554</v>
+        <v>11.595220604122545</v>
       </c>
       <c r="O41" s="7">
-        <v>3.0369917817938132</v>
+        <v>3.0369917817938261</v>
       </c>
       <c r="P41" s="7">
-        <v>0.97894543946450141</v>
+        <v>0.97894543946449686</v>
       </c>
       <c r="Q41" s="7">
-        <v>-1.9889869932592763</v>
+        <v>-1.9889869932592856</v>
       </c>
       <c r="R41" s="7">
-        <v>3.8878186200954628</v>
+        <v>3.8878186200954556</v>
       </c>
       <c r="S41" s="7">
-        <v>0.78229601009908212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.78229601009907956</v>
+      </c>
+      <c r="T41" s="7">
+        <v>1.1604806204512144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="7">
-        <v>7.8885013169536071</v>
+        <v>7.8885013169536178</v>
       </c>
       <c r="C42" s="7">
-        <v>5.9079639596057527</v>
+        <v>5.9079639596057403</v>
       </c>
       <c r="D42" s="7">
-        <v>7.9107505070993964</v>
+        <v>7.9107505070994177</v>
       </c>
       <c r="E42" s="7">
-        <v>2.1294961206093248</v>
+        <v>2.1294961206093279</v>
       </c>
       <c r="F42" s="7">
-        <v>-7.6991233858045076</v>
+        <v>-7.6991233858045147</v>
       </c>
       <c r="G42" s="7">
-        <v>-38.33028815043204</v>
+        <v>-38.330288150432025</v>
       </c>
       <c r="H42" s="7">
-        <v>-6.5291353383458661</v>
+        <v>-6.5291353383458794</v>
       </c>
       <c r="I42" s="7">
-        <v>-6.6874759892431914</v>
+        <v>-6.6874759892431852</v>
       </c>
       <c r="J42" s="7">
-        <v>10.359265537877096</v>
+        <v>10.359265537877103</v>
       </c>
       <c r="K42" s="7">
-        <v>76.364478049533204</v>
+        <v>76.36447804953319</v>
       </c>
       <c r="L42" s="7">
-        <v>11.83071400561068</v>
+        <v>11.830714005610696</v>
       </c>
       <c r="M42" s="7">
         <v>24.463497226139136</v>
       </c>
       <c r="N42" s="7">
-        <v>0.37847241500563106</v>
+        <v>0.37847241500562384</v>
       </c>
       <c r="O42" s="7">
-        <v>-5.0475532184823226</v>
+        <v>-5.0475532184823306</v>
       </c>
       <c r="P42" s="7">
-        <v>-2.9410442460371007</v>
+        <v>-2.9410442460371113</v>
       </c>
       <c r="Q42" s="7">
-        <v>-10.324581352077734</v>
+        <v>-10.324581352077725</v>
       </c>
       <c r="R42" s="7">
-        <v>2.8236920949527677</v>
+        <v>2.8236920949527633</v>
       </c>
       <c r="S42" s="7">
-        <v>-0.31329475507722293</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.31329475507720611</v>
+      </c>
+      <c r="T42" s="7">
+        <v>0.6558713454626488</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="7">
-        <v>0.81813007110399361</v>
+        <v>0.81813007110399893</v>
       </c>
       <c r="C43" s="7">
-        <v>-0.73854395867216838</v>
+        <v>-0.73854395867214584</v>
       </c>
       <c r="D43" s="7">
-        <v>0.19070184056170802</v>
+        <v>0.19070184056172293</v>
       </c>
       <c r="E43" s="7">
-        <v>-1.7843558944788218</v>
+        <v>-1.7843558944788143</v>
       </c>
       <c r="F43" s="7">
-        <v>-1.4861386233360949</v>
+        <v>-1.4861386233361016</v>
       </c>
       <c r="G43" s="7">
         <v>-54.061373580832317</v>
       </c>
       <c r="H43" s="7">
-        <v>-19.048305695746219</v>
+        <v>-19.048305695746226</v>
       </c>
       <c r="I43" s="7">
-        <v>-23.837025845994969</v>
+        <v>-23.837025845994972</v>
       </c>
       <c r="J43" s="7">
-        <v>-26.213743127464895</v>
+        <v>-26.213743127464884</v>
       </c>
       <c r="K43" s="7">
-        <v>90.691282911989944</v>
+        <v>90.691282911989916</v>
       </c>
       <c r="L43" s="7">
-        <v>15.22265764161026</v>
+        <v>15.222657641610272</v>
       </c>
       <c r="M43" s="7">
-        <v>30.933309898056539</v>
+        <v>30.933309898056535</v>
       </c>
       <c r="N43" s="7">
         <v>40.281727224855203</v>
       </c>
       <c r="O43" s="7">
-        <v>21.41198992221624</v>
+        <v>21.41198992221625</v>
       </c>
       <c r="P43" s="7">
         <v>16.045718290408018</v>
       </c>
       <c r="Q43" s="7">
-        <v>8.0380857408597208</v>
+        <v>8.0380857408597297</v>
       </c>
       <c r="R43" s="7">
-        <v>11.015597139585958</v>
+        <v>11.015597139585941</v>
       </c>
       <c r="S43" s="7">
-        <v>3.8049929772099054</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.8049929772099107</v>
+      </c>
+      <c r="T43" s="7">
+        <v>2.4334357626245522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="7">
-        <v>3.8014386496086838</v>
+        <v>3.8014386496086847</v>
       </c>
       <c r="C44" s="7">
-        <v>3.2608589341079663</v>
+        <v>3.2608589341079615</v>
       </c>
       <c r="D44" s="7">
-        <v>4.3892715467050936</v>
+        <v>4.3892715467050998</v>
       </c>
       <c r="E44" s="7">
-        <v>2.9153864910997207</v>
+        <v>2.9153864910997234</v>
       </c>
       <c r="F44" s="7">
-        <v>-6.8087580665147902</v>
+        <v>-6.808758066514784</v>
       </c>
       <c r="G44" s="7">
         <v>-52.157193328092291</v>
       </c>
       <c r="H44" s="7">
-        <v>-21.331745221484887</v>
+        <v>-21.331745221484898</v>
       </c>
       <c r="I44" s="7">
-        <v>-25.578596205242892</v>
+        <v>-25.578596205242896</v>
       </c>
       <c r="J44" s="7">
-        <v>-13.863715402082532</v>
+        <v>-13.86371540208253</v>
       </c>
       <c r="K44" s="7">
-        <v>97.45599968323728</v>
+        <v>97.455999683237295</v>
       </c>
       <c r="L44" s="7">
         <v>24.259793318913736</v>
@@ -6890,116 +7177,122 @@
         <v>33.241642788920693</v>
       </c>
       <c r="N44" s="7">
-        <v>19.06854130052724</v>
+        <v>19.068541300527226</v>
       </c>
       <c r="O44" s="7">
-        <v>2.8374625264445452</v>
+        <v>2.837462526444547</v>
       </c>
       <c r="P44" s="7">
-        <v>-0.49512131439236795</v>
+        <v>-0.49512131439235701</v>
       </c>
       <c r="Q44" s="7">
-        <v>-3.6787475627938946</v>
+        <v>-3.6787475627938981</v>
       </c>
       <c r="R44" s="7">
-        <v>6.6171337389049727</v>
+        <v>6.6171337389049736</v>
       </c>
       <c r="S44" s="7">
-        <v>3.287607125098718</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.2876071250987198</v>
+      </c>
+      <c r="T44" s="7">
+        <v>3.6677454153182252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="7">
-        <v>15.821447969262337</v>
+        <v>15.821447969262339</v>
       </c>
       <c r="C45" s="7">
-        <v>11.416492560005498</v>
+        <v>11.416492560005503</v>
       </c>
       <c r="D45" s="7">
-        <v>12.132082683995401</v>
+        <v>12.13208268399541</v>
       </c>
       <c r="E45" s="7">
-        <v>2.452281518657081</v>
+        <v>2.4522815186570948</v>
       </c>
       <c r="F45" s="7">
-        <v>-7.2495484229540041</v>
+        <v>-7.2495484229540104</v>
       </c>
       <c r="G45" s="7">
-        <v>-48.913617635665737</v>
+        <v>-48.913617635665744</v>
       </c>
       <c r="H45" s="7">
         <v>-15.735326253223199</v>
       </c>
       <c r="I45" s="7">
-        <v>-23.04543123419456</v>
+        <v>-23.045431234194556</v>
       </c>
       <c r="J45" s="7">
-        <v>-10.067038687689596</v>
+        <v>-10.067038687689591</v>
       </c>
       <c r="K45" s="7">
-        <v>95.85544909354104</v>
+        <v>95.855449093541083</v>
       </c>
       <c r="L45" s="7">
-        <v>21.281495389147643</v>
+        <v>21.281495389147636</v>
       </c>
       <c r="M45" s="7">
         <v>34.523330767197869</v>
       </c>
       <c r="N45" s="7">
-        <v>17.832007662516137</v>
+        <v>17.832007662516141</v>
       </c>
       <c r="O45" s="7">
-        <v>2.9590588732171428</v>
+        <v>2.9590588732171277</v>
       </c>
       <c r="P45" s="7">
-        <v>0.79798835090961173</v>
+        <v>0.79798835090960607</v>
       </c>
       <c r="Q45" s="7">
-        <v>-3.1884998761498791</v>
+        <v>-3.1884998761498773</v>
       </c>
       <c r="R45" s="7">
-        <v>6.3129528185191628</v>
+        <v>6.3129528185191797</v>
       </c>
       <c r="S45" s="7">
-        <v>0.96569641239509518</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.96569641239510218</v>
+      </c>
+      <c r="T45" s="7">
+        <v>1.4543664935682088</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="7">
-        <v>-1.558357708147875</v>
+        <v>-1.5583577081478726</v>
       </c>
       <c r="C46" s="7">
-        <v>-3.7751274406078772</v>
+        <v>-3.7751274406078608</v>
       </c>
       <c r="D46" s="7">
-        <v>-1.8528938126928052</v>
+        <v>-1.8528938126927852</v>
       </c>
       <c r="E46" s="7">
-        <v>-4.6733945302848854</v>
+        <v>-4.6733945302848783</v>
       </c>
       <c r="F46" s="7">
-        <v>-11.018582927556382</v>
+        <v>-11.018582927556391</v>
       </c>
       <c r="G46" s="7">
-        <v>-37.800989554700379</v>
+        <v>-37.800989554700394</v>
       </c>
       <c r="H46" s="7">
-        <v>-13.84572806705412</v>
+        <v>-13.845728067054122</v>
       </c>
       <c r="I46" s="7">
-        <v>-16.626460385182828</v>
+        <v>-16.626460385182824</v>
       </c>
       <c r="J46" s="7">
-        <v>4.5286011033927958</v>
+        <v>4.5286011033928206</v>
       </c>
       <c r="K46" s="7">
-        <v>66.52096356886878</v>
+        <v>66.520963568868822</v>
       </c>
       <c r="L46" s="7">
         <v>19.261392317929413</v>
@@ -7008,399 +7301,420 @@
         <v>25.846216387484017</v>
       </c>
       <c r="N46" s="7">
-        <v>12.829471030054396</v>
+        <v>12.829471030054385</v>
       </c>
       <c r="O46" s="7">
-        <v>3.1808224201658177</v>
+        <v>3.1808224201658017</v>
       </c>
       <c r="P46" s="7">
-        <v>3.5583388646792242</v>
+        <v>3.5583388646792273</v>
       </c>
       <c r="Q46" s="7">
-        <v>1.593288616109592</v>
+        <v>1.5932886161095949</v>
       </c>
       <c r="R46" s="7">
-        <v>6.0129728706027183</v>
+        <v>6.0129728706026935</v>
       </c>
       <c r="S46" s="7">
-        <v>3.8637447739835511</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.8637447739835582</v>
+      </c>
+      <c r="T46" s="7">
+        <v>3.4119198900159762</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="7">
-        <v>-6.7038021259198803</v>
+        <v>-6.7038021259198741</v>
       </c>
       <c r="C47" s="7">
-        <v>-7.9750010112859435</v>
+        <v>-7.9750010112859409</v>
       </c>
       <c r="D47" s="7">
-        <v>-5.7640819424925125</v>
+        <v>-5.7640819424925418</v>
       </c>
       <c r="E47" s="7">
-        <v>-8.322825998535734</v>
+        <v>-8.3228259985357482</v>
       </c>
       <c r="F47" s="7">
-        <v>-11.162235295406495</v>
+        <v>-11.162235295406497</v>
       </c>
       <c r="G47" s="7">
-        <v>-37.262357414448665</v>
+        <v>-37.262357414448672</v>
       </c>
       <c r="H47" s="7">
-        <v>-8.709614212313868</v>
+        <v>-8.709614212313852</v>
       </c>
       <c r="I47" s="7">
-        <v>-13.01811244579023</v>
+        <v>-13.018112445790219</v>
       </c>
       <c r="J47" s="7">
-        <v>4.1656390272776624</v>
+        <v>4.165639027277658</v>
       </c>
       <c r="K47" s="7">
         <v>63.841303205465053</v>
       </c>
       <c r="L47" s="7">
-        <v>13.263298474893585</v>
+        <v>13.263298474893579</v>
       </c>
       <c r="M47" s="7">
-        <v>22.903011909923244</v>
+        <v>22.903011909923237</v>
       </c>
       <c r="N47" s="7">
-        <v>29.901740262815188</v>
+        <v>29.90174026281521</v>
       </c>
       <c r="O47" s="7">
-        <v>15.793750066818466</v>
+        <v>15.793750066818481</v>
       </c>
       <c r="P47" s="7">
-        <v>12.665024319373359</v>
+        <v>12.665024319373378</v>
       </c>
       <c r="Q47" s="7">
-        <v>10.378386229936806</v>
+        <v>10.378386229936803</v>
       </c>
       <c r="R47" s="7">
-        <v>-0.85666375036453712</v>
+        <v>-0.85666375036453823</v>
       </c>
       <c r="S47" s="7">
-        <v>-2.8335333764195392</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-2.8335333764195414</v>
+      </c>
+      <c r="T47" s="7">
+        <v>-0.89238992300215503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="7">
-        <v>7.5206340693066309</v>
+        <v>7.5206340693066371</v>
       </c>
       <c r="C48" s="7">
-        <v>6.2845601788305618</v>
+        <v>6.2845601788305592</v>
       </c>
       <c r="D48" s="7">
-        <v>5.0073282678289033</v>
+        <v>5.0073282678288864</v>
       </c>
       <c r="E48" s="7">
-        <v>1.7457974189247039</v>
+        <v>1.7457974189247056</v>
       </c>
       <c r="F48" s="7">
-        <v>-10.905731836866648</v>
+        <v>-10.905731836866664</v>
       </c>
       <c r="G48" s="7">
-        <v>-49.491725550246301</v>
+        <v>-49.491725550246308</v>
       </c>
       <c r="H48" s="7">
-        <v>-18.153185002892535</v>
+        <v>-18.153185002892517</v>
       </c>
       <c r="I48" s="7">
-        <v>-16.295353278166779</v>
+        <v>-16.295353278166761</v>
       </c>
       <c r="J48" s="7">
-        <v>-1.9865421103381191</v>
+        <v>-1.986542110338098</v>
       </c>
       <c r="K48" s="7">
         <v>92.389597107060652</v>
       </c>
       <c r="L48" s="7">
-        <v>19.426244222052699</v>
+        <v>19.426244222052674</v>
       </c>
       <c r="M48" s="7">
-        <v>26.943636770297481</v>
+        <v>26.943636770297474</v>
       </c>
       <c r="N48" s="7">
-        <v>22.037806903409404</v>
+        <v>22.037806903409379</v>
       </c>
       <c r="O48" s="7">
-        <v>11.974444897997952</v>
+        <v>11.974444897997941</v>
       </c>
       <c r="P48" s="7">
-        <v>10.357266996721359</v>
+        <v>10.357266996721368</v>
       </c>
       <c r="Q48" s="7">
-        <v>3.2542528168579827</v>
+        <v>3.2542528168579588</v>
       </c>
       <c r="R48" s="7">
-        <v>2.4071216822980697</v>
+        <v>2.4071216822980843</v>
       </c>
       <c r="S48" s="7">
-        <v>-2.5246916196854778</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-2.5246916196854561</v>
+      </c>
+      <c r="T48" s="7">
+        <v>-1.2879664941432769</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="7">
-        <v>3.2993027888446176</v>
+        <v>3.2993027888445892</v>
       </c>
       <c r="C49" s="7">
-        <v>2.1858091175958978</v>
+        <v>2.1858091175959213</v>
       </c>
       <c r="D49" s="7">
-        <v>6.4124747872917771</v>
+        <v>6.4124747872917753</v>
       </c>
       <c r="E49" s="7">
-        <v>0.36135846958732215</v>
+        <v>0.36135846958732221</v>
       </c>
       <c r="F49" s="7">
-        <v>-8.359447189747284</v>
+        <v>-8.3594471897472911</v>
       </c>
       <c r="G49" s="7">
-        <v>-35.625200192184487</v>
+        <v>-35.625200192184501</v>
       </c>
       <c r="H49" s="7">
-        <v>-17.638455913481902</v>
+        <v>-17.638455913481906</v>
       </c>
       <c r="I49" s="7">
         <v>-18.737820861565865</v>
       </c>
       <c r="J49" s="7">
-        <v>-4.6075777336942716</v>
+        <v>-4.6075777336942689</v>
       </c>
       <c r="K49" s="7">
-        <v>56.674389314757505</v>
+        <v>56.674389314757484</v>
       </c>
       <c r="L49" s="7">
-        <v>21.379672897196276</v>
+        <v>21.379672897196269</v>
       </c>
       <c r="M49" s="7">
         <v>28.645681176356042</v>
       </c>
       <c r="N49" s="7">
-        <v>20.243114997070212</v>
+        <v>20.243114997070197</v>
       </c>
       <c r="O49" s="7">
-        <v>6.632460649848146</v>
+        <v>6.6324606498481637</v>
       </c>
       <c r="P49" s="7">
-        <v>4.2886978951116905</v>
+        <v>4.2886978951116843</v>
       </c>
       <c r="Q49" s="7">
-        <v>2.1649240668022647</v>
+        <v>2.1649240668022856</v>
       </c>
       <c r="R49" s="7">
-        <v>4.5778550680324068</v>
+        <v>4.5778550680324184</v>
       </c>
       <c r="S49" s="7">
-        <v>-0.49979059053467911</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.49979059053469105</v>
+      </c>
+      <c r="T49" s="7">
+        <v>-0.53711343060437555</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="7">
-        <v>7.0405270818968653</v>
+        <v>7.0405270818968839</v>
       </c>
       <c r="C50" s="7">
-        <v>6.9812509995390251</v>
+        <v>6.9812509995390419</v>
       </c>
       <c r="D50" s="7">
-        <v>9.7473126306360065</v>
+        <v>9.7473126306360172</v>
       </c>
       <c r="E50" s="7">
-        <v>3.6559529198732501</v>
+        <v>3.6559529198732421</v>
       </c>
       <c r="F50" s="7">
-        <v>-9.1209204122530778</v>
+        <v>-9.1209204122530867</v>
       </c>
       <c r="G50" s="7">
         <v>-35.422968695040446</v>
       </c>
       <c r="H50" s="7">
-        <v>-17.267502168109228</v>
+        <v>-17.267502168109242</v>
       </c>
       <c r="I50" s="7">
-        <v>-18.145133114387534</v>
+        <v>-18.14513311438753</v>
       </c>
       <c r="J50" s="7">
-        <v>-0.98246719366811008</v>
+        <v>-0.98246719366809976</v>
       </c>
       <c r="K50" s="7">
-        <v>56.490597382790696</v>
+        <v>56.490597382790682</v>
       </c>
       <c r="L50" s="7">
-        <v>21.386362468526773</v>
+        <v>21.386362468526787</v>
       </c>
       <c r="M50" s="7">
-        <v>27.567919414388459</v>
+        <v>27.567919414388445</v>
       </c>
       <c r="N50" s="7">
-        <v>17.246453177972441</v>
+        <v>17.24645317797242</v>
       </c>
       <c r="O50" s="7">
         <v>5.2487774316492786</v>
       </c>
       <c r="P50" s="7">
-        <v>2.2825212716420626</v>
+        <v>2.2825212716420493</v>
       </c>
       <c r="Q50" s="7">
-        <v>2.7871416741252517</v>
+        <v>2.7871416741252513</v>
       </c>
       <c r="R50" s="7">
-        <v>5.8407529890612935</v>
+        <v>5.8407529890612979</v>
       </c>
       <c r="S50" s="7">
-        <v>2.5836268333416119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.5836268333416017</v>
+      </c>
+      <c r="T50" s="7">
+        <v>2.8474228340134586</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="7">
-        <v>1.8175812860043401</v>
+        <v>1.8175812860043536</v>
       </c>
       <c r="C51" s="7">
-        <v>-0.22577234145923036</v>
+        <v>-0.22577234145921465</v>
       </c>
       <c r="D51" s="7">
-        <v>2.1181952976064391</v>
+        <v>2.1181952976064502</v>
       </c>
       <c r="E51" s="7">
-        <v>2.7404976013362616</v>
+        <v>2.7404976013362541</v>
       </c>
       <c r="F51" s="7">
-        <v>3.65804789619312</v>
+        <v>3.6580478961931071</v>
       </c>
       <c r="G51" s="7">
-        <v>-56.635731744576837</v>
+        <v>-56.635731744576844</v>
       </c>
       <c r="H51" s="7">
-        <v>-19.742226245026483</v>
+        <v>-19.74222624502649</v>
       </c>
       <c r="I51" s="7">
         <v>-14.784112820900603</v>
       </c>
       <c r="J51" s="7">
-        <v>-17.065829682265022</v>
+        <v>-17.065829682265019</v>
       </c>
       <c r="K51" s="7">
-        <v>131.79136025364394</v>
+        <v>131.79136025364397</v>
       </c>
       <c r="L51" s="7">
-        <v>26.656720275366226</v>
+        <v>26.656720275366219</v>
       </c>
       <c r="M51" s="7">
-        <v>22.820697687316283</v>
+        <v>22.820697687316297</v>
       </c>
       <c r="N51" s="7">
-        <v>21.937116411218284</v>
+        <v>21.937116411218277</v>
       </c>
       <c r="O51" s="7">
-        <v>6.8050344336262087</v>
+        <v>6.8050344336261981</v>
       </c>
       <c r="P51" s="7">
-        <v>5.166304932569064</v>
+        <v>5.1663049325690595</v>
       </c>
       <c r="Q51" s="7">
-        <v>1.8585916968454668</v>
+        <v>1.8585916968454623</v>
       </c>
       <c r="R51" s="7">
-        <v>5.6521857848892711</v>
+        <v>5.6521857848892907</v>
       </c>
       <c r="S51" s="7">
-        <v>-9.0715854819049951E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-9.0715854819047009E-2</v>
+      </c>
+      <c r="T51" s="7">
+        <v>-0.10848091441473789</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="7">
-        <v>5.6482330176189057</v>
+        <v>5.6482330176188835</v>
       </c>
       <c r="C52" s="7">
-        <v>5.2606089957019053</v>
+        <v>5.2606089957019257</v>
       </c>
       <c r="D52" s="7">
-        <v>7.4997196652292937</v>
+        <v>7.499719665229323</v>
       </c>
       <c r="E52" s="7">
-        <v>4.935442735315184</v>
+        <v>4.9354427353151991</v>
       </c>
       <c r="F52" s="7">
-        <v>-8.4522248785378302</v>
+        <v>-8.452224878537816</v>
       </c>
       <c r="G52" s="7">
-        <v>-45.11732229123534</v>
+        <v>-45.117322291235332</v>
       </c>
       <c r="H52" s="7">
-        <v>-20.549244220228712</v>
+        <v>-20.549244220228726</v>
       </c>
       <c r="I52" s="7">
-        <v>-23.282065888161</v>
+        <v>-23.282065888161011</v>
       </c>
       <c r="J52" s="7">
-        <v>-10.027588240249356</v>
+        <v>-10.027588240249345</v>
       </c>
       <c r="K52" s="7">
-        <v>69.394669740472978</v>
+        <v>69.394669740472949</v>
       </c>
       <c r="L52" s="7">
-        <v>22.186813711448504</v>
+        <v>22.186813711448487</v>
       </c>
       <c r="M52" s="7">
-        <v>25.933396859182999</v>
+        <v>25.933396859182995</v>
       </c>
       <c r="N52" s="7">
-        <v>17.008602024694255</v>
+        <v>17.008602024694234</v>
       </c>
       <c r="O52" s="7">
-        <v>6.0458594523259501</v>
+        <v>6.0458594523259528</v>
       </c>
       <c r="P52" s="7">
-        <v>4.4933722758911013E-2</v>
+        <v>4.4933722758940448E-2</v>
       </c>
       <c r="Q52" s="7">
-        <v>5.3064473335096451E-2</v>
+        <v>5.3064473335094994E-2</v>
       </c>
       <c r="R52" s="7">
-        <v>6.286383004260955</v>
+        <v>6.286383004260947</v>
       </c>
       <c r="S52" s="7">
-        <v>1.6236291514350145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.6236291514350012</v>
+      </c>
+      <c r="T52" s="7">
+        <v>0.2226149444927209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="7">
-        <v>-2.9392084211367253</v>
+        <v>-2.9392084211367453</v>
       </c>
       <c r="C53" s="7">
-        <v>-3.522836502730073</v>
+        <v>-3.5228365027300685</v>
       </c>
       <c r="D53" s="7">
-        <v>-3.3180391689508477</v>
+        <v>-3.3180391689508726</v>
       </c>
       <c r="E53" s="7">
-        <v>-10.240716934026429</v>
+        <v>-10.24071693402643</v>
       </c>
       <c r="F53" s="7">
-        <v>-7.1450620459737211</v>
+        <v>-7.1450620459736944</v>
       </c>
       <c r="G53" s="7">
-        <v>-46.979190205221975</v>
+        <v>-46.979190205221968</v>
       </c>
       <c r="H53" s="7">
         <v>-26.473277110661421</v>
@@ -7409,211 +7723,223 @@
         <v>-32.166097578695002</v>
       </c>
       <c r="J53" s="7">
-        <v>-20.619002238425569</v>
+        <v>-20.619002238425558</v>
       </c>
       <c r="K53" s="7">
-        <v>71.650523053080192</v>
+        <v>71.650523053080207</v>
       </c>
       <c r="L53" s="7">
-        <v>35.302253454225401</v>
+        <v>35.302253454225429</v>
       </c>
       <c r="M53" s="7">
-        <v>46.222460220318219</v>
+        <v>46.22246022031824</v>
       </c>
       <c r="N53" s="7">
-        <v>35.767432121169833</v>
+        <v>35.767432121169826</v>
       </c>
       <c r="O53" s="7">
-        <v>11.573708326749898</v>
+        <v>11.573708326749882</v>
       </c>
       <c r="P53" s="7">
-        <v>2.2137782917561668</v>
+        <v>2.2137782917561561</v>
       </c>
       <c r="Q53" s="7">
-        <v>1.3372257274696417</v>
+        <v>1.3372257274696435</v>
       </c>
       <c r="R53" s="7">
-        <v>7.957267857326439</v>
+        <v>7.957267857326447</v>
       </c>
       <c r="S53" s="7">
-        <v>3.7648820060488917</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.7648820060488974</v>
+      </c>
+      <c r="T53" s="7">
+        <v>3.1760142233715682</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="7">
-        <v>2.0948466771752314E-2</v>
+        <v>2.0948466771746773E-2</v>
       </c>
       <c r="C54" s="7">
-        <v>1.2114114962950899</v>
+        <v>1.2114114962950937</v>
       </c>
       <c r="D54" s="7">
-        <v>1.4155753677770047</v>
+        <v>1.4155753677769938</v>
       </c>
       <c r="E54" s="7">
-        <v>0.65037386460582558</v>
+        <v>0.6503738646058117</v>
       </c>
       <c r="F54" s="7">
-        <v>-8.1282974458196602</v>
+        <v>-8.1282974458196673</v>
       </c>
       <c r="G54" s="7">
-        <v>-42.051507111651929</v>
+        <v>-42.051507111651937</v>
       </c>
       <c r="H54" s="7">
-        <v>-12.732594605895889</v>
+        <v>-12.732594605895896</v>
       </c>
       <c r="I54" s="7">
-        <v>-15.896014279588774</v>
+        <v>-15.896014279588767</v>
       </c>
       <c r="J54" s="7">
-        <v>-2.2438854934485462</v>
+        <v>-2.2438854934485502</v>
       </c>
       <c r="K54" s="7">
-        <v>66.73723708217149</v>
+        <v>66.737237082171532</v>
       </c>
       <c r="L54" s="7">
-        <v>8.6042850297761895</v>
+        <v>8.6042850297761753</v>
       </c>
       <c r="M54" s="7">
-        <v>14.482701382466628</v>
+        <v>14.482701382466614</v>
       </c>
       <c r="N54" s="7">
-        <v>4.461965574680737</v>
+        <v>4.4619655746807334</v>
       </c>
       <c r="O54" s="7">
-        <v>-3.4096891742626778</v>
+        <v>-3.4096891742626849</v>
       </c>
       <c r="P54" s="7">
-        <v>-2.5557796546073495</v>
+        <v>-2.5557796546073281</v>
       </c>
       <c r="Q54" s="7">
-        <v>-5.3781704071170244</v>
+        <v>-5.3781704071170378</v>
       </c>
       <c r="R54" s="7">
-        <v>1.9220138623123646</v>
+        <v>1.9220138623123757</v>
       </c>
       <c r="S54" s="7">
-        <v>1.4374572503419984</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.4374572503419931</v>
+      </c>
+      <c r="T54" s="7">
+        <v>1.0392074426225963</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="7">
-        <v>5.418840679771586</v>
+        <v>5.4188406797715611</v>
       </c>
       <c r="C55" s="7">
-        <v>6.4001738855516974</v>
+        <v>6.4001738855516948</v>
       </c>
       <c r="D55" s="7">
-        <v>7.8369843893843827</v>
+        <v>7.8369843893843916</v>
       </c>
       <c r="E55" s="7">
-        <v>4.7583527884606198</v>
+        <v>4.7583527884606225</v>
       </c>
       <c r="F55" s="7">
-        <v>-3.9782561914652868</v>
+        <v>-3.9782561914652712</v>
       </c>
       <c r="G55" s="7">
         <v>-45.147361970026182</v>
       </c>
       <c r="H55" s="7">
-        <v>-14.060291174796673</v>
+        <v>-14.060291174796687</v>
       </c>
       <c r="I55" s="7">
-        <v>-17.66674989134556</v>
+        <v>-17.666749891345564</v>
       </c>
       <c r="J55" s="7">
-        <v>-4.2473374971986617</v>
+        <v>-4.2473374971986546</v>
       </c>
       <c r="K55" s="7">
-        <v>83.285087942037819</v>
+        <v>83.285087942037862</v>
       </c>
       <c r="L55" s="7">
-        <v>17.248266948654699</v>
+        <v>17.248266948654702</v>
       </c>
       <c r="M55" s="7">
-        <v>29.455501145604039</v>
+        <v>29.455501145604025</v>
       </c>
       <c r="N55" s="7">
-        <v>9.0261524371629438</v>
+        <v>9.0261524371629331</v>
       </c>
       <c r="O55" s="7">
-        <v>0.88850302940740056</v>
+        <v>0.88850302940740578</v>
       </c>
       <c r="P55" s="7">
-        <v>-0.28878827355629211</v>
+        <v>-0.28878827355629871</v>
       </c>
       <c r="Q55" s="7">
-        <v>-6.0505630650171085</v>
+        <v>-6.0505630650170925</v>
       </c>
       <c r="R55" s="7">
-        <v>4.2682471532574038</v>
+        <v>4.2682471532574153</v>
       </c>
       <c r="S55" s="7">
-        <v>8.3307395133396175E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+        <v>8.330739513338814E-2</v>
+      </c>
+      <c r="T55" s="7">
+        <v>1.120125717209377</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="7">
-        <v>-0.24314294245619039</v>
+        <v>-0.24314294245618878</v>
       </c>
       <c r="C56" s="7">
-        <v>-0.97218242217764173</v>
+        <v>-0.9721824221776435</v>
       </c>
       <c r="D56" s="7">
-        <v>1.170942955947752</v>
+        <v>1.1709429559477527</v>
       </c>
       <c r="E56" s="7">
-        <v>3.7414361173578725</v>
+        <v>3.7414361173578836</v>
       </c>
       <c r="F56" s="7">
-        <v>2.5047036688617226</v>
+        <v>2.5047036688617221</v>
       </c>
       <c r="G56" s="7">
-        <v>-24.832538449172063</v>
+        <v>-24.832538449172066</v>
       </c>
       <c r="H56" s="7">
-        <v>-4.5890432307196924</v>
+        <v>-4.589043230719688</v>
       </c>
       <c r="I56" s="7">
-        <v>-4.1045754269927928</v>
+        <v>-4.1045754269928025</v>
       </c>
       <c r="J56" s="7">
-        <v>0.69456756390333629</v>
+        <v>0.69456756390334229</v>
       </c>
       <c r="K56" s="7">
-        <v>61.64254651743061</v>
+        <v>61.642546517430645</v>
       </c>
       <c r="L56" s="7">
-        <v>21.161007905568749</v>
+        <v>21.161007905568738</v>
       </c>
       <c r="M56" s="7">
-        <v>18.184016570112817</v>
+        <v>18.184016570112796</v>
       </c>
       <c r="N56" s="7">
-        <v>23.23594295361098</v>
+        <v>23.235942953610969</v>
       </c>
       <c r="O56" s="7">
-        <v>-1.1034859925199085</v>
+        <v>-1.1034859925199361</v>
       </c>
       <c r="P56" s="7">
-        <v>0.12312725246479532</v>
+        <v>0.12312725246478078</v>
       </c>
       <c r="Q56" s="7">
-        <v>-2.1991708627653606</v>
+        <v>-2.1991708627653339</v>
       </c>
       <c r="R56" s="7">
-        <v>-11.217097522439229</v>
+        <v>-11.217097522439225</v>
       </c>
       <c r="S56" s="7">
-        <v>-8.2529857202743599</v>
+        <v>-8.252985720274344</v>
+      </c>
+      <c r="T56" s="7">
+        <v>-8.5750960468205708</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/accommodation_and_food_services_state_gdp.xlsx
+++ b/static/data/source/accommodation_and_food_services_state_gdp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aboddupalli\Box\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29963C45-E596-4F57-9B4F-FDDFDAB302D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1C62D5-AF2C-4C0B-956E-37D9A042B947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_1" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>Geography</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>2023 Q3</t>
+  </si>
+  <si>
+    <t>2023 Q4</t>
   </si>
 </sst>
 </file>
@@ -684,28 +687,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X56"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:X56"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:Y56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
     <col min="2" max="23" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="2"/>
+    <col min="24" max="24" width="8.85546875" style="2"/>
+    <col min="25" max="25" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -778,3852 +782,4011 @@
       <c r="X4" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Y4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>865361.33812063246</v>
+        <v>865556.7178712876</v>
       </c>
       <c r="C5" s="6">
-        <v>877126.23943079112</v>
+        <v>877324.27544003236</v>
       </c>
       <c r="D5" s="6">
-        <v>874899.74485294812</v>
+        <v>875097.27816818596</v>
       </c>
       <c r="E5" s="6">
-        <v>889471.58874373382</v>
+        <v>889672.41206408327</v>
       </c>
       <c r="F5" s="6">
-        <v>887834.20557170128</v>
+        <v>888034.65920657758</v>
       </c>
       <c r="G5" s="6">
-        <v>894262.45061745821</v>
+        <v>894464.3556101186</v>
       </c>
       <c r="H5" s="6">
-        <v>907214.23814226466</v>
+        <v>907419.06736657908</v>
       </c>
       <c r="I5" s="6">
-        <v>897415.92931915016</v>
+        <v>897618.54629864811</v>
       </c>
       <c r="J5" s="6">
-        <v>821247.2899090508</v>
+        <v>821432.70966801187</v>
       </c>
       <c r="K5" s="6">
-        <v>481087.43347159133</v>
+        <v>481196.05254047539</v>
       </c>
       <c r="L5" s="6">
-        <v>702359.41017465654</v>
+        <v>702517.98763864196</v>
       </c>
       <c r="M5" s="6">
-        <v>691417.53215202736</v>
+        <v>691573.6391781671</v>
       </c>
       <c r="N5" s="6">
-        <v>724546.38532584673</v>
+        <v>724709.97212579602</v>
       </c>
       <c r="O5" s="6">
-        <v>852522.17483517213</v>
+        <v>852714.65578227444</v>
       </c>
       <c r="P5" s="6">
-        <v>895354.03939881315</v>
+        <v>895556.19084845576</v>
       </c>
       <c r="Q5" s="6">
-        <v>905109.03120679432</v>
+        <v>905313.38512121455</v>
       </c>
       <c r="R5" s="6">
-        <v>881397.29712291795</v>
+        <v>881596.29744400224</v>
       </c>
       <c r="S5" s="6">
-        <v>912377.62634613388</v>
+        <v>912583.62135109445</v>
       </c>
       <c r="T5" s="6">
-        <v>922210.58878135507</v>
+        <v>922418.80385516316</v>
       </c>
       <c r="U5" s="6">
-        <v>906711.76076672028</v>
+        <v>906916.47654258262</v>
       </c>
       <c r="V5" s="6">
-        <v>935656.19027867925</v>
+        <v>935867.44107658579</v>
       </c>
       <c r="W5" s="6">
-        <v>917116.50780169875</v>
+        <v>917323.57274292316</v>
       </c>
       <c r="X5" s="8">
+        <v>921326.96861682588</v>
+      </c>
+      <c r="Y5" s="8">
         <v>921119</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="6">
-        <v>8524.2964605141406</v>
+        <v>8569.3812843099713</v>
       </c>
       <c r="C6" s="6">
-        <v>8629.9645216886474</v>
+        <v>8675.6082216264513</v>
       </c>
       <c r="D6" s="6">
-        <v>8614.1230166361274</v>
+        <v>8659.6829311885613</v>
       </c>
       <c r="E6" s="6">
-        <v>8915.5468188167852</v>
+        <v>8962.7009574875519</v>
       </c>
       <c r="F6" s="6">
-        <v>8636.2314907204145</v>
+        <v>8681.9083365249589</v>
       </c>
       <c r="G6" s="6">
-        <v>8704.9940675967428</v>
+        <v>8751.0345972169034</v>
       </c>
       <c r="H6" s="6">
-        <v>8835.6429636617631</v>
+        <v>8882.3744925315968</v>
       </c>
       <c r="I6" s="6">
-        <v>8972.7329112316547</v>
+        <v>9020.1895059364215</v>
       </c>
       <c r="J6" s="6">
-        <v>8163.5975762413609</v>
+        <v>8206.7746712626067</v>
       </c>
       <c r="K6" s="6">
-        <v>6258.2649081112468</v>
+        <v>6291.3647389250609</v>
       </c>
       <c r="L6" s="6">
-        <v>8193.626802851908</v>
+        <v>8236.9627218179503</v>
       </c>
       <c r="M6" s="6">
-        <v>7577.8970954808519</v>
+        <v>7617.9764330397047</v>
       </c>
       <c r="N6" s="6">
-        <v>8566.7725839516697</v>
+        <v>8612.082063066513</v>
       </c>
       <c r="O6" s="6">
-        <v>9261.6227753487783</v>
+        <v>9310.6073024384023</v>
       </c>
       <c r="P6" s="6">
-        <v>9268.7601567460679</v>
+        <v>9317.7824332950331</v>
       </c>
       <c r="Q6" s="6">
-        <v>9266.758208305364</v>
+        <v>9315.7698965913441</v>
       </c>
       <c r="R6" s="6">
-        <v>9428.5678670561119</v>
+        <v>9478.4353632069451</v>
       </c>
       <c r="S6" s="6">
-        <v>9443.9741659258725</v>
+        <v>9493.9231456657726</v>
       </c>
       <c r="T6" s="6">
-        <v>9510.908876834601</v>
+        <v>9561.2118728456535</v>
       </c>
       <c r="U6" s="6">
-        <v>9445.1927432376051</v>
+        <v>9495.1481680071483</v>
       </c>
       <c r="V6" s="6">
-        <v>9713.8019992380396</v>
+        <v>9765.1780926847932</v>
       </c>
       <c r="W6" s="6">
-        <v>9586.808835108217</v>
+        <v>9637.5132643942288</v>
       </c>
       <c r="X6" s="8">
+        <v>9646.3509255713016</v>
+      </c>
+      <c r="Y6" s="8">
         <v>9595.6</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6">
-        <v>2078.2918775841417</v>
+        <v>2155.8271822672932</v>
       </c>
       <c r="C7" s="6">
-        <v>2137.9604428300936</v>
+        <v>2217.7218161594501</v>
       </c>
       <c r="D7" s="6">
-        <v>2177.9877506858843</v>
+        <v>2259.2424318338958</v>
       </c>
       <c r="E7" s="6">
-        <v>2165.0070713706091</v>
+        <v>2245.7774793823214</v>
       </c>
       <c r="F7" s="6">
-        <v>2113.701468372039</v>
+        <v>2192.5578066597855</v>
       </c>
       <c r="G7" s="6">
-        <v>2131.5552223810814</v>
+        <v>2211.0776347038372</v>
       </c>
       <c r="H7" s="6">
-        <v>2223.4626878936588</v>
+        <v>2306.4139127994949</v>
       </c>
       <c r="I7" s="6">
-        <v>2131.2360253487386</v>
+        <v>2210.7465293156838</v>
       </c>
       <c r="J7" s="6">
-        <v>1835.1275783453766</v>
+        <v>1903.5910975719739</v>
       </c>
       <c r="K7" s="6">
-        <v>1185.4764983191005</v>
+        <v>1229.7033379094726</v>
       </c>
       <c r="L7" s="6">
-        <v>1429.4068704354881</v>
+        <v>1482.7340755363603</v>
       </c>
       <c r="M7" s="6">
-        <v>1524.4637466671818</v>
+        <v>1581.3372601284659</v>
       </c>
       <c r="N7" s="6">
-        <v>1691.829390625604</v>
+        <v>1754.9468519836062</v>
       </c>
       <c r="O7" s="6">
-        <v>1976.0424282236563</v>
+        <v>2049.7630895954626</v>
       </c>
       <c r="P7" s="6">
-        <v>2119.5534139649908</v>
+        <v>2198.6280721092662</v>
       </c>
       <c r="Q7" s="6">
-        <v>2109.4880675451141</v>
+        <v>2188.1872155361598</v>
       </c>
       <c r="R7" s="6">
-        <v>2088.3785038061746</v>
+        <v>2166.2901125329431</v>
       </c>
       <c r="S7" s="6">
-        <v>2231.6128521194792</v>
+        <v>2314.8681370436807</v>
       </c>
       <c r="T7" s="6">
-        <v>2374.4216043896595</v>
+        <v>2463.0046877035466</v>
       </c>
       <c r="U7" s="6">
-        <v>2271.5763205688008</v>
+        <v>2356.322531640496</v>
       </c>
       <c r="V7" s="6">
-        <v>2212.5461493875346</v>
+        <v>2295.090108524646</v>
       </c>
       <c r="W7" s="6">
-        <v>2185.031365199583</v>
+        <v>2266.548824065816</v>
       </c>
       <c r="X7" s="8">
+        <v>2284.9803573396935</v>
+      </c>
+      <c r="Y7" s="8">
         <v>2202.8000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6">
-        <v>17611.550935762112</v>
+        <v>17608.569943889164</v>
       </c>
       <c r="C8" s="6">
-        <v>17902.404049467154</v>
+        <v>17899.373826792711</v>
       </c>
       <c r="D8" s="6">
-        <v>17792.861967682136</v>
+        <v>17789.850286478388</v>
       </c>
       <c r="E8" s="6">
-        <v>18141.748347285826</v>
+        <v>18138.677612369771</v>
       </c>
       <c r="F8" s="6">
-        <v>17384.053665597305</v>
+        <v>17381.111180697197</v>
       </c>
       <c r="G8" s="6">
-        <v>17390.406419556624</v>
+        <v>17387.462859367461</v>
       </c>
       <c r="H8" s="6">
-        <v>17706.155460940081</v>
+        <v>17703.158455978806</v>
       </c>
       <c r="I8" s="6">
-        <v>17765.047207103496</v>
+        <v>17762.040233922089</v>
       </c>
       <c r="J8" s="6">
-        <v>16782.087303938581</v>
+        <v>16779.246709941686</v>
       </c>
       <c r="K8" s="6">
-        <v>11088.302795859116</v>
+        <v>11086.425951472169</v>
       </c>
       <c r="L8" s="6">
-        <v>15586.224295109998</v>
+        <v>15583.586117011824</v>
       </c>
       <c r="M8" s="6">
-        <v>15193.898814108805</v>
+        <v>15191.327042375104</v>
       </c>
       <c r="N8" s="6">
-        <v>16103.887894768028</v>
+        <v>16101.162095142987</v>
       </c>
       <c r="O8" s="6">
-        <v>18435.863685997003</v>
+        <v>18432.743168103996</v>
       </c>
       <c r="P8" s="6">
-        <v>19050.707251627322</v>
+        <v>19047.482663191124</v>
       </c>
       <c r="Q8" s="6">
-        <v>19527.163798576254</v>
+        <v>19523.858563461097</v>
       </c>
       <c r="R8" s="6">
-        <v>18769.812508993644</v>
+        <v>18766.635465770698</v>
       </c>
       <c r="S8" s="6">
-        <v>19731.653797645147</v>
+        <v>19728.313949847237</v>
       </c>
       <c r="T8" s="6">
-        <v>19925.670337483814</v>
+        <v>19922.297649776996</v>
       </c>
       <c r="U8" s="6">
-        <v>19864.37484657903</v>
+        <v>19861.012533958477</v>
       </c>
       <c r="V8" s="6">
-        <v>20320.914651385232</v>
+        <v>20317.475063262213</v>
       </c>
       <c r="W8" s="6">
-        <v>20059.078170629513</v>
+        <v>20055.682901852586</v>
       </c>
       <c r="X8" s="8">
+        <v>20280.566660178232</v>
+      </c>
+      <c r="Y8" s="8">
         <v>20284</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="6">
-        <v>5116.5399401832419</v>
+        <v>5176.8211424086503</v>
       </c>
       <c r="C9" s="6">
-        <v>5140.5352755104677</v>
+        <v>5201.0991820005229</v>
       </c>
       <c r="D9" s="6">
-        <v>5188.0732039889326</v>
+        <v>5249.1971849655529</v>
       </c>
       <c r="E9" s="6">
-        <v>5301.4599667301609</v>
+        <v>5363.9198290747354</v>
       </c>
       <c r="F9" s="6">
-        <v>5384.814831797692</v>
+        <v>5448.2567506758523</v>
       </c>
       <c r="G9" s="6">
-        <v>5291.6505529171436</v>
+        <v>5353.9948443359199</v>
       </c>
       <c r="H9" s="6">
-        <v>5419.0723231139182</v>
+        <v>5482.9178512252547</v>
       </c>
       <c r="I9" s="6">
-        <v>5415.299471647374</v>
+        <v>5479.100549402634</v>
       </c>
       <c r="J9" s="6">
-        <v>5026.3939424759301</v>
+        <v>5085.6130775268157</v>
       </c>
       <c r="K9" s="6">
-        <v>3726.1687177321346</v>
+        <v>3770.0690747361991</v>
       </c>
       <c r="L9" s="6">
-        <v>5069.7062773118651</v>
+        <v>5129.4357024505098</v>
       </c>
       <c r="M9" s="6">
-        <v>4817.4785806017871</v>
+        <v>4874.236351268858</v>
       </c>
       <c r="N9" s="6">
-        <v>5192.701235121227</v>
+        <v>5253.8797418679687</v>
       </c>
       <c r="O9" s="6">
-        <v>5781.6181967057682</v>
+        <v>5849.7351077003568</v>
       </c>
       <c r="P9" s="6">
-        <v>5711.3928547418136</v>
+        <v>5778.6823964419636</v>
       </c>
       <c r="Q9" s="6">
-        <v>5780.5617982951362</v>
+        <v>5848.6662631900226</v>
       </c>
       <c r="R9" s="6">
-        <v>5603.1371699950869</v>
+        <v>5669.1512828115456</v>
       </c>
       <c r="S9" s="6">
-        <v>5651.7314968841838</v>
+        <v>5718.3181302869089</v>
       </c>
       <c r="T9" s="6">
-        <v>5669.7405745511578</v>
+        <v>5736.5393843202228</v>
       </c>
       <c r="U9" s="6">
-        <v>5706.966042354401</v>
+        <v>5774.2034289700869</v>
       </c>
       <c r="V9" s="6">
-        <v>5772.7142672447226</v>
+        <v>5840.7262753989708</v>
       </c>
       <c r="W9" s="6">
-        <v>5774.9276734384284</v>
+        <v>5842.9657591349087</v>
       </c>
       <c r="X9" s="8">
+        <v>5905.1623301648206</v>
+      </c>
+      <c r="Y9" s="8">
         <v>5836.4</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="6">
-        <v>118300.0372751776</v>
+        <v>117796.04521790319</v>
       </c>
       <c r="C10" s="6">
-        <v>120536.95191330748</v>
+        <v>120023.42995869419</v>
       </c>
       <c r="D10" s="6">
-        <v>121774.59897896816</v>
+        <v>121255.80429321149</v>
       </c>
       <c r="E10" s="6">
-        <v>122329.61385958057</v>
+        <v>121808.45465139483</v>
       </c>
       <c r="F10" s="6">
-        <v>122114.10916624083</v>
+        <v>121593.86806980087</v>
       </c>
       <c r="G10" s="6">
-        <v>125594.69055420285</v>
+        <v>125059.62118370115</v>
       </c>
       <c r="H10" s="6">
-        <v>129253.45459364135</v>
+        <v>128702.79783992497</v>
       </c>
       <c r="I10" s="6">
-        <v>127394.57612148175</v>
+        <v>126851.83872271221</v>
       </c>
       <c r="J10" s="6">
-        <v>116951.62802076132</v>
+        <v>116453.3805732929</v>
       </c>
       <c r="K10" s="6">
-        <v>67524.001288564235</v>
+        <v>67236.329694297005</v>
       </c>
       <c r="L10" s="6">
-        <v>96871.165561467336</v>
+        <v>96458.466638065234</v>
       </c>
       <c r="M10" s="6">
-        <v>114526.89923648059</v>
+        <v>114038.98182843118</v>
       </c>
       <c r="N10" s="6">
-        <v>98727.636159958332</v>
+        <v>98307.028139841175</v>
       </c>
       <c r="O10" s="6">
-        <v>122759.41930942578</v>
+        <v>122236.42900686436</v>
       </c>
       <c r="P10" s="6">
-        <v>131366.36373783831</v>
+        <v>130806.70538572058</v>
       </c>
       <c r="Q10" s="6">
-        <v>130397.19458622659</v>
+        <v>129841.66517240692</v>
       </c>
       <c r="R10" s="6">
-        <v>115642.94868187694</v>
+        <v>115150.27658338989</v>
       </c>
       <c r="S10" s="6">
-        <v>123780.35774491238</v>
+        <v>123253.01795206931</v>
       </c>
       <c r="T10" s="6">
-        <v>127002.09271349986</v>
+        <v>126461.02740651317</v>
       </c>
       <c r="U10" s="6">
-        <v>122128.55640825242</v>
+        <v>121608.25376242169</v>
       </c>
       <c r="V10" s="6">
-        <v>122206.81230248194</v>
+        <v>121686.17626411782</v>
       </c>
       <c r="W10" s="6">
-        <v>119233.08832176031</v>
+        <v>118725.12119966478</v>
       </c>
       <c r="X10" s="8">
+        <v>119642.20910424234</v>
+      </c>
+      <c r="Y10" s="8">
         <v>120154.1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="6">
-        <v>17637.45334692546</v>
+        <v>17433.573519596306</v>
       </c>
       <c r="C11" s="6">
-        <v>17871.386202903275</v>
+        <v>17664.802232898575</v>
       </c>
       <c r="D11" s="6">
-        <v>17825.928398303698</v>
+        <v>17619.869896980344</v>
       </c>
       <c r="E11" s="6">
-        <v>18361.631141738704</v>
+        <v>18149.380194109017</v>
       </c>
       <c r="F11" s="6">
-        <v>18479.296920567605</v>
+        <v>18265.685817466587</v>
       </c>
       <c r="G11" s="6">
-        <v>18721.97166204534</v>
+        <v>18505.555364599284</v>
       </c>
       <c r="H11" s="6">
-        <v>18921.111813733485</v>
+        <v>18702.393559256452</v>
       </c>
       <c r="I11" s="6">
-        <v>18666.722945685859</v>
+        <v>18450.945294790978</v>
       </c>
       <c r="J11" s="6">
-        <v>17657.384845865272</v>
+        <v>17453.27462072968</v>
       </c>
       <c r="K11" s="6">
-        <v>10593.941361931169</v>
+        <v>10471.480885743305</v>
       </c>
       <c r="L11" s="6">
-        <v>15238.854803457836</v>
+        <v>15062.701533203281</v>
       </c>
       <c r="M11" s="6">
-        <v>13993.660632849451</v>
+        <v>13831.901162397018</v>
       </c>
       <c r="N11" s="6">
-        <v>15496.915263415427</v>
+        <v>15317.778947877534</v>
       </c>
       <c r="O11" s="6">
-        <v>18842.434844234216</v>
+        <v>18624.626054782591</v>
       </c>
       <c r="P11" s="6">
-        <v>19983.950252813567</v>
+        <v>19752.946136359969</v>
       </c>
       <c r="Q11" s="6">
-        <v>20254.948703311038</v>
+        <v>20020.811985103257</v>
       </c>
       <c r="R11" s="6">
-        <v>20697.812622736907</v>
+        <v>20458.556626952777</v>
       </c>
       <c r="S11" s="6">
-        <v>20900.974041755013</v>
+        <v>20659.369605171942</v>
       </c>
       <c r="T11" s="6">
-        <v>21115.67474963301</v>
+        <v>20871.588484047268</v>
       </c>
       <c r="U11" s="6">
-        <v>21069.342756483442</v>
+        <v>20825.792064745994</v>
       </c>
       <c r="V11" s="6">
-        <v>21824.816501386395</v>
+        <v>21572.532924371644</v>
       </c>
       <c r="W11" s="6">
-        <v>21421.465904420158</v>
+        <v>21173.844851435664</v>
       </c>
       <c r="X11" s="8">
+        <v>21190.780885743305</v>
+      </c>
+      <c r="Y11" s="8">
         <v>21438.6</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="6">
-        <v>9132.3590145576709</v>
+        <v>9249.9446827280553</v>
       </c>
       <c r="C12" s="6">
-        <v>9227.8863755132516</v>
+        <v>9346.70202692768</v>
       </c>
       <c r="D12" s="6">
-        <v>9187.0675625233289</v>
+        <v>9305.3576424625589</v>
       </c>
       <c r="E12" s="6">
-        <v>9354.1223342043049</v>
+        <v>9474.5633640698179</v>
       </c>
       <c r="F12" s="6">
-        <v>9962.0580813736451</v>
+        <v>10090.326719737865</v>
       </c>
       <c r="G12" s="6">
-        <v>9947.6959064327475</v>
+        <v>10075.779621500136</v>
       </c>
       <c r="H12" s="6">
-        <v>9787.8222222222212</v>
+        <v>9913.8474490117387</v>
       </c>
       <c r="I12" s="6">
-        <v>9592.137588652482</v>
+        <v>9715.6432355226934</v>
       </c>
       <c r="J12" s="6">
-        <v>8222.6286176433987</v>
+        <v>8328.500854880378</v>
       </c>
       <c r="K12" s="6">
-        <v>4057.314420803782</v>
+        <v>4109.5552521582049</v>
       </c>
       <c r="L12" s="6">
-        <v>7335.6698270498928</v>
+        <v>7430.1218341069953</v>
       </c>
       <c r="M12" s="6">
-        <v>6917.6549458753261</v>
+        <v>7006.7247117141715</v>
       </c>
       <c r="N12" s="6">
-        <v>7329.1501555306695</v>
+        <v>7423.5182171438164</v>
       </c>
       <c r="O12" s="6">
-        <v>8570.1554560159257</v>
+        <v>8680.5023503959328</v>
       </c>
       <c r="P12" s="6">
-        <v>8856.1706109244733</v>
+        <v>8970.2001554327944</v>
       </c>
       <c r="Q12" s="6">
-        <v>9064.3276595744665</v>
+        <v>9181.0373752861833</v>
       </c>
       <c r="R12" s="6">
-        <v>8635.352171208162</v>
+        <v>8746.5385200277251</v>
       </c>
       <c r="S12" s="6">
-        <v>8955.477491601343</v>
+        <v>9070.7856833791921</v>
       </c>
       <c r="T12" s="6">
-        <v>9102.9732487246474</v>
+        <v>9220.1805540969126</v>
       </c>
       <c r="U12" s="6">
-        <v>8826.0289411471931</v>
+        <v>8939.6703900523007</v>
       </c>
       <c r="V12" s="6">
-        <v>9282.3114594998115</v>
+        <v>9401.8278728811765</v>
       </c>
       <c r="W12" s="6">
-        <v>9105.1464725643891</v>
+        <v>9222.381759751308</v>
       </c>
       <c r="X12" s="8">
+        <v>9230.1338318385187</v>
+      </c>
+      <c r="Y12" s="8">
         <v>9112.7999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="6">
-        <v>2233.1403643000035</v>
+        <v>2230.8111384771805</v>
       </c>
       <c r="C13" s="6">
-        <v>2284.1386165022986</v>
+        <v>2281.7561981225513</v>
       </c>
       <c r="D13" s="6">
-        <v>2302.8958551223109</v>
+        <v>2300.4938724351614</v>
       </c>
       <c r="E13" s="6">
-        <v>2340.7104481802548</v>
+        <v>2338.2690238493833</v>
       </c>
       <c r="F13" s="6">
-        <v>2359.9178605271472</v>
+        <v>2357.4564023454964</v>
       </c>
       <c r="G13" s="6">
-        <v>2372.7370933211664</v>
+        <v>2370.2622643328573</v>
       </c>
       <c r="H13" s="6">
-        <v>2363.1119503035834</v>
+        <v>2360.6471605998722</v>
       </c>
       <c r="I13" s="6">
-        <v>2301.3738391885722</v>
+        <v>2298.9734440052234</v>
       </c>
       <c r="J13" s="6">
-        <v>2046.7041308391535</v>
+        <v>2044.5693630523003</v>
       </c>
       <c r="K13" s="6">
-        <v>1226.0159898922541</v>
+        <v>1224.7372220420541</v>
       </c>
       <c r="L13" s="6">
-        <v>1872.1439090302881</v>
+        <v>1870.1912122779183</v>
       </c>
       <c r="M13" s="6">
-        <v>1740.628870248833</v>
+        <v>1738.8133472403606</v>
       </c>
       <c r="N13" s="6">
-        <v>2061.1311269434595</v>
+        <v>2058.9813114093135</v>
       </c>
       <c r="O13" s="6">
-        <v>2359.6177447092268</v>
+        <v>2357.1565995564943</v>
       </c>
       <c r="P13" s="6">
-        <v>2397.3251535464851</v>
+        <v>2394.8246785460728</v>
       </c>
       <c r="Q13" s="6">
-        <v>2421.8703400835293</v>
+        <v>2419.3442637894314</v>
       </c>
       <c r="R13" s="6">
-        <v>2369.6716246095534</v>
+        <v>2367.1999929880535</v>
       </c>
       <c r="S13" s="6">
-        <v>2414.5389393886221</v>
+        <v>2412.0205099438172</v>
       </c>
       <c r="T13" s="6">
-        <v>2451.0244481100617</v>
+        <v>2448.4679632924594</v>
       </c>
       <c r="U13" s="6">
-        <v>2438.6768258870597</v>
+        <v>2436.1332199735298</v>
       </c>
       <c r="V13" s="6">
-        <v>2507.4676587231952</v>
+        <v>2504.8523021097194</v>
       </c>
       <c r="W13" s="6">
-        <v>2425.2573614572002</v>
+        <v>2422.7277524081655</v>
       </c>
       <c r="X13" s="8">
+        <v>2440.6516762934848</v>
+      </c>
+      <c r="Y13" s="8">
         <v>2443.1999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="6">
-        <v>6812.0124344603983</v>
+        <v>6802.1195880007772</v>
       </c>
       <c r="C14" s="6">
-        <v>6998.6724261232048</v>
+        <v>6988.5084999121236</v>
       </c>
       <c r="D14" s="6">
-        <v>6890.8157257989806</v>
+        <v>6880.8084360864686</v>
       </c>
       <c r="E14" s="6">
-        <v>6729.4224066697543</v>
+        <v>6719.6495028074032</v>
       </c>
       <c r="F14" s="6">
-        <v>6889.2488003705412</v>
+        <v>6879.2437862488086</v>
       </c>
       <c r="G14" s="6">
-        <v>7120.305012505788</v>
+        <v>7109.964443560546</v>
       </c>
       <c r="H14" s="6">
-        <v>7020.8052477999063</v>
+        <v>7010.6091788690828</v>
       </c>
       <c r="I14" s="6">
-        <v>6729.8794265863817</v>
+        <v>6720.1058590100538</v>
       </c>
       <c r="J14" s="6">
-        <v>5975.9924298286242</v>
+        <v>5967.3137058654847</v>
       </c>
       <c r="K14" s="6">
-        <v>2416.7213191292262</v>
+        <v>2413.2115996188959</v>
       </c>
       <c r="L14" s="6">
-        <v>3057.8549735988877</v>
+        <v>3053.4141581951212</v>
       </c>
       <c r="M14" s="6">
-        <v>2656.7873524779989</v>
+        <v>2652.928993497183</v>
       </c>
       <c r="N14" s="6">
-        <v>3194.8956600277907</v>
+        <v>3190.255825247209</v>
       </c>
       <c r="O14" s="6">
-        <v>4409.0670013895324</v>
+        <v>4402.6638682046487</v>
       </c>
       <c r="P14" s="6">
-        <v>5611.4211134784618</v>
+        <v>5603.2718436363966</v>
       </c>
       <c r="Q14" s="6">
-        <v>5694.9904696618796</v>
+        <v>5686.7198349783075</v>
       </c>
       <c r="R14" s="6">
-        <v>5287.1328383510881</v>
+        <v>5279.4545209838398</v>
       </c>
       <c r="S14" s="6">
-        <v>6300.1501278369615</v>
+        <v>6291.00064103157</v>
       </c>
       <c r="T14" s="6">
-        <v>6591.8594117647053</v>
+        <v>6582.2862858094295</v>
       </c>
       <c r="U14" s="6">
-        <v>6503.8504335340431</v>
+        <v>6494.4051199274791</v>
       </c>
       <c r="V14" s="6">
-        <v>7181.676258452987</v>
+        <v>7171.2465622022619</v>
       </c>
       <c r="W14" s="6">
-        <v>7086.4202501157943</v>
+        <v>7076.1288908211318</v>
       </c>
       <c r="X14" s="8">
+        <v>7037.6645823119688</v>
+      </c>
+      <c r="Y14" s="8">
         <v>7047.9</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6">
-        <v>63526.170201055429</v>
+        <v>63427.69116553304</v>
       </c>
       <c r="C15" s="6">
-        <v>63532.671635919578</v>
+        <v>63434.182521794421</v>
       </c>
       <c r="D15" s="6">
-        <v>64177.613974442844</v>
+        <v>64078.125062922925</v>
       </c>
       <c r="E15" s="6">
-        <v>64717.883211653359</v>
+        <v>64617.556768243296</v>
       </c>
       <c r="F15" s="6">
-        <v>66237.268539404249</v>
+        <v>66134.586726526919</v>
       </c>
       <c r="G15" s="6">
-        <v>66802.893372584949</v>
+        <v>66699.334721266656</v>
       </c>
       <c r="H15" s="6">
-        <v>67092.207224039419</v>
+        <v>66988.20007489789</v>
       </c>
       <c r="I15" s="6">
-        <v>67082.455071743214</v>
+        <v>66978.463040505827</v>
       </c>
       <c r="J15" s="6">
-        <v>60321.612956517944</v>
+        <v>60228.101664300702</v>
       </c>
       <c r="K15" s="6">
-        <v>37404.705203890277</v>
+        <v>37346.719978575726</v>
       </c>
       <c r="L15" s="6">
-        <v>51653.249852152294</v>
+        <v>51573.176361007812</v>
       </c>
       <c r="M15" s="6">
-        <v>50555.157503598071</v>
+        <v>50476.786288461371</v>
       </c>
       <c r="N15" s="6">
-        <v>58048.061184526145</v>
+        <v>57958.074379697449</v>
       </c>
       <c r="O15" s="6">
-        <v>67943.245047756121</v>
+        <v>67837.918609512039</v>
       </c>
       <c r="P15" s="6">
-        <v>70960.560968206206</v>
+        <v>70850.557050416726</v>
       </c>
       <c r="Q15" s="6">
-        <v>71206.315206070911</v>
+        <v>71095.930317096747</v>
       </c>
       <c r="R15" s="6">
-        <v>71481.325900824289</v>
+        <v>71370.514686952971</v>
       </c>
       <c r="S15" s="6">
-        <v>73639.152132234289</v>
+        <v>73524.995830103726</v>
       </c>
       <c r="T15" s="6">
-        <v>74886.777482663878</v>
+        <v>74770.687096661815</v>
       </c>
       <c r="U15" s="6">
-        <v>73059.224142352468</v>
+        <v>72945.966851588964</v>
       </c>
       <c r="V15" s="6">
-        <v>75914.004191198925</v>
+        <v>75796.321385959251</v>
       </c>
       <c r="W15" s="6">
-        <v>74648.174823149733</v>
+        <v>74532.454321869314</v>
       </c>
       <c r="X15" s="8">
+        <v>74420.153858547492</v>
+      </c>
+      <c r="Y15" s="8">
         <v>74535.7</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="6">
-        <v>22310.286774142536</v>
+        <v>22191.159195668726</v>
       </c>
       <c r="C16" s="6">
-        <v>22902.811901690373</v>
+        <v>22780.520487433358</v>
       </c>
       <c r="D16" s="6">
-        <v>22981.713255819759</v>
+        <v>22859.000541408652</v>
       </c>
       <c r="E16" s="6">
-        <v>23433.702176427993</v>
+        <v>23308.576030663266</v>
       </c>
       <c r="F16" s="6">
-        <v>23217.543064976569</v>
+        <v>23093.571118248943</v>
       </c>
       <c r="G16" s="6">
-        <v>23376.438589774534</v>
+        <v>23251.618207556541</v>
       </c>
       <c r="H16" s="6">
-        <v>23680.241587668846</v>
+        <v>23553.799024802145</v>
       </c>
       <c r="I16" s="6">
-        <v>23271.309638704628</v>
+        <v>23147.050601013278</v>
       </c>
       <c r="J16" s="6">
-        <v>21580.94101588834</v>
+        <v>21465.707838007878</v>
       </c>
       <c r="K16" s="6">
-        <v>13744.790739985519</v>
+        <v>13671.39931951389</v>
       </c>
       <c r="L16" s="6">
-        <v>19274.879554893425</v>
+        <v>19171.959778469482</v>
       </c>
       <c r="M16" s="6">
-        <v>18700.058055280439</v>
+        <v>18600.207584688233</v>
       </c>
       <c r="N16" s="6">
-        <v>20984.481748799426</v>
+        <v>20872.433413358056</v>
       </c>
       <c r="O16" s="6">
-        <v>23447.253101513928</v>
+        <v>23322.054599490046</v>
       </c>
       <c r="P16" s="6">
-        <v>24129.826311890873</v>
+        <v>24000.983155071357</v>
       </c>
       <c r="Q16" s="6">
-        <v>24700.276545347104</v>
+        <v>24568.387423424614</v>
       </c>
       <c r="R16" s="6">
-        <v>24538.102570931576</v>
+        <v>24407.079390046023</v>
       </c>
       <c r="S16" s="6">
-        <v>25645.344288437049</v>
+        <v>25508.408900956983</v>
       </c>
       <c r="T16" s="6">
-        <v>25990.674314820517</v>
+        <v>25851.895009768534</v>
       </c>
       <c r="U16" s="6">
-        <v>26261.25568992351</v>
+        <v>26121.031593761378</v>
       </c>
       <c r="V16" s="6">
-        <v>26299.067142179421</v>
+        <v>26158.64114871353</v>
       </c>
       <c r="W16" s="6">
-        <v>25876.584268129274</v>
+        <v>25738.414156097882</v>
       </c>
       <c r="X16" s="8">
+        <v>26120.37940494718</v>
+      </c>
+      <c r="Y16" s="8">
         <v>26260.6</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="6">
-        <v>12504.514836962653</v>
+        <v>12652.330624571889</v>
       </c>
       <c r="C17" s="6">
-        <v>12723.759517093536</v>
+        <v>12874.166994623991</v>
       </c>
       <c r="D17" s="6">
-        <v>12659.545594042647</v>
+        <v>12809.193999211242</v>
       </c>
       <c r="E17" s="6">
-        <v>12574.691481439695</v>
+        <v>12723.336826701538</v>
       </c>
       <c r="F17" s="6">
-        <v>12337.214633871148</v>
+        <v>12483.052766880459</v>
       </c>
       <c r="G17" s="6">
-        <v>12418.284711722894</v>
+        <v>12565.081173589057</v>
       </c>
       <c r="H17" s="6">
-        <v>13098.264289743876</v>
+        <v>13253.098785727627</v>
       </c>
       <c r="I17" s="6">
-        <v>13391.010978224078</v>
+        <v>13549.306030886108</v>
       </c>
       <c r="J17" s="6">
-        <v>12320.243811350558</v>
+        <v>12465.88133237852</v>
       </c>
       <c r="K17" s="6">
-        <v>5101.9108541126034</v>
+        <v>5162.2205087489883</v>
       </c>
       <c r="L17" s="6">
-        <v>5640.3904659821728</v>
+        <v>5707.0654845673243</v>
       </c>
       <c r="M17" s="6">
-        <v>6589.724517657678</v>
+        <v>6667.6216078211592</v>
       </c>
       <c r="N17" s="6">
-        <v>7022.5951596524883</v>
+        <v>7105.609210826743</v>
       </c>
       <c r="O17" s="6">
-        <v>9404.2436985219447</v>
+        <v>9515.4112014031598</v>
       </c>
       <c r="P17" s="6">
-        <v>10701.708947309038</v>
+        <v>10828.213778358968</v>
       </c>
       <c r="Q17" s="6">
-        <v>10527.414013313777</v>
+        <v>10651.858505095794</v>
       </c>
       <c r="R17" s="6">
-        <v>9877.477377863026</v>
+        <v>9994.2389729538991</v>
       </c>
       <c r="S17" s="6">
-        <v>10804.565891910188</v>
+        <v>10932.286594225459</v>
       </c>
       <c r="T17" s="6">
-        <v>11304.28781450976</v>
+        <v>11437.915726383957</v>
       </c>
       <c r="U17" s="6">
-        <v>11579.8343450299</v>
+        <v>11716.719490628309</v>
       </c>
       <c r="V17" s="6">
-        <v>11355.888288389935</v>
+        <v>11490.126169126346</v>
       </c>
       <c r="W17" s="6">
-        <v>11106.715333408552</v>
+        <v>11238.00774228366</v>
       </c>
       <c r="X17" s="8">
+        <v>11311.450431741287</v>
+      </c>
+      <c r="Y17" s="8">
         <v>11179.3</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="6">
-        <v>3522.873327960107</v>
+        <v>3513.7156517884641</v>
       </c>
       <c r="C18" s="6">
-        <v>3558.0534661072484</v>
+        <v>3548.8043394964798</v>
       </c>
       <c r="D18" s="6">
-        <v>3570.2364711465302</v>
+        <v>3560.9556749284384</v>
       </c>
       <c r="E18" s="6">
-        <v>3646.209143020707</v>
+        <v>3636.7308565546982</v>
       </c>
       <c r="F18" s="6">
-        <v>3533.2767929374718</v>
+        <v>3524.0920730562038</v>
       </c>
       <c r="G18" s="6">
-        <v>3542.5509344140041</v>
+        <v>3533.342106488959</v>
       </c>
       <c r="H18" s="6">
-        <v>3578.347067197963</v>
+        <v>3569.0451875615126</v>
       </c>
       <c r="I18" s="6">
-        <v>3632.6914829349857</v>
+        <v>3623.2483354995752</v>
       </c>
       <c r="J18" s="6">
-        <v>3595.9713581958008</v>
+        <v>3586.6236643802163</v>
       </c>
       <c r="K18" s="6">
-        <v>2369.1495951249271</v>
+        <v>2362.9910129749137</v>
       </c>
       <c r="L18" s="6">
-        <v>3621.7746890936064</v>
+        <v>3612.3599197613871</v>
       </c>
       <c r="M18" s="6">
-        <v>3462.5400754762459</v>
+        <v>3453.539235028511</v>
       </c>
       <c r="N18" s="6">
-        <v>3571.9817892841806</v>
+        <v>3562.6964561279606</v>
       </c>
       <c r="O18" s="6">
-        <v>3719.1360636350628</v>
+        <v>3709.4682043229677</v>
       </c>
       <c r="P18" s="6">
-        <v>3710.3068071740095</v>
+        <v>3700.6618994312671</v>
       </c>
       <c r="Q18" s="6">
-        <v>4011.1859653351612</v>
+        <v>4000.7589250430115</v>
       </c>
       <c r="R18" s="6">
-        <v>4255.7700580760338</v>
+        <v>4244.7072237289913</v>
       </c>
       <c r="S18" s="6">
-        <v>4375.5810149370645</v>
+        <v>4364.2067331314838</v>
       </c>
       <c r="T18" s="6">
-        <v>4404.6012067160291</v>
+        <v>4393.1514871941272</v>
       </c>
       <c r="U18" s="6">
-        <v>4448.3710478543499</v>
+        <v>4436.8075490409674</v>
       </c>
       <c r="V18" s="6">
-        <v>4588.1333865634197</v>
+        <v>4576.2065768615284</v>
       </c>
       <c r="W18" s="6">
-        <v>4500.251485044103</v>
+        <v>4488.5531235208819</v>
       </c>
       <c r="X18" s="8">
+        <v>4531.3899942150065</v>
+      </c>
+      <c r="Y18" s="8">
         <v>4543.2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6">
-        <v>33739.518561018427</v>
+        <v>34094.977620963749</v>
       </c>
       <c r="C19" s="6">
-        <v>34011.275409225098</v>
+        <v>34369.597534143395</v>
       </c>
       <c r="D19" s="6">
-        <v>33828.654807230225</v>
+        <v>34185.05295248668</v>
       </c>
       <c r="E19" s="6">
-        <v>34365.646339286592</v>
+        <v>34727.701900929656</v>
       </c>
       <c r="F19" s="6">
-        <v>33888.078971371411</v>
+        <v>34245.103173501957</v>
       </c>
       <c r="G19" s="6">
-        <v>34201.867545434041</v>
+        <v>34562.197633253389</v>
       </c>
       <c r="H19" s="6">
-        <v>35017.862774982597</v>
+        <v>35386.789692560807</v>
       </c>
       <c r="I19" s="6">
-        <v>35247.587897333295</v>
+        <v>35618.935059168667</v>
       </c>
       <c r="J19" s="6">
-        <v>32984.396865468174</v>
+        <v>33331.900422208571</v>
       </c>
       <c r="K19" s="6">
-        <v>18970.077374682478</v>
+        <v>19169.934579476303</v>
       </c>
       <c r="L19" s="6">
-        <v>26884.361479389183</v>
+        <v>27167.598771036097</v>
       </c>
       <c r="M19" s="6">
-        <v>23679.804725336162</v>
+        <v>23929.280754821706</v>
       </c>
       <c r="N19" s="6">
-        <v>26386.140591010288</v>
+        <v>26664.128930206745</v>
       </c>
       <c r="O19" s="6">
-        <v>31906.428034248394</v>
+        <v>32242.574766595972</v>
       </c>
       <c r="P19" s="6">
-        <v>34559.137215209739</v>
+        <v>34923.231279113563</v>
       </c>
       <c r="Q19" s="6">
-        <v>34283.394599896041</v>
+        <v>34644.583607207278</v>
       </c>
       <c r="R19" s="6">
-        <v>34946.481309520306</v>
+        <v>35314.65619536562</v>
       </c>
       <c r="S19" s="6">
-        <v>36118.296838987459</v>
+        <v>36498.817260996264</v>
       </c>
       <c r="T19" s="6">
-        <v>36503.466878512372</v>
+        <v>36888.045217942876</v>
       </c>
       <c r="U19" s="6">
-        <v>36345.123221623959</v>
+        <v>36728.033348530204</v>
       </c>
       <c r="V19" s="6">
-        <v>37467.660175949626</v>
+        <v>37862.396669904265</v>
       </c>
       <c r="W19" s="6">
-        <v>36555.644193368054</v>
+        <v>36940.772241273371</v>
       </c>
       <c r="X19" s="8">
+        <v>37334.027956946622</v>
+      </c>
+      <c r="Y19" s="8">
         <v>36944.800000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="6">
-        <v>13983.222412503808</v>
+        <v>14041.816945868522</v>
       </c>
       <c r="C20" s="6">
-        <v>14112.56570407777</v>
+        <v>14171.702230524628</v>
       </c>
       <c r="D20" s="6">
-        <v>14084.810789427524</v>
+        <v>14143.831013192172</v>
       </c>
       <c r="E20" s="6">
-        <v>14238.540680766995</v>
+        <v>14298.205085892812</v>
       </c>
       <c r="F20" s="6">
-        <v>12925.975736482058</v>
+        <v>12980.140040976388</v>
       </c>
       <c r="G20" s="6">
-        <v>12854.163263139431</v>
+        <v>12908.026648557945</v>
       </c>
       <c r="H20" s="6">
-        <v>12904.55325381512</v>
+        <v>12958.627790705221</v>
       </c>
       <c r="I20" s="6">
-        <v>12926.649399459004</v>
+        <v>12980.816526833971</v>
       </c>
       <c r="J20" s="6">
-        <v>12110.43933658915</v>
+        <v>12161.186261785348</v>
       </c>
       <c r="K20" s="6">
-        <v>8681.6295165206484</v>
+        <v>8718.008543854934</v>
       </c>
       <c r="L20" s="6">
-        <v>12032.159698667825</v>
+        <v>12082.5786051341</v>
       </c>
       <c r="M20" s="6">
-        <v>11163.269191000656</v>
+        <v>11210.047146022416</v>
       </c>
       <c r="N20" s="6">
-        <v>12552.362249466853</v>
+        <v>12604.96098436037</v>
       </c>
       <c r="O20" s="6">
-        <v>13668.082871887664</v>
+        <v>13725.356861690785</v>
       </c>
       <c r="P20" s="6">
-        <v>13859.672622531596</v>
+        <v>13917.74943958764</v>
       </c>
       <c r="Q20" s="6">
-        <v>14203.644938561103</v>
+        <v>14263.163118469967</v>
       </c>
       <c r="R20" s="6">
-        <v>14326.655798151756</v>
+        <v>14386.689436064784</v>
       </c>
       <c r="S20" s="6">
-        <v>14273.301690377497</v>
+        <v>14333.111756144141</v>
       </c>
       <c r="T20" s="6">
-        <v>14392.270572106463</v>
+        <v>14452.579158593453</v>
       </c>
       <c r="U20" s="6">
-        <v>14187.477027114357</v>
+        <v>14246.927457887954</v>
       </c>
       <c r="V20" s="6">
-        <v>14738.533342257593</v>
+        <v>14800.292889391567</v>
       </c>
       <c r="W20" s="6">
-        <v>14543.171078942753</v>
+        <v>14604.111990692241</v>
       </c>
       <c r="X20" s="8">
+        <v>14655.254321525581</v>
+      </c>
+      <c r="Y20" s="8">
         <v>14594.1</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="6">
-        <v>5944.9515818008194</v>
+        <v>5850.7522418828385</v>
       </c>
       <c r="C21" s="6">
-        <v>5945.3732608405462</v>
+        <v>5851.1672393059616</v>
       </c>
       <c r="D21" s="6">
-        <v>5921.638754890183</v>
+        <v>5827.8088129187427</v>
       </c>
       <c r="E21" s="6">
-        <v>6033.3234605550942</v>
+        <v>5937.7238447002237</v>
       </c>
       <c r="F21" s="6">
-        <v>5952.0598856133647</v>
+        <v>5857.747912729772</v>
       </c>
       <c r="G21" s="6">
-        <v>5985.9146885171831</v>
+        <v>5891.0662772719461</v>
       </c>
       <c r="H21" s="6">
-        <v>6091.6356477630943</v>
+        <v>5995.1120597835434</v>
       </c>
       <c r="I21" s="6">
-        <v>6078.0214387661863</v>
+        <v>5981.7135715512813</v>
       </c>
       <c r="J21" s="6">
-        <v>5549.597362125086</v>
+        <v>5461.6625150317823</v>
       </c>
       <c r="K21" s="6">
-        <v>3703.7274856503295</v>
+        <v>3645.040937983164</v>
       </c>
       <c r="L21" s="6">
-        <v>5262.0122570310814</v>
+        <v>5178.6342724617771</v>
       </c>
       <c r="M21" s="6">
-        <v>4985.2703272443505</v>
+        <v>4906.2773922006536</v>
       </c>
       <c r="N21" s="6">
-        <v>5404.7204920473569</v>
+        <v>5319.0812575158916</v>
       </c>
       <c r="O21" s="6">
-        <v>5983.2641345531838</v>
+        <v>5888.4577220408864</v>
       </c>
       <c r="P21" s="6">
-        <v>6058.5639630759124</v>
+        <v>5962.5644047414535</v>
       </c>
       <c r="Q21" s="6">
-        <v>6053.6845341876387</v>
+        <v>5957.7622917024564</v>
       </c>
       <c r="R21" s="6">
-        <v>5950.1924498660019</v>
+        <v>5855.9100669987984</v>
       </c>
       <c r="S21" s="6">
-        <v>5930.0120958219104</v>
+        <v>5836.0494760350457</v>
       </c>
       <c r="T21" s="6">
-        <v>5890.9164248529087</v>
+        <v>5797.5732863769108</v>
       </c>
       <c r="U21" s="6">
-        <v>5848.8690006058187</v>
+        <v>5756.1921147569146</v>
       </c>
       <c r="V21" s="6">
-        <v>5981.3966988058201</v>
+        <v>5886.6198763099128</v>
       </c>
       <c r="W21" s="6">
-        <v>5872.6637464189998</v>
+        <v>5779.6098264902939</v>
       </c>
       <c r="X21" s="8">
+        <v>5773.7405772204093</v>
+      </c>
+      <c r="Y21" s="8">
         <v>5866.7</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="6">
-        <v>5593.0820345981219</v>
+        <v>5581.7131452117283</v>
       </c>
       <c r="C22" s="6">
-        <v>5627.1417398597268</v>
+        <v>5615.7036183363371</v>
       </c>
       <c r="D22" s="6">
-        <v>5694.5207220076854</v>
+        <v>5682.9456412567597</v>
       </c>
       <c r="E22" s="6">
-        <v>5828.4813018994864</v>
+        <v>5816.6339235127471</v>
       </c>
       <c r="F22" s="6">
-        <v>5501.3258720957019</v>
+        <v>5490.1434926971042</v>
       </c>
       <c r="G22" s="6">
-        <v>5579.6404117858492</v>
+        <v>5568.2988447812804</v>
       </c>
       <c r="H22" s="6">
-        <v>5685.9773176778526</v>
+        <v>5674.4196028475772</v>
       </c>
       <c r="I22" s="6">
-        <v>5666.4983558058302</v>
+        <v>5654.9802352746401</v>
       </c>
       <c r="J22" s="6">
-        <v>5190.8016027206622</v>
+        <v>5180.2504166513372</v>
       </c>
       <c r="K22" s="6">
-        <v>3865.3208989613181</v>
+        <v>3857.4639775946425</v>
       </c>
       <c r="L22" s="6">
-        <v>5418.6826742117728</v>
+        <v>5407.6682811522751</v>
       </c>
       <c r="M22" s="6">
-        <v>4877.543443960074</v>
+        <v>4867.6290083146305</v>
       </c>
       <c r="N22" s="6">
-        <v>5303.5745398744739</v>
+        <v>5292.7941236525512</v>
       </c>
       <c r="O22" s="6">
-        <v>5697.8811277107543</v>
+        <v>5686.2992163643721</v>
       </c>
       <c r="P22" s="6">
-        <v>5723.5113407002564</v>
+        <v>5711.8773315919198</v>
       </c>
       <c r="Q22" s="6">
-        <v>5716.391837092061</v>
+        <v>5704.7722995842678</v>
       </c>
       <c r="R22" s="6">
-        <v>6169.8187828907949</v>
+        <v>6157.2775780876336</v>
       </c>
       <c r="S22" s="6">
-        <v>6223.4144060532872</v>
+        <v>6210.7642590412415</v>
       </c>
       <c r="T22" s="6">
-        <v>6258.2714957190128</v>
+        <v>6245.5504957507073</v>
       </c>
       <c r="U22" s="6">
-        <v>6171.9831119876862</v>
+        <v>6159.437507817961</v>
       </c>
       <c r="V22" s="6">
-        <v>6267.5553284240987</v>
+        <v>6254.8154574886867</v>
       </c>
       <c r="W22" s="6">
-        <v>6126.0195966931788</v>
+        <v>6113.5674211765563</v>
       </c>
       <c r="X22" s="8">
+        <v>6167.33830341047</v>
+      </c>
+      <c r="Y22" s="8">
         <v>6179.9</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="6">
-        <v>8673.9531100341264</v>
+        <v>8660.7896833123359</v>
       </c>
       <c r="C23" s="6">
-        <v>8684.166171508321</v>
+        <v>8670.9872456381472</v>
       </c>
       <c r="D23" s="6">
-        <v>8716.5694301855419</v>
+        <v>8703.3413297445877</v>
       </c>
       <c r="E23" s="6">
-        <v>8940.9782445776345</v>
+        <v>8927.4095855762989</v>
       </c>
       <c r="F23" s="6">
-        <v>9038.1880206092937</v>
+        <v>9024.4718378956204</v>
       </c>
       <c r="G23" s="6">
-        <v>9081.2685708277168</v>
+        <v>9067.4870098881383</v>
       </c>
       <c r="H23" s="6">
-        <v>9309.019841702273</v>
+        <v>9294.8926497537504</v>
       </c>
       <c r="I23" s="6">
-        <v>9137.2547169089885</v>
+        <v>9123.3881924559992</v>
       </c>
       <c r="J23" s="6">
-        <v>8387.8945427432536</v>
+        <v>8375.1652330775378</v>
       </c>
       <c r="K23" s="6">
-        <v>5459.0670499842272</v>
+        <v>5450.7824733707466</v>
       </c>
       <c r="L23" s="6">
-        <v>8226.9924015179749</v>
+        <v>8214.5072738899689</v>
       </c>
       <c r="M23" s="6">
-        <v>7548.6594276045989</v>
+        <v>7537.2037252319305</v>
       </c>
       <c r="N23" s="6">
-        <v>8599.9548373529105</v>
+        <v>8586.9037090062229</v>
       </c>
       <c r="O23" s="6">
-        <v>9320.7184393908974</v>
+        <v>9306.5734938724072</v>
       </c>
       <c r="P23" s="6">
-        <v>9425.2630504812969</v>
+        <v>9410.9594500439034</v>
       </c>
       <c r="Q23" s="6">
-        <v>9946.8719537724737</v>
+        <v>9931.7767695567509</v>
       </c>
       <c r="R23" s="6">
-        <v>9589.6933402158429</v>
+        <v>9575.1402034894818</v>
       </c>
       <c r="S23" s="6">
-        <v>9706.6793171020799</v>
+        <v>9691.9486446760584</v>
       </c>
       <c r="T23" s="6">
-        <v>9687.0888082743058</v>
+        <v>9672.3878660329083</v>
       </c>
       <c r="U23" s="6">
-        <v>9713.8284601340183</v>
+        <v>9699.0869383041263</v>
       </c>
       <c r="V23" s="6">
-        <v>9840.5632684274424</v>
+        <v>9825.6294162562517</v>
       </c>
       <c r="W23" s="6">
-        <v>9659.2350042537728</v>
+        <v>9644.5763324170566</v>
       </c>
       <c r="X23" s="8">
+        <v>9698.1598871835977</v>
+      </c>
+      <c r="Y23" s="8">
         <v>9712.9</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="6">
-        <v>12037.835150645624</v>
+        <v>12063.79741193386</v>
       </c>
       <c r="C24" s="6">
-        <v>12003.734704031102</v>
+        <v>12029.623420143316</v>
       </c>
       <c r="D24" s="6">
-        <v>11806.556106817236</v>
+        <v>11832.019563553718</v>
       </c>
       <c r="E24" s="6">
-        <v>11859.40550747443</v>
+        <v>11884.982945664524</v>
       </c>
       <c r="F24" s="6">
-        <v>11036.087344379137</v>
+        <v>11059.889114352634</v>
       </c>
       <c r="G24" s="6">
-        <v>10848.597803952423</v>
+        <v>10871.995211150019</v>
       </c>
       <c r="H24" s="6">
-        <v>10933.031013097607</v>
+        <v>10956.610519236565</v>
       </c>
       <c r="I24" s="6">
-        <v>10800.404183829314</v>
+        <v>10823.697650796594</v>
       </c>
       <c r="J24" s="6">
-        <v>10282.731721201462</v>
+        <v>10304.908712692191</v>
       </c>
       <c r="K24" s="6">
-        <v>6570.18715693988</v>
+        <v>6584.3572226989163</v>
       </c>
       <c r="L24" s="6">
-        <v>9196.8023696024429</v>
+        <v>9216.6373136058992</v>
       </c>
       <c r="M24" s="6">
-        <v>8492.2695260795117</v>
+        <v>8510.5849887525801</v>
       </c>
       <c r="N24" s="6">
-        <v>8807.2267876151254</v>
+        <v>8826.2215254748262</v>
       </c>
       <c r="O24" s="6">
-        <v>10502.937557273106</v>
+        <v>10525.58947148721</v>
       </c>
       <c r="P24" s="6">
-        <v>10653.180853427131</v>
+        <v>10676.156800630783</v>
       </c>
       <c r="Q24" s="6">
-        <v>10273.04266441431</v>
+        <v>10295.198759305211</v>
       </c>
       <c r="R24" s="6">
-        <v>10455.498928587956</v>
+        <v>10478.048530878224</v>
       </c>
       <c r="S24" s="6">
-        <v>10676.83725181654</v>
+        <v>10699.864219289904</v>
       </c>
       <c r="T24" s="6">
-        <v>10870.87005137224</v>
+        <v>10894.315493611</v>
       </c>
       <c r="U24" s="6">
-        <v>10749.316429860693</v>
+        <v>10772.499714756152</v>
       </c>
       <c r="V24" s="6">
-        <v>11079.373520155505</v>
+        <v>11103.2686463672</v>
       </c>
       <c r="W24" s="6">
-        <v>10743.905657888647</v>
+        <v>10767.07727325433</v>
       </c>
       <c r="X24" s="8">
+        <v>10898.85521207764</v>
+      </c>
+      <c r="Y24" s="8">
         <v>10875.4</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="6">
-        <v>4002.7632945719038</v>
+        <v>3999.638717115889</v>
       </c>
       <c r="C25" s="6">
-        <v>4126.6362097606971</v>
+        <v>4123.4149364748955</v>
       </c>
       <c r="D25" s="6">
-        <v>4136.7727176401922</v>
+        <v>4133.5435317446081</v>
       </c>
       <c r="E25" s="6">
-        <v>4187.4552570376691</v>
+        <v>4184.1865080931702</v>
       </c>
       <c r="F25" s="6">
-        <v>4163.4309352130385</v>
+        <v>4160.1809397767647</v>
       </c>
       <c r="G25" s="6">
-        <v>4180.9503326898039</v>
+        <v>4177.6866615224499</v>
       </c>
       <c r="H25" s="6">
-        <v>4209.7236483634897</v>
+        <v>4206.4375165990741</v>
       </c>
       <c r="I25" s="6">
-        <v>4129.7889031562881</v>
+        <v>4126.5651688619319</v>
       </c>
       <c r="J25" s="6">
-        <v>3495.9778081084723</v>
+        <v>3493.2488299895927</v>
       </c>
       <c r="K25" s="6">
-        <v>2186.6522686660983</v>
+        <v>2184.9453567455048</v>
       </c>
       <c r="L25" s="6">
-        <v>3002.4017078974543</v>
+        <v>3000.0580178013852</v>
       </c>
       <c r="M25" s="6">
-        <v>2907.6213684730392</v>
+        <v>2905.35166439364</v>
       </c>
       <c r="N25" s="6">
-        <v>3465.9673595833524</v>
+        <v>3463.2618077737502</v>
       </c>
       <c r="O25" s="6">
-        <v>4183.025523279307</v>
+        <v>4179.7602322075873</v>
       </c>
       <c r="P25" s="6">
-        <v>4353.4305966865713</v>
+        <v>4350.0322865448798</v>
       </c>
       <c r="Q25" s="6">
-        <v>4327.9696044538232</v>
+        <v>4324.5911692926111</v>
       </c>
       <c r="R25" s="6">
-        <v>4347.6839150541018</v>
+        <v>4344.2900908014217</v>
       </c>
       <c r="S25" s="6">
-        <v>4460.5423571139954</v>
+        <v>4457.0604349854648</v>
       </c>
       <c r="T25" s="6">
-        <v>4491.8697535132223</v>
+        <v>4488.3633770591823</v>
       </c>
       <c r="U25" s="6">
-        <v>4431.808948951646</v>
+        <v>4428.3494562681699</v>
       </c>
       <c r="V25" s="6">
-        <v>4564.5812391685004</v>
+        <v>4561.0181037576722</v>
       </c>
       <c r="W25" s="6">
-        <v>4413.6510312934943</v>
+        <v>4410.2057127732114</v>
       </c>
       <c r="X25" s="8">
+        <v>4440.8307567383272</v>
+      </c>
+      <c r="Y25" s="8">
         <v>4444.3</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="6">
-        <v>15744.990952894366</v>
+        <v>16131.474024399779</v>
       </c>
       <c r="C26" s="6">
-        <v>15872.521165571001</v>
+        <v>16262.134646515991</v>
       </c>
       <c r="D26" s="6">
-        <v>15840.202950184623</v>
+        <v>16229.023134824429</v>
       </c>
       <c r="E26" s="6">
-        <v>16185.247426221531</v>
+        <v>16582.537215531396</v>
       </c>
       <c r="F26" s="6">
-        <v>16728.161760187773</v>
+        <v>17138.778149683272</v>
       </c>
       <c r="G26" s="6">
-        <v>16914.308343908324</v>
+        <v>17329.493964573394</v>
       </c>
       <c r="H26" s="6">
-        <v>16849.988758384457</v>
+        <v>17263.595563853913</v>
       </c>
       <c r="I26" s="6">
-        <v>16627.404971042011</v>
+        <v>17035.548142644871</v>
       </c>
       <c r="J26" s="6">
-        <v>14484.897398074556</v>
+        <v>14840.449691092514</v>
       </c>
       <c r="K26" s="6">
-        <v>8417.310881906742</v>
+        <v>8623.9256823336182</v>
       </c>
       <c r="L26" s="6">
-        <v>12230.543452250326</v>
+        <v>12530.759439274261</v>
       </c>
       <c r="M26" s="6">
-        <v>11359.219017813693</v>
+        <v>11638.047114256666</v>
       </c>
       <c r="N26" s="6">
-        <v>11852.54707032927</v>
+        <v>12143.484601548447</v>
       </c>
       <c r="O26" s="6">
-        <v>14106.742593529058</v>
+        <v>14453.012542034878</v>
       </c>
       <c r="P26" s="6">
-        <v>15006.583100365433</v>
+        <v>15374.940906780321</v>
       </c>
       <c r="Q26" s="6">
-        <v>14689.104160981613</v>
+        <v>15049.668997810275</v>
       </c>
       <c r="R26" s="6">
-        <v>15109.240961004512</v>
+        <v>15480.118649800577</v>
       </c>
       <c r="S26" s="6">
-        <v>15431.472579121622</v>
+        <v>15810.259898725266</v>
       </c>
       <c r="T26" s="6">
-        <v>15250.07867413436</v>
+        <v>15624.413423789785</v>
       </c>
       <c r="U26" s="6">
-        <v>15197.482362819277</v>
+        <v>15570.526061625087</v>
       </c>
       <c r="V26" s="6">
-        <v>16792.639768336085</v>
+        <v>17204.838861734574</v>
       </c>
       <c r="W26" s="6">
-        <v>16490.686246147681</v>
+        <v>16895.473463283019</v>
       </c>
       <c r="X26" s="8">
+        <v>17011.363754203485</v>
+      </c>
+      <c r="Y26" s="8">
         <v>16603.8</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="6">
-        <v>22618.696221559501</v>
+        <v>23143.3273306273</v>
       </c>
       <c r="C27" s="6">
-        <v>23075.155433540513</v>
+        <v>23610.373921309543</v>
       </c>
       <c r="D27" s="6">
-        <v>22836.623019036208</v>
+        <v>23366.308848161068</v>
       </c>
       <c r="E27" s="6">
-        <v>23214.915270771206</v>
+        <v>23753.375428957101</v>
       </c>
       <c r="F27" s="6">
-        <v>24086.398486579896</v>
+        <v>24645.072330009411</v>
       </c>
       <c r="G27" s="6">
-        <v>24300.741698486585</v>
+        <v>24864.387142218886</v>
       </c>
       <c r="H27" s="6">
-        <v>24391.227234129528</v>
+        <v>24956.971451657369</v>
       </c>
       <c r="I27" s="6">
-        <v>24177.331970419094</v>
+        <v>24738.114977613433</v>
       </c>
       <c r="J27" s="6">
-        <v>21665.462459934784</v>
+        <v>22167.983714364476</v>
       </c>
       <c r="K27" s="6">
-        <v>10852.664924700613</v>
+        <v>11104.387905548638</v>
       </c>
       <c r="L27" s="6">
-        <v>16436.339190984516</v>
+        <v>16817.57313896784</v>
       </c>
       <c r="M27" s="6">
-        <v>15320.724208218362</v>
+        <v>15676.081937697843</v>
       </c>
       <c r="N27" s="6">
-        <v>16316.289074388918</v>
+        <v>16694.738510603915</v>
       </c>
       <c r="O27" s="6">
-        <v>20031.123465908564</v>
+        <v>20495.736917402588</v>
       </c>
       <c r="P27" s="6">
-        <v>22083.622101136229</v>
+        <v>22595.842391893308</v>
       </c>
       <c r="Q27" s="6">
-        <v>22302.444795005435</v>
+        <v>22819.740585758151</v>
       </c>
       <c r="R27" s="6">
-        <v>22271.088421267781</v>
+        <v>22787.656914170559</v>
       </c>
       <c r="S27" s="6">
-        <v>23403.501461393389</v>
+        <v>23946.335796648196</v>
       </c>
       <c r="T27" s="6">
-        <v>23471.813561321851</v>
+        <v>24016.232366892589</v>
       </c>
       <c r="U27" s="6">
-        <v>22879.626045876419</v>
+        <v>23410.309312052625</v>
       </c>
       <c r="V27" s="6">
-        <v>24094.909502308685</v>
+        <v>24653.78075515461</v>
       </c>
       <c r="W27" s="6">
-        <v>23883.47795367764</v>
+        <v>24437.445141021137</v>
       </c>
       <c r="X27" s="8">
+        <v>24667.072561955189</v>
+      </c>
+      <c r="Y27" s="8">
         <v>24107.9</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="6">
-        <v>21288.656735875895</v>
+        <v>21414.66012887553</v>
       </c>
       <c r="C28" s="6">
-        <v>21235.279410169562</v>
+        <v>21360.966873224359</v>
       </c>
       <c r="D28" s="6">
-        <v>21302.72517831012</v>
+        <v>21428.811839667313</v>
       </c>
       <c r="E28" s="6">
-        <v>21448.374935276239</v>
+        <v>21575.323669041052</v>
       </c>
       <c r="F28" s="6">
-        <v>20772.469031855344</v>
+        <v>20895.417210853542</v>
       </c>
       <c r="G28" s="6">
-        <v>20550.891063516265</v>
+        <v>20672.527765882984</v>
       </c>
       <c r="H28" s="6">
-        <v>20554.821951843474</v>
+        <v>20676.481920368922</v>
       </c>
       <c r="I28" s="6">
-        <v>19908.914933024978</v>
+        <v>20026.75190431095</v>
       </c>
       <c r="J28" s="6">
-        <v>17810.441232872505</v>
+        <v>17915.857749001523</v>
       </c>
       <c r="K28" s="6">
-        <v>9896.7354747602913</v>
+        <v>9955.3123152303706</v>
       </c>
       <c r="L28" s="6">
-        <v>15485.21734289778</v>
+        <v>15576.871313871619</v>
       </c>
       <c r="M28" s="6">
-        <v>13729.765371509266</v>
+        <v>13811.029165808868</v>
       </c>
       <c r="N28" s="6">
-        <v>14471.04815447745</v>
+        <v>14556.69945649936</v>
       </c>
       <c r="O28" s="6">
-        <v>17962.090766759102</v>
+        <v>18068.404866801167</v>
       </c>
       <c r="P28" s="6">
-        <v>19589.892311942942</v>
+        <v>19705.8410507679</v>
       </c>
       <c r="Q28" s="6">
-        <v>19238.59502880591</v>
+        <v>19352.464507761353</v>
       </c>
       <c r="R28" s="6">
-        <v>20062.012688926865</v>
+        <v>20180.755815868572</v>
       </c>
       <c r="S28" s="6">
-        <v>20314.41709730565</v>
+        <v>20434.65415654465</v>
       </c>
       <c r="T28" s="6">
-        <v>20320.003096507477</v>
+        <v>20440.273218182567</v>
       </c>
       <c r="U28" s="6">
-        <v>19949.258260593717</v>
+        <v>20067.334016140321</v>
       </c>
       <c r="V28" s="6">
-        <v>20930.739009240406</v>
+        <v>21054.623957261087</v>
       </c>
       <c r="W28" s="6">
-        <v>20222.351554905192</v>
+        <v>20342.043696216082</v>
       </c>
       <c r="X28" s="8">
+        <v>20337.465201548155</v>
+      </c>
+      <c r="Y28" s="8">
         <v>20217.8</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="6">
-        <v>12440.60166862468</v>
+        <v>12501.840048024013</v>
       </c>
       <c r="C29" s="6">
-        <v>12409.953605065612</v>
+        <v>12471.04112056028</v>
       </c>
       <c r="D29" s="6">
-        <v>12380.812823320923</v>
+        <v>12441.756894447224</v>
       </c>
       <c r="E29" s="6">
-        <v>12632.780099958185</v>
+        <v>12694.964470235118</v>
       </c>
       <c r="F29" s="6">
-        <v>12210.615585113797</v>
+        <v>12270.721866933467</v>
       </c>
       <c r="G29" s="6">
-        <v>12436.079823181539</v>
+        <v>12497.295943971985</v>
       </c>
       <c r="H29" s="6">
-        <v>12690.559236176103</v>
+        <v>12753.028022011007</v>
       </c>
       <c r="I29" s="6">
-        <v>12592.460311423509</v>
+        <v>12654.446209104552</v>
       </c>
       <c r="J29" s="6">
-        <v>12029.11373329882</v>
+        <v>12088.326579289645</v>
       </c>
       <c r="K29" s="6">
-        <v>6573.0047788773627</v>
+        <v>6605.3601400700345</v>
       </c>
       <c r="L29" s="6">
-        <v>9910.2523227335187</v>
+        <v>9959.0351555777888</v>
       </c>
       <c r="M29" s="6">
-        <v>8747.2587961211448</v>
+        <v>8790.3168384192104</v>
       </c>
       <c r="N29" s="6">
-        <v>9367.6308695565604</v>
+        <v>9413.7426693346661</v>
       </c>
       <c r="O29" s="6">
-        <v>11375.581459947036</v>
+        <v>11431.577318659331</v>
       </c>
       <c r="P29" s="6">
-        <v>12110.883771728959</v>
+        <v>12170.499127563782</v>
       </c>
       <c r="Q29" s="6">
-        <v>11985.276953863922</v>
+        <v>12044.274015007502</v>
       </c>
       <c r="R29" s="6">
-        <v>12041.423201449594</v>
+        <v>12100.69664032016</v>
       </c>
       <c r="S29" s="6">
-        <v>12293.892905358318</v>
+        <v>12354.409116558279</v>
       </c>
       <c r="T29" s="6">
-        <v>12584.044654626554</v>
+        <v>12645.989126563283</v>
       </c>
       <c r="U29" s="6">
-        <v>12329.942062085584</v>
+        <v>12390.635723861931</v>
       </c>
       <c r="V29" s="6">
-        <v>12817.42212221979</v>
+        <v>12880.515385692848</v>
       </c>
       <c r="W29" s="6">
-        <v>12607.90995002091</v>
+        <v>12669.971897948977</v>
       </c>
       <c r="X29" s="8">
+        <v>12678.302755377686</v>
+      </c>
+      <c r="Y29" s="8">
         <v>12616.2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="6">
-        <v>6231.8584926151179</v>
+        <v>6270.2287968910341</v>
       </c>
       <c r="C30" s="6">
-        <v>6308.5722198088615</v>
+        <v>6347.4148597544754</v>
       </c>
       <c r="D30" s="6">
-        <v>6302.095569070374</v>
+        <v>6340.8983314963325</v>
       </c>
       <c r="E30" s="6">
-        <v>6467.0929626411817</v>
+        <v>6506.9116339173725</v>
       </c>
       <c r="F30" s="6">
-        <v>6363.7180712423979</v>
+        <v>6402.9002508456533</v>
       </c>
       <c r="G30" s="6">
-        <v>6355.7951781059955</v>
+        <v>6394.9285755007413</v>
       </c>
       <c r="H30" s="6">
-        <v>6408.9288662033014</v>
+        <v>6448.3894141233704</v>
       </c>
       <c r="I30" s="6">
-        <v>6396.6672458731537</v>
+        <v>6436.0522975181484</v>
       </c>
       <c r="J30" s="6">
-        <v>6092.3275412684625</v>
+        <v>6129.838736650071</v>
       </c>
       <c r="K30" s="6">
-        <v>4048.9127932232846</v>
+        <v>4073.8424375736386</v>
       </c>
       <c r="L30" s="6">
-        <v>6136.9095351867936</v>
+        <v>6174.6952272813651</v>
       </c>
       <c r="M30" s="6">
-        <v>5921.5451781059946</v>
+        <v>5958.004845881951</v>
       </c>
       <c r="N30" s="6">
-        <v>6186.3332971329282</v>
+        <v>6224.4232972901063</v>
       </c>
       <c r="O30" s="6">
-        <v>6786.0208514335363</v>
+        <v>6827.8032001824331</v>
       </c>
       <c r="P30" s="6">
-        <v>6615.3642484795837</v>
+        <v>6656.0958439435981</v>
       </c>
       <c r="Q30" s="6">
-        <v>6760.4915291051257</v>
+        <v>6802.1166907377146</v>
       </c>
       <c r="R30" s="6">
-        <v>6985.0992615117293</v>
+        <v>7028.1073600395266</v>
       </c>
       <c r="S30" s="6">
-        <v>6912.598501303215</v>
+        <v>6955.1602039071113</v>
       </c>
       <c r="T30" s="6">
-        <v>6910.6492180712421</v>
+        <v>6953.1989187032032</v>
       </c>
       <c r="U30" s="6">
-        <v>6822.4913119026942</v>
+        <v>6864.4982136748886</v>
       </c>
       <c r="V30" s="6">
-        <v>6924.6086012163332</v>
+        <v>6967.2442514537634</v>
       </c>
       <c r="W30" s="6">
-        <v>6753.1974370112939</v>
+        <v>6794.7776880392239</v>
       </c>
       <c r="X30" s="8">
+        <v>6699.497187488123</v>
+      </c>
+      <c r="Y30" s="8">
         <v>6658.5</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="6">
-        <v>12961.234423087453</v>
+        <v>12849.93540062435</v>
       </c>
       <c r="C31" s="6">
-        <v>13034.703685449864</v>
+        <v>12922.773777315295</v>
       </c>
       <c r="D31" s="6">
-        <v>13156.25492579815</v>
+        <v>13043.281248699272</v>
       </c>
       <c r="E31" s="6">
-        <v>13588.351634631181</v>
+        <v>13471.667513007282</v>
       </c>
       <c r="F31" s="6">
-        <v>13611.559202672363</v>
+        <v>13494.675796045785</v>
       </c>
       <c r="G31" s="6">
-        <v>13711.826154098899</v>
+        <v>13594.08174817898</v>
       </c>
       <c r="H31" s="6">
-        <v>13859.790427687421</v>
+        <v>13740.775442247659</v>
       </c>
       <c r="I31" s="6">
-        <v>13724.64801489513</v>
+        <v>13606.793506763786</v>
       </c>
       <c r="J31" s="6">
-        <v>12453.232298340727</v>
+        <v>12346.295525494277</v>
       </c>
       <c r="K31" s="6">
-        <v>8196.6309512074913</v>
+        <v>8126.2459105098851</v>
       </c>
       <c r="L31" s="6">
-        <v>11240.027829801214</v>
+        <v>11143.508928199792</v>
       </c>
       <c r="M31" s="6">
-        <v>10632.91272109961</v>
+        <v>10541.607159209156</v>
       </c>
       <c r="N31" s="6">
-        <v>11647.121910081592</v>
+        <v>11547.10726326743</v>
       </c>
       <c r="O31" s="6">
-        <v>13239.725239581621</v>
+        <v>13126.03479708637</v>
       </c>
       <c r="P31" s="6">
-        <v>13660.923366737856</v>
+        <v>13543.616066597293</v>
       </c>
       <c r="Q31" s="6">
-        <v>13671.950167022616</v>
+        <v>13554.548178980227</v>
       </c>
       <c r="R31" s="6">
-        <v>13521.806177098735</v>
+        <v>13405.693485952133</v>
       </c>
       <c r="S31" s="6">
-        <v>13651.178752532718</v>
+        <v>13533.955130072842</v>
       </c>
       <c r="T31" s="6">
-        <v>13863.124111494441</v>
+        <v>13744.080499479707</v>
       </c>
       <c r="U31" s="6">
-        <v>13702.081539893761</v>
+        <v>13584.420811654525</v>
       </c>
       <c r="V31" s="6">
-        <v>14304.067904276873</v>
+        <v>14181.237877211239</v>
       </c>
       <c r="W31" s="6">
-        <v>14156.231849296315</v>
+        <v>14034.671300728407</v>
       </c>
       <c r="X31" s="8">
+        <v>13927.765411030177</v>
+      </c>
+      <c r="Y31" s="8">
         <v>14048.4</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="6">
-        <v>2596.0047034795311</v>
+        <v>2571.5269321361852</v>
       </c>
       <c r="C32" s="6">
-        <v>2661.5909925758069</v>
+        <v>2636.4948070263526</v>
       </c>
       <c r="D32" s="6">
-        <v>2642.2351024180803</v>
+        <v>2617.321423877489</v>
       </c>
       <c r="E32" s="6">
-        <v>2731.7821103789615</v>
+        <v>2706.0240916172575</v>
       </c>
       <c r="F32" s="6">
-        <v>2744.8161170577537</v>
+        <v>2718.9352004312095</v>
       </c>
       <c r="G32" s="6">
-        <v>2753.063183159903</v>
+        <v>2727.1045048104966</v>
       </c>
       <c r="H32" s="6">
-        <v>2788.2888219684542</v>
+        <v>2761.9980004873255</v>
       </c>
       <c r="I32" s="6">
-        <v>2799.0854542472939</v>
+        <v>2772.6928311415973</v>
       </c>
       <c r="J32" s="6">
-        <v>2654.3845657294487</v>
+        <v>2629.3563296980792</v>
       </c>
       <c r="K32" s="6">
-        <v>1767.2916321297591</v>
+        <v>1750.6278100610634</v>
       </c>
       <c r="L32" s="6">
-        <v>2667.9909239989265</v>
+        <v>2642.8343933900896</v>
       </c>
       <c r="M32" s="6">
-        <v>2595.6664957213989</v>
+        <v>2571.1919133446063</v>
       </c>
       <c r="N32" s="6">
-        <v>2857.413284534422</v>
+        <v>2830.4706873509413</v>
       </c>
       <c r="O32" s="6">
-        <v>3180.1415337368435</v>
+        <v>3150.1559265467058</v>
       </c>
       <c r="P32" s="6">
-        <v>3206.2875950386115</v>
+        <v>3176.0554562034363</v>
       </c>
       <c r="Q32" s="6">
-        <v>3319.4310981245712</v>
+        <v>3288.13212732495</v>
       </c>
       <c r="R32" s="6">
-        <v>3420.0348981782399</v>
+        <v>3387.7873324817442</v>
       </c>
       <c r="S32" s="6">
-        <v>3387.3067935835884</v>
+        <v>3355.3678217273482</v>
       </c>
       <c r="T32" s="6">
-        <v>3351.2486433704039</v>
+        <v>3319.6496644097083</v>
       </c>
       <c r="U32" s="6">
-        <v>3379.8922388860724</v>
+        <v>3348.0231789888726</v>
       </c>
       <c r="V32" s="6">
-        <v>3569.2625674587789</v>
+        <v>3535.6079315971733</v>
       </c>
       <c r="W32" s="6">
-        <v>3479.3513357583706</v>
+        <v>3446.5444743895505</v>
       </c>
       <c r="X32" s="8">
+        <v>3457.2908463963736</v>
+      </c>
+      <c r="Y32" s="8">
         <v>3490.2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="6">
-        <v>3797.1607831423453</v>
+        <v>3779.4741114464618</v>
       </c>
       <c r="C33" s="6">
-        <v>3833.7717464110506</v>
+        <v>3815.9145457002569</v>
       </c>
       <c r="D33" s="6">
-        <v>3829.0160955122287</v>
+        <v>3811.1810459930625</v>
       </c>
       <c r="E33" s="6">
-        <v>3915.6368797407631</v>
+        <v>3897.3983620883823</v>
       </c>
       <c r="F33" s="6">
-        <v>3900.3508589945513</v>
+        <v>3882.1835416009731</v>
       </c>
       <c r="G33" s="6">
-        <v>3932.2061713644352</v>
+        <v>3913.8904761475746</v>
       </c>
       <c r="H33" s="6">
-        <v>3996.3319719763217</v>
+        <v>3977.7175872787066</v>
       </c>
       <c r="I33" s="6">
-        <v>3998.0304187259007</v>
+        <v>3979.4081228884188</v>
       </c>
       <c r="J33" s="6">
-        <v>3570.7389597929005</v>
+        <v>3554.1069309428349</v>
       </c>
       <c r="K33" s="6">
-        <v>2645.462913883307</v>
+        <v>2633.1406982296498</v>
       </c>
       <c r="L33" s="6">
-        <v>3523.1069642824814</v>
+        <v>3506.6967989549075</v>
       </c>
       <c r="M33" s="6">
-        <v>3180.3226669563173</v>
+        <v>3165.5091454570029</v>
       </c>
       <c r="N33" s="6">
-        <v>3542.3937707054802</v>
+        <v>3525.8937699896392</v>
       </c>
       <c r="O33" s="6">
-        <v>3844.0756566918303</v>
+        <v>3826.1704617325104</v>
       </c>
       <c r="P33" s="6">
-        <v>3862.9472872427095</v>
+        <v>3844.9541907293119</v>
       </c>
       <c r="Q33" s="6">
-        <v>3964.4766596064378</v>
+        <v>3946.010652732105</v>
       </c>
       <c r="R33" s="6">
-        <v>4038.60442441029</v>
+        <v>4019.7931402315417</v>
       </c>
       <c r="S33" s="6">
-        <v>4089.293624069951</v>
+        <v>4070.2462363169511</v>
       </c>
       <c r="T33" s="6">
-        <v>4186.52026466808</v>
+        <v>4167.020008108474</v>
       </c>
       <c r="U33" s="6">
-        <v>4192.861132533174</v>
+        <v>4173.3313410513983</v>
       </c>
       <c r="V33" s="6">
-        <v>4268.3853979977921</v>
+        <v>4248.503824496599</v>
       </c>
       <c r="W33" s="6">
-        <v>4179.6509911475596</v>
+        <v>4160.1827307536378</v>
       </c>
       <c r="X33" s="8">
+        <v>4150.3776242173062</v>
+      </c>
+      <c r="Y33" s="8">
         <v>4169.8</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="6">
-        <v>31450.901165415962</v>
+        <v>31194.673814753991</v>
       </c>
       <c r="C34" s="6">
-        <v>31406.374319994837</v>
+        <v>31150.509725095439</v>
       </c>
       <c r="D34" s="6">
-        <v>30796.992635517239</v>
+        <v>30546.092612339777</v>
       </c>
       <c r="E34" s="6">
-        <v>31451.537263207687</v>
+        <v>31195.304730320542</v>
       </c>
       <c r="F34" s="6">
-        <v>31272.15768593975</v>
+        <v>31017.38654055322</v>
       </c>
       <c r="G34" s="6">
-        <v>31423.867009267422</v>
+        <v>31167.859903175588</v>
       </c>
       <c r="H34" s="6">
-        <v>31880.267174833894</v>
+        <v>31620.541822175772</v>
       </c>
       <c r="I34" s="6">
-        <v>32232.665351452473</v>
+        <v>31970.069046044911</v>
       </c>
       <c r="J34" s="6">
-        <v>30093.786526759417</v>
+        <v>29848.615453517883</v>
       </c>
       <c r="K34" s="6">
-        <v>13807.774765089129</v>
+        <v>13695.284203118003</v>
       </c>
       <c r="L34" s="6">
-        <v>20829.976336895521</v>
+        <v>20660.276600055447</v>
       </c>
       <c r="M34" s="6">
-        <v>20800.715838475931</v>
+        <v>20631.254483994111</v>
       </c>
       <c r="N34" s="6">
-        <v>22231.935869869052</v>
+        <v>22050.814508733391</v>
       </c>
       <c r="O34" s="6">
-        <v>26699.568710086653</v>
+        <v>26482.049990402862</v>
       </c>
       <c r="P34" s="6">
-        <v>28748.439697249876</v>
+        <v>28514.229030262959</v>
       </c>
       <c r="Q34" s="6">
-        <v>30929.300976197133</v>
+        <v>30677.323050182345</v>
       </c>
       <c r="R34" s="6">
-        <v>30363.491990453054</v>
+        <v>30116.123653735413</v>
       </c>
       <c r="S34" s="6">
-        <v>30952.836594491153</v>
+        <v>30700.666926144724</v>
       </c>
       <c r="T34" s="6">
-        <v>30661.185756982817</v>
+        <v>30411.392138881183</v>
       </c>
       <c r="U34" s="6">
-        <v>29686.047842260305</v>
+        <v>29444.198575358823</v>
       </c>
       <c r="V34" s="6">
-        <v>30234.046089835945</v>
+        <v>29987.732335942335</v>
       </c>
       <c r="W34" s="6">
-        <v>29288.168673533019</v>
+        <v>29049.560888481308</v>
       </c>
       <c r="X34" s="8">
+        <v>29341.990253577595</v>
+      </c>
+      <c r="Y34" s="8">
         <v>29583</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="6">
-        <v>4565.4200821781651</v>
+        <v>4557.2505022855321</v>
       </c>
       <c r="C35" s="6">
-        <v>4611.7909630641989</v>
+        <v>4603.5384049112363</v>
       </c>
       <c r="D35" s="6">
-        <v>4539.9505741822122</v>
+        <v>4531.8265706388866</v>
       </c>
       <c r="E35" s="6">
-        <v>4532.4088416961013</v>
+        <v>4524.2983336876796</v>
       </c>
       <c r="F35" s="6">
-        <v>4550.6813821195929</v>
+        <v>4542.5381763580317</v>
       </c>
       <c r="G35" s="6">
-        <v>4479.7029055217336</v>
+        <v>4471.6867120229617</v>
       </c>
       <c r="H35" s="6">
-        <v>4441.7787650201453</v>
+        <v>4433.8304347826088</v>
       </c>
       <c r="I35" s="6">
-        <v>4412.5168429740334</v>
+        <v>4404.620875411927</v>
       </c>
       <c r="J35" s="6">
-        <v>4485.5639090537979</v>
+        <v>4477.537227596471</v>
       </c>
       <c r="K35" s="6">
-        <v>1996.4474237233987</v>
+        <v>1992.8748857233977</v>
       </c>
       <c r="L35" s="6">
-        <v>4141.0144734740243</v>
+        <v>4133.6043451684918</v>
       </c>
       <c r="M35" s="6">
-        <v>4265.2160336167271</v>
+        <v>4257.5836531306477</v>
       </c>
       <c r="N35" s="6">
-        <v>4029.1382589943378</v>
+        <v>4021.9283273094502</v>
       </c>
       <c r="O35" s="6">
-        <v>4401.3119832803823</v>
+        <v>4393.4360662272784</v>
       </c>
       <c r="P35" s="6">
-        <v>4371.6622007064134</v>
+        <v>4363.8393403848204</v>
       </c>
       <c r="Q35" s="6">
-        <v>4714.2292380326944</v>
+        <v>4705.7933719570538</v>
       </c>
       <c r="R35" s="6">
-        <v>4716.9011661134873</v>
+        <v>4708.4605187626239</v>
       </c>
       <c r="S35" s="6">
-        <v>4853.7297412186508</v>
+        <v>4845.0442463059426</v>
       </c>
       <c r="T35" s="6">
-        <v>4864.0295930139682</v>
+        <v>4855.3256670564479</v>
       </c>
       <c r="U35" s="6">
-        <v>4791.0256225484109</v>
+        <v>4782.4523333687684</v>
       </c>
       <c r="V35" s="6">
-        <v>4971.9841066008767</v>
+        <v>4963.087001700861</v>
       </c>
       <c r="W35" s="6">
-        <v>4813.564628778332</v>
+        <v>4804.9510072286594</v>
       </c>
       <c r="X35" s="8">
+        <v>4847.4102636334646</v>
+      </c>
+      <c r="Y35" s="8">
         <v>4856.1000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="6">
-        <v>20024.325291150508</v>
+        <v>20163.424652674035</v>
       </c>
       <c r="C36" s="6">
-        <v>21095.125472887772</v>
+        <v>21241.663168509116</v>
       </c>
       <c r="D36" s="6">
-        <v>20256.941853349159</v>
+        <v>20397.65709030475</v>
       </c>
       <c r="E36" s="6">
-        <v>20668.293181143832</v>
+        <v>20811.865878025095</v>
       </c>
       <c r="F36" s="6">
-        <v>20720.365514427715</v>
+        <v>20864.299932775619</v>
       </c>
       <c r="G36" s="6">
-        <v>20992.99132111861</v>
+        <v>21138.819539886466</v>
       </c>
       <c r="H36" s="6">
-        <v>21527.788257547658</v>
+        <v>21677.331453540482</v>
       </c>
       <c r="I36" s="6">
-        <v>21018.725910540761</v>
+        <v>21164.732895129968</v>
       </c>
       <c r="J36" s="6">
-        <v>18752.674681032564</v>
+        <v>18882.940497086944</v>
       </c>
       <c r="K36" s="6">
-        <v>9378.6494325346794</v>
+        <v>9443.7984015536313</v>
       </c>
       <c r="L36" s="6">
-        <v>15460.054595356429</v>
+        <v>15567.448162533614</v>
       </c>
       <c r="M36" s="6">
-        <v>15402.553872116312</v>
+        <v>15509.548009411412</v>
       </c>
       <c r="N36" s="6">
-        <v>17143.659687708627</v>
+        <v>17262.748450104573</v>
       </c>
       <c r="O36" s="6">
-        <v>19930.836353015355</v>
+        <v>20069.286291828503</v>
       </c>
       <c r="P36" s="6">
-        <v>21040.640521845562</v>
+        <v>21186.799736704514</v>
       </c>
       <c r="Q36" s="6">
-        <v>21579.86059083154</v>
+        <v>21729.765508291006</v>
       </c>
       <c r="R36" s="6">
-        <v>20706.492962317334</v>
+        <v>20850.331014714669</v>
       </c>
       <c r="S36" s="6">
-        <v>21729.442891847782</v>
+        <v>21880.38688564386</v>
       </c>
       <c r="T36" s="6">
-        <v>22334.607846228024</v>
+        <v>22489.755630041829</v>
       </c>
       <c r="U36" s="6">
-        <v>21576.241664194051</v>
+        <v>21726.121442709886</v>
       </c>
       <c r="V36" s="6">
-        <v>22026.798030561531</v>
+        <v>22179.807607559011</v>
       </c>
       <c r="W36" s="6">
-        <v>21978.947778354723</v>
+        <v>22131.624962653121</v>
       </c>
       <c r="X36" s="8">
+        <v>21833.621377352854</v>
+      </c>
+      <c r="Y36" s="8">
         <v>21683</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="6">
-        <v>4724.1341882348852</v>
+        <v>4719.7011564661316</v>
       </c>
       <c r="C37" s="6">
-        <v>4775.7593056425249</v>
+        <v>4771.2778299099855</v>
       </c>
       <c r="D37" s="6">
-        <v>4771.2162953106517</v>
+        <v>4766.7390826469264</v>
       </c>
       <c r="E37" s="6">
-        <v>4947.3382514088926</v>
+        <v>4942.6957694713792</v>
       </c>
       <c r="F37" s="6">
-        <v>5120.2479779795449</v>
+        <v>5115.4432410593263</v>
       </c>
       <c r="G37" s="6">
-        <v>5101.2040457802823</v>
+        <v>5096.4171793000387</v>
       </c>
       <c r="H37" s="6">
-        <v>5193.7162561747728</v>
+        <v>5188.8425781114238</v>
       </c>
       <c r="I37" s="6">
-        <v>5195.1388149655604</v>
+        <v>5190.2638020018767</v>
       </c>
       <c r="J37" s="6">
-        <v>5074.9555416405765</v>
+        <v>5070.1933062245862</v>
       </c>
       <c r="K37" s="6">
-        <v>2535.7798780699923</v>
+        <v>2533.4003536301393</v>
       </c>
       <c r="L37" s="6">
-        <v>4259.1410196201214</v>
+        <v>4255.1443280158483</v>
       </c>
       <c r="M37" s="6">
-        <v>4181.9557329715444</v>
+        <v>4178.0314704757939</v>
       </c>
       <c r="N37" s="6">
-        <v>4297.0453280456413</v>
+        <v>4293.0130678066243</v>
       </c>
       <c r="O37" s="6">
-        <v>4969.5485241424904</v>
+        <v>4964.8852005352237</v>
       </c>
       <c r="P37" s="6">
-        <v>5093.586472900578</v>
+        <v>5088.8067545963231</v>
       </c>
       <c r="Q37" s="6">
-        <v>5490.3427085507556</v>
+        <v>5485.1906822368192</v>
       </c>
       <c r="R37" s="6">
-        <v>5183.8501226257567</v>
+        <v>5178.985702742154</v>
       </c>
       <c r="S37" s="6">
-        <v>5131.903782265359</v>
+        <v>5127.0881077746499</v>
       </c>
       <c r="T37" s="6">
-        <v>5153.0127191609272</v>
+        <v>5148.1772364716926</v>
       </c>
       <c r="U37" s="6">
-        <v>5149.846378626592</v>
+        <v>5145.0138671671366</v>
       </c>
       <c r="V37" s="6">
-        <v>5414.9012036457252</v>
+        <v>5409.8199701108679</v>
       </c>
       <c r="W37" s="6">
-        <v>5237.1272437904408</v>
+        <v>5232.2128297362115</v>
       </c>
       <c r="X37" s="8">
+        <v>5271.5486393493902</v>
+      </c>
+      <c r="Y37" s="8">
         <v>5276.5</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="6">
-        <v>68697.921902995731</v>
+        <v>68683.551592629228</v>
       </c>
       <c r="C38" s="6">
-        <v>70890.104054208263</v>
+        <v>70875.275180656448</v>
       </c>
       <c r="D38" s="6">
-        <v>69607.511999999988</v>
+        <v>69592.951420530182</v>
       </c>
       <c r="E38" s="6">
-        <v>69499.939763195434</v>
+        <v>69485.401685809906</v>
       </c>
       <c r="F38" s="6">
-        <v>70572.479520684734</v>
+        <v>70557.717088198391</v>
       </c>
       <c r="G38" s="6">
-        <v>70669.86740370898</v>
+        <v>70655.084599513182</v>
       </c>
       <c r="H38" s="6">
-        <v>70902.197974322393</v>
+        <v>70887.366570950457</v>
       </c>
       <c r="I38" s="6">
-        <v>69203.320459343784</v>
+        <v>69188.844429125631</v>
       </c>
       <c r="J38" s="6">
-        <v>62358.161674750358</v>
+        <v>62345.117522724686</v>
       </c>
       <c r="K38" s="6">
-        <v>27835.748447931528</v>
+        <v>27829.925734035678</v>
       </c>
       <c r="L38" s="6">
-        <v>43760.895149786018</v>
+        <v>43751.741195375202</v>
       </c>
       <c r="M38" s="6">
-        <v>42809.294593437946</v>
+        <v>42800.339695926668</v>
       </c>
       <c r="N38" s="6">
-        <v>46538.677643366624</v>
+        <v>46528.942629216908</v>
       </c>
       <c r="O38" s="6">
-        <v>58283.783640513553</v>
+        <v>58271.591771574189</v>
       </c>
       <c r="P38" s="6">
-        <v>64341.564573466472</v>
+        <v>64328.105530939793</v>
       </c>
       <c r="Q38" s="6">
-        <v>64484.145526390872</v>
+        <v>64470.656658616368</v>
       </c>
       <c r="R38" s="6">
-        <v>60629.367620542085</v>
+        <v>60616.685099646304</v>
       </c>
       <c r="S38" s="6">
-        <v>65015.641489300993</v>
+        <v>65002.041442589289</v>
       </c>
       <c r="T38" s="6">
-        <v>65839.937623395148</v>
+        <v>65826.165149469438</v>
       </c>
       <c r="U38" s="6">
-        <v>63088.252536376611</v>
+        <v>63075.055663104256</v>
       </c>
       <c r="V38" s="6">
-        <v>67560.456890156915</v>
+        <v>67546.324516030902</v>
       </c>
       <c r="W38" s="6">
-        <v>66572.574573466467</v>
+        <v>66558.648845700372</v>
       </c>
       <c r="X38" s="8">
+        <v>66916.299442817486</v>
+      </c>
+      <c r="Y38" s="8">
         <v>66930.3</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="6">
-        <v>22933.732922439292</v>
+        <v>22999.071192873591</v>
       </c>
       <c r="C39" s="6">
-        <v>23183.377242566934</v>
+        <v>23249.426750380517</v>
       </c>
       <c r="D39" s="6">
-        <v>22985.989366049191</v>
+        <v>23051.476515240214</v>
       </c>
       <c r="E39" s="6">
-        <v>23586.596176447692</v>
+        <v>23653.794456152675</v>
       </c>
       <c r="F39" s="6">
-        <v>23969.049449330636</v>
+        <v>24037.337339499671</v>
       </c>
       <c r="G39" s="6">
-        <v>23819.582328961707</v>
+        <v>23887.444386878975</v>
       </c>
       <c r="H39" s="6">
-        <v>24042.527942092154</v>
+        <v>24111.025172696405</v>
       </c>
       <c r="I39" s="6">
-        <v>23882.792088262762</v>
+        <v>23950.834230964367</v>
       </c>
       <c r="J39" s="6">
-        <v>21580.77024050436</v>
+        <v>21642.253916403231</v>
       </c>
       <c r="K39" s="6">
-        <v>13564.54051311488</v>
+        <v>13603.18592768216</v>
       </c>
       <c r="L39" s="6">
-        <v>21587.387868734433</v>
+        <v>21648.890398274987</v>
       </c>
       <c r="M39" s="6">
-        <v>20422.000718010586</v>
+        <v>20480.183056238537</v>
       </c>
       <c r="N39" s="6">
-        <v>20730.975498132004</v>
+        <v>20790.038106388791</v>
       </c>
       <c r="O39" s="6">
-        <v>23774.856289889478</v>
+        <v>23842.590923194006</v>
       </c>
       <c r="P39" s="6">
-        <v>23701.149603051057</v>
+        <v>23768.674245794791</v>
       </c>
       <c r="Q39" s="6">
-        <v>23342.200320088727</v>
+        <v>23408.702315302657</v>
       </c>
       <c r="R39" s="6">
-        <v>22342.253875116752</v>
+        <v>22405.907020060102</v>
       </c>
       <c r="S39" s="6">
-        <v>23139.563979802304</v>
+        <v>23205.488663505443</v>
       </c>
       <c r="T39" s="6">
-        <v>23251.150883405975</v>
+        <v>23317.393478515394</v>
       </c>
       <c r="U39" s="6">
-        <v>23277.621396326274</v>
+        <v>23343.939406002417</v>
       </c>
       <c r="V39" s="6">
-        <v>24010.124383172482</v>
+        <v>24078.529295945049</v>
       </c>
       <c r="W39" s="6">
-        <v>23327.824093244082</v>
+        <v>23394.285130546774</v>
       </c>
       <c r="X39" s="8">
+        <v>23521.52250712251</v>
+      </c>
+      <c r="Y39" s="8">
         <v>23454.7</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="6">
-        <v>1810.0625574596022</v>
+        <v>1835.5733123913353</v>
       </c>
       <c r="C40" s="6">
-        <v>1857.6800260069406</v>
+        <v>1883.8618945228836</v>
       </c>
       <c r="D40" s="6">
-        <v>1893.3557053761481</v>
+        <v>1920.0403816595131</v>
       </c>
       <c r="E40" s="6">
-        <v>1963.1602864076463</v>
+        <v>1990.828778168807</v>
       </c>
       <c r="F40" s="6">
-        <v>2025.5303552349319</v>
+        <v>2054.0778815545232</v>
       </c>
       <c r="G40" s="6">
-        <v>2048.199796251356</v>
+        <v>2077.0668223317848</v>
       </c>
       <c r="H40" s="6">
-        <v>2062.1207956136063</v>
+        <v>2091.184022207477</v>
       </c>
       <c r="I40" s="6">
-        <v>1966.0875216379402</v>
+        <v>1993.7972694210434</v>
       </c>
       <c r="J40" s="6">
-        <v>1613.4055724425818</v>
+        <v>1636.1446728092794</v>
       </c>
       <c r="K40" s="6">
-        <v>1171.6259009251514</v>
+        <v>1188.1386237075735</v>
       </c>
       <c r="L40" s="6">
-        <v>1571.2267738969826</v>
+        <v>1593.3714124929656</v>
       </c>
       <c r="M40" s="6">
-        <v>1404.4741578803516</v>
+        <v>1424.2686096809146</v>
       </c>
       <c r="N40" s="6">
-        <v>1770.2288735019092</v>
+        <v>1795.1782183623245</v>
       </c>
       <c r="O40" s="6">
-        <v>1939.3099720880921</v>
+        <v>1966.642321034109</v>
       </c>
       <c r="P40" s="6">
-        <v>1949.1893909903342</v>
+        <v>1976.6609790104064</v>
       </c>
       <c r="Q40" s="6">
-        <v>2032.1997945948633</v>
+        <v>2060.8413190099027</v>
       </c>
       <c r="R40" s="6">
-        <v>2022.9024963350091</v>
+        <v>2051.4129859985387</v>
       </c>
       <c r="S40" s="6">
-        <v>2023.035552481841</v>
+        <v>2051.547917419095</v>
       </c>
       <c r="T40" s="6">
-        <v>2037.1727680826921</v>
+        <v>2065.8843808531901</v>
       </c>
       <c r="U40" s="6">
-        <v>2004.7237002741499</v>
+        <v>2032.9779806650486</v>
       </c>
       <c r="V40" s="6">
-        <v>2028.8567589057207</v>
+        <v>2057.4511670684283</v>
       </c>
       <c r="W40" s="6">
-        <v>1995.8920985282059</v>
+        <v>2024.021907625631</v>
       </c>
       <c r="X40" s="8">
+        <v>2036.4018654616618</v>
+      </c>
+      <c r="Y40" s="8">
         <v>2008.1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="6">
-        <v>22967.617814621437</v>
+        <v>23056.873317346428</v>
       </c>
       <c r="C41" s="6">
-        <v>23218.04318638883</v>
+        <v>23308.271878524785</v>
       </c>
       <c r="D41" s="6">
-        <v>23190.427947466316</v>
+        <v>23280.549322768074</v>
       </c>
       <c r="E41" s="6">
-        <v>23642.893015965939</v>
+        <v>23734.772736320294</v>
       </c>
       <c r="F41" s="6">
-        <v>23723.378455902486</v>
+        <v>23815.570954380444</v>
       </c>
       <c r="G41" s="6">
-        <v>23854.845875388291</v>
+        <v>23947.549275376059</v>
       </c>
       <c r="H41" s="6">
-        <v>23973.095744620587</v>
+        <v>24066.258680795811</v>
       </c>
       <c r="I41" s="6">
-        <v>23932.026927761464</v>
+        <v>24025.030264542242</v>
       </c>
       <c r="J41" s="6">
-        <v>21684.099273932377</v>
+        <v>21768.366836961985</v>
       </c>
       <c r="K41" s="6">
-        <v>14102.41803744583</v>
+        <v>14157.222084680059</v>
       </c>
       <c r="L41" s="6">
-        <v>20961.854563651301</v>
+        <v>21043.315378709613</v>
       </c>
       <c r="M41" s="6">
-        <v>19372.208117983628</v>
+        <v>19447.491335791397</v>
       </c>
       <c r="N41" s="6">
-        <v>21847.666458319567</v>
+        <v>21932.569667213254</v>
       </c>
       <c r="O41" s="6">
-        <v>23952.561336191025</v>
+        <v>24045.644472669024</v>
       </c>
       <c r="P41" s="6">
-        <v>24472.05826669059</v>
+        <v>24567.160243784539</v>
       </c>
       <c r="Q41" s="6">
-        <v>24860.795860753642</v>
+        <v>24957.408528667431</v>
       </c>
       <c r="R41" s="6">
-        <v>24380.951581014608</v>
+        <v>24475.699504279499</v>
       </c>
       <c r="S41" s="6">
-        <v>24679.998655500272</v>
+        <v>24775.908719183339</v>
       </c>
       <c r="T41" s="6">
-        <v>24711.626365035452</v>
+        <v>24807.659338597005</v>
       </c>
       <c r="U41" s="6">
-        <v>24366.317864662509</v>
+        <v>24461.008919177657</v>
       </c>
       <c r="V41" s="6">
-        <v>25328.838756337751</v>
+        <v>25427.270307005492</v>
       </c>
       <c r="W41" s="6">
-        <v>24873.069300274758</v>
+        <v>24969.729664559305</v>
       </c>
       <c r="X41" s="8">
+        <v>25095.547417608977</v>
+      </c>
+      <c r="Y41" s="8">
         <v>24998.400000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="6">
-        <v>7438.4150612943595</v>
+        <v>7382.2950521546918</v>
       </c>
       <c r="C42" s="6">
-        <v>7505.6636044028846</v>
+        <v>7449.0362306132502</v>
       </c>
       <c r="D42" s="6">
-        <v>7458.6123177735217</v>
+        <v>7402.3399280246967</v>
       </c>
       <c r="E42" s="6">
-        <v>7711.9479430496231</v>
+        <v>7653.7642324765711</v>
       </c>
       <c r="F42" s="6">
-        <v>8025.1945313650413</v>
+        <v>7964.6474945653163</v>
       </c>
       <c r="G42" s="6">
-        <v>7949.0955050802522</v>
+        <v>7889.122606455855</v>
       </c>
       <c r="H42" s="6">
-        <v>8048.6445295243702</v>
+        <v>7987.9205714181326</v>
       </c>
       <c r="I42" s="6">
-        <v>7876.1735753202756</v>
+        <v>7816.7508448877434</v>
       </c>
       <c r="J42" s="6">
-        <v>7407.3249024444103</v>
+        <v>7351.4394567143454</v>
       </c>
       <c r="K42" s="6">
-        <v>4902.1842926299514</v>
+        <v>4865.1991788604519</v>
       </c>
       <c r="L42" s="6">
-        <v>7523.1376352893521</v>
+        <v>7466.3784265906716</v>
       </c>
       <c r="M42" s="6">
-        <v>7349.4563585996157</v>
+        <v>7294.0075089969123</v>
       </c>
       <c r="N42" s="6">
-        <v>8174.6693583419228</v>
+        <v>8112.9945908916534</v>
       </c>
       <c r="O42" s="6">
-        <v>8645.7117407230144</v>
+        <v>8580.4831378674116</v>
       </c>
       <c r="P42" s="6">
-        <v>8413.1785331688989</v>
+        <v>8349.7043048172291</v>
       </c>
       <c r="Q42" s="6">
-        <v>9147.3904110219391</v>
+        <v>9078.376833634753</v>
       </c>
       <c r="R42" s="6">
-        <v>8205.6082268811642</v>
+        <v>8143.7000374490772</v>
       </c>
       <c r="S42" s="6">
-        <v>8209.3148394934451</v>
+        <v>8147.3786850806518</v>
       </c>
       <c r="T42" s="6">
-        <v>8165.7432300103055</v>
+        <v>8104.1358067992896</v>
       </c>
       <c r="U42" s="6">
-        <v>8202.960646443822</v>
+        <v>8141.0724319979536</v>
       </c>
       <c r="V42" s="6">
-        <v>8437.3093377264013</v>
+        <v>8373.6530516431922</v>
       </c>
       <c r="W42" s="6">
-        <v>8183.5954866735374</v>
+        <v>8121.8533749840144</v>
       </c>
       <c r="X42" s="8">
+        <v>8157.2885113534649</v>
+      </c>
+      <c r="Y42" s="8">
         <v>8219.2999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="6">
-        <v>11588.911161976104</v>
+        <v>11585.696763456705</v>
       </c>
       <c r="C43" s="6">
-        <v>11687.189547243754</v>
+        <v>11683.947889399324</v>
       </c>
       <c r="D43" s="6">
-        <v>11608.589200436976</v>
+        <v>11605.369343850221</v>
       </c>
       <c r="E43" s="6">
-        <v>11905.325075863982</v>
+        <v>11902.022914102452</v>
       </c>
       <c r="F43" s="6">
-        <v>11683.723529105759</v>
+        <v>11680.482832625465</v>
       </c>
       <c r="G43" s="6">
-        <v>11600.874514904022</v>
+        <v>11597.656798127762</v>
       </c>
       <c r="H43" s="6">
-        <v>11630.726993705459</v>
+        <v>11627.500996792927</v>
       </c>
       <c r="I43" s="6">
-        <v>11692.891706115939</v>
+        <v>11689.648466672446</v>
       </c>
       <c r="J43" s="6">
-        <v>11510.08720109591</v>
+        <v>11506.894665857675</v>
       </c>
       <c r="K43" s="6">
-        <v>5329.2824047581898</v>
+        <v>5327.8042298691162</v>
       </c>
       <c r="L43" s="6">
-        <v>9415.2705613067683</v>
+        <v>9412.6590621478717</v>
       </c>
       <c r="M43" s="6">
-        <v>8905.6540879848799</v>
+        <v>8903.1839403657796</v>
       </c>
       <c r="N43" s="6">
-        <v>8492.862508453416</v>
+        <v>8490.5068562017859</v>
       </c>
       <c r="O43" s="6">
-        <v>10162.476987636339</v>
+        <v>10159.658236976684</v>
       </c>
       <c r="P43" s="6">
-        <v>10848.524964885815</v>
+        <v>10845.515926150645</v>
       </c>
       <c r="Q43" s="6">
-        <v>11660.467665470183</v>
+        <v>11657.233419433127</v>
       </c>
       <c r="R43" s="6">
-        <v>11913.934217690616</v>
+        <v>11910.629668024618</v>
       </c>
       <c r="S43" s="6">
-        <v>12338.465536076577</v>
+        <v>12335.043234809742</v>
       </c>
       <c r="T43" s="6">
-        <v>12589.248719415978</v>
+        <v>12585.756858802113</v>
       </c>
       <c r="U43" s="6">
-        <v>12597.746054205902</v>
+        <v>12594.251836699315</v>
       </c>
       <c r="V43" s="6">
-        <v>13226.325214586694</v>
+        <v>13222.656649042212</v>
       </c>
       <c r="W43" s="6">
-        <v>12807.943283219756</v>
+        <v>12804.390763630059</v>
       </c>
       <c r="X43" s="8">
+        <v>12892.023167201178</v>
+      </c>
+      <c r="Y43" s="8">
         <v>12895.6</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="6">
-        <v>25509.064080209238</v>
+        <v>25506.912021934757</v>
       </c>
       <c r="C44" s="6">
-        <v>25805.883609415865</v>
+        <v>25803.706510123731</v>
       </c>
       <c r="D44" s="6">
-        <v>25577.463818657365</v>
+        <v>25575.305989876262</v>
       </c>
       <c r="E44" s="6">
-        <v>25877.059721011334</v>
+        <v>25874.876616985377</v>
       </c>
       <c r="F44" s="6">
-        <v>26478.775501307759</v>
+        <v>26476.541633858265</v>
       </c>
       <c r="G44" s="6">
-        <v>26647.377070619004</v>
+        <v>26645.1289791901</v>
       </c>
       <c r="H44" s="6">
-        <v>26700.128160418484</v>
+        <v>26697.875618672664</v>
       </c>
       <c r="I44" s="6">
-        <v>26631.476024411506</v>
+        <v>26629.229274465688</v>
       </c>
       <c r="J44" s="6">
-        <v>24675.899738448126</v>
+        <v>24673.817969628799</v>
       </c>
       <c r="K44" s="6">
-        <v>12748.853095030514</v>
+        <v>12747.777544994377</v>
       </c>
       <c r="L44" s="6">
-        <v>21004.524847428071</v>
+        <v>21002.752812148479</v>
       </c>
       <c r="M44" s="6">
-        <v>19819.518308631214</v>
+        <v>19817.84624578178</v>
       </c>
       <c r="N44" s="6">
-        <v>21254.903225806451</v>
+        <v>21253.110067491561</v>
       </c>
       <c r="O44" s="6">
-        <v>25173.37532693984</v>
+        <v>25171.251588863888</v>
       </c>
       <c r="P44" s="6">
-        <v>26100.179163034001</v>
+        <v>26097.97723565804</v>
       </c>
       <c r="Q44" s="6">
-        <v>26407.851787271138</v>
+        <v>26405.623903262091</v>
       </c>
       <c r="R44" s="6">
-        <v>25307.903225806447</v>
+        <v>25305.768138357704</v>
       </c>
       <c r="S44" s="6">
-        <v>25887.660418482996</v>
+        <v>25885.476420134983</v>
       </c>
       <c r="T44" s="6">
-        <v>25970.951612903227</v>
+        <v>25968.760587739034</v>
       </c>
       <c r="U44" s="6">
-        <v>25436.373583260676</v>
+        <v>25434.227657480311</v>
       </c>
       <c r="V44" s="6">
-        <v>26982.561028770706</v>
+        <v>26980.284659730034</v>
       </c>
       <c r="W44" s="6">
-        <v>26738.744986922404</v>
+        <v>26736.489187289088</v>
       </c>
       <c r="X44" s="8">
+        <v>26921.228613610801</v>
+      </c>
+      <c r="Y44" s="8">
         <v>26923.5</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="6">
-        <v>3054.104543097536</v>
+        <v>3103.7105418384258</v>
       </c>
       <c r="C45" s="6">
-        <v>3131.730442600739</v>
+        <v>3182.5972725341039</v>
       </c>
       <c r="D45" s="6">
-        <v>3134.1264933174984</v>
+        <v>3185.0322408737411</v>
       </c>
       <c r="E45" s="6">
-        <v>3390.9339803957646</v>
+        <v>3446.0108988143302</v>
       </c>
       <c r="F45" s="6">
-        <v>3537.3081043105899</v>
+        <v>3594.7624903319024</v>
       </c>
       <c r="G45" s="6">
-        <v>3489.2642155796798</v>
+        <v>3545.9382533678977</v>
       </c>
       <c r="H45" s="6">
-        <v>3514.3613109077833</v>
+        <v>3571.4429858484555</v>
       </c>
       <c r="I45" s="6">
-        <v>3474.0892277068733</v>
+        <v>3530.5167872168627</v>
       </c>
       <c r="J45" s="6">
-        <v>3280.8692404195172</v>
+        <v>3334.158442905104</v>
       </c>
       <c r="K45" s="6">
-        <v>1782.5388588729236</v>
+        <v>1811.49157451872</v>
       </c>
       <c r="L45" s="6">
-        <v>2961.3650929193918</v>
+        <v>3009.464780077345</v>
       </c>
       <c r="M45" s="6">
-        <v>2673.470383721125</v>
+        <v>2716.8939688071055</v>
       </c>
       <c r="N45" s="6">
-        <v>2950.5828646939767</v>
+        <v>2998.507422548978</v>
       </c>
       <c r="O45" s="6">
-        <v>3491.1994873124468</v>
+        <v>3547.904958565297</v>
       </c>
       <c r="P45" s="6">
-        <v>3591.5878686248598</v>
+        <v>3649.9238884875267</v>
       </c>
       <c r="Q45" s="6">
-        <v>3596.4414072562431</v>
+        <v>3654.856260252433</v>
       </c>
       <c r="R45" s="6">
-        <v>3476.7310272150949</v>
+        <v>3533.2014958990271</v>
       </c>
       <c r="S45" s="6">
-        <v>3594.5061355234766</v>
+        <v>3652.8895550550337</v>
       </c>
       <c r="T45" s="6">
-        <v>3620.2483214291688</v>
+        <v>3679.0498559347243</v>
       </c>
       <c r="U45" s="6">
-        <v>3481.7688774400749</v>
+        <v>3538.3211729208278</v>
       </c>
       <c r="V45" s="6">
-        <v>3696.215416590001</v>
+        <v>3756.2508393183466</v>
       </c>
       <c r="W45" s="6">
-        <v>3629.2181523175486</v>
+        <v>3688.1653784369555</v>
       </c>
       <c r="X45" s="8">
+        <v>3732.5567243211085</v>
+      </c>
+      <c r="Y45" s="8">
         <v>3672.9</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="6">
-        <v>13613.082592409612</v>
+        <v>13432.573896703629</v>
       </c>
       <c r="C46" s="6">
-        <v>13845.731363125982</v>
+        <v>13662.137758041501</v>
       </c>
       <c r="D46" s="6">
-        <v>13727.476006287894</v>
+        <v>13545.450460463921</v>
       </c>
       <c r="E46" s="6">
-        <v>14014.05880799461</v>
+        <v>13828.233190629404</v>
       </c>
       <c r="F46" s="6">
-        <v>13400.94207051426</v>
+        <v>13223.246345981688</v>
       </c>
       <c r="G46" s="6">
-        <v>13323.037359083764</v>
+        <v>13146.374646564027</v>
       </c>
       <c r="H46" s="6">
-        <v>13473.120452728499</v>
+        <v>13294.467646980615</v>
       </c>
       <c r="I46" s="6">
-        <v>13359.126550190884</v>
+        <v>13181.985297063491</v>
       </c>
       <c r="J46" s="6">
-        <v>11924.348155400854</v>
+        <v>11766.231981634624</v>
       </c>
       <c r="K46" s="6">
-        <v>8286.7973986076795</v>
+        <v>8176.9149395945797</v>
       </c>
       <c r="L46" s="6">
-        <v>11607.66883269706</v>
+        <v>11453.751808617191</v>
       </c>
       <c r="M46" s="6">
-        <v>11137.976666516955</v>
+        <v>10990.287733666604</v>
       </c>
       <c r="N46" s="6">
-        <v>12464.354317538739</v>
+        <v>12299.07769298269</v>
       </c>
       <c r="O46" s="6">
-        <v>13799.254877161464</v>
+        <v>13616.277547619682</v>
       </c>
       <c r="P46" s="6">
-        <v>13843.467465528858</v>
+        <v>13659.903879596885</v>
       </c>
       <c r="Q46" s="6">
-        <v>14016.722216932407</v>
+        <v>13830.861282917189</v>
       </c>
       <c r="R46" s="6">
-        <v>14063.465043790704</v>
+        <v>13876.984302567786</v>
       </c>
       <c r="S46" s="6">
-        <v>14238.184670110038</v>
+        <v>14049.387156646371</v>
       </c>
       <c r="T46" s="6">
-        <v>14336.064948573996</v>
+        <v>14145.969548222407</v>
       </c>
       <c r="U46" s="6">
-        <v>14240.049056366495</v>
+        <v>14051.226821247817</v>
       </c>
       <c r="V46" s="6">
-        <v>14909.097381540532</v>
+        <v>14711.403603938985</v>
       </c>
       <c r="W46" s="6">
-        <v>14788.311786211543</v>
+        <v>14592.219618688012</v>
       </c>
       <c r="X46" s="8">
+        <v>14628.618696873811</v>
+      </c>
+      <c r="Y46" s="8">
         <v>14825.2</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="6">
-        <v>2388.229188863013</v>
+        <v>2385.5301419274638</v>
       </c>
       <c r="C47" s="6">
-        <v>2413.7127464383702</v>
+        <v>2410.9848993699438</v>
       </c>
       <c r="D47" s="6">
-        <v>2379.5149838300599</v>
+        <v>2376.8257852158113</v>
       </c>
       <c r="E47" s="6">
-        <v>2400.5315959683576</v>
+        <v>2397.818645520385</v>
       </c>
       <c r="F47" s="6">
-        <v>2228.1270297281753</v>
+        <v>2225.6089215584711</v>
       </c>
       <c r="G47" s="6">
-        <v>2221.2191305003726</v>
+        <v>2218.7088292632393</v>
       </c>
       <c r="H47" s="6">
-        <v>2242.3577903282071</v>
+        <v>2239.8235993256799</v>
       </c>
       <c r="I47" s="6">
-        <v>2200.739528196038</v>
+        <v>2198.2523718932766</v>
       </c>
       <c r="J47" s="6">
-        <v>1979.4182479893645</v>
+        <v>1977.1812169785555</v>
       </c>
       <c r="K47" s="6">
-        <v>1393.5405191352147</v>
+        <v>1391.9656153172416</v>
       </c>
       <c r="L47" s="6">
-        <v>2047.0570775308547</v>
+        <v>2044.7436047880508</v>
       </c>
       <c r="M47" s="6">
-        <v>1914.2447817765246</v>
+        <v>1912.0814062779596</v>
       </c>
       <c r="N47" s="6">
-        <v>2061.8736670406652</v>
+        <v>2059.5434493930175</v>
       </c>
       <c r="O47" s="6">
-        <v>2283.1949472473389</v>
+        <v>2280.6146043077388</v>
       </c>
       <c r="P47" s="6">
-        <v>2318.5643676752056</v>
+        <v>2315.9440521373886</v>
       </c>
       <c r="Q47" s="6">
-        <v>2352.6644921318862</v>
+        <v>2350.0056384852282</v>
       </c>
       <c r="R47" s="6">
-        <v>2678.4097755065482</v>
+        <v>2675.3827822303424</v>
       </c>
       <c r="S47" s="6">
-        <v>2643.7970507538116</v>
+        <v>2640.8091748994648</v>
       </c>
       <c r="T47" s="6">
-        <v>2612.211108701596</v>
+        <v>2609.2589295636699</v>
       </c>
       <c r="U47" s="6">
-        <v>2596.8330998199144</v>
+        <v>2593.8983000725179</v>
       </c>
       <c r="V47" s="6">
-        <v>2655.4648098735634</v>
+        <v>2652.4637477514807</v>
       </c>
       <c r="W47" s="6">
-        <v>2568.8841789159069</v>
+        <v>2565.9809655211384</v>
       </c>
       <c r="X47" s="8">
+        <v>2585.9741658112098</v>
+      </c>
+      <c r="Y47" s="8">
         <v>2588.9</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="6">
-        <v>18470.401800636431</v>
+        <v>18369.964941291499</v>
       </c>
       <c r="C48" s="6">
-        <v>18711.273025810846</v>
+        <v>18609.526376369078</v>
       </c>
       <c r="D48" s="6">
-        <v>19025.341218879086</v>
+        <v>18921.886754779443</v>
       </c>
       <c r="E48" s="6">
-        <v>19261.442716822323</v>
+        <v>19156.704399063408</v>
       </c>
       <c r="F48" s="6">
-        <v>19859.493131192921</v>
+        <v>19751.502783185952</v>
       </c>
       <c r="G48" s="6">
-        <v>19887.194239343218</v>
+        <v>19779.053260487337</v>
       </c>
       <c r="H48" s="6">
-        <v>19978.00250778292</v>
+        <v>19869.367739058089</v>
       </c>
       <c r="I48" s="6">
-        <v>19597.708486620268</v>
+        <v>19491.141650013291</v>
       </c>
       <c r="J48" s="6">
-        <v>17693.670066144066</v>
+        <v>17597.45685590044</v>
       </c>
       <c r="K48" s="6">
-        <v>10044.678646763079</v>
+        <v>9990.0585043699011</v>
       </c>
       <c r="L48" s="6">
-        <v>16351.35875266258</v>
+        <v>16262.444654481829</v>
       </c>
       <c r="M48" s="6">
-        <v>16404.192654300226</v>
+        <v>16314.991260195722</v>
       </c>
       <c r="N48" s="6">
-        <v>17342.177859415828</v>
+        <v>17247.875965109397</v>
       </c>
       <c r="O48" s="6">
-        <v>19324.91677920644</v>
+        <v>19219.833307316901</v>
       </c>
       <c r="P48" s="6">
-        <v>19527.813637578798</v>
+        <v>19421.626869537624</v>
       </c>
       <c r="Q48" s="6">
-        <v>20824.0787381747</v>
+        <v>20710.843244448639</v>
       </c>
       <c r="R48" s="6">
-        <v>21164.013528919702</v>
+        <v>21048.929565239763</v>
       </c>
       <c r="S48" s="6">
-        <v>21638.968290516474</v>
+        <v>21521.301656188622</v>
       </c>
       <c r="T48" s="6">
-        <v>21550.361434645001</v>
+        <v>21433.176619522608</v>
       </c>
       <c r="U48" s="6">
-        <v>21501.746907096469</v>
+        <v>21384.826444126145</v>
       </c>
       <c r="V48" s="6">
-        <v>21673.457087418828</v>
+        <v>21555.6029126963</v>
       </c>
       <c r="W48" s="6">
-        <v>21092.651071499411</v>
+        <v>20977.955156827597</v>
       </c>
       <c r="X48" s="8">
+        <v>21157.124486032608</v>
+      </c>
+      <c r="Y48" s="8">
         <v>21272.799999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="6">
-        <v>66560.898939457213</v>
+        <v>66582.521655838136</v>
       </c>
       <c r="C49" s="6">
-        <v>67515.971599164928</v>
+        <v>67537.904576758869</v>
       </c>
       <c r="D49" s="6">
-        <v>67448.294722338207</v>
+        <v>67470.2057146835</v>
       </c>
       <c r="E49" s="6">
-        <v>69562.851832985383</v>
+        <v>69585.449752181186</v>
       </c>
       <c r="F49" s="6">
-        <v>68756.944534446753</v>
+        <v>68779.280649712266</v>
       </c>
       <c r="G49" s="6">
-        <v>68991.741862212948</v>
+        <v>69014.154252830893</v>
       </c>
       <c r="H49" s="6">
-        <v>71773.399615866394</v>
+        <v>71796.715645071483</v>
       </c>
       <c r="I49" s="6">
-        <v>69814.223089770356</v>
+        <v>69836.902668461116</v>
       </c>
       <c r="J49" s="6">
-        <v>63009.244066805841</v>
+        <v>63029.713006311489</v>
       </c>
       <c r="K49" s="6">
-        <v>44413.295707724428</v>
+        <v>44427.723639316879</v>
       </c>
       <c r="L49" s="6">
-        <v>59113.680167014609</v>
+        <v>59132.883608687582</v>
       </c>
       <c r="M49" s="6">
-        <v>56732.559031315235</v>
+        <v>56750.98895117877</v>
       </c>
       <c r="N49" s="6">
-        <v>60106.044167014617</v>
+        <v>60125.569984221285</v>
       </c>
       <c r="O49" s="6">
-        <v>69584.259824634646</v>
+        <v>69606.864698347883</v>
       </c>
       <c r="P49" s="6">
-        <v>71751.991624217117</v>
+        <v>71775.300698904772</v>
       </c>
       <c r="Q49" s="6">
-        <v>72983.987014613784</v>
+        <v>73007.696310562475</v>
       </c>
       <c r="R49" s="6">
-        <v>72273.37980793319</v>
+        <v>72296.858258771128</v>
       </c>
       <c r="S49" s="6">
-        <v>74199.408475991644</v>
+        <v>74223.512609058846</v>
       </c>
       <c r="T49" s="6">
-        <v>74829.217778705628</v>
+        <v>74853.5265091888</v>
       </c>
       <c r="U49" s="6">
-        <v>74564.034914405012</v>
+        <v>74588.257498607767</v>
       </c>
       <c r="V49" s="6">
-        <v>75581.950388308978</v>
+        <v>75606.503648598489</v>
       </c>
       <c r="W49" s="6">
-        <v>73828.566814196238</v>
+        <v>73852.550477074445</v>
       </c>
       <c r="X49" s="8">
+        <v>74451.478165026929</v>
+      </c>
+      <c r="Y49" s="8">
         <v>74427.3</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="6">
-        <v>6503.0625685105151</v>
+        <v>6529.1790746157703</v>
       </c>
       <c r="C50" s="6">
-        <v>6619.8292343723588</v>
+        <v>6646.4146791214825</v>
       </c>
       <c r="D50" s="6">
-        <v>6673.9466917771288</v>
+        <v>6700.7494739563972</v>
       </c>
       <c r="E50" s="6">
-        <v>6878.3350637017011</v>
+        <v>6905.958676083198</v>
       </c>
       <c r="F50" s="6">
-        <v>6960.912449799197</v>
+        <v>6988.8676955896372</v>
       </c>
       <c r="G50" s="6">
-        <v>7081.9761289647568</v>
+        <v>7110.4175703411602</v>
       </c>
       <c r="H50" s="6">
-        <v>7324.4771406266354</v>
+        <v>7353.8924737786247</v>
       </c>
       <c r="I50" s="6">
-        <v>7129.8037553017684</v>
+        <v>7158.4372739467008</v>
       </c>
       <c r="J50" s="6">
-        <v>6326.0131652863956</v>
+        <v>6351.4186353572404</v>
       </c>
       <c r="K50" s="6">
-        <v>4573.3299418113338</v>
+        <v>4591.6965803125559</v>
       </c>
       <c r="L50" s="6">
-        <v>6059.7228915662654</v>
+        <v>6084.0589314284789</v>
       </c>
       <c r="M50" s="6">
-        <v>5836.0913731076616</v>
+        <v>5859.5293016791375</v>
       </c>
       <c r="N50" s="6">
-        <v>6263.8621612703319</v>
+        <v>6289.0180309323332</v>
       </c>
       <c r="O50" s="6">
-        <v>7156.8313462265896</v>
+        <v>7185.5734085362892</v>
       </c>
       <c r="P50" s="6">
-        <v>7355.6771937449194</v>
+        <v>7385.2178273025511</v>
       </c>
       <c r="Q50" s="6">
-        <v>7444.9803397960577</v>
+        <v>7474.8796176285214</v>
       </c>
       <c r="R50" s="6">
-        <v>7344.156216046551</v>
+        <v>7373.6505809913224</v>
       </c>
       <c r="S50" s="6">
-        <v>7532.4774947485321</v>
+        <v>7562.7281639381345</v>
       </c>
       <c r="T50" s="6">
-        <v>7523.5720903654701</v>
+        <v>7553.7869951678331</v>
       </c>
       <c r="U50" s="6">
-        <v>7652.4824894769454</v>
+        <v>7683.2151025421399</v>
       </c>
       <c r="V50" s="6">
-        <v>7773.110239756621</v>
+        <v>7804.3272977035094</v>
       </c>
       <c r="W50" s="6">
-        <v>7727.0886045182724</v>
+        <v>7758.1208381143233</v>
       </c>
       <c r="X50" s="8">
+        <v>7768.8752509009819</v>
+      </c>
+      <c r="Y50" s="8">
         <v>7737.8</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="6">
-        <v>2544.2777001792319</v>
+        <v>2540.3078033815827</v>
       </c>
       <c r="C51" s="6">
-        <v>2594.5507827054325</v>
+        <v>2590.5024436255931</v>
       </c>
       <c r="D51" s="6">
-        <v>2567.0909033118196</v>
+        <v>2563.0854105326257</v>
       </c>
       <c r="E51" s="6">
-        <v>2545.1427728874019</v>
+        <v>2541.171526296303</v>
       </c>
       <c r="F51" s="6">
-        <v>2590.5220155216716</v>
+        <v>2586.4799626227541</v>
       </c>
       <c r="G51" s="6">
-        <v>2588.6930046529701</v>
+        <v>2584.6538056030608</v>
       </c>
       <c r="H51" s="6">
-        <v>2621.4669021110535</v>
+        <v>2617.3765651721642</v>
       </c>
       <c r="I51" s="6">
-        <v>2614.8923495289641</v>
+        <v>2610.8122710202933</v>
       </c>
       <c r="J51" s="6">
-        <v>2685.2845516108814</v>
+        <v>2681.0946384809326</v>
       </c>
       <c r="K51" s="6">
-        <v>1122.5677788470878</v>
+        <v>1120.8162097357147</v>
       </c>
       <c r="L51" s="6">
-        <v>2103.9309753578023</v>
+        <v>2100.6481619915726</v>
       </c>
       <c r="M51" s="6">
-        <v>2228.3037144295035</v>
+        <v>2224.8268393307358</v>
       </c>
       <c r="N51" s="6">
-        <v>2227.0184635487944</v>
+        <v>2223.5435938574374</v>
       </c>
       <c r="O51" s="6">
-        <v>2602.0151243587825</v>
+        <v>2597.9551384897477</v>
       </c>
       <c r="P51" s="6">
-        <v>2664.7699702457157</v>
+        <v>2660.6120665032881</v>
       </c>
       <c r="Q51" s="6">
-        <v>2736.8181686547005</v>
+        <v>2732.5478464006769</v>
       </c>
       <c r="R51" s="6">
-        <v>2715.5620963968181</v>
+        <v>2711.3249404961302</v>
       </c>
       <c r="S51" s="6">
-        <v>2779.0831495395591</v>
+        <v>2774.7468802341364</v>
       </c>
       <c r="T51" s="6">
-        <v>2802.4401126601392</v>
+        <v>2798.0673989315751</v>
       </c>
       <c r="U51" s="6">
-        <v>2787.6844438950748</v>
+        <v>2783.3347537862096</v>
       </c>
       <c r="V51" s="6">
-        <v>2869.0507111892007</v>
+        <v>2864.5740633650098</v>
       </c>
       <c r="W51" s="6">
-        <v>2776.5620805043222</v>
+        <v>2772.2297448826675</v>
       </c>
       <c r="X51" s="8">
+        <v>2795.0320298312731</v>
+      </c>
+      <c r="Y51" s="8">
         <v>2799.4</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="6">
-        <v>19481.025329527409</v>
+        <v>19503.065482634516</v>
       </c>
       <c r="C52" s="6">
-        <v>19664.34814656054</v>
+        <v>19686.595704713694</v>
       </c>
       <c r="D52" s="6">
-        <v>19462.574007033811</v>
+        <v>19484.593284957718</v>
       </c>
       <c r="E52" s="6">
-        <v>19914.730608785449</v>
+        <v>19937.261440930059</v>
       </c>
       <c r="F52" s="6">
-        <v>20581.359034360474</v>
+        <v>20604.644066672518</v>
       </c>
       <c r="G52" s="6">
-        <v>20698.812614104649</v>
+        <v>20722.230529303335</v>
       </c>
       <c r="H52" s="6">
-        <v>20922.212497199136</v>
+        <v>20945.883159239642</v>
       </c>
       <c r="I52" s="6">
-        <v>20897.610733874342</v>
+        <v>20921.253562337239</v>
       </c>
       <c r="J52" s="6">
-        <v>18841.776285717067</v>
+        <v>18863.093214735054</v>
       </c>
       <c r="K52" s="6">
-        <v>11360.062616540181</v>
+        <v>11372.914995464786</v>
       </c>
       <c r="L52" s="6">
-        <v>16622.855954874471</v>
+        <v>16641.662474763729</v>
       </c>
       <c r="M52" s="6">
-        <v>16032.21523376231</v>
+        <v>16050.353523324653</v>
       </c>
       <c r="N52" s="6">
-        <v>16952.400542636413</v>
+        <v>16971.579897787007</v>
       </c>
       <c r="O52" s="6">
-        <v>19243.340551599169</v>
+        <v>19265.111796432298</v>
       </c>
       <c r="P52" s="6">
-        <v>20310.938039104891</v>
+        <v>20333.917126527587</v>
       </c>
       <c r="Q52" s="6">
-        <v>20189.913235652282</v>
+        <v>20212.755399830294</v>
       </c>
       <c r="R52" s="6">
-        <v>19835.766884565546</v>
+        <v>19858.208379904609</v>
       </c>
       <c r="S52" s="6">
-        <v>20406.7658752813</v>
+        <v>20429.853378978063</v>
       </c>
       <c r="T52" s="6">
-        <v>20320.064499693122</v>
+        <v>20343.05391247525</v>
       </c>
       <c r="U52" s="6">
-        <v>20200.626906777594</v>
+        <v>20223.481192029722</v>
       </c>
       <c r="V52" s="6">
-        <v>21082.719162761696</v>
+        <v>21106.571416449657</v>
       </c>
       <c r="W52" s="6">
-        <v>20738.096074897458</v>
+        <v>20761.558434034581</v>
       </c>
       <c r="X52" s="8">
+        <v>20388.34059065063</v>
+      </c>
+      <c r="Y52" s="8">
         <v>20365.3</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="6">
-        <v>23518.982157123839</v>
+        <v>23245.865541534415</v>
       </c>
       <c r="C53" s="6">
-        <v>23703.133422103863</v>
+        <v>23427.878330881784</v>
       </c>
       <c r="D53" s="6">
-        <v>23651.223435419444</v>
+        <v>23376.571154292793</v>
       </c>
       <c r="E53" s="6">
-        <v>25214.160319573904</v>
+        <v>24921.358272044596</v>
       </c>
       <c r="F53" s="6">
-        <v>22827.710252996007</v>
+        <v>22562.621103971513</v>
       </c>
       <c r="G53" s="6">
-        <v>22868.110785619177</v>
+        <v>22602.552481226292</v>
       </c>
       <c r="H53" s="6">
-        <v>22866.466577896139</v>
+        <v>22600.927367035692</v>
       </c>
       <c r="I53" s="6">
-        <v>22632.049533954727</v>
+        <v>22369.232515289928</v>
       </c>
       <c r="J53" s="6">
-        <v>21196.656191744343</v>
+        <v>20950.507826894791</v>
       </c>
       <c r="K53" s="6">
-        <v>12124.857523302264</v>
+        <v>11984.056359835875</v>
       </c>
       <c r="L53" s="6">
-        <v>16812.963515312917</v>
+        <v>16617.721235581019</v>
       </c>
       <c r="M53" s="6">
-        <v>15352.202396804261</v>
+        <v>15173.923356816598</v>
       </c>
       <c r="N53" s="6">
-        <v>16826.117177097207</v>
+        <v>16630.722149105834</v>
       </c>
       <c r="O53" s="6">
-        <v>20812.381358189083</v>
+        <v>20570.695424634203</v>
       </c>
       <c r="P53" s="6">
-        <v>22748.318508655131</v>
+        <v>22484.151304482468</v>
       </c>
       <c r="Q53" s="6">
-        <v>22448.368042609854</v>
+        <v>22187.684044282731</v>
       </c>
       <c r="R53" s="6">
-        <v>22844.387217043946</v>
+        <v>22579.104405047616</v>
       </c>
       <c r="S53" s="6">
-        <v>23221.145672436753</v>
+        <v>22951.487713865452</v>
       </c>
       <c r="T53" s="6">
-        <v>23251.915845539286</v>
+        <v>22981.900565146709</v>
       </c>
       <c r="U53" s="6">
-        <v>22748.553395472707</v>
+        <v>22484.383463652553</v>
       </c>
       <c r="V53" s="6">
-        <v>24662.176298268976</v>
+        <v>24375.784222342652</v>
       </c>
       <c r="W53" s="6">
-        <v>24095.394407456726</v>
+        <v>23815.584144925295</v>
       </c>
       <c r="X53" s="8">
+        <v>23711.808995896881</v>
+      </c>
+      <c r="Y53" s="8">
         <v>23990.400000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="6">
-        <v>3497.0106970243364</v>
+        <v>3509.4794269439144</v>
       </c>
       <c r="C54" s="6">
-        <v>3455.5681585882398</v>
+        <v>3467.8891234982975</v>
       </c>
       <c r="D54" s="6">
-        <v>3454.9751256308209</v>
+        <v>3467.2939760584186</v>
       </c>
       <c r="E54" s="6">
-        <v>3475.6963948488697</v>
+        <v>3488.0891277812279</v>
       </c>
       <c r="F54" s="6">
-        <v>3497.743267148207</v>
+        <v>3510.2146090755291</v>
       </c>
       <c r="G54" s="6">
-        <v>3497.4293085236905</v>
+        <v>3509.8995310191226</v>
       </c>
       <c r="H54" s="6">
-        <v>3503.8829024720731</v>
+        <v>3516.3761355119168</v>
       </c>
       <c r="I54" s="6">
-        <v>3498.3014158140131</v>
+        <v>3510.7747478424731</v>
       </c>
       <c r="J54" s="6">
-        <v>3213.4362905032699</v>
+        <v>3224.8939246632544</v>
       </c>
       <c r="K54" s="6">
-        <v>2026.7075741248516</v>
+        <v>2033.9338801207784</v>
       </c>
       <c r="L54" s="6">
-        <v>3057.7476970350053</v>
+        <v>3068.6502173587164</v>
       </c>
       <c r="M54" s="6">
-        <v>2942.2109232131615</v>
+        <v>2952.7014926012375</v>
       </c>
       <c r="N54" s="6">
-        <v>3141.3304597394558</v>
+        <v>3152.5309977086322</v>
       </c>
       <c r="O54" s="6">
-        <v>3379.2762128308809</v>
+        <v>3391.3251557915924</v>
       </c>
       <c r="P54" s="6">
-        <v>3320.8450243793141</v>
+        <v>3332.6856286271063</v>
       </c>
       <c r="Q54" s="6">
-        <v>3368.3225452644378</v>
+        <v>3380.3324324903092</v>
       </c>
       <c r="R54" s="6">
-        <v>3281.4955434399903</v>
+        <v>3293.19584555753</v>
       </c>
       <c r="S54" s="6">
-        <v>3264.0533976335523</v>
+        <v>3275.6915090905195</v>
       </c>
       <c r="T54" s="6">
-        <v>3235.9715428851878</v>
+        <v>3247.5095273786324</v>
       </c>
       <c r="U54" s="6">
-        <v>3187.1684189187745</v>
+        <v>3198.5323939439363</v>
       </c>
       <c r="V54" s="6">
-        <v>3344.5663426760698</v>
+        <v>3356.4915262222412</v>
       </c>
       <c r="W54" s="6">
-        <v>3310.97276985287</v>
+        <v>3322.7781741867784</v>
       </c>
       <c r="X54" s="8">
+        <v>3281.2578880870292</v>
+      </c>
+      <c r="Y54" s="8">
         <v>3269.6</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="6">
-        <v>11162.848123384954</v>
+        <v>11134.076859161529</v>
       </c>
       <c r="C55" s="6">
-        <v>11144.020788232529</v>
+        <v>11115.298049817957</v>
       </c>
       <c r="D55" s="6">
-        <v>11122.551020076256</v>
+        <v>11093.883618110378</v>
       </c>
       <c r="E55" s="6">
-        <v>11365.654856430365</v>
+        <v>11336.360875599294</v>
       </c>
       <c r="F55" s="6">
-        <v>11767.745078516054</v>
+        <v>11737.414745322807</v>
       </c>
       <c r="G55" s="6">
-        <v>11857.257496521439</v>
+        <v>11826.696452903645</v>
       </c>
       <c r="H55" s="6">
-        <v>11994.223607220947</v>
+        <v>11963.30954543816</v>
       </c>
       <c r="I55" s="6">
-        <v>11906.472811218129</v>
+        <v>11875.78491943333</v>
       </c>
       <c r="J55" s="6">
-        <v>11299.59403133414</v>
+        <v>11270.470316499044</v>
       </c>
       <c r="K55" s="6">
-        <v>6504.0185348488403</v>
+        <v>6487.2549962149878</v>
       </c>
       <c r="L55" s="6">
-        <v>10307.800843889479</v>
+        <v>10281.233389207309</v>
       </c>
       <c r="M55" s="6">
-        <v>9802.9860387791614</v>
+        <v>9777.7197000829092</v>
       </c>
       <c r="N55" s="6">
-        <v>10819.662137010064</v>
+        <v>10791.775404635737</v>
       </c>
       <c r="O55" s="6">
-        <v>11920.896091364139</v>
+        <v>11890.171024836884</v>
       </c>
       <c r="P55" s="6">
-        <v>12085.717849979219</v>
+        <v>12054.567969792004</v>
       </c>
       <c r="Q55" s="6">
-        <v>12690.50470373516</v>
+        <v>12657.79603835478</v>
       </c>
       <c r="R55" s="6">
-        <v>11796.261334682593</v>
+        <v>11765.857503334415</v>
       </c>
       <c r="S55" s="6">
-        <v>12026.813614268418</v>
+        <v>11995.815554594283</v>
       </c>
       <c r="T55" s="6">
-        <v>12050.815714053379</v>
+        <v>12019.755791067371</v>
       </c>
       <c r="U55" s="6">
-        <v>11922.657713366703</v>
+        <v>11891.92810641289</v>
       </c>
       <c r="V55" s="6">
-        <v>12299.754923290988</v>
+        <v>12268.05338127681</v>
       </c>
       <c r="W55" s="6">
-        <v>12036.832839408013</v>
+        <v>12005.808956057821</v>
       </c>
       <c r="X55" s="8">
+        <v>12154.39216682888</v>
+      </c>
+      <c r="Y55" s="8">
         <v>12185.8</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="6">
-        <v>1832.2417767130416</v>
+        <v>1797.6308827495857</v>
       </c>
       <c r="C56" s="6">
-        <v>1841.0149345612708</v>
+        <v>1806.2383163796092</v>
       </c>
       <c r="D56" s="6">
-        <v>1858.9129581447407</v>
+        <v>1823.7982477940893</v>
       </c>
       <c r="E56" s="6">
-        <v>1868.0573632070377</v>
+        <v>1832.7699158093476</v>
       </c>
       <c r="F56" s="6">
-        <v>1827.78681014423</v>
+        <v>1793.2600701267675</v>
       </c>
       <c r="G56" s="6">
-        <v>1823.1169109778009</v>
+        <v>1788.6783849651295</v>
       </c>
       <c r="H56" s="6">
-        <v>1880.6797684853366</v>
+        <v>1845.1538849073327</v>
       </c>
       <c r="I56" s="6">
-        <v>1937.9495360870292</v>
+        <v>1901.3418313875084</v>
       </c>
       <c r="J56" s="6">
-        <v>1873.5674534368832</v>
+        <v>1838.175920895465</v>
       </c>
       <c r="K56" s="6">
-        <v>1370.3907030858804</v>
+        <v>1344.5041372866335</v>
       </c>
       <c r="L56" s="6">
-        <v>1794.3745608781455</v>
+        <v>1760.4789754556314</v>
       </c>
       <c r="M56" s="6">
-        <v>1858.40493564128</v>
+        <v>1823.2998217932416</v>
       </c>
       <c r="N56" s="6">
-        <v>1886.5806452563056</v>
+        <v>1850.9432946094862</v>
       </c>
       <c r="O56" s="6">
-        <v>2215.1344297061391</v>
+        <v>2173.2907255423261</v>
       </c>
       <c r="P56" s="6">
-        <v>2174.0823035610842</v>
+        <v>2133.0140706276729</v>
       </c>
       <c r="Q56" s="6">
-        <v>2196.3375970780844</v>
+        <v>2154.8489635109622</v>
       </c>
       <c r="R56" s="6">
-        <v>2324.9454477619265</v>
+        <v>2281.027422648634</v>
       </c>
       <c r="S56" s="6">
-        <v>2190.6907315588455</v>
+        <v>2149.3087668092321</v>
       </c>
       <c r="T56" s="6">
-        <v>2176.759191367782</v>
+        <v>2135.6403922475242</v>
       </c>
       <c r="U56" s="6">
-        <v>2148.0363805951829</v>
+        <v>2107.4601529688284</v>
       </c>
       <c r="V56" s="6">
-        <v>2064.1540495429599</v>
+        <v>2025.1623521365548</v>
       </c>
       <c r="W56" s="6">
-        <v>2009.8933383079204</v>
+        <v>1971.9266211998613</v>
       </c>
       <c r="X56" s="8">
+        <v>1952.5071773976033</v>
+      </c>
+      <c r="Y56" s="8">
         <v>1990.1</v>
       </c>
     </row>
@@ -4635,28 +4798,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:T56"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:U56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
     <col min="2" max="19" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="2"/>
+    <col min="20" max="20" width="8.85546875" style="2"/>
+    <col min="21" max="21" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4717,149 +4881,158 @@
       <c r="T4" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="U4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7">
-        <v>2.596934536025699</v>
+        <v>2.5969345360256968</v>
       </c>
       <c r="C5" s="7">
-        <v>1.9536767247765374</v>
+        <v>1.9536767247765288</v>
       </c>
       <c r="D5" s="7">
-        <v>3.6935081395809428</v>
+        <v>3.6935081395809295</v>
       </c>
       <c r="E5" s="7">
-        <v>0.89315281971363658</v>
+        <v>0.89315281971365468</v>
       </c>
       <c r="F5" s="7">
-        <v>-7.4999268157024099</v>
+        <v>-7.4999268157024197</v>
       </c>
       <c r="G5" s="7">
-        <v>-46.202881140831018</v>
+        <v>-46.202881140831025</v>
       </c>
       <c r="H5" s="7">
-        <v>-22.58064516129032</v>
+        <v>-22.580645161290313</v>
       </c>
       <c r="I5" s="7">
-        <v>-22.954617857453155</v>
+        <v>-22.954617857453169</v>
       </c>
       <c r="J5" s="7">
-        <v>-11.774882641489537</v>
+        <v>-11.774882641489533</v>
       </c>
       <c r="K5" s="7">
         <v>77.207325637931973</v>
       </c>
       <c r="L5" s="7">
-        <v>27.478044207617923</v>
+        <v>27.478044207617916</v>
       </c>
       <c r="M5" s="7">
-        <v>30.906288764425046</v>
+        <v>30.906288764425071</v>
       </c>
       <c r="N5" s="7">
         <v>21.648153240945565</v>
       </c>
       <c r="O5" s="7">
-        <v>7.0209847060616672</v>
+        <v>7.0209847060616832</v>
       </c>
       <c r="P5" s="7">
-        <v>2.9995452302392898</v>
+        <v>2.9995452302392756</v>
       </c>
       <c r="Q5" s="7">
-        <v>0.1770758554678242</v>
+        <v>0.17707585546781954</v>
       </c>
       <c r="R5" s="7">
-        <v>6.1560085710354135</v>
+        <v>6.1560085710354038</v>
       </c>
       <c r="S5" s="7">
-        <v>0.51939913022012829</v>
+        <v>0.51939913022010398</v>
       </c>
       <c r="T5" s="7">
-        <v>-0.11836654172422084</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-0.11836654172422122</v>
+      </c>
+      <c r="U5" s="7">
+        <v>1.5660233135868633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>1.31312925031144</v>
+        <v>1.3131292503114314</v>
       </c>
       <c r="C6" s="7">
-        <v>0.86940735062737073</v>
+        <v>0.8694073506273623</v>
       </c>
       <c r="D6" s="7">
-        <v>2.5715902431138105</v>
+        <v>2.5715902431137931</v>
       </c>
       <c r="E6" s="7">
-        <v>0.64141991037694912</v>
+        <v>0.64141991037693724</v>
       </c>
       <c r="F6" s="7">
-        <v>-5.4726869582745241</v>
+        <v>-5.4726869582745481</v>
       </c>
       <c r="G6" s="7">
-        <v>-28.107189281071896</v>
+        <v>-28.107189281071893</v>
       </c>
       <c r="H6" s="7">
-        <v>-7.2662076031169081</v>
+        <v>-7.2662076031168947</v>
       </c>
       <c r="I6" s="7">
-        <v>-15.545272878955435</v>
+        <v>-15.545272878955412</v>
       </c>
       <c r="J6" s="7">
-        <v>4.9386928243949093</v>
+        <v>4.9386928243949217</v>
       </c>
       <c r="K6" s="7">
-        <v>47.990264255910972</v>
+        <v>47.990264255910994</v>
       </c>
       <c r="L6" s="7">
-        <v>13.121580708556857</v>
+        <v>13.121580708556841</v>
       </c>
       <c r="M6" s="7">
-        <v>22.286672562915637</v>
+        <v>22.286672562915641</v>
       </c>
       <c r="N6" s="7">
-        <v>10.059742740444202</v>
+        <v>10.059742740444218</v>
       </c>
       <c r="O6" s="7">
-        <v>1.968892439265074</v>
+        <v>1.9688924392650611</v>
       </c>
       <c r="P6" s="7">
-        <v>2.612525472592905</v>
+        <v>2.6125254725929117</v>
       </c>
       <c r="Q6" s="7">
-        <v>1.925533513675997</v>
+        <v>1.9255335136759766</v>
       </c>
       <c r="R6" s="7">
-        <v>3.0252116355713996</v>
+        <v>3.0252116355713716</v>
       </c>
       <c r="S6" s="7">
-        <v>1.5124423963133655</v>
+        <v>1.5124423963133609</v>
       </c>
       <c r="T6" s="7">
-        <v>0.89046298584227535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.8904629858422809</v>
+      </c>
+      <c r="U6" s="7">
+        <v>1.0579280092891374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="7">
-        <v>1.7037833410126337</v>
+        <v>1.7037833410126355</v>
       </c>
       <c r="C7" s="7">
-        <v>-0.29959489991935306</v>
+        <v>-0.29959489991936605</v>
       </c>
       <c r="D7" s="7">
-        <v>2.0879335613092254</v>
+        <v>2.0879335613092485</v>
       </c>
       <c r="E7" s="7">
-        <v>-1.5598584627481562</v>
+        <v>-1.5598584627481671</v>
       </c>
       <c r="F7" s="7">
-        <v>-13.179434002154451</v>
+        <v>-13.179434002154448</v>
       </c>
       <c r="G7" s="7">
         <v>-44.384434150626952</v>
@@ -4868,432 +5041,453 @@
         <v>-35.71257668418081</v>
       </c>
       <c r="I7" s="7">
-        <v>-28.47044022645354</v>
+        <v>-28.470440226453537</v>
       </c>
       <c r="J7" s="7">
-        <v>-7.8086226489482495</v>
+        <v>-7.8086226489482522</v>
       </c>
       <c r="K7" s="7">
-        <v>66.687608824426931</v>
+        <v>66.687608824426945</v>
       </c>
       <c r="L7" s="7">
-        <v>48.282022271184424</v>
+        <v>48.282022271184431</v>
       </c>
       <c r="M7" s="7">
-        <v>38.375745055067796</v>
+        <v>38.375745055067767</v>
       </c>
       <c r="N7" s="7">
-        <v>23.43907224793718</v>
+        <v>23.439072247937197</v>
       </c>
       <c r="O7" s="7">
-        <v>12.933448201593794</v>
+        <v>12.933448201593812</v>
       </c>
       <c r="P7" s="7">
-        <v>12.024617485241558</v>
+        <v>12.024617485241565</v>
       </c>
       <c r="Q7" s="7">
-        <v>7.6837719784930858</v>
+        <v>7.6837719784931151</v>
       </c>
       <c r="R7" s="7">
-        <v>5.9456485189374506</v>
+        <v>5.9456485189374275</v>
       </c>
       <c r="S7" s="7">
-        <v>-2.0873462381996641</v>
+        <v>-2.0873462381996974</v>
       </c>
       <c r="T7" s="7">
-        <v>-7.2279330710425498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-7.227933071042556</v>
+      </c>
+      <c r="U7" s="7">
+        <v>-6.5153445497807905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="7">
-        <v>-1.2917503460916118</v>
+        <v>-1.2917503460915878</v>
       </c>
       <c r="C8" s="7">
-        <v>-2.8599378524571302</v>
+        <v>-2.8599378524571377</v>
       </c>
       <c r="D8" s="7">
-        <v>-0.48731062433656674</v>
+        <v>-0.48731062433658484</v>
       </c>
       <c r="E8" s="7">
-        <v>-2.0764323976453309</v>
+        <v>-2.0764323976453052</v>
       </c>
       <c r="F8" s="7">
-        <v>-3.4627502493851794</v>
+        <v>-3.4627502493851963</v>
       </c>
       <c r="G8" s="7">
-        <v>-36.238966885847994</v>
+        <v>-36.238966885847987</v>
       </c>
       <c r="H8" s="7">
-        <v>-11.972848484848493</v>
+        <v>-11.972848484848468</v>
       </c>
       <c r="I8" s="7">
-        <v>-14.473073800595348</v>
+        <v>-14.473073800595364</v>
       </c>
       <c r="J8" s="7">
-        <v>-4.0412101122330979</v>
+        <v>-4.0412101122330784</v>
       </c>
       <c r="K8" s="7">
-        <v>66.264071476130738</v>
+        <v>66.264071476130752</v>
       </c>
       <c r="L8" s="7">
-        <v>22.227852563396425</v>
+        <v>22.227852563396407</v>
       </c>
       <c r="M8" s="7">
-        <v>28.519769925304821</v>
+        <v>28.519769925304825</v>
       </c>
       <c r="N8" s="7">
-        <v>16.554540317507705</v>
+        <v>16.554540317507684</v>
       </c>
       <c r="O8" s="7">
-        <v>7.0286379511059431</v>
+        <v>7.02863795110592</v>
       </c>
       <c r="P8" s="7">
-        <v>4.592811564944669</v>
+        <v>4.5928115649446664</v>
       </c>
       <c r="Q8" s="7">
-        <v>1.7268818527929961</v>
+        <v>1.7268818527929919</v>
       </c>
       <c r="R8" s="7">
-        <v>8.2638126600804895</v>
+        <v>8.2638126600804931</v>
       </c>
       <c r="S8" s="7">
-        <v>1.6593863664050386</v>
+        <v>1.6593863664050392</v>
       </c>
       <c r="T8" s="7">
-        <v>1.7983317823044693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.7983317823044707</v>
+      </c>
+      <c r="U8" s="7">
+        <v>2.1297376723281154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="7">
-        <v>5.2432873533836268</v>
+        <v>5.2432873533836171</v>
       </c>
       <c r="C9" s="7">
-        <v>2.9396798058480353</v>
+        <v>2.9396798058480407</v>
       </c>
       <c r="D9" s="7">
-        <v>4.45250307854905</v>
+        <v>4.4525030785490598</v>
       </c>
       <c r="E9" s="7">
-        <v>2.1473236736978927</v>
+        <v>2.1473236736979162</v>
       </c>
       <c r="F9" s="7">
-        <v>-6.6561413997982362</v>
+        <v>-6.6561413997982184</v>
       </c>
       <c r="G9" s="7">
-        <v>-29.583998783177421</v>
+        <v>-29.583998783177424</v>
       </c>
       <c r="H9" s="7">
-        <v>-6.4469714550939914</v>
+        <v>-6.4469714550939896</v>
       </c>
       <c r="I9" s="7">
-        <v>-11.039479795634005</v>
+        <v>-11.039479795634012</v>
       </c>
       <c r="J9" s="7">
-        <v>3.3086800308249678</v>
+        <v>3.3086800308249718</v>
       </c>
       <c r="K9" s="7">
         <v>55.162544551247429</v>
       </c>
       <c r="L9" s="7">
-        <v>12.657273268505667</v>
+        <v>12.657273268505659</v>
       </c>
       <c r="M9" s="7">
-        <v>19.991437462147328</v>
+        <v>19.99143746214731</v>
       </c>
       <c r="N9" s="7">
-        <v>7.9040930007265855</v>
+        <v>7.9040930007265615</v>
       </c>
       <c r="O9" s="7">
-        <v>-2.2465457835937848</v>
+        <v>-2.2465457835937892</v>
       </c>
       <c r="P9" s="7">
-        <v>-0.72928410372041752</v>
+        <v>-0.72928410372040975</v>
       </c>
       <c r="Q9" s="7">
-        <v>-1.2731592275761301</v>
+        <v>-1.2731592275761292</v>
       </c>
       <c r="R9" s="7">
-        <v>3.02646699705523</v>
+        <v>3.0264669970552398</v>
       </c>
       <c r="S9" s="7">
-        <v>2.1797952825990237</v>
+        <v>2.1797952825990432</v>
       </c>
       <c r="T9" s="7">
-        <v>2.9394541647443075</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.9394541647442995</v>
+      </c>
+      <c r="U9" s="7">
+        <v>1.0771454763415989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="7">
-        <v>3.2240665167258729</v>
+        <v>3.2240665167258706</v>
       </c>
       <c r="C10" s="7">
-        <v>4.1960067519651565</v>
+        <v>4.1960067519651396</v>
       </c>
       <c r="D10" s="7">
         <v>6.1415563486806208</v>
       </c>
       <c r="E10" s="7">
-        <v>4.1404220140146411</v>
+        <v>4.1404220140146348</v>
       </c>
       <c r="F10" s="7">
-        <v>-4.2275877707559051</v>
+        <v>-4.2275877707559006</v>
       </c>
       <c r="G10" s="7">
-        <v>-46.23657975460123</v>
+        <v>-46.236579754601216</v>
       </c>
       <c r="H10" s="7">
-        <v>-25.053325757505181</v>
+        <v>-25.053325757505174</v>
       </c>
       <c r="I10" s="7">
-        <v>-10.100647356234942</v>
+        <v>-10.100647356234937</v>
       </c>
       <c r="J10" s="7">
-        <v>-15.582503783160549</v>
+        <v>-15.582503783160558</v>
       </c>
       <c r="K10" s="7">
-        <v>81.801162500445784</v>
+        <v>81.801162500445756</v>
       </c>
       <c r="L10" s="7">
-        <v>35.609355969277416</v>
+        <v>35.609355969277409</v>
       </c>
       <c r="M10" s="7">
-        <v>13.857264499038131</v>
+        <v>13.857264499038138</v>
       </c>
       <c r="N10" s="7">
-        <v>17.133310570216072</v>
+        <v>17.133310570216089</v>
       </c>
       <c r="O10" s="7">
-        <v>0.83165792183591314</v>
+        <v>0.83165792183593412</v>
       </c>
       <c r="P10" s="7">
-        <v>-3.3222134648166262</v>
+        <v>-3.3222134648166146</v>
       </c>
       <c r="Q10" s="7">
         <v>-6.3411166200408058</v>
       </c>
       <c r="R10" s="7">
-        <v>5.6759739313302893</v>
+        <v>5.6759739313302857</v>
       </c>
       <c r="S10" s="7">
-        <v>-3.6736599457267074</v>
+        <v>-3.6736599457267163</v>
       </c>
       <c r="T10" s="7">
-        <v>-5.3920313966385072</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-5.3920313966385143</v>
+      </c>
+      <c r="U10" s="7">
+        <v>-1.1957689691544908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="7">
-        <v>4.773044935021157</v>
+        <v>4.7730449350211535</v>
       </c>
       <c r="C11" s="7">
-        <v>4.7594822778989796</v>
+        <v>4.7594822778989672</v>
       </c>
       <c r="D11" s="7">
-        <v>6.1437664897947393</v>
+        <v>6.1437664897947304</v>
       </c>
       <c r="E11" s="7">
-        <v>1.6615724474152822</v>
+        <v>1.6615724474152771</v>
       </c>
       <c r="F11" s="7">
-        <v>-4.4477453781671681</v>
+        <v>-4.4477453781671699</v>
       </c>
       <c r="G11" s="7">
-        <v>-43.414392708391695</v>
+        <v>-43.414392708391688</v>
       </c>
       <c r="H11" s="7">
-        <v>-19.461102743460145</v>
+        <v>-19.461102743460149</v>
       </c>
       <c r="I11" s="7">
-        <v>-25.034186913436876</v>
+        <v>-25.034186913436873</v>
       </c>
       <c r="J11" s="7">
-        <v>-12.23550147039894</v>
+        <v>-12.235501470398949</v>
       </c>
       <c r="K11" s="7">
         <v>77.860478933210075</v>
       </c>
       <c r="L11" s="7">
-        <v>31.138136759981634</v>
+        <v>31.138136759981641</v>
       </c>
       <c r="M11" s="7">
-        <v>44.743746720307854</v>
+        <v>44.743746720307847</v>
       </c>
       <c r="N11" s="7">
-        <v>33.56085563427952</v>
+        <v>33.560855634279541</v>
       </c>
       <c r="O11" s="7">
-        <v>10.925016934054621</v>
+        <v>10.925016934054637</v>
       </c>
       <c r="P11" s="7">
-        <v>5.6631671041119898</v>
+        <v>5.6631671041119933</v>
       </c>
       <c r="Q11" s="7">
-        <v>4.0207164436771761</v>
+        <v>4.0207164436771743</v>
       </c>
       <c r="R11" s="7">
-        <v>5.4450385612799224</v>
+        <v>5.4450385612799188</v>
       </c>
       <c r="S11" s="7">
-        <v>2.4902756284244467</v>
+        <v>2.4902756284244361</v>
       </c>
       <c r="T11" s="7">
-        <v>1.5293153271012618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.5293153271012607</v>
+      </c>
+      <c r="U11" s="7">
+        <v>2.9425432336442499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="7">
-        <v>9.0852655430362645</v>
+        <v>9.0852655430362876</v>
       </c>
       <c r="C12" s="7">
-        <v>7.800372714054582</v>
+        <v>7.800372714054614</v>
       </c>
       <c r="D12" s="7">
-        <v>6.5391340121361692</v>
+        <v>6.5391340121361496</v>
       </c>
       <c r="E12" s="7">
-        <v>2.5444958484009765</v>
+        <v>2.5444958484009672</v>
       </c>
       <c r="F12" s="7">
-        <v>-17.46054328856513</v>
+        <v>-17.460543288565155</v>
       </c>
       <c r="G12" s="7">
-        <v>-59.213525835866257</v>
+        <v>-59.213525835866264</v>
       </c>
       <c r="H12" s="7">
-        <v>-25.053094953083377</v>
+        <v>-25.053094953083363</v>
       </c>
       <c r="I12" s="7">
-        <v>-27.882029610804103</v>
+        <v>-27.882029610804093</v>
       </c>
       <c r="J12" s="7">
-        <v>-10.866092871999363</v>
+        <v>-10.866092871999349</v>
       </c>
       <c r="K12" s="7">
-        <v>111.22729389846299</v>
+        <v>111.22729389846297</v>
       </c>
       <c r="L12" s="7">
-        <v>20.727497552681754</v>
+        <v>20.72749755268174</v>
       </c>
       <c r="M12" s="7">
-        <v>31.031798065890822</v>
+        <v>31.031798065890811</v>
       </c>
       <c r="N12" s="7">
-        <v>17.82201193806646</v>
+        <v>17.822011938066453</v>
       </c>
       <c r="O12" s="7">
-        <v>4.4960915535661119</v>
+        <v>4.496091553566111</v>
       </c>
       <c r="P12" s="7">
-        <v>2.7867872994195966</v>
+        <v>2.7867872994195984</v>
       </c>
       <c r="Q12" s="7">
-        <v>-2.6289729076106734</v>
+        <v>-2.62897290761066</v>
       </c>
       <c r="R12" s="7">
-        <v>7.4919849875808158</v>
+        <v>7.4919849875808273</v>
       </c>
       <c r="S12" s="7">
-        <v>1.6712562909505295</v>
+        <v>1.6712562909505428</v>
       </c>
       <c r="T12" s="7">
-        <v>0.10795100685074087</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.1079510068507659</v>
+      </c>
+      <c r="U12" s="7">
+        <v>1.9366442205783123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="7">
-        <v>5.6770948326341859</v>
+        <v>5.677094832634185</v>
       </c>
       <c r="C13" s="7">
-        <v>3.8788572715669334</v>
+        <v>3.8788572715669436</v>
       </c>
       <c r="D13" s="7">
-        <v>2.6147988866858394</v>
+        <v>2.6147988866858514</v>
       </c>
       <c r="E13" s="7">
-        <v>-1.6805414365653042</v>
+        <v>-1.6805414365653013</v>
       </c>
       <c r="F13" s="7">
-        <v>-13.272230145248763</v>
+        <v>-13.272230145248766</v>
       </c>
       <c r="G13" s="7">
-        <v>-48.3290418755929</v>
+        <v>-48.329041875592907</v>
       </c>
       <c r="H13" s="7">
-        <v>-20.776334409811682</v>
+        <v>-20.776334409811692</v>
       </c>
       <c r="I13" s="7">
-        <v>-24.365661909907214</v>
+        <v>-24.365661909907217</v>
       </c>
       <c r="J13" s="7">
-        <v>0.7048891868113295</v>
+        <v>0.70488918681134305</v>
       </c>
       <c r="K13" s="7">
-        <v>92.462232480067158</v>
+        <v>92.462232480067144</v>
       </c>
       <c r="L13" s="7">
-        <v>28.052397146554</v>
+        <v>28.052397146554004</v>
       </c>
       <c r="M13" s="7">
-        <v>39.13766348924851</v>
+        <v>39.137663489248517</v>
       </c>
       <c r="N13" s="7">
-        <v>14.969474461512883</v>
+        <v>14.969474461512871</v>
       </c>
       <c r="O13" s="7">
-        <v>2.3275462647515885</v>
+        <v>2.3275462647515952</v>
       </c>
       <c r="P13" s="7">
-        <v>2.2399670934973708</v>
+        <v>2.2399670934973868</v>
       </c>
       <c r="Q13" s="7">
-        <v>0.69394655549358608</v>
+        <v>0.6939465554935863</v>
       </c>
       <c r="R13" s="7">
-        <v>5.8149843498398726</v>
+        <v>5.8149843498398734</v>
       </c>
       <c r="S13" s="7">
-        <v>0.44391175034402514</v>
+        <v>0.44391175034402114</v>
       </c>
       <c r="T13" s="7">
-        <v>-0.3192317447545322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-0.3192317447545473</v>
+      </c>
+      <c r="U13" s="7">
+        <v>0.29008183823981626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="7">
-        <v>1.1338259677774805</v>
+        <v>1.1338259677774818</v>
       </c>
       <c r="C14" s="7">
-        <v>1.7379379827605321</v>
+        <v>1.7379379827605503</v>
       </c>
       <c r="D14" s="7">
-        <v>1.8864170393390343</v>
+        <v>1.8864170393390534</v>
       </c>
       <c r="E14" s="7">
-        <v>6.791369140008093E-3</v>
+        <v>6.791369140011049E-3</v>
       </c>
       <c r="F14" s="7">
-        <v>-13.256254738438203</v>
+        <v>-13.256254738438212</v>
       </c>
       <c r="G14" s="7">
         <v>-66.058738847779651</v>
@@ -5308,181 +5502,190 @@
         <v>-46.537822837914604</v>
       </c>
       <c r="K14" s="7">
-        <v>82.440025934730954</v>
+        <v>82.440025934730926</v>
       </c>
       <c r="L14" s="7">
-        <v>83.508412332393917</v>
+        <v>83.508412332393888</v>
       </c>
       <c r="M14" s="7">
-        <v>114.3562774924434</v>
+        <v>114.35627749244341</v>
       </c>
       <c r="N14" s="7">
-        <v>65.48687033820373</v>
+        <v>65.486870338203715</v>
       </c>
       <c r="O14" s="7">
-        <v>42.890777705384103</v>
+        <v>42.890777705384117</v>
       </c>
       <c r="P14" s="7">
-        <v>17.472192488481408</v>
+        <v>17.472192488481419</v>
       </c>
       <c r="Q14" s="7">
-        <v>14.203008208373468</v>
+        <v>14.203008208373474</v>
       </c>
       <c r="R14" s="7">
-        <v>35.833096652301158</v>
+        <v>35.833096652301151</v>
       </c>
       <c r="S14" s="7">
-        <v>12.480180731007181</v>
+        <v>12.480180731007206</v>
       </c>
       <c r="T14" s="7">
-        <v>6.9182389937106947</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6.9182389937106938</v>
+      </c>
+      <c r="U14" s="7">
+        <v>8.5226417177790914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="7">
-        <v>4.2676873637563908</v>
+        <v>4.2676873637563846</v>
       </c>
       <c r="C15" s="7">
-        <v>5.1473071294808896</v>
+        <v>5.1473071294808754</v>
       </c>
       <c r="D15" s="7">
-        <v>4.5414484414413412</v>
+        <v>4.5414484414413687</v>
       </c>
       <c r="E15" s="7">
-        <v>3.6536606927589999</v>
+        <v>3.6536606927589896</v>
       </c>
       <c r="F15" s="7">
-        <v>-8.9310077443291753</v>
+        <v>-8.9310077443291789</v>
       </c>
       <c r="G15" s="7">
         <v>-44.007357592626839</v>
       </c>
       <c r="H15" s="7">
-        <v>-23.011550835303687</v>
+        <v>-23.011550835303698</v>
       </c>
       <c r="I15" s="7">
-        <v>-24.637287872767271</v>
+        <v>-24.637287872767278</v>
       </c>
       <c r="J15" s="7">
-        <v>-3.7690500312560595</v>
+        <v>-3.7690500312560533</v>
       </c>
       <c r="K15" s="7">
-        <v>81.64357846800965</v>
+        <v>81.643578468009665</v>
       </c>
       <c r="L15" s="7">
-        <v>37.378695767095884</v>
+        <v>37.37869576709587</v>
       </c>
       <c r="M15" s="7">
-        <v>40.848765432098737</v>
+        <v>40.848765432098759</v>
       </c>
       <c r="N15" s="7">
-        <v>23.141625133001078</v>
+        <v>23.141625133001074</v>
       </c>
       <c r="O15" s="7">
-        <v>8.3833309411032904</v>
+        <v>8.3833309411032868</v>
       </c>
       <c r="P15" s="7">
-        <v>5.5329558572920652</v>
+        <v>5.5329558572920661</v>
       </c>
       <c r="Q15" s="7">
-        <v>2.60216938753149</v>
+        <v>2.6021693875314988</v>
       </c>
       <c r="R15" s="7">
-        <v>6.2011696544698811</v>
+        <v>6.2011696544698562</v>
       </c>
       <c r="S15" s="7">
-        <v>1.3702258400579301</v>
+        <v>1.3702258400579186</v>
       </c>
       <c r="T15" s="7">
-        <v>-0.46881104310457805</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-0.46881104310458216</v>
+      </c>
+      <c r="U15" s="7">
+        <v>2.1793297381956682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="7">
-        <v>4.0665380056232037</v>
+        <v>4.0665380056232028</v>
       </c>
       <c r="C16" s="7">
-        <v>2.0679848837653187</v>
+        <v>2.0679848837653196</v>
       </c>
       <c r="D16" s="7">
-        <v>3.0394963337739673</v>
+        <v>3.039496333773994</v>
       </c>
       <c r="E16" s="7">
-        <v>-0.69298711957991632</v>
+        <v>-0.69298711957991532</v>
       </c>
       <c r="F16" s="7">
-        <v>-7.0489889671273058</v>
+        <v>-7.0489889671273005</v>
       </c>
       <c r="G16" s="7">
-        <v>-41.202374830536201</v>
+        <v>-41.202374830536208</v>
       </c>
       <c r="H16" s="7">
-        <v>-18.603535003922644</v>
+        <v>-18.603535003922669</v>
       </c>
       <c r="I16" s="7">
-        <v>-19.643293198339496</v>
+        <v>-19.643293198339506</v>
       </c>
       <c r="J16" s="7">
-        <v>-2.7638241847275724</v>
+        <v>-2.7638241847275653</v>
       </c>
       <c r="K16" s="7">
         <v>70.5901060632563</v>
       </c>
       <c r="L16" s="7">
-        <v>25.187948610370924</v>
+        <v>25.18794861037092</v>
       </c>
       <c r="M16" s="7">
         <v>32.086630278521255</v>
       </c>
       <c r="N16" s="7">
-        <v>16.93451791982169</v>
+        <v>16.934517919821676</v>
       </c>
       <c r="O16" s="7">
-        <v>9.3746213145163484</v>
+        <v>9.3746213145163644</v>
       </c>
       <c r="P16" s="7">
-        <v>7.7118168149127628</v>
+        <v>7.7118168149127797</v>
       </c>
       <c r="Q16" s="7">
-        <v>6.3196828655363948</v>
+        <v>6.319682865536393</v>
       </c>
       <c r="R16" s="7">
-        <v>7.1764496303553882</v>
+        <v>7.1764496303554006</v>
       </c>
       <c r="S16" s="7">
-        <v>0.90168405263518625</v>
+        <v>0.90168405263516838</v>
       </c>
       <c r="T16" s="7">
-        <v>1.0385482189108246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.0385482189108193</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0.53431429665264318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7">
-        <v>-1.3379183860614474</v>
+        <v>-1.3379183860614416</v>
       </c>
       <c r="C17" s="7">
         <v>-2.400821902993822</v>
       </c>
       <c r="D17" s="7">
-        <v>3.4655169290411352</v>
+        <v>3.4655169290411192</v>
       </c>
       <c r="E17" s="7">
-        <v>6.4917656070470935</v>
+        <v>6.4917656070471139</v>
       </c>
       <c r="F17" s="7">
-        <v>-0.13755797417999019</v>
+        <v>-0.137557974179983</v>
       </c>
       <c r="G17" s="7">
-        <v>-58.916138802193949</v>
+        <v>-58.916138802193942</v>
       </c>
       <c r="H17" s="7">
         <v>-56.937878628707494</v>
@@ -5494,1046 +5697,1097 @@
         <v>-42.999543944230894</v>
       </c>
       <c r="K17" s="7">
-        <v>84.327871800058418</v>
+        <v>84.327871800058446</v>
       </c>
       <c r="L17" s="7">
-        <v>89.733476996889564</v>
+        <v>89.73347699688955</v>
       </c>
       <c r="M17" s="7">
-        <v>59.754994083663966</v>
+        <v>59.754994083663981</v>
       </c>
       <c r="N17" s="7">
-        <v>40.652809300654759</v>
+        <v>40.652809300654766</v>
       </c>
       <c r="O17" s="7">
-        <v>14.890322265982224</v>
+        <v>14.890322265982206</v>
       </c>
       <c r="P17" s="7">
-        <v>5.6306788959369092</v>
+        <v>5.6306788959368923</v>
       </c>
       <c r="Q17" s="7">
-        <v>9.9969501568490706</v>
+        <v>9.9969501568490777</v>
       </c>
       <c r="R17" s="7">
-        <v>14.967494775946127</v>
+        <v>14.967494775946133</v>
       </c>
       <c r="S17" s="7">
-        <v>2.796497744759888</v>
+        <v>2.7964977447598733</v>
       </c>
       <c r="T17" s="7">
-        <v>-1.1056673057220929</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-1.1056673057220698</v>
+      </c>
+      <c r="U17" s="7">
+        <v>-4.5867744043728997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="7">
-        <v>0.29531192321890459</v>
+        <v>0.29531192321889133</v>
       </c>
       <c r="C18" s="7">
-        <v>-0.4357026065211172</v>
+        <v>-0.43570260652112081</v>
       </c>
       <c r="D18" s="7">
-        <v>0.22717251691813625</v>
+        <v>0.22717251691813975</v>
       </c>
       <c r="E18" s="7">
-        <v>-0.37073189045109173</v>
+        <v>-0.37073189045108079</v>
       </c>
       <c r="F18" s="7">
-        <v>1.7744028824361207</v>
+        <v>1.7744028824361293</v>
       </c>
       <c r="G18" s="7">
-        <v>-33.123061912536109</v>
+        <v>-33.123061912536102</v>
       </c>
       <c r="H18" s="7">
-        <v>1.2136224094564845</v>
+        <v>1.2136224094564771</v>
       </c>
       <c r="I18" s="7">
-        <v>-4.6838936985991513</v>
+        <v>-4.683893698599177</v>
       </c>
       <c r="J18" s="7">
-        <v>-0.66712347018404483</v>
+        <v>-0.66712347018405171</v>
       </c>
       <c r="K18" s="7">
-        <v>56.981900648572164</v>
+        <v>56.98190064857215</v>
       </c>
       <c r="L18" s="7">
-        <v>2.4444402449164859</v>
+        <v>2.4444402449164793</v>
       </c>
       <c r="M18" s="7">
-        <v>15.8451852657172</v>
+        <v>15.845185265717209</v>
       </c>
       <c r="N18" s="7">
-        <v>19.143106239880446</v>
+        <v>19.143106239880431</v>
       </c>
       <c r="O18" s="7">
-        <v>17.650468820449557</v>
+        <v>17.650468820449575</v>
       </c>
       <c r="P18" s="7">
-        <v>18.712587277137754</v>
+        <v>18.712587277137764</v>
       </c>
       <c r="Q18" s="7">
         <v>10.899147690916369</v>
       </c>
       <c r="R18" s="7">
-        <v>7.8097106740217557</v>
+        <v>7.8097106740217948</v>
       </c>
       <c r="S18" s="7">
-        <v>2.8492323575188481</v>
+        <v>2.8492323575188379</v>
       </c>
       <c r="T18" s="7">
-        <v>3.1466819986481105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.1466819986481092</v>
+      </c>
+      <c r="U18" s="7">
+        <v>2.3979505485206261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="7">
-        <v>0.44031573860282058</v>
+        <v>0.44031573860280487</v>
       </c>
       <c r="C19" s="7">
-        <v>0.56037926809780103</v>
+        <v>0.56037926809780392</v>
       </c>
       <c r="D19" s="7">
-        <v>3.515386510427255</v>
+        <v>3.5153865104272461</v>
       </c>
       <c r="E19" s="7">
-        <v>2.5663464884071536</v>
+        <v>2.5663464884071483</v>
       </c>
       <c r="F19" s="7">
-        <v>-2.6666666666666656</v>
+        <v>-2.6666666666666665</v>
       </c>
       <c r="G19" s="7">
-        <v>-44.534966257376233</v>
+        <v>-44.53496625737624</v>
       </c>
       <c r="H19" s="7">
-        <v>-23.226721024802625</v>
+        <v>-23.226721024802629</v>
       </c>
       <c r="I19" s="7">
         <v>-32.818651890991696</v>
       </c>
       <c r="J19" s="7">
-        <v>-20.004174402126761</v>
+        <v>-20.004174402126754</v>
       </c>
       <c r="K19" s="7">
-        <v>68.193452267257527</v>
+        <v>68.193452267257541</v>
       </c>
       <c r="L19" s="7">
-        <v>28.54736104372202</v>
+        <v>28.547361043722038</v>
       </c>
       <c r="M19" s="7">
-        <v>44.779042722487432</v>
+        <v>44.779042722487425</v>
       </c>
       <c r="N19" s="7">
         <v>32.442564644813999</v>
       </c>
       <c r="O19" s="7">
-        <v>13.200690469701089</v>
+        <v>13.20069046970112</v>
       </c>
       <c r="P19" s="7">
-        <v>5.6260943414030562</v>
+        <v>5.6260943414030642</v>
       </c>
       <c r="Q19" s="7">
-        <v>6.0137820241819631</v>
+        <v>6.0137820241819719</v>
       </c>
       <c r="R19" s="7">
-        <v>7.2143997677456788</v>
+        <v>7.2143997677456859</v>
       </c>
       <c r="S19" s="7">
-        <v>1.2108747993579434</v>
+        <v>1.210874799357933</v>
       </c>
       <c r="T19" s="7">
-        <v>1.2090170036627939</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.2090170036627852</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0.59019400634059282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="7">
-        <v>-7.5608228549405005</v>
+        <v>-7.5608228549404917</v>
       </c>
       <c r="C20" s="7">
-        <v>-8.9168934077998863</v>
+        <v>-8.9168934077999094</v>
       </c>
       <c r="D20" s="7">
         <v>-8.3796477869503203</v>
       </c>
       <c r="E20" s="7">
-        <v>-9.213663890991695</v>
+        <v>-9.2136638909916773</v>
       </c>
       <c r="F20" s="7">
-        <v>-6.309283078654957</v>
+        <v>-6.3092830786549632</v>
       </c>
       <c r="G20" s="7">
-        <v>-32.460562863581565</v>
+        <v>-32.460562863581551</v>
       </c>
       <c r="H20" s="7">
-        <v>-6.7603545662410243</v>
+        <v>-6.7603545662410394</v>
       </c>
       <c r="I20" s="7">
-        <v>-13.641432934137962</v>
+        <v>-13.641432934137976</v>
       </c>
       <c r="J20" s="7">
-        <v>3.6491071925237684</v>
+        <v>3.6491071925237781</v>
       </c>
       <c r="K20" s="7">
         <v>57.436836550996304</v>
       </c>
       <c r="L20" s="7">
-        <v>15.188569380990758</v>
+        <v>15.188569380990774</v>
       </c>
       <c r="M20" s="7">
-        <v>27.235531953412593</v>
+        <v>27.23553195341259</v>
       </c>
       <c r="N20" s="7">
-        <v>14.135136585627656</v>
+        <v>14.135136585627649</v>
       </c>
       <c r="O20" s="7">
-        <v>4.4279715316523243</v>
+        <v>4.4279715316523145</v>
       </c>
       <c r="P20" s="7">
-        <v>3.8427888167360127</v>
+        <v>3.8427888167360122</v>
       </c>
       <c r="Q20" s="7">
-        <v>-0.11382931294524433</v>
+        <v>-0.11382931294523994</v>
       </c>
       <c r="R20" s="7">
-        <v>2.874903605620037</v>
+        <v>2.8749036056200339</v>
       </c>
       <c r="S20" s="7">
-        <v>1.8907285393343223</v>
+        <v>1.8907285393343263</v>
       </c>
       <c r="T20" s="7">
-        <v>1.402345980659238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.4023459806592236</v>
+      </c>
+      <c r="U20" s="7">
+        <v>2.4368239617857448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="7">
-        <v>0.11956874189363971</v>
+        <v>0.11956874189364493</v>
       </c>
       <c r="C21" s="7">
-        <v>0.68189877906682028</v>
+        <v>0.68189877906680896</v>
       </c>
       <c r="D21" s="7">
-        <v>2.8707744580421286</v>
+        <v>2.8707744580421504</v>
       </c>
       <c r="E21" s="7">
-        <v>0.74085167989616829</v>
+        <v>0.74085167989617973</v>
       </c>
       <c r="F21" s="7">
-        <v>-6.7617351173005655</v>
+        <v>-6.761735117300562</v>
       </c>
       <c r="G21" s="7">
         <v>-38.125956042186623</v>
       </c>
       <c r="H21" s="7">
-        <v>-13.619057978896988</v>
+        <v>-13.61905797889699</v>
       </c>
       <c r="I21" s="7">
         <v>-17.978730784859817</v>
       </c>
       <c r="J21" s="7">
-        <v>-2.6105834464043345</v>
+        <v>-2.6105834464043407</v>
       </c>
       <c r="K21" s="7">
-        <v>61.547094318754809</v>
+        <v>61.547094318754802</v>
       </c>
       <c r="L21" s="7">
-        <v>15.137777472496033</v>
+        <v>15.137777472496007</v>
       </c>
       <c r="M21" s="7">
         <v>21.431419698635743</v>
       </c>
       <c r="N21" s="7">
-        <v>10.092510031208207</v>
+        <v>10.092510031208203</v>
       </c>
       <c r="O21" s="7">
-        <v>-0.89001651161853856</v>
+        <v>-0.89001651161853823</v>
       </c>
       <c r="P21" s="7">
-        <v>-2.767116749855846</v>
+        <v>-2.7671167498558358</v>
       </c>
       <c r="Q21" s="7">
-        <v>-3.383320231259868</v>
+        <v>-3.3833202312598853</v>
       </c>
       <c r="R21" s="7">
-        <v>0.52442419640596483</v>
+        <v>0.52442419640596472</v>
       </c>
       <c r="S21" s="7">
-        <v>-0.96708655018286238</v>
+        <v>-0.96708655018285272</v>
       </c>
       <c r="T21" s="7">
-        <v>-0.41108077430437356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-0.41108077430437062</v>
+      </c>
+      <c r="U21" s="7">
+        <v>1.9198088430679829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7">
-        <v>-1.6405295315682409</v>
+        <v>-1.6405295315682262</v>
       </c>
       <c r="C22" s="7">
-        <v>-0.84414664264457895</v>
+        <v>-0.84414664264458439</v>
       </c>
       <c r="D22" s="7">
-        <v>-0.15002850541600471</v>
+        <v>-0.15002850541602311</v>
       </c>
       <c r="E22" s="7">
-        <v>-2.7791621471079679</v>
+        <v>-2.7791621471079622</v>
       </c>
       <c r="F22" s="7">
-        <v>-5.6445350919876898</v>
+        <v>-5.644535091987696</v>
       </c>
       <c r="G22" s="7">
-        <v>-30.724551876199438</v>
+        <v>-30.724551876199428</v>
       </c>
       <c r="H22" s="7">
-        <v>-4.7009445963678713</v>
+        <v>-4.7009445963678651</v>
       </c>
       <c r="I22" s="7">
         <v>-13.923147282614174</v>
       </c>
       <c r="J22" s="7">
-        <v>2.1725534086046325</v>
+        <v>2.1725534086046263</v>
       </c>
       <c r="K22" s="7">
         <v>47.410299860016238</v>
       </c>
       <c r="L22" s="7">
-        <v>5.6255124135466268</v>
+        <v>5.6255124135466259</v>
       </c>
       <c r="M22" s="7">
-        <v>17.198173686607422</v>
+        <v>17.198173686607436</v>
       </c>
       <c r="N22" s="7">
-        <v>16.33321520237978</v>
+        <v>16.333215202379783</v>
       </c>
       <c r="O22" s="7">
-        <v>9.2233106757296834</v>
+        <v>9.2233106757296994</v>
       </c>
       <c r="P22" s="7">
-        <v>9.3432182306697413</v>
+        <v>9.3432182306697236</v>
       </c>
       <c r="Q22" s="7">
-        <v>7.9699098291237043</v>
+        <v>7.9699098291237087</v>
       </c>
       <c r="R22" s="7">
-        <v>1.5841072318741671</v>
+        <v>1.5841072318741714</v>
       </c>
       <c r="S22" s="7">
-        <v>-1.5649738713426515</v>
+        <v>-1.5649738713426797</v>
       </c>
       <c r="T22" s="7">
-        <v>-1.2522866061758973</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-1.2522866061758799</v>
+      </c>
+      <c r="U22" s="7">
+        <v>0.3322136502897598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="7">
-        <v>4.1991800734294529</v>
+        <v>4.1991800734294422</v>
       </c>
       <c r="C23" s="7">
-        <v>4.5727176504549139</v>
+        <v>4.5727176504549281</v>
       </c>
       <c r="D23" s="7">
-        <v>6.7968300632708898</v>
+        <v>6.7968300632709147</v>
       </c>
       <c r="E23" s="7">
-        <v>2.1952460565530201</v>
+        <v>2.1952460565530227</v>
       </c>
       <c r="F23" s="7">
-        <v>-7.1949540813181905</v>
+        <v>-7.1949540813182011</v>
       </c>
       <c r="G23" s="7">
-        <v>-39.886514671301505</v>
+        <v>-39.886514671301519</v>
       </c>
       <c r="H23" s="7">
-        <v>-11.623430378105581</v>
+        <v>-11.623430378105596</v>
       </c>
       <c r="I23" s="7">
-        <v>-17.385914462520205</v>
+        <v>-17.385914462520208</v>
       </c>
       <c r="J23" s="7">
-        <v>2.5281707290075537</v>
+        <v>2.5281707290075723</v>
       </c>
       <c r="K23" s="7">
         <v>70.73830297464157</v>
       </c>
       <c r="L23" s="7">
-        <v>14.565111896082792</v>
+        <v>14.565111896082797</v>
       </c>
       <c r="M23" s="7">
-        <v>31.77004538577911</v>
+        <v>31.770045385779138</v>
       </c>
       <c r="N23" s="7">
-        <v>11.508647679917079</v>
+        <v>11.508647679917086</v>
       </c>
       <c r="O23" s="7">
-        <v>4.1408919303907741</v>
+        <v>4.1408919303907954</v>
       </c>
       <c r="P23" s="7">
-        <v>2.7779145939023837</v>
+        <v>2.777914593902381</v>
       </c>
       <c r="Q23" s="7">
-        <v>-2.3428822118301302</v>
+        <v>-2.3428822118301533</v>
       </c>
       <c r="R23" s="7">
-        <v>2.6160370234107293</v>
+        <v>2.6160370234107253</v>
       </c>
       <c r="S23" s="7">
-        <v>-0.48878005853882084</v>
+        <v>-0.48878005853883821</v>
       </c>
       <c r="T23" s="7">
-        <v>0.26644941774093112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.26644941774093361</v>
+      </c>
+      <c r="U23" s="7">
+        <v>0.14241610353364384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7">
-        <v>-8.3216607781238832</v>
+        <v>-8.3216607781238938</v>
       </c>
       <c r="C24" s="7">
-        <v>-9.6231458671838137</v>
+        <v>-9.6231458671838119</v>
       </c>
       <c r="D24" s="7">
-        <v>-7.3986443279191789</v>
+        <v>-7.3986443279191674</v>
       </c>
       <c r="E24" s="7">
-        <v>-8.9296324590442318</v>
+        <v>-8.9296324590442264</v>
       </c>
       <c r="F24" s="7">
-        <v>-6.8262926857077773</v>
+        <v>-6.8262926857077639</v>
       </c>
       <c r="G24" s="7">
-        <v>-39.437452879429344</v>
+        <v>-39.43745287942933</v>
       </c>
       <c r="H24" s="7">
-        <v>-15.880579149690403</v>
+        <v>-15.880579149690389</v>
       </c>
       <c r="I24" s="7">
-        <v>-21.37081741075589</v>
+        <v>-21.37081741075588</v>
       </c>
       <c r="J24" s="7">
-        <v>-14.349347756920132</v>
+        <v>-14.349347756920141</v>
       </c>
       <c r="K24" s="7">
         <v>59.857509480216045</v>
       </c>
       <c r="L24" s="7">
-        <v>15.835704903677779</v>
+        <v>15.835704903677756</v>
       </c>
       <c r="M24" s="7">
-        <v>20.969343152217391</v>
+        <v>20.969343152217398</v>
       </c>
       <c r="N24" s="7">
-        <v>18.714995999542783</v>
+        <v>18.71499599954279</v>
       </c>
       <c r="O24" s="7">
-        <v>1.6557243494512746</v>
+        <v>1.6557243494512801</v>
       </c>
       <c r="P24" s="7">
-        <v>2.0434197160473224</v>
+        <v>2.0434197160473362</v>
       </c>
       <c r="Q24" s="7">
         <v>4.6361509535650027</v>
       </c>
       <c r="R24" s="7">
-        <v>5.9669518961139056</v>
+        <v>5.9669518961139234</v>
       </c>
       <c r="S24" s="7">
-        <v>0.62816735415439595</v>
+        <v>0.62816735415439173</v>
       </c>
       <c r="T24" s="7">
-        <v>4.1670525048619546E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4.167052504861115E-2</v>
+      </c>
+      <c r="U24" s="7">
+        <v>0.95521269870998782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="7">
-        <v>4.01391810649943</v>
+        <v>4.0139181064994185</v>
       </c>
       <c r="C25" s="7">
-        <v>1.3161839369469519</v>
+        <v>1.3161839369469621</v>
       </c>
       <c r="D25" s="7">
-        <v>1.763474469172966</v>
+        <v>1.7634744691729491</v>
       </c>
       <c r="E25" s="7">
-        <v>-1.3771216727501425</v>
+        <v>-1.377121672750141</v>
       </c>
       <c r="F25" s="7">
-        <v>-16.031324585198465</v>
+        <v>-16.031324585198444</v>
       </c>
       <c r="G25" s="7">
-        <v>-47.69963537788977</v>
+        <v>-47.699635377889784</v>
       </c>
       <c r="H25" s="7">
         <v>-28.679363333870526</v>
       </c>
       <c r="I25" s="7">
-        <v>-29.59394689034054</v>
+        <v>-29.593946890340547</v>
       </c>
       <c r="J25" s="7">
-        <v>-0.85842788977420181</v>
+        <v>-0.85842788977422435</v>
       </c>
       <c r="K25" s="7">
-        <v>91.298158523899019</v>
+        <v>91.298158523899048</v>
       </c>
       <c r="L25" s="7">
-        <v>44.998272057846194</v>
+        <v>44.998272057846172</v>
       </c>
       <c r="M25" s="7">
-        <v>48.849146982527898</v>
+        <v>48.849146982527941</v>
       </c>
       <c r="N25" s="7">
-        <v>25.439263097294187</v>
+        <v>25.439263097294194</v>
       </c>
       <c r="O25" s="7">
-        <v>6.6343566944608918</v>
+        <v>6.6343566944608758</v>
       </c>
       <c r="P25" s="7">
-        <v>3.1800014667057765</v>
+        <v>3.1800014667057894</v>
       </c>
       <c r="Q25" s="7">
-        <v>2.3992623328722993</v>
+        <v>2.3992623328722869</v>
       </c>
       <c r="R25" s="7">
-        <v>4.9888015861359944</v>
+        <v>4.9888015861360024</v>
       </c>
       <c r="S25" s="7">
-        <v>-1.0512471817628966</v>
+        <v>-1.0512471817628868</v>
       </c>
       <c r="T25" s="7">
-        <v>-1.059018985936012</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-1.059018985936004</v>
+      </c>
+      <c r="U25" s="7">
+        <v>0.36019162194286342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="7">
-        <v>6.2443402491296629</v>
+        <v>6.2443402491296736</v>
       </c>
       <c r="C26" s="7">
-        <v>6.5634637841722201</v>
+        <v>6.5634637841722352</v>
       </c>
       <c r="D26" s="7">
-        <v>6.3748287277346112</v>
+        <v>6.3748287277346103</v>
       </c>
       <c r="E26" s="7">
-        <v>2.7318553320608867</v>
+        <v>2.7318553320608858</v>
       </c>
       <c r="F26" s="7">
-        <v>-13.410106826274717</v>
+        <v>-13.410106826274731</v>
       </c>
       <c r="G26" s="7">
-        <v>-50.235559676679117</v>
+        <v>-50.235559676679131</v>
       </c>
       <c r="H26" s="7">
-        <v>-27.415123964611091</v>
+        <v>-27.415123964611094</v>
       </c>
       <c r="I26" s="7">
-        <v>-31.683753191813729</v>
+        <v>-31.683753191813707</v>
       </c>
       <c r="J26" s="7">
-        <v>-18.173068509930886</v>
+        <v>-18.173068509930868</v>
       </c>
       <c r="K26" s="7">
         <v>67.592034931867815</v>
       </c>
       <c r="L26" s="7">
-        <v>22.697598507810685</v>
+        <v>22.697598507810671</v>
       </c>
       <c r="M26" s="7">
-        <v>29.314384535996226</v>
+        <v>29.314384535996211</v>
       </c>
       <c r="N26" s="7">
-        <v>27.476742942686069</v>
+        <v>27.476742942686048</v>
       </c>
       <c r="O26" s="7">
         <v>9.3907574821719333</v>
       </c>
       <c r="P26" s="7">
-        <v>1.6225917128529912</v>
+        <v>1.6225917128530063</v>
       </c>
       <c r="Q26" s="7">
-        <v>3.4609203955953931</v>
+        <v>3.46092039559539</v>
       </c>
       <c r="R26" s="7">
         <v>11.141518039696775</v>
       </c>
       <c r="S26" s="7">
-        <v>6.863983081298068</v>
+        <v>6.8639830812980511</v>
       </c>
       <c r="T26" s="7">
-        <v>8.8768153580852314</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+        <v>8.8768153580852172</v>
+      </c>
+      <c r="U26" s="7">
+        <v>6.6360888147607646</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="7">
-        <v>6.4888897690814824</v>
+        <v>6.4888897690814673</v>
       </c>
       <c r="C27" s="7">
-        <v>5.3112806476035326</v>
+        <v>5.3112806476035219</v>
       </c>
       <c r="D27" s="7">
-        <v>6.8075048302782335</v>
+        <v>6.8075048302782584</v>
       </c>
       <c r="E27" s="7">
-        <v>4.1456825856246908</v>
+        <v>4.1456825856247077</v>
       </c>
       <c r="F27" s="7">
-        <v>-10.051050297095983</v>
+        <v>-10.051050297095998</v>
       </c>
       <c r="G27" s="7">
-        <v>-55.340190602591768</v>
+        <v>-55.340190602591754</v>
       </c>
       <c r="H27" s="7">
-        <v>-32.613726102367252</v>
+        <v>-32.613726102367281</v>
       </c>
       <c r="I27" s="7">
         <v>-36.631865637766687</v>
       </c>
       <c r="J27" s="7">
-        <v>-24.689864781044548</v>
+        <v>-24.68986478104453</v>
       </c>
       <c r="K27" s="7">
-        <v>84.573315447322273</v>
+        <v>84.573315447322258</v>
       </c>
       <c r="L27" s="7">
-        <v>34.358520133542264</v>
+        <v>34.358520133542299</v>
       </c>
       <c r="M27" s="7">
         <v>45.570434477515946</v>
       </c>
       <c r="N27" s="7">
-        <v>36.496039753462647</v>
+        <v>36.496039753462654</v>
       </c>
       <c r="O27" s="7">
-        <v>16.835690725107625</v>
+        <v>16.835690725107632</v>
       </c>
       <c r="P27" s="7">
-        <v>6.2860678100183502</v>
+        <v>6.2860678100183325</v>
       </c>
       <c r="Q27" s="7">
-        <v>2.5879730055435113</v>
+        <v>2.5879730055434949</v>
       </c>
       <c r="R27" s="7">
-        <v>8.1891870147632542</v>
+        <v>8.1891870147632346</v>
       </c>
       <c r="S27" s="7">
-        <v>2.0508747081116243</v>
+        <v>2.0508747081116345</v>
       </c>
       <c r="T27" s="7">
-        <v>2.7100012404935288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.7100012404935363</v>
+      </c>
+      <c r="U27" s="7">
+        <v>2.9798439595508781</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="7">
-        <v>-2.4247077231071383</v>
+        <v>-2.4247077231071281</v>
       </c>
       <c r="C28" s="7">
-        <v>-3.222883642988676</v>
+        <v>-3.2228836429886658</v>
       </c>
       <c r="D28" s="7">
-        <v>-3.5108335680363623</v>
+        <v>-3.5108335680363627</v>
       </c>
       <c r="E28" s="7">
-        <v>-7.1775134801439133</v>
+        <v>-7.1775134801439169</v>
       </c>
       <c r="F28" s="7">
-        <v>-14.259392056093382</v>
+        <v>-14.259392056093379</v>
       </c>
       <c r="G28" s="7">
-        <v>-51.842791418763149</v>
+        <v>-51.842791418763156</v>
       </c>
       <c r="H28" s="7">
-        <v>-24.663821563732995</v>
+        <v>-24.663821563732988</v>
       </c>
       <c r="I28" s="7">
-        <v>-31.037098617894625</v>
+        <v>-31.037098617894635</v>
       </c>
       <c r="J28" s="7">
-        <v>-18.749636995132828</v>
+        <v>-18.749636995132839</v>
       </c>
       <c r="K28" s="7">
         <v>81.495108286646015</v>
       </c>
       <c r="L28" s="7">
-        <v>26.507054296708016</v>
+        <v>26.507054296707985</v>
       </c>
       <c r="M28" s="7">
-        <v>40.123261455931768</v>
+        <v>40.123261455931775</v>
       </c>
       <c r="N28" s="7">
         <v>38.63551882881081</v>
       </c>
       <c r="O28" s="7">
-        <v>13.096060815480325</v>
+        <v>13.096060815480296</v>
       </c>
       <c r="P28" s="7">
-        <v>3.7269770192632659</v>
+        <v>3.7269770192632672</v>
       </c>
       <c r="Q28" s="7">
-        <v>3.6939455855468237</v>
+        <v>3.6939455855468322</v>
       </c>
       <c r="R28" s="7">
-        <v>4.3302052181087012</v>
+        <v>4.3302052181086967</v>
       </c>
       <c r="S28" s="7">
-        <v>-0.45320297382625341</v>
+        <v>-0.45320297382623931</v>
       </c>
       <c r="T28" s="7">
-        <v>-0.50296791797754981</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-0.50296791797753049</v>
+      </c>
+      <c r="U28" s="7">
+        <v>0.7498055483536431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="7">
-        <v>-1.8486733169096647</v>
+        <v>-1.8486733169096579</v>
       </c>
       <c r="C29" s="7">
-        <v>0.2105263157894709</v>
+        <v>0.2105263157894727</v>
       </c>
       <c r="D29" s="7">
-        <v>2.5018261504747987</v>
+        <v>2.5018261504748081</v>
       </c>
       <c r="E29" s="7">
-        <v>-0.31916797581879641</v>
+        <v>-0.31916797581880824</v>
       </c>
       <c r="F29" s="7">
-        <v>-1.4864267124767221</v>
+        <v>-1.4864267124767236</v>
       </c>
       <c r="G29" s="7">
         <v>-47.145685197155792</v>
       </c>
       <c r="H29" s="7">
-        <v>-21.908466456836315</v>
+        <v>-21.908466456836326</v>
       </c>
       <c r="I29" s="7">
-        <v>-30.535744566247399</v>
+        <v>-30.535744566247384</v>
       </c>
       <c r="J29" s="7">
-        <v>-22.125344582741629</v>
+        <v>-22.12534458274164</v>
       </c>
       <c r="K29" s="7">
-        <v>73.065163386202954</v>
+        <v>73.065163386202968</v>
       </c>
       <c r="L29" s="7">
-        <v>22.205604633772289</v>
+        <v>22.205604633772293</v>
       </c>
       <c r="M29" s="7">
-        <v>37.017518667432512</v>
+        <v>37.017518667432476</v>
       </c>
       <c r="N29" s="7">
-        <v>28.542887407983482</v>
+        <v>28.5428874079835</v>
       </c>
       <c r="O29" s="7">
-        <v>8.0726549991718617</v>
+        <v>8.0726549991718599</v>
       </c>
       <c r="P29" s="7">
-        <v>3.9069063151453745</v>
+        <v>3.9069063151453656</v>
       </c>
       <c r="Q29" s="7">
-        <v>2.875737536549333</v>
+        <v>2.8757375365493378</v>
       </c>
       <c r="R29" s="7">
-        <v>6.4444119917384732</v>
+        <v>6.4444119917384795</v>
       </c>
       <c r="S29" s="7">
-        <v>2.5542523192611153</v>
+        <v>2.5542523192611242</v>
       </c>
       <c r="T29" s="7">
-        <v>0.25552472401331511</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.25552472401330406</v>
+      </c>
+      <c r="U29" s="7">
+        <v>1.8204415105487852</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="7">
-        <v>2.1158949418305353</v>
+        <v>2.1158949418305384</v>
       </c>
       <c r="C30" s="7">
-        <v>0.74855223419420247</v>
+        <v>0.74855223419418648</v>
       </c>
       <c r="D30" s="7">
-        <v>1.6952027458492887</v>
+        <v>1.6952027458492946</v>
       </c>
       <c r="E30" s="7">
-        <v>-1.0889856876166801</v>
+        <v>-1.0889856876166677</v>
       </c>
       <c r="F30" s="7">
-        <v>-4.264653571005093</v>
+        <v>-4.2646535710050788</v>
       </c>
       <c r="G30" s="7">
         <v>-36.295732008943588</v>
       </c>
       <c r="H30" s="7">
-        <v>-4.2443805617966559</v>
+        <v>-4.2443805617966524</v>
       </c>
       <c r="I30" s="7">
-        <v>-7.427650204466814</v>
+        <v>-7.4276502044668069</v>
       </c>
       <c r="J30" s="7">
-        <v>1.5430187432912239</v>
+        <v>1.5430187432912035</v>
       </c>
       <c r="K30" s="7">
-        <v>67.601062260253741</v>
+        <v>67.601062260253755</v>
       </c>
       <c r="L30" s="7">
-        <v>7.7963461991659786</v>
+        <v>7.7963461991659662</v>
       </c>
       <c r="M30" s="7">
-        <v>14.167693157201715</v>
+        <v>14.167693157201713</v>
       </c>
       <c r="N30" s="7">
         <v>12.911783539839199</v>
       </c>
       <c r="O30" s="7">
-        <v>1.865270570793182</v>
+        <v>1.8652705707931845</v>
       </c>
       <c r="P30" s="7">
-        <v>4.4636237476949825</v>
+        <v>4.4636237476949807</v>
       </c>
       <c r="Q30" s="7">
-        <v>0.91708986736612796</v>
+        <v>0.91708986736610121</v>
       </c>
       <c r="R30" s="7">
-        <v>-0.86599571503160822</v>
+        <v>-0.86599571503160644</v>
       </c>
       <c r="S30" s="7">
-        <v>-2.3059499877198077</v>
+        <v>-2.3059499877197847</v>
       </c>
       <c r="T30" s="7">
-        <v>-3.6487052100962636</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-3.6487052100962538</v>
+      </c>
+      <c r="U30" s="7">
+        <v>-3.0009216589861714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="7">
-        <v>5.0174602075440093</v>
+        <v>5.0174602075439898</v>
       </c>
       <c r="C31" s="7">
         <v>5.1947668699586984</v>
       </c>
       <c r="D31" s="7">
-        <v>5.3475362544830753</v>
+        <v>5.3475362544830851</v>
       </c>
       <c r="E31" s="7">
-        <v>1.0030383664534088</v>
+        <v>1.0030383664534221</v>
       </c>
       <c r="F31" s="7">
-        <v>-8.5098766943923749</v>
+        <v>-8.5098766943923696</v>
       </c>
       <c r="G31" s="7">
         <v>-40.222178584453111</v>
       </c>
       <c r="H31" s="7">
-        <v>-18.901891854387355</v>
+        <v>-18.901891854387348</v>
       </c>
       <c r="I31" s="7">
-        <v>-22.526882222699712</v>
+        <v>-22.526882222699715</v>
       </c>
       <c r="J31" s="7">
-        <v>-6.473101673101695</v>
+        <v>-6.4731016731016773</v>
       </c>
       <c r="K31" s="7">
-        <v>61.526428582602016</v>
+        <v>61.526428582602058</v>
       </c>
       <c r="L31" s="7">
-        <v>21.538163193137361</v>
+        <v>21.538163193137343</v>
       </c>
       <c r="M31" s="7">
-        <v>28.581420027011394</v>
+        <v>28.581420027011379</v>
       </c>
       <c r="N31" s="7">
-        <v>16.095686827098817</v>
+        <v>16.095686827098795</v>
       </c>
       <c r="O31" s="7">
-        <v>3.1077194239727204</v>
+        <v>3.1077194239727266</v>
       </c>
       <c r="P31" s="7">
-        <v>1.4801396606096988</v>
+        <v>1.4801396606097021</v>
       </c>
       <c r="Q31" s="7">
-        <v>0.22038825846383683</v>
+        <v>0.22038825846385043</v>
       </c>
       <c r="R31" s="7">
-        <v>5.7851866602186561</v>
+        <v>5.7851866602186659</v>
       </c>
       <c r="S31" s="7">
-        <v>3.6997031972048111</v>
+        <v>3.69970319720478</v>
       </c>
       <c r="T31" s="7">
-        <v>1.3364656264740491</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.3364656264740566</v>
+      </c>
+      <c r="U31" s="7">
+        <v>3.4155242595798518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="7">
-        <v>5.732324497669997</v>
+        <v>5.7323244976699987</v>
       </c>
       <c r="C32" s="7">
-        <v>3.4367485777960232</v>
+        <v>3.4367485777960134</v>
       </c>
       <c r="D32" s="7">
-        <v>5.5276579823162102</v>
+        <v>5.5276579823162173</v>
       </c>
       <c r="E32" s="7">
-        <v>2.4637156679745531</v>
+        <v>2.4637156679745291</v>
       </c>
       <c r="F32" s="7">
-        <v>-3.2946305862281631</v>
+        <v>-3.2946305862281511</v>
       </c>
       <c r="G32" s="7">
-        <v>-35.806354066262216</v>
+        <v>-35.806354066262209</v>
       </c>
       <c r="H32" s="7">
-        <v>-4.3143987459878952</v>
+        <v>-4.3143987459878934</v>
       </c>
       <c r="I32" s="7">
-        <v>-7.2673364872526465</v>
+        <v>-7.2673364872526198</v>
       </c>
       <c r="J32" s="7">
-        <v>7.6488057317037335</v>
+        <v>7.6488057317037512</v>
       </c>
       <c r="K32" s="7">
-        <v>79.944355301703212</v>
+        <v>79.944355301703197</v>
       </c>
       <c r="L32" s="7">
         <v>20.176105780482089</v>
       </c>
       <c r="M32" s="7">
-        <v>27.883574549973936</v>
+        <v>27.883574549973904</v>
       </c>
       <c r="N32" s="7">
-        <v>19.689892837307561</v>
+        <v>19.689892837307557</v>
       </c>
       <c r="O32" s="7">
-        <v>6.5143408759959867</v>
+        <v>6.5143408759959938</v>
       </c>
       <c r="P32" s="7">
-        <v>4.5211492741981161</v>
+        <v>4.5211492741981374</v>
       </c>
       <c r="Q32" s="7">
-        <v>1.8214308107091239</v>
+        <v>1.8214308107091408</v>
       </c>
       <c r="R32" s="7">
-        <v>4.3633376185730892</v>
+        <v>4.3633376185730706</v>
       </c>
       <c r="S32" s="7">
-        <v>2.717337040422136</v>
+        <v>2.7173370404221262</v>
       </c>
       <c r="T32" s="7">
-        <v>4.1462562589760674</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4.1462562589760594</v>
+      </c>
+      <c r="U32" s="7">
+        <v>4.2465901043751337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="7">
-        <v>2.7175587694448637</v>
+        <v>2.7175587694448518</v>
       </c>
       <c r="C33" s="7">
-        <v>2.5675609155796284</v>
+        <v>2.5675609155796288</v>
       </c>
       <c r="D33" s="7">
         <v>4.3696832891403714</v>
       </c>
       <c r="E33" s="7">
-        <v>2.104218075262192</v>
+        <v>2.1042180752621951</v>
       </c>
       <c r="F33" s="7">
-        <v>-8.4508268901382788</v>
+        <v>-8.450826890138293</v>
       </c>
       <c r="G33" s="7">
-        <v>-32.723189003964194</v>
+        <v>-32.723189003964187</v>
       </c>
       <c r="H33" s="7">
-        <v>-11.841483916057516</v>
+        <v>-11.841483916057514</v>
       </c>
       <c r="I33" s="7">
-        <v>-20.452764639799113</v>
+        <v>-20.45276463979911</v>
       </c>
       <c r="J33" s="7">
-        <v>-0.79381857387481192</v>
+        <v>-0.79381857387479648</v>
       </c>
       <c r="K33" s="7">
-        <v>45.308242142357805</v>
+        <v>45.308242142357798</v>
       </c>
       <c r="L33" s="7">
-        <v>9.6460404525197347</v>
+        <v>9.646040452519717</v>
       </c>
       <c r="M33" s="7">
-        <v>24.65642875792172</v>
+        <v>24.656428757921706</v>
       </c>
       <c r="N33" s="7">
-        <v>14.00777795535666</v>
+        <v>14.007777955356659</v>
       </c>
       <c r="O33" s="7">
-        <v>6.379113973764829</v>
+        <v>6.3791139737648264</v>
       </c>
       <c r="P33" s="7">
-        <v>8.376323914487843</v>
+        <v>8.3763239144878501</v>
       </c>
       <c r="Q33" s="7">
-        <v>5.760772291932434</v>
+        <v>5.7607722919324358</v>
       </c>
       <c r="R33" s="7">
-        <v>5.689613278256493</v>
+        <v>5.6896132782564912</v>
       </c>
       <c r="S33" s="7">
-        <v>2.2096081960404361</v>
+        <v>2.2096081960404339</v>
       </c>
       <c r="T33" s="7">
-        <v>-0.39938334490315597</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-0.39938334490316618</v>
+      </c>
+      <c r="U33" s="7">
+        <v>-8.4616838750898177E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="7">
-        <v>-0.56832546239648607</v>
+        <v>-0.56832546239647008</v>
       </c>
       <c r="C34" s="7">
-        <v>5.5697894619591806E-2</v>
+        <v>5.569789461959037E-2</v>
       </c>
       <c r="D34" s="7">
-        <v>3.5174685792772746</v>
+        <v>3.5174685792772964</v>
       </c>
       <c r="E34" s="7">
-        <v>2.4835927150643844</v>
+        <v>2.4835927150643617</v>
       </c>
       <c r="F34" s="7">
-        <v>-3.7681159420289685</v>
+        <v>-3.7681159420289791</v>
       </c>
       <c r="G34" s="7">
         <v>-56.059593935345433</v>
@@ -6545,131 +6799,137 @@
         <v>-35.466969263407172</v>
       </c>
       <c r="J34" s="7">
-        <v>-26.124497991967882</v>
+        <v>-26.124497991967875</v>
       </c>
       <c r="K34" s="7">
-        <v>93.366195236559605</v>
+        <v>93.366195236559591</v>
       </c>
       <c r="L34" s="7">
         <v>38.014749667903445</v>
       </c>
       <c r="M34" s="7">
-        <v>48.693445054356957</v>
+        <v>48.693445054356985</v>
       </c>
       <c r="N34" s="7">
-        <v>36.576014649289725</v>
+        <v>36.576014649289689</v>
       </c>
       <c r="O34" s="7">
-        <v>15.930099585457674</v>
+        <v>15.930099585457679</v>
       </c>
       <c r="P34" s="7">
-        <v>6.6533908618209896</v>
+        <v>6.6533908618209923</v>
       </c>
       <c r="Q34" s="7">
-        <v>-4.0196612748979472</v>
+        <v>-4.019661274897949</v>
       </c>
       <c r="R34" s="7">
-        <v>-0.42632086144047521</v>
+        <v>-0.42632086144045411</v>
       </c>
       <c r="S34" s="7">
-        <v>-5.3780787291540335</v>
+        <v>-5.37807872915403</v>
       </c>
       <c r="T34" s="7">
-        <v>-3.5164515995186836</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-3.5164515995186902</v>
+      </c>
+      <c r="U34" s="7">
+        <v>0.4714050011785223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="7">
-        <v>-0.32283338210446572</v>
+        <v>-0.32283338210444934</v>
       </c>
       <c r="C35" s="7">
-        <v>-2.8641380019250144</v>
+        <v>-2.8641380019249967</v>
       </c>
       <c r="D35" s="7">
-        <v>-2.1623981926224101</v>
+        <v>-2.1623981926224172</v>
       </c>
       <c r="E35" s="7">
-        <v>-2.645215886508649</v>
+        <v>-2.6452158865086481</v>
       </c>
       <c r="F35" s="7">
-        <v>-1.4309389649130924</v>
+        <v>-1.4309389649131152</v>
       </c>
       <c r="G35" s="7">
-        <v>-55.433485973756099</v>
+        <v>-55.433485973756106</v>
       </c>
       <c r="H35" s="7">
-        <v>-6.7712578103776169</v>
+        <v>-6.7712578103776107</v>
       </c>
       <c r="I35" s="7">
-        <v>-3.3382492259910688</v>
+        <v>-3.3382492259910612</v>
       </c>
       <c r="J35" s="7">
-        <v>-10.175435225394891</v>
+        <v>-10.175435225394883</v>
       </c>
       <c r="K35" s="7">
-        <v>120.45719466390362</v>
+        <v>120.45719466390365</v>
       </c>
       <c r="L35" s="7">
-        <v>5.5698362975991156</v>
+        <v>5.5698362975991076</v>
       </c>
       <c r="M35" s="7">
-        <v>10.527326186458664</v>
+        <v>10.527326186458662</v>
       </c>
       <c r="N35" s="7">
-        <v>17.06972714534778</v>
+        <v>17.069727145347795</v>
       </c>
       <c r="O35" s="7">
-        <v>10.279156752734282</v>
+        <v>10.27915675273427</v>
       </c>
       <c r="P35" s="7">
-        <v>11.262704429175557</v>
+        <v>11.262704429175578</v>
       </c>
       <c r="Q35" s="7">
-        <v>1.6290337325166759</v>
+        <v>1.6290337325166837</v>
       </c>
       <c r="R35" s="7">
-        <v>5.4078500164455665</v>
+        <v>5.4078500164455576</v>
       </c>
       <c r="S35" s="7">
-        <v>-0.82751027728697446</v>
+        <v>-0.82751027728698079</v>
       </c>
       <c r="T35" s="7">
-        <v>-0.16302518030229199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-0.16302518030231222</v>
+      </c>
+      <c r="U35" s="7">
+        <v>1.5399561040549745</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="7">
-        <v>3.4759734131207543</v>
+        <v>3.4759734131207454</v>
       </c>
       <c r="C36" s="7">
-        <v>-0.4841599634021056</v>
+        <v>-0.48415996340209344</v>
       </c>
       <c r="D36" s="7">
-        <v>6.2736340628256526</v>
+        <v>6.2736340628256588</v>
       </c>
       <c r="E36" s="7">
-        <v>1.6955087985525434</v>
+        <v>1.6955087985525552</v>
       </c>
       <c r="F36" s="7">
-        <v>-9.4964098583349585</v>
+        <v>-9.4964098583349443</v>
       </c>
       <c r="G36" s="7">
-        <v>-55.324854428440077</v>
+        <v>-55.324854428440084</v>
       </c>
       <c r="H36" s="7">
         <v>-28.185587806791425</v>
       </c>
       <c r="I36" s="7">
-        <v>-26.719850015304562</v>
+        <v>-26.719850015304569</v>
       </c>
       <c r="J36" s="7">
-        <v>-8.5801893366783517</v>
+        <v>-8.5801893366783446</v>
       </c>
       <c r="K36" s="7">
         <v>112.51286228777222</v>
@@ -6678,217 +6938,229 @@
         <v>36.096806075738662</v>
       </c>
       <c r="M36" s="7">
-        <v>40.105730322412214</v>
+        <v>40.105730322412228</v>
       </c>
       <c r="N36" s="7">
-        <v>20.782221179781864</v>
+        <v>20.782221179781857</v>
       </c>
       <c r="O36" s="7">
-        <v>9.0242401622063131</v>
+        <v>9.0242401622063309</v>
       </c>
       <c r="P36" s="7">
-        <v>6.1498475915644919</v>
+        <v>6.1498475915644963</v>
       </c>
       <c r="Q36" s="7">
-        <v>-1.6769925932825711E-2</v>
+        <v>-1.6769925932840071E-2</v>
       </c>
       <c r="R36" s="7">
-        <v>6.3762853064830995</v>
+        <v>6.3762853064831049</v>
       </c>
       <c r="S36" s="7">
-        <v>1.1482341620481527</v>
+        <v>1.1482341620481242</v>
       </c>
       <c r="T36" s="7">
-        <v>-2.917480578635145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-2.9174805786351468</v>
+      </c>
+      <c r="U36" s="7">
+        <v>-0.19847740805276118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="7">
-        <v>8.3848970829650114</v>
+        <v>8.3848970829650149</v>
       </c>
       <c r="C37" s="7">
-        <v>6.8145130294411373</v>
+        <v>6.814513029441156</v>
       </c>
       <c r="D37" s="7">
-        <v>8.855183557269692</v>
+        <v>8.8551835572696636</v>
       </c>
       <c r="E37" s="7">
-        <v>5.0087653393438325</v>
+        <v>5.0087653393438547</v>
       </c>
       <c r="F37" s="7">
-        <v>-0.88457505444571927</v>
+        <v>-0.88457505444571316</v>
       </c>
       <c r="G37" s="7">
-        <v>-50.290561692634306</v>
+        <v>-50.290561692634313</v>
       </c>
       <c r="H37" s="7">
-        <v>-17.994345290687402</v>
+        <v>-17.994345290687395</v>
       </c>
       <c r="I37" s="7">
         <v>-19.502521839750543</v>
       </c>
       <c r="J37" s="7">
-        <v>-15.328414351851855</v>
+        <v>-15.32841435185186</v>
       </c>
       <c r="K37" s="7">
-        <v>95.977125898043795</v>
+        <v>95.977125898043752</v>
       </c>
       <c r="L37" s="7">
         <v>19.591871915874762</v>
       </c>
       <c r="M37" s="7">
-        <v>31.286485537462141</v>
+        <v>31.286485537462124</v>
       </c>
       <c r="N37" s="7">
-        <v>20.637548056386159</v>
+        <v>20.637548056386155</v>
       </c>
       <c r="O37" s="7">
-        <v>3.2670021699986025</v>
+        <v>3.2670021699986216</v>
       </c>
       <c r="P37" s="7">
-        <v>1.1666876880664505</v>
+        <v>1.1666876880664556</v>
       </c>
       <c r="Q37" s="7">
-        <v>-6.2017318043529173</v>
+        <v>-6.2017318043528986</v>
       </c>
       <c r="R37" s="7">
-        <v>4.4571327402292837</v>
+        <v>4.4571327402292775</v>
       </c>
       <c r="S37" s="7">
-        <v>2.0503786896533231</v>
+        <v>2.0503786896533303</v>
       </c>
       <c r="T37" s="7">
-        <v>2.396409393283633</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.3964093932836374</v>
+      </c>
+      <c r="U37" s="7">
+        <v>2.5556030795551608</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="7">
-        <v>2.7286962483900963</v>
+        <v>2.7286962483901149</v>
       </c>
       <c r="C38" s="7">
-        <v>-0.31067333506926692</v>
+        <v>-0.31067333506926748</v>
       </c>
       <c r="D38" s="7">
-        <v>1.8599802479973788</v>
+        <v>1.8599802479973817</v>
       </c>
       <c r="E38" s="7">
-        <v>-0.42679073516079336</v>
+        <v>-0.42679073516075933</v>
       </c>
       <c r="F38" s="7">
-        <v>-11.639548307958723</v>
+        <v>-11.639548307958732</v>
       </c>
       <c r="G38" s="7">
-        <v>-60.611573969826601</v>
+        <v>-60.611573969826615</v>
       </c>
       <c r="H38" s="7">
-        <v>-38.279917407307657</v>
+        <v>-38.279917407307664</v>
       </c>
       <c r="I38" s="7">
-        <v>-38.139825792625153</v>
+        <v>-38.139825792625174</v>
       </c>
       <c r="J38" s="7">
-        <v>-25.368746618759374</v>
+        <v>-25.368746618759378</v>
       </c>
       <c r="K38" s="7">
-        <v>109.38464704671742</v>
+        <v>109.38464704671743</v>
       </c>
       <c r="L38" s="7">
-        <v>47.029818181818179</v>
+        <v>47.029818181818158</v>
       </c>
       <c r="M38" s="7">
-        <v>50.631179837930269</v>
+        <v>50.631179837930297</v>
       </c>
       <c r="N38" s="7">
-        <v>30.277375058128392</v>
+        <v>30.277375058128406</v>
       </c>
       <c r="O38" s="7">
-        <v>11.550138697769905</v>
+        <v>11.550138697769913</v>
       </c>
       <c r="P38" s="7">
-        <v>2.3287793199647853</v>
+        <v>2.3287793199647795</v>
       </c>
       <c r="Q38" s="7">
-        <v>-2.164707275903929</v>
+        <v>-2.1647072759039325</v>
       </c>
       <c r="R38" s="7">
-        <v>11.431900977417548</v>
+        <v>11.431900977417573</v>
       </c>
       <c r="S38" s="7">
-        <v>2.3947054101153236</v>
+        <v>2.3947054101153133</v>
       </c>
       <c r="T38" s="7">
-        <v>1.6560805127758997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.656080512775906</v>
+      </c>
+      <c r="U38" s="7">
+        <v>6.1121536816191364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="7">
-        <v>4.5143829414632624</v>
+        <v>4.5143829414632757</v>
       </c>
       <c r="C39" s="7">
-        <v>2.7442295388552753</v>
+        <v>2.7442295388552576</v>
       </c>
       <c r="D39" s="7">
-        <v>4.5964459446043868</v>
+        <v>4.596445944604385</v>
       </c>
       <c r="E39" s="7">
-        <v>1.2557806543991081</v>
+        <v>1.2557806543990997</v>
       </c>
       <c r="F39" s="7">
-        <v>-9.9640130238580298</v>
+        <v>-9.9640130238580422</v>
       </c>
       <c r="G39" s="7">
-        <v>-43.052987555444865</v>
+        <v>-43.052987555444851</v>
       </c>
       <c r="H39" s="7">
         <v>-10.211655277145026</v>
       </c>
       <c r="I39" s="7">
-        <v>-14.490731893751184</v>
+        <v>-14.490731893751187</v>
       </c>
       <c r="J39" s="7">
-        <v>-3.9377405574588789</v>
+        <v>-3.9377405574588695</v>
       </c>
       <c r="K39" s="7">
-        <v>75.272109415742847</v>
+        <v>75.272109415742818</v>
       </c>
       <c r="L39" s="7">
-        <v>9.7916512510438523</v>
+        <v>9.7916512510438487</v>
       </c>
       <c r="M39" s="7">
-        <v>14.299282633472616</v>
+        <v>14.299282633472625</v>
       </c>
       <c r="N39" s="7">
-        <v>7.7723230010567272</v>
+        <v>7.7723230010567104</v>
       </c>
       <c r="O39" s="7">
-        <v>-2.6721184024878379</v>
+        <v>-2.6721184024878433</v>
       </c>
       <c r="P39" s="7">
-        <v>-1.8986366787337334</v>
+        <v>-1.898636678733727</v>
       </c>
       <c r="Q39" s="7">
-        <v>-0.27666168089078719</v>
+        <v>-0.27666168089079896</v>
       </c>
       <c r="R39" s="7">
-        <v>7.4650951393641094</v>
+        <v>7.4650951393641041</v>
       </c>
       <c r="S39" s="7">
-        <v>0.81358539688173781</v>
+        <v>0.81358539688175402</v>
       </c>
       <c r="T39" s="7">
-        <v>0.87543673693716328</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.87543673693717239</v>
+      </c>
+      <c r="U39" s="7">
+        <v>0.47447259038508283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>36</v>
       </c>
@@ -6896,400 +7168,418 @@
         <v>11.903886795920235</v>
       </c>
       <c r="C40" s="7">
-        <v>10.255790425541434</v>
+        <v>10.255790425541425</v>
       </c>
       <c r="D40" s="7">
-        <v>8.9135438078673186</v>
+        <v>8.9135438078673399</v>
       </c>
       <c r="E40" s="7">
-        <v>0.14910831533019872</v>
+        <v>0.14910831533020388</v>
       </c>
       <c r="F40" s="7">
-        <v>-20.346512296259792</v>
+        <v>-20.346512296259796</v>
       </c>
       <c r="G40" s="7">
-        <v>-42.797284568161878</v>
+        <v>-42.797284568161885</v>
       </c>
       <c r="H40" s="7">
-        <v>-23.805299028108237</v>
+        <v>-23.805299028108241</v>
       </c>
       <c r="I40" s="7">
-        <v>-28.565023559567202</v>
+        <v>-28.565023559567216</v>
       </c>
       <c r="J40" s="7">
-        <v>9.7200173185163852</v>
+        <v>9.7200173185163781</v>
       </c>
       <c r="K40" s="7">
-        <v>65.522968599170952</v>
+        <v>65.522968599170966</v>
       </c>
       <c r="L40" s="7">
-        <v>24.055255636710061</v>
+        <v>24.055255636710058</v>
       </c>
       <c r="M40" s="7">
-        <v>44.694708919520622</v>
+        <v>44.694708919520629</v>
       </c>
       <c r="N40" s="7">
-        <v>14.273500258373646</v>
+        <v>14.273500258373668</v>
       </c>
       <c r="O40" s="7">
-        <v>4.3172871587722517</v>
+        <v>4.3172871587722428</v>
       </c>
       <c r="P40" s="7">
-        <v>4.5138444472887107</v>
+        <v>4.5138444472886992</v>
       </c>
       <c r="Q40" s="7">
-        <v>-1.352037058255436</v>
+        <v>-1.3520370582554415</v>
       </c>
       <c r="R40" s="7">
-        <v>0.29434253907438257</v>
+        <v>0.29434253907437541</v>
       </c>
       <c r="S40" s="7">
-        <v>-1.3417190775681516</v>
+        <v>-1.3417190775681478</v>
       </c>
       <c r="T40" s="7">
-        <v>-1.4271135241049941</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-1.4271135241049793</v>
+      </c>
+      <c r="U40" s="7">
+        <v>-1.2237211077372474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="7">
-        <v>3.2905486645633908</v>
+        <v>3.290548664563393</v>
       </c>
       <c r="C41" s="7">
-        <v>2.7427061095862553</v>
+        <v>2.742706109586253</v>
       </c>
       <c r="D41" s="7">
-        <v>3.3749605610006919</v>
+        <v>3.374960561000691</v>
       </c>
       <c r="E41" s="7">
-        <v>1.222921034241766</v>
+        <v>1.2229210342417949</v>
       </c>
       <c r="F41" s="7">
-        <v>-8.596074061545508</v>
+        <v>-8.596074061545492</v>
       </c>
       <c r="G41" s="7">
-        <v>-40.882376221949571</v>
+        <v>-40.882376221949578</v>
       </c>
       <c r="H41" s="7">
-        <v>-12.560919178095677</v>
+        <v>-12.560919178095684</v>
       </c>
       <c r="I41" s="7">
-        <v>-19.053207751861532</v>
+        <v>-19.053207751861542</v>
       </c>
       <c r="J41" s="7">
-        <v>0.75431855536569392</v>
+        <v>0.75431855536566395</v>
       </c>
       <c r="K41" s="7">
         <v>69.847194095298647</v>
       </c>
       <c r="L41" s="7">
-        <v>16.745673396313531</v>
+        <v>16.745673396313521</v>
       </c>
       <c r="M41" s="7">
-        <v>28.332277401432844</v>
+        <v>28.33227740143283</v>
       </c>
       <c r="N41" s="7">
-        <v>11.595220604122545</v>
+        <v>11.595220604122552</v>
       </c>
       <c r="O41" s="7">
-        <v>3.0369917817938261</v>
+        <v>3.0369917817938044</v>
       </c>
       <c r="P41" s="7">
-        <v>0.97894543946449686</v>
+        <v>0.9789454394645023</v>
       </c>
       <c r="Q41" s="7">
-        <v>-1.9889869932592856</v>
+        <v>-1.9889869932592656</v>
       </c>
       <c r="R41" s="7">
-        <v>3.8878186200954556</v>
+        <v>3.8878186200954716</v>
       </c>
       <c r="S41" s="7">
-        <v>0.78229601009907956</v>
+        <v>0.78229601009910044</v>
       </c>
       <c r="T41" s="7">
-        <v>1.1604806204512144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.1604806204512093</v>
+      </c>
+      <c r="U41" s="7">
+        <v>2.1969293359810065</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="7">
-        <v>7.8885013169536178</v>
+        <v>7.888501316953616</v>
       </c>
       <c r="C42" s="7">
-        <v>5.9079639596057403</v>
+        <v>5.9079639596057421</v>
       </c>
       <c r="D42" s="7">
-        <v>7.9107505070994177</v>
+        <v>7.9107505070994106</v>
       </c>
       <c r="E42" s="7">
-        <v>2.1294961206093279</v>
+        <v>2.1294961206093195</v>
       </c>
       <c r="F42" s="7">
-        <v>-7.6991233858045147</v>
+        <v>-7.6991233858045049</v>
       </c>
       <c r="G42" s="7">
-        <v>-38.330288150432025</v>
+        <v>-38.330288150432033</v>
       </c>
       <c r="H42" s="7">
-        <v>-6.5291353383458794</v>
+        <v>-6.529135338345875</v>
       </c>
       <c r="I42" s="7">
-        <v>-6.6874759892431852</v>
+        <v>-6.6874759892431781</v>
       </c>
       <c r="J42" s="7">
-        <v>10.359265537877103</v>
+        <v>10.359265537877091</v>
       </c>
       <c r="K42" s="7">
-        <v>76.36447804953319</v>
+        <v>76.364478049533218</v>
       </c>
       <c r="L42" s="7">
-        <v>11.830714005610696</v>
+        <v>11.830714005610689</v>
       </c>
       <c r="M42" s="7">
-        <v>24.463497226139136</v>
+        <v>24.463497226139147</v>
       </c>
       <c r="N42" s="7">
-        <v>0.37847241500562384</v>
+        <v>0.37847241500563017</v>
       </c>
       <c r="O42" s="7">
-        <v>-5.0475532184823306</v>
+        <v>-5.0475532184823262</v>
       </c>
       <c r="P42" s="7">
-        <v>-2.9410442460371113</v>
+        <v>-2.9410442460371033</v>
       </c>
       <c r="Q42" s="7">
-        <v>-10.324581352077725</v>
+        <v>-10.324581352077741</v>
       </c>
       <c r="R42" s="7">
-        <v>2.8236920949527633</v>
+        <v>2.8236920949527655</v>
       </c>
       <c r="S42" s="7">
-        <v>-0.31329475507720611</v>
+        <v>-0.31329475507722471</v>
       </c>
       <c r="T42" s="7">
-        <v>0.6558713454626488</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.65587134546265402</v>
+      </c>
+      <c r="U42" s="7">
+        <v>0.96090003688675407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="7">
-        <v>0.81813007110399893</v>
+        <v>0.81813007110398261</v>
       </c>
       <c r="C43" s="7">
-        <v>-0.73854395867214584</v>
+        <v>-0.7385439586721555</v>
       </c>
       <c r="D43" s="7">
-        <v>0.19070184056172293</v>
+        <v>0.19070184056170159</v>
       </c>
       <c r="E43" s="7">
-        <v>-1.7843558944788143</v>
+        <v>-1.7843558944788089</v>
       </c>
       <c r="F43" s="7">
-        <v>-1.4861386233361016</v>
+        <v>-1.4861386233360996</v>
       </c>
       <c r="G43" s="7">
         <v>-54.061373580832317</v>
       </c>
       <c r="H43" s="7">
-        <v>-19.048305695746226</v>
+        <v>-19.048305695746219</v>
       </c>
       <c r="I43" s="7">
-        <v>-23.837025845994972</v>
+        <v>-23.83702584599498</v>
       </c>
       <c r="J43" s="7">
-        <v>-26.213743127464884</v>
+        <v>-26.21374312746488</v>
       </c>
       <c r="K43" s="7">
-        <v>90.691282911989916</v>
+        <v>90.691282911989958</v>
       </c>
       <c r="L43" s="7">
-        <v>15.222657641610272</v>
+        <v>15.222657641610256</v>
       </c>
       <c r="M43" s="7">
-        <v>30.933309898056535</v>
+        <v>30.933309898056539</v>
       </c>
       <c r="N43" s="7">
-        <v>40.281727224855203</v>
+        <v>40.281727224855196</v>
       </c>
       <c r="O43" s="7">
-        <v>21.41198992221625</v>
+        <v>21.411989922216225</v>
       </c>
       <c r="P43" s="7">
-        <v>16.045718290408018</v>
+        <v>16.045718290408011</v>
       </c>
       <c r="Q43" s="7">
-        <v>8.0380857408597297</v>
+        <v>8.0380857408597226</v>
       </c>
       <c r="R43" s="7">
         <v>11.015597139585941</v>
       </c>
       <c r="S43" s="7">
-        <v>3.8049929772099107</v>
+        <v>3.8049929772099129</v>
       </c>
       <c r="T43" s="7">
-        <v>2.4334357626245522</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.4334357626245646</v>
+      </c>
+      <c r="U43" s="7">
+        <v>2.3927436675719349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="7">
-        <v>3.8014386496086847</v>
+        <v>3.8014386496086714</v>
       </c>
       <c r="C44" s="7">
-        <v>3.2608589341079615</v>
+        <v>3.2608589341079663</v>
       </c>
       <c r="D44" s="7">
-        <v>4.3892715467050998</v>
+        <v>4.3892715467050927</v>
       </c>
       <c r="E44" s="7">
-        <v>2.9153864910997234</v>
+        <v>2.9153864910997158</v>
       </c>
       <c r="F44" s="7">
-        <v>-6.808758066514784</v>
+        <v>-6.8087580665147716</v>
       </c>
       <c r="G44" s="7">
         <v>-52.157193328092291</v>
       </c>
       <c r="H44" s="7">
-        <v>-21.331745221484898</v>
+        <v>-21.331745221484887</v>
       </c>
       <c r="I44" s="7">
-        <v>-25.578596205242896</v>
+        <v>-25.578596205242881</v>
       </c>
       <c r="J44" s="7">
-        <v>-13.86371540208253</v>
+        <v>-13.863715402082541</v>
       </c>
       <c r="K44" s="7">
-        <v>97.455999683237295</v>
+        <v>97.455999683237266</v>
       </c>
       <c r="L44" s="7">
-        <v>24.259793318913736</v>
+        <v>24.259793318913719</v>
       </c>
       <c r="M44" s="7">
         <v>33.241642788920693</v>
       </c>
       <c r="N44" s="7">
-        <v>19.068541300527226</v>
+        <v>19.068541300527244</v>
       </c>
       <c r="O44" s="7">
-        <v>2.837462526444547</v>
+        <v>2.837462526444563</v>
       </c>
       <c r="P44" s="7">
-        <v>-0.49512131439235701</v>
+        <v>-0.49512131439234658</v>
       </c>
       <c r="Q44" s="7">
-        <v>-3.6787475627938981</v>
+        <v>-3.6787475627939079</v>
       </c>
       <c r="R44" s="7">
-        <v>6.6171337389049736</v>
+        <v>6.6171337389049647</v>
       </c>
       <c r="S44" s="7">
-        <v>3.2876071250987198</v>
+        <v>3.2876071250987131</v>
       </c>
       <c r="T44" s="7">
-        <v>3.6677454153182252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.6677454153182349</v>
+      </c>
+      <c r="U44" s="7">
+        <v>5.8553865388622803</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="7">
-        <v>15.821447969262339</v>
+        <v>15.821447969262335</v>
       </c>
       <c r="C45" s="7">
-        <v>11.416492560005503</v>
+        <v>11.416492560005493</v>
       </c>
       <c r="D45" s="7">
-        <v>12.13208268399541</v>
+        <v>12.132082683995417</v>
       </c>
       <c r="E45" s="7">
-        <v>2.4522815186570948</v>
+        <v>2.4522815186570783</v>
       </c>
       <c r="F45" s="7">
-        <v>-7.2495484229540104</v>
+        <v>-7.2495484229540006</v>
       </c>
       <c r="G45" s="7">
         <v>-48.913617635665744</v>
       </c>
       <c r="H45" s="7">
-        <v>-15.735326253223199</v>
+        <v>-15.735326253223198</v>
       </c>
       <c r="I45" s="7">
-        <v>-23.045431234194556</v>
+        <v>-23.04543123419456</v>
       </c>
       <c r="J45" s="7">
-        <v>-10.067038687689591</v>
+        <v>-10.067038687689603</v>
       </c>
       <c r="K45" s="7">
-        <v>95.855449093541083</v>
+        <v>95.855449093541054</v>
       </c>
       <c r="L45" s="7">
-        <v>21.281495389147636</v>
+        <v>21.281495389147615</v>
       </c>
       <c r="M45" s="7">
-        <v>34.523330767197869</v>
+        <v>34.523330767197898</v>
       </c>
       <c r="N45" s="7">
-        <v>17.832007662516141</v>
+        <v>17.832007662516148</v>
       </c>
       <c r="O45" s="7">
-        <v>2.9590588732171277</v>
+        <v>2.9590588732171246</v>
       </c>
       <c r="P45" s="7">
-        <v>0.79798835090960607</v>
+        <v>0.79798835090961151</v>
       </c>
       <c r="Q45" s="7">
-        <v>-3.1884998761498773</v>
+        <v>-3.1884998761498853</v>
       </c>
       <c r="R45" s="7">
-        <v>6.3129528185191797</v>
+        <v>6.3129528185191806</v>
       </c>
       <c r="S45" s="7">
-        <v>0.96569641239510218</v>
+        <v>0.96569641239509973</v>
       </c>
       <c r="T45" s="7">
-        <v>1.4543664935682088</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.4543664935682121</v>
+      </c>
+      <c r="U45" s="7">
+        <v>3.80346555618295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="7">
-        <v>-1.5583577081478726</v>
+        <v>-1.5583577081478759</v>
       </c>
       <c r="C46" s="7">
-        <v>-3.7751274406078608</v>
+        <v>-3.7751274406078732</v>
       </c>
       <c r="D46" s="7">
-        <v>-1.8528938126927852</v>
+        <v>-1.8528938126928121</v>
       </c>
       <c r="E46" s="7">
-        <v>-4.6733945302848783</v>
+        <v>-4.6733945302848792</v>
       </c>
       <c r="F46" s="7">
-        <v>-11.018582927556391</v>
+        <v>-11.0185829275564</v>
       </c>
       <c r="G46" s="7">
-        <v>-37.800989554700394</v>
+        <v>-37.800989554700386</v>
       </c>
       <c r="H46" s="7">
-        <v>-13.845728067054122</v>
+        <v>-13.845728067054111</v>
       </c>
       <c r="I46" s="7">
-        <v>-16.626460385182824</v>
+        <v>-16.626460385182831</v>
       </c>
       <c r="J46" s="7">
-        <v>4.5286011033928206</v>
+        <v>4.5286011033928277</v>
       </c>
       <c r="K46" s="7">
         <v>66.520963568868822</v>
@@ -7298,648 +7588,681 @@
         <v>19.261392317929413</v>
       </c>
       <c r="M46" s="7">
-        <v>25.846216387484017</v>
+        <v>25.846216387484024</v>
       </c>
       <c r="N46" s="7">
-        <v>12.829471030054385</v>
+        <v>12.829471030054387</v>
       </c>
       <c r="O46" s="7">
-        <v>3.1808224201658017</v>
+        <v>3.1808224201658031</v>
       </c>
       <c r="P46" s="7">
-        <v>3.5583388646792273</v>
+        <v>3.558338864679234</v>
       </c>
       <c r="Q46" s="7">
-        <v>1.5932886161095949</v>
+        <v>1.5932886161095918</v>
       </c>
       <c r="R46" s="7">
-        <v>6.0129728706026935</v>
+        <v>6.0129728706027219</v>
       </c>
       <c r="S46" s="7">
-        <v>3.8637447739835582</v>
+        <v>3.8637447739835524</v>
       </c>
       <c r="T46" s="7">
-        <v>3.4119198900159762</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.4119198900159815</v>
+      </c>
+      <c r="U46" s="7">
+        <v>5.5082249300951114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="7">
-        <v>-6.7038021259198741</v>
+        <v>-6.7038021259198715</v>
       </c>
       <c r="C47" s="7">
-        <v>-7.9750010112859409</v>
+        <v>-7.9750010112859488</v>
       </c>
       <c r="D47" s="7">
-        <v>-5.7640819424925418</v>
+        <v>-5.7640819424925525</v>
       </c>
       <c r="E47" s="7">
         <v>-8.3228259985357482</v>
       </c>
       <c r="F47" s="7">
-        <v>-11.162235295406497</v>
+        <v>-11.162235295406498</v>
       </c>
       <c r="G47" s="7">
-        <v>-37.262357414448672</v>
+        <v>-37.262357414448658</v>
       </c>
       <c r="H47" s="7">
         <v>-8.709614212313852</v>
       </c>
       <c r="I47" s="7">
-        <v>-13.018112445790219</v>
+        <v>-13.018112445790207</v>
       </c>
       <c r="J47" s="7">
-        <v>4.165639027277658</v>
+        <v>4.16563902727765</v>
       </c>
       <c r="K47" s="7">
-        <v>63.841303205465053</v>
+        <v>63.841303205465032</v>
       </c>
       <c r="L47" s="7">
-        <v>13.263298474893579</v>
+        <v>13.26329847489359</v>
       </c>
       <c r="M47" s="7">
-        <v>22.903011909923237</v>
+        <v>22.903011909923229</v>
       </c>
       <c r="N47" s="7">
-        <v>29.90174026281521</v>
+        <v>29.901740262815199</v>
       </c>
       <c r="O47" s="7">
-        <v>15.793750066818481</v>
+        <v>15.793750066818502</v>
       </c>
       <c r="P47" s="7">
-        <v>12.665024319373378</v>
+        <v>12.665024319373369</v>
       </c>
       <c r="Q47" s="7">
-        <v>10.378386229936803</v>
+        <v>10.378386229936817</v>
       </c>
       <c r="R47" s="7">
-        <v>-0.85666375036453823</v>
+        <v>-0.8566637503645429</v>
       </c>
       <c r="S47" s="7">
-        <v>-2.8335333764195414</v>
+        <v>-2.8335333764195623</v>
       </c>
       <c r="T47" s="7">
-        <v>-0.89238992300215503</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-0.89238992300215525</v>
+      </c>
+      <c r="U47" s="7">
+        <v>-0.19269452747542615</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="7">
-        <v>7.5206340693066371</v>
+        <v>7.5206340693066345</v>
       </c>
       <c r="C48" s="7">
-        <v>6.2845601788305592</v>
+        <v>6.2845601788305494</v>
       </c>
       <c r="D48" s="7">
-        <v>5.0073282678288864</v>
+        <v>5.0073282678289095</v>
       </c>
       <c r="E48" s="7">
-        <v>1.7457974189247056</v>
+        <v>1.7457974189246954</v>
       </c>
       <c r="F48" s="7">
-        <v>-10.905731836866664</v>
+        <v>-10.905731836866643</v>
       </c>
       <c r="G48" s="7">
         <v>-49.491725550246308</v>
       </c>
       <c r="H48" s="7">
-        <v>-18.153185002892517</v>
+        <v>-18.153185002892531</v>
       </c>
       <c r="I48" s="7">
-        <v>-16.295353278166761</v>
+        <v>-16.295353278166768</v>
       </c>
       <c r="J48" s="7">
-        <v>-1.986542110338098</v>
+        <v>-1.9865421103381111</v>
       </c>
       <c r="K48" s="7">
         <v>92.389597107060652</v>
       </c>
       <c r="L48" s="7">
-        <v>19.426244222052674</v>
+        <v>19.426244222052702</v>
       </c>
       <c r="M48" s="7">
-        <v>26.943636770297474</v>
+        <v>26.943636770297491</v>
       </c>
       <c r="N48" s="7">
-        <v>22.037806903409379</v>
+        <v>22.037806903409383</v>
       </c>
       <c r="O48" s="7">
-        <v>11.974444897997941</v>
+        <v>11.974444897997953</v>
       </c>
       <c r="P48" s="7">
-        <v>10.357266996721368</v>
+        <v>10.357266996721341</v>
       </c>
       <c r="Q48" s="7">
-        <v>3.2542528168579588</v>
+        <v>3.2542528168579605</v>
       </c>
       <c r="R48" s="7">
-        <v>2.4071216822980843</v>
+        <v>2.407121682298079</v>
       </c>
       <c r="S48" s="7">
-        <v>-2.5246916196854561</v>
+        <v>-2.524691619685473</v>
       </c>
       <c r="T48" s="7">
-        <v>-1.2879664941432769</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-1.2879664941432702</v>
+      </c>
+      <c r="U48" s="7">
+        <v>-0.52385949644644803</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="7">
-        <v>3.2993027888445892</v>
+        <v>3.2993027888446029</v>
       </c>
       <c r="C49" s="7">
-        <v>2.1858091175959213</v>
+        <v>2.1858091175959151</v>
       </c>
       <c r="D49" s="7">
-        <v>6.4124747872917753</v>
+        <v>6.4124747872917895</v>
       </c>
       <c r="E49" s="7">
-        <v>0.36135846958732221</v>
+        <v>0.36135846958731199</v>
       </c>
       <c r="F49" s="7">
-        <v>-8.3594471897472911</v>
+        <v>-8.3594471897472946</v>
       </c>
       <c r="G49" s="7">
-        <v>-35.625200192184501</v>
+        <v>-35.625200192184494</v>
       </c>
       <c r="H49" s="7">
-        <v>-17.638455913481906</v>
+        <v>-17.638455913481909</v>
       </c>
       <c r="I49" s="7">
-        <v>-18.737820861565865</v>
+        <v>-18.737820861565854</v>
       </c>
       <c r="J49" s="7">
-        <v>-4.6075777336942689</v>
+        <v>-4.6075777336942609</v>
       </c>
       <c r="K49" s="7">
-        <v>56.674389314757484</v>
+        <v>56.674389314757512</v>
       </c>
       <c r="L49" s="7">
-        <v>21.379672897196269</v>
+        <v>21.379672897196262</v>
       </c>
       <c r="M49" s="7">
-        <v>28.645681176356042</v>
+        <v>28.645681176356025</v>
       </c>
       <c r="N49" s="7">
-        <v>20.243114997070197</v>
+        <v>20.243114997070208</v>
       </c>
       <c r="O49" s="7">
-        <v>6.6324606498481637</v>
+        <v>6.6324606498481442</v>
       </c>
       <c r="P49" s="7">
-        <v>4.2886978951116843</v>
+        <v>4.2886978951117074</v>
       </c>
       <c r="Q49" s="7">
-        <v>2.1649240668022856</v>
+        <v>2.1649240668022873</v>
       </c>
       <c r="R49" s="7">
-        <v>4.5778550680324184</v>
+        <v>4.5778550680324086</v>
       </c>
       <c r="S49" s="7">
-        <v>-0.49979059053469105</v>
+        <v>-0.49979059053468411</v>
       </c>
       <c r="T49" s="7">
-        <v>-0.53711343060437555</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-0.53711343060439043</v>
+      </c>
+      <c r="U49" s="7">
+        <v>-0.21579468941310032</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="7">
-        <v>7.0405270818968839</v>
+        <v>7.0405270818968706</v>
       </c>
       <c r="C50" s="7">
-        <v>6.9812509995390419</v>
+        <v>6.9812509995390348</v>
       </c>
       <c r="D50" s="7">
-        <v>9.7473126306360172</v>
+        <v>9.747312630636003</v>
       </c>
       <c r="E50" s="7">
-        <v>3.6559529198732421</v>
+        <v>3.6559529198732355</v>
       </c>
       <c r="F50" s="7">
-        <v>-9.1209204122530867</v>
+        <v>-9.1209204122530814</v>
       </c>
       <c r="G50" s="7">
-        <v>-35.422968695040446</v>
+        <v>-35.422968695040439</v>
       </c>
       <c r="H50" s="7">
-        <v>-17.267502168109242</v>
+        <v>-17.267502168109232</v>
       </c>
       <c r="I50" s="7">
-        <v>-18.14513311438753</v>
+        <v>-18.145133114387537</v>
       </c>
       <c r="J50" s="7">
-        <v>-0.98246719366809976</v>
+        <v>-0.9824671936681032</v>
       </c>
       <c r="K50" s="7">
-        <v>56.490597382790682</v>
+        <v>56.490597382790675</v>
       </c>
       <c r="L50" s="7">
         <v>21.386362468526787</v>
       </c>
       <c r="M50" s="7">
-        <v>27.567919414388445</v>
+        <v>27.567919414388466</v>
       </c>
       <c r="N50" s="7">
-        <v>17.24645317797242</v>
+        <v>17.246453177972441</v>
       </c>
       <c r="O50" s="7">
-        <v>5.2487774316492786</v>
+        <v>5.2487774316492883</v>
       </c>
       <c r="P50" s="7">
-        <v>2.2825212716420493</v>
+        <v>2.282521271642056</v>
       </c>
       <c r="Q50" s="7">
-        <v>2.7871416741252513</v>
+        <v>2.7871416741252482</v>
       </c>
       <c r="R50" s="7">
-        <v>5.8407529890612979</v>
+        <v>5.8407529890613059</v>
       </c>
       <c r="S50" s="7">
-        <v>2.5836268333416017</v>
+        <v>2.5836268333416093</v>
       </c>
       <c r="T50" s="7">
-        <v>2.8474228340134586</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.8474228340134693</v>
+      </c>
+      <c r="U50" s="7">
+        <v>0.71044343714651192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="7">
-        <v>1.8175812860043536</v>
+        <v>1.8175812860043314</v>
       </c>
       <c r="C51" s="7">
-        <v>-0.22577234145921465</v>
+        <v>-0.2257723414592355</v>
       </c>
       <c r="D51" s="7">
-        <v>2.1181952976064502</v>
+        <v>2.118195297606428</v>
       </c>
       <c r="E51" s="7">
-        <v>2.7404976013362541</v>
+        <v>2.7404976013362652</v>
       </c>
       <c r="F51" s="7">
-        <v>3.6580478961931071</v>
+        <v>3.6580478961931311</v>
       </c>
       <c r="G51" s="7">
-        <v>-56.635731744576844</v>
+        <v>-56.635731744576837</v>
       </c>
       <c r="H51" s="7">
-        <v>-19.74222624502649</v>
+        <v>-19.74222624502648</v>
       </c>
       <c r="I51" s="7">
-        <v>-14.784112820900603</v>
+        <v>-14.78411282090061</v>
       </c>
       <c r="J51" s="7">
-        <v>-17.065829682265019</v>
+        <v>-17.065829682265029</v>
       </c>
       <c r="K51" s="7">
-        <v>131.79136025364397</v>
+        <v>131.79136025364394</v>
       </c>
       <c r="L51" s="7">
-        <v>26.656720275366219</v>
+        <v>26.656720275366226</v>
       </c>
       <c r="M51" s="7">
-        <v>22.820697687316297</v>
+        <v>22.820697687316279</v>
       </c>
       <c r="N51" s="7">
-        <v>21.937116411218277</v>
+        <v>21.937116411218291</v>
       </c>
       <c r="O51" s="7">
-        <v>6.8050344336261981</v>
+        <v>6.8050344336262043</v>
       </c>
       <c r="P51" s="7">
         <v>5.1663049325690595</v>
       </c>
       <c r="Q51" s="7">
-        <v>1.8585916968454623</v>
+        <v>1.8585916968454699</v>
       </c>
       <c r="R51" s="7">
-        <v>5.6521857848892907</v>
+        <v>5.652185784889264</v>
       </c>
       <c r="S51" s="7">
-        <v>-9.0715854819047009E-2</v>
+        <v>-9.071585481903216E-2</v>
       </c>
       <c r="T51" s="7">
-        <v>-0.10848091441473789</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-0.10848091441474979</v>
+      </c>
+      <c r="U51" s="7">
+        <v>0.57719418018032886</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="7">
-        <v>5.6482330176188835</v>
+        <v>5.648233017618919</v>
       </c>
       <c r="C52" s="7">
-        <v>5.2606089957019257</v>
+        <v>5.2606089957019417</v>
       </c>
       <c r="D52" s="7">
-        <v>7.499719665229323</v>
+        <v>7.4997196652293088</v>
       </c>
       <c r="E52" s="7">
-        <v>4.9354427353151991</v>
+        <v>4.9354427353151946</v>
       </c>
       <c r="F52" s="7">
-        <v>-8.452224878537816</v>
+        <v>-8.4522248785378302</v>
       </c>
       <c r="G52" s="7">
-        <v>-45.117322291235332</v>
+        <v>-45.11732229123534</v>
       </c>
       <c r="H52" s="7">
-        <v>-20.549244220228726</v>
+        <v>-20.549244220228719</v>
       </c>
       <c r="I52" s="7">
-        <v>-23.282065888161011</v>
+        <v>-23.282065888160997</v>
       </c>
       <c r="J52" s="7">
-        <v>-10.027588240249345</v>
+        <v>-10.027588240249358</v>
       </c>
       <c r="K52" s="7">
-        <v>69.394669740472949</v>
+        <v>69.394669740472963</v>
       </c>
       <c r="L52" s="7">
-        <v>22.186813711448487</v>
+        <v>22.186813711448497</v>
       </c>
       <c r="M52" s="7">
-        <v>25.933396859182995</v>
+        <v>25.933396859182981</v>
       </c>
       <c r="N52" s="7">
-        <v>17.008602024694234</v>
+        <v>17.008602024694241</v>
       </c>
       <c r="O52" s="7">
-        <v>6.0458594523259528</v>
+        <v>6.0458594523259546</v>
       </c>
       <c r="P52" s="7">
-        <v>4.4933722758940448E-2</v>
+        <v>4.4933722758923433E-2</v>
       </c>
       <c r="Q52" s="7">
-        <v>5.3064473335094994E-2</v>
+        <v>5.3064473335079632E-2</v>
       </c>
       <c r="R52" s="7">
-        <v>6.286383004260947</v>
+        <v>6.286383004260955</v>
       </c>
       <c r="S52" s="7">
-        <v>1.6236291514350012</v>
+        <v>1.6236291514350096</v>
       </c>
       <c r="T52" s="7">
-        <v>0.2226149444927209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.22261494449271602</v>
+      </c>
+      <c r="U52" s="7">
+        <v>0.70125813960343253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="7">
-        <v>-2.9392084211367453</v>
+        <v>-2.9392084211367351</v>
       </c>
       <c r="C53" s="7">
-        <v>-3.5228365027300685</v>
+        <v>-3.5228365027300703</v>
       </c>
       <c r="D53" s="7">
-        <v>-3.3180391689508726</v>
+        <v>-3.318039168950849</v>
       </c>
       <c r="E53" s="7">
         <v>-10.24071693402643</v>
       </c>
       <c r="F53" s="7">
-        <v>-7.1450620459736944</v>
+        <v>-7.1450620459737042</v>
       </c>
       <c r="G53" s="7">
         <v>-46.979190205221968</v>
       </c>
       <c r="H53" s="7">
-        <v>-26.473277110661421</v>
+        <v>-26.473277110661424</v>
       </c>
       <c r="I53" s="7">
-        <v>-32.166097578695002</v>
+        <v>-32.166097578695009</v>
       </c>
       <c r="J53" s="7">
-        <v>-20.619002238425558</v>
+        <v>-20.619002238425551</v>
       </c>
       <c r="K53" s="7">
         <v>71.650523053080207</v>
       </c>
       <c r="L53" s="7">
-        <v>35.302253454225429</v>
+        <v>35.302253454225408</v>
       </c>
       <c r="M53" s="7">
-        <v>46.22246022031824</v>
+        <v>46.222460220318254</v>
       </c>
       <c r="N53" s="7">
-        <v>35.767432121169826</v>
+        <v>35.767432121169811</v>
       </c>
       <c r="O53" s="7">
-        <v>11.573708326749882</v>
+        <v>11.573708326749898</v>
       </c>
       <c r="P53" s="7">
-        <v>2.2137782917561561</v>
+        <v>2.2137782917561535</v>
       </c>
       <c r="Q53" s="7">
-        <v>1.3372257274696435</v>
+        <v>1.3372257274696304</v>
       </c>
       <c r="R53" s="7">
-        <v>7.957267857326447</v>
+        <v>7.9572678573264595</v>
       </c>
       <c r="S53" s="7">
-        <v>3.7648820060488974</v>
+        <v>3.764882006048893</v>
       </c>
       <c r="T53" s="7">
-        <v>3.1760142233715682</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.176014223371578</v>
+      </c>
+      <c r="U53" s="7">
+        <v>6.6980557362492075</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="7">
-        <v>2.0948466771746773E-2</v>
+        <v>2.0948466771748411E-2</v>
       </c>
       <c r="C54" s="7">
-        <v>1.2114114962950937</v>
+        <v>1.2114114962950806</v>
       </c>
       <c r="D54" s="7">
-        <v>1.4155753677769938</v>
+        <v>1.4155753677769851</v>
       </c>
       <c r="E54" s="7">
-        <v>0.6503738646058117</v>
+        <v>0.65037386460578861</v>
       </c>
       <c r="F54" s="7">
-        <v>-8.1282974458196673</v>
+        <v>-8.1282974458196549</v>
       </c>
       <c r="G54" s="7">
-        <v>-42.051507111651937</v>
+        <v>-42.051507111651929</v>
       </c>
       <c r="H54" s="7">
-        <v>-12.732594605895896</v>
+        <v>-12.732594605895882</v>
       </c>
       <c r="I54" s="7">
-        <v>-15.896014279588767</v>
+        <v>-15.896014279588753</v>
       </c>
       <c r="J54" s="7">
-        <v>-2.2438854934485502</v>
+        <v>-2.2438854934485462</v>
       </c>
       <c r="K54" s="7">
-        <v>66.737237082171532</v>
+        <v>66.737237082171504</v>
       </c>
       <c r="L54" s="7">
-        <v>8.6042850297761753</v>
+        <v>8.6042850297761682</v>
       </c>
       <c r="M54" s="7">
-        <v>14.482701382466614</v>
+        <v>14.48270138246661</v>
       </c>
       <c r="N54" s="7">
-        <v>4.4619655746807334</v>
+        <v>4.4619655746807201</v>
       </c>
       <c r="O54" s="7">
-        <v>-3.4096891742626849</v>
+        <v>-3.4096891742626787</v>
       </c>
       <c r="P54" s="7">
-        <v>-2.5557796546073281</v>
+        <v>-2.5557796546073295</v>
       </c>
       <c r="Q54" s="7">
-        <v>-5.3781704071170378</v>
+        <v>-5.3781704071170244</v>
       </c>
       <c r="R54" s="7">
-        <v>1.9220138623123757</v>
+        <v>1.9220138623123824</v>
       </c>
       <c r="S54" s="7">
-        <v>1.4374572503419931</v>
+        <v>1.4374572503419989</v>
       </c>
       <c r="T54" s="7">
-        <v>1.0392074426225963</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.0392074426226019</v>
+      </c>
+      <c r="U54" s="7">
+        <v>2.2218817039534184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="7">
-        <v>5.4188406797715611</v>
+        <v>5.4188406797715754</v>
       </c>
       <c r="C55" s="7">
-        <v>6.4001738855516948</v>
+        <v>6.400173885551717</v>
       </c>
       <c r="D55" s="7">
-        <v>7.8369843893843916</v>
+        <v>7.8369843893843871</v>
       </c>
       <c r="E55" s="7">
-        <v>4.7583527884606225</v>
+        <v>4.75835278846061</v>
       </c>
       <c r="F55" s="7">
-        <v>-3.9782561914652712</v>
+        <v>-3.9782561914652756</v>
       </c>
       <c r="G55" s="7">
-        <v>-45.147361970026182</v>
+        <v>-45.147361970026196</v>
       </c>
       <c r="H55" s="7">
-        <v>-14.060291174796687</v>
+        <v>-14.060291174796681</v>
       </c>
       <c r="I55" s="7">
-        <v>-17.666749891345564</v>
+        <v>-17.666749891345567</v>
       </c>
       <c r="J55" s="7">
-        <v>-4.2473374971986546</v>
+        <v>-4.2473374971986511</v>
       </c>
       <c r="K55" s="7">
-        <v>83.285087942037862</v>
+        <v>83.285087942037819</v>
       </c>
       <c r="L55" s="7">
-        <v>17.248266948654702</v>
+        <v>17.248266948654688</v>
       </c>
       <c r="M55" s="7">
-        <v>29.455501145604025</v>
+        <v>29.455501145604014</v>
       </c>
       <c r="N55" s="7">
-        <v>9.0261524371629331</v>
+        <v>9.0261524371629314</v>
       </c>
       <c r="O55" s="7">
-        <v>0.88850302940740578</v>
+        <v>0.88850302940742132</v>
       </c>
       <c r="P55" s="7">
-        <v>-0.28878827355629871</v>
+        <v>-0.28878827355629755</v>
       </c>
       <c r="Q55" s="7">
-        <v>-6.0505630650170925</v>
+        <v>-6.0505630650170819</v>
       </c>
       <c r="R55" s="7">
-        <v>4.2682471532574153</v>
+        <v>4.2682471532574127</v>
       </c>
       <c r="S55" s="7">
-        <v>8.330739513338814E-2</v>
+        <v>8.3307395133387752E-2</v>
       </c>
       <c r="T55" s="7">
-        <v>1.120125717209377</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.1201257172093773</v>
+      </c>
+      <c r="U55" s="7">
+        <v>2.4711879432624113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="7">
-        <v>-0.24314294245618878</v>
+        <v>-0.24314294245617307</v>
       </c>
       <c r="C56" s="7">
-        <v>-0.9721824221776435</v>
+        <v>-0.97218242217762874</v>
       </c>
       <c r="D56" s="7">
-        <v>1.1709429559477527</v>
+        <v>1.1709429559477482</v>
       </c>
       <c r="E56" s="7">
-        <v>3.7414361173578836</v>
+        <v>3.7414361173578925</v>
       </c>
       <c r="F56" s="7">
-        <v>2.5047036688617221</v>
+        <v>2.5047036688617261</v>
       </c>
       <c r="G56" s="7">
-        <v>-24.832538449172066</v>
+        <v>-24.83253844917208</v>
       </c>
       <c r="H56" s="7">
         <v>-4.589043230719688</v>
       </c>
       <c r="I56" s="7">
-        <v>-4.1045754269928025</v>
+        <v>-4.1045754269928132</v>
       </c>
       <c r="J56" s="7">
-        <v>0.69456756390334229</v>
+        <v>0.69456756390332997</v>
       </c>
       <c r="K56" s="7">
         <v>61.642546517430645</v>
       </c>
       <c r="L56" s="7">
-        <v>21.161007905568738</v>
+        <v>21.161007905568731</v>
       </c>
       <c r="M56" s="7">
-        <v>18.184016570112796</v>
+        <v>18.184016570112824</v>
       </c>
       <c r="N56" s="7">
-        <v>23.235942953610969</v>
+        <v>23.235942953610977</v>
       </c>
       <c r="O56" s="7">
-        <v>-1.1034859925199361</v>
+        <v>-1.1034859925199132</v>
       </c>
       <c r="P56" s="7">
-        <v>0.12312725246478078</v>
+        <v>0.12312725246479317</v>
       </c>
       <c r="Q56" s="7">
-        <v>-2.1991708627653339</v>
+        <v>-2.1991708627653299</v>
       </c>
       <c r="R56" s="7">
         <v>-11.217097522439225</v>
       </c>
       <c r="S56" s="7">
-        <v>-8.252985720274344</v>
+        <v>-8.2529857202743582</v>
       </c>
       <c r="T56" s="7">
-        <v>-8.5750960468205708</v>
+        <v>-8.5750960468205761</v>
+      </c>
+      <c r="U56" s="7">
+        <v>-5.5687958229483261</v>
       </c>
     </row>
   </sheetData>
